--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>id|</t>
   </si>
@@ -294,54 +294,50 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣龙虾尾4罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三香龙虾3.6斤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花啤酒12罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>"prop_web_chip_huafei",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1000，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10000000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5000000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣龙虾尾4罐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三香龙虾3.6斤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪花啤酒12罐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxdh_025_notnew</t>
-  </si>
-  <si>
-    <t>lxdh_025_notnew</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +818,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1344,7 +1340,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1555,7 +1551,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1">
         <v>1200</v>
@@ -1581,7 +1577,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
@@ -1624,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>57</v>
@@ -1650,10 +1646,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="1">
@@ -1674,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -1699,10 +1695,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -1724,14 +1720,14 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H15" s="22">
         <v>12000</v>
@@ -1751,14 +1747,14 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H16" s="22">
         <v>6000</v>
@@ -1778,14 +1774,14 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H17" s="22">
         <v>2300</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>id|</t>
   </si>
@@ -323,21 +323,22 @@
   </si>
   <si>
     <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>lxdh_025_notnew</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1337,10 +1338,10 @@
   <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1619,11 +1620,8 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>57</v>
@@ -1646,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>60</v>
@@ -1670,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>61</v>
@@ -1695,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>62</v>
@@ -1719,15 +1717,12 @@
       <c r="C15" s="20">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="22">
         <v>12000</v>
@@ -1746,15 +1741,12 @@
       <c r="C16" s="20">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" s="20"/>
       <c r="F16" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="22">
         <v>6000</v>
@@ -1772,9 +1764,6 @@
       </c>
       <c r="C17" s="20">
         <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="22" t="s">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>id|</t>
   </si>
@@ -339,6 +339,10 @@
   </si>
   <si>
     <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在龙虾兑换活动中获得了%s，请在活动结束后7个工作日内请关注公众号《畅游新世界》联系%s领取奖励，否则视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1206,15 +1210,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="111.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1269,7 +1273,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -1337,11 +1341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>id|</t>
   </si>
@@ -613,6 +613,30 @@
   </si>
   <si>
     <t>actp_gqkl_031_aster_exchange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1713,7 +1737,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2241,8 +2265,12 @@
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="H21" s="20" t="s">
         <v>98</v>
       </c>
@@ -2259,8 +2287,12 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="H22" s="20" t="s">
         <v>99</v>
       </c>
@@ -2280,8 +2312,12 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="H23" s="20" t="s">
         <v>100</v>
       </c>
@@ -2301,8 +2337,12 @@
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="H24" s="20" t="s">
         <v>101</v>
       </c>
@@ -2324,8 +2364,12 @@
         <v>103</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="H25" s="20" t="s">
         <v>102</v>
       </c>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -560,10 +560,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>五星换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>恭喜您在五星换好礼活动中获得了%s，请在活动结束后7个工作日内请关注公众号《畅游新世界》联系%s领取奖励，否则视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -637,6 +633,10 @@
   </si>
   <si>
     <t>1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆狂欢</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1593,8 +1593,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1667,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1733,7 +1733,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2189,15 +2189,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2214,15 +2214,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -2239,15 +2239,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2266,13 +2266,13 @@
       <c r="D21" s="16"/>
       <c r="E21" s="20"/>
       <c r="F21" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>105</v>
-      </c>
       <c r="H21" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2288,13 +2288,13 @@
       <c r="D22" s="16"/>
       <c r="E22" s="20"/>
       <c r="F22" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -2313,13 +2313,13 @@
       <c r="D23" s="16"/>
       <c r="E23" s="20"/>
       <c r="F23" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -2338,13 +2338,13 @@
       <c r="D24" s="16"/>
       <c r="E24" s="20"/>
       <c r="F24" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2361,17 +2361,17 @@
         <v>8</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -560,10 +560,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在五星换好礼活动中获得了%s，请在活动结束后7个工作日内请关注公众号《畅游新世界》联系%s领取奖励，否则视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>双肩背包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -637,6 +633,10 @@
   </si>
   <si>
     <t>国庆狂欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在五星换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《畅游新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1667,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2189,15 +2189,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2214,15 +2214,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -2239,15 +2239,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2266,13 +2266,13 @@
       <c r="D21" s="16"/>
       <c r="E21" s="20"/>
       <c r="F21" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="H21" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2288,13 +2288,13 @@
       <c r="D22" s="16"/>
       <c r="E22" s="20"/>
       <c r="F22" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -2313,13 +2313,13 @@
       <c r="D23" s="16"/>
       <c r="E23" s="20"/>
       <c r="F23" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -2338,13 +2338,13 @@
       <c r="D24" s="16"/>
       <c r="E24" s="20"/>
       <c r="F24" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2361,17 +2361,17 @@
         <v>8</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -652,10 +652,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《畅游新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>金龙鱼大豆油4L</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -756,6 +752,10 @@
   </si>
   <si>
     <t>1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1258,7 +1258,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1751,8 +1751,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1839,7 +1839,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2555,12 +2555,12 @@
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" s="25">
         <v>1</v>
@@ -2578,12 +2578,12 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" s="25">
         <v>1</v>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J28" s="25">
         <v>1</v>
@@ -2628,10 +2628,10 @@
         <v>42</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="25" customFormat="1">
@@ -2650,10 +2650,10 @@
         <v>42</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J30" s="25">
         <v>3</v>
@@ -2675,10 +2675,10 @@
         <v>42</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J31" s="25">
         <v>2</v>
@@ -2700,10 +2700,10 @@
         <v>42</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" s="25">
         <v>1</v>
@@ -2725,10 +2725,10 @@
         <v>42</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J33" s="25">
         <v>1</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>id|</t>
   </si>
@@ -681,23 +681,6 @@
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>6</t>
     </r>
     <r>
@@ -757,6 +740,37 @@
   <si>
     <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
   </si>
 </sst>
 </file>
@@ -837,7 +851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +867,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,6 +997,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,8 +1291,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1484,16 +1517,36 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:16" ht="16.5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1606176000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1606751999</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="24">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
@@ -1751,8 +1804,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1839,7 +1892,18 @@
         <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1899,11 +1963,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2553,7 +2617,9 @@
       <c r="C26" s="26">
         <v>1</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E26" s="26" t="s">
         <v>113</v>
       </c>
@@ -2576,7 +2642,9 @@
       <c r="C27" s="26">
         <v>2</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E27" s="26" t="s">
         <v>114</v>
       </c>
@@ -2599,7 +2667,9 @@
       <c r="C28" s="26">
         <v>3</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E28" s="26" t="s">
         <v>115</v>
       </c>
@@ -2622,13 +2692,15 @@
       <c r="C29" s="26">
         <v>4</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>119</v>
@@ -2644,16 +2716,18 @@
       <c r="C30" s="26">
         <v>5</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J30" s="25">
         <v>3</v>
@@ -2669,16 +2743,18 @@
       <c r="C31" s="26">
         <v>6</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J31" s="25">
         <v>2</v>
@@ -2694,16 +2770,18 @@
       <c r="C32" s="26">
         <v>7</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J32" s="25">
         <v>1</v>
@@ -2719,100 +2797,229 @@
       <c r="C33" s="26">
         <v>8</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J33" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="16"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="16"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="16"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="20"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="16"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="16"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="20"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="16"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="20"/>
+    <row r="34" spans="1:10" s="30" customFormat="1">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31">
+        <v>6</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="30" customFormat="1">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31">
+        <v>6</v>
+      </c>
+      <c r="C35" s="31">
+        <v>2</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="30" customFormat="1">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="B36" s="31">
+        <v>6</v>
+      </c>
+      <c r="C36" s="31">
+        <v>3</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="30" customFormat="1">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31">
+        <v>6</v>
+      </c>
+      <c r="C37" s="31">
+        <v>4</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="30" customFormat="1">
+      <c r="A38" s="25">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31">
+        <v>6</v>
+      </c>
+      <c r="C38" s="31">
+        <v>5</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="30" customFormat="1">
+      <c r="A39" s="25">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31">
+        <v>6</v>
+      </c>
+      <c r="C39" s="31">
+        <v>6</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="30" customFormat="1">
+      <c r="A40" s="25">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31">
+        <v>6</v>
+      </c>
+      <c r="C40" s="31">
+        <v>7</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="30" customFormat="1">
+      <c r="A41" s="25">
+        <v>40</v>
+      </c>
+      <c r="B41" s="31">
+        <v>6</v>
+      </c>
+      <c r="C41" s="31">
+        <v>8</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="16"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -652,10 +652,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金龙鱼大豆油4L</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>仓鼠抱枕</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -771,6 +767,10 @@
   </si>
   <si>
     <t>actp_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -1892,7 +1892,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1903,7 +1903,7 @@
         <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1964,10 +1964,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2618,15 +2618,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="25">
         <v>1</v>
@@ -2643,15 +2643,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" s="25">
         <v>1</v>
@@ -2668,15 +2668,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J28" s="25">
         <v>1</v>
@@ -2693,17 +2693,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="25" customFormat="1">
@@ -2717,17 +2717,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="25">
         <v>3</v>
@@ -2744,17 +2744,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J31" s="25">
         <v>2</v>
@@ -2771,17 +2771,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J32" s="25">
         <v>1</v>
@@ -2798,17 +2798,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J33" s="25">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>113</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -2850,10 +2850,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -2875,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="33" t="s">
@@ -2924,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="33" t="s">
@@ -2934,7 +2934,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="30">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="33" t="s">
@@ -2961,7 +2961,7 @@
         <v>63</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J39" s="30">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="33" t="s">
@@ -2988,7 +2988,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="30">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="33" t="s">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -734,15 +734,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>火鸡换好礼-cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -770,6 +762,14 @@
   </si>
   <si>
     <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换豪礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换豪礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -1804,8 +1804,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1892,7 +1892,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1903,7 +1903,7 @@
         <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1963,7 +1963,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2618,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -2643,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>113</v>
@@ -2668,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>114</v>
@@ -2693,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28" t="s">
@@ -2717,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
@@ -2727,7 +2727,7 @@
         <v>123</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J30" s="25">
         <v>3</v>
@@ -2744,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
@@ -2771,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
@@ -2798,7 +2798,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
@@ -2825,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>113</v>
@@ -2875,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>114</v>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="33" t="s">
@@ -2924,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="33" t="s">
@@ -2934,7 +2934,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J38" s="30">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="33" t="s">
@@ -2978,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="33" t="s">
@@ -3005,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="33" t="s">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -648,10 +648,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>仓鼠抱枕</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -770,6 +766,10 @@
   </si>
   <si>
     <t>恭喜您在火鸡换豪礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换豪礼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -1805,7 +1805,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1889,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1900,10 +1900,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2618,15 +2618,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="25">
         <v>1</v>
@@ -2643,15 +2643,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="25">
         <v>1</v>
@@ -2668,15 +2668,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="25">
         <v>1</v>
@@ -2693,17 +2693,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="25" customFormat="1">
@@ -2717,17 +2717,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="25">
         <v>3</v>
@@ -2744,17 +2744,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" s="25">
         <v>2</v>
@@ -2771,17 +2771,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="25">
         <v>1</v>
@@ -2798,17 +2798,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" s="25">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="31" t="s">
         <v>130</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>131</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -2850,10 +2850,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -2875,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="33" t="s">
@@ -2924,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="33" t="s">
@@ -2934,7 +2934,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J38" s="30">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="33" t="s">
@@ -2961,7 +2961,7 @@
         <v>63</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J39" s="30">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="33" t="s">
@@ -2988,7 +2988,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="30">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="33" t="s">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
   <si>
     <t>id|</t>
   </si>
@@ -774,18 +774,6 @@
   </si>
   <si>
     <t>双十二换好礼-cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在双十二换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在双十二换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -862,6 +850,22 @@
   </si>
   <si>
     <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二狂欢节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二狂欢节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1705,7 +1709,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H8" s="35">
         <v>1</v>
@@ -1738,7 +1742,7 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H9" s="35">
         <v>1</v>
@@ -1981,8 +1985,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2088,10 +2092,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2099,10 +2103,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2157,11 +2161,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2815,7 +2819,7 @@
         <v>131</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -3022,7 +3026,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -3229,7 +3233,7 @@
         <v>131</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F42" s="46"/>
       <c r="G42" s="46"/>
@@ -3254,7 +3258,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
@@ -3279,7 +3283,7 @@
         <v>131</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
@@ -3436,7 +3440,7 @@
         <v>132</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -3461,7 +3465,7 @@
         <v>132</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -3486,7 +3490,7 @@
         <v>132</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="155">
   <si>
     <t>id|</t>
   </si>
@@ -853,6 +853,29 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>冬至换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",</t>
+  </si>
+  <si>
+    <t>澳洲进口奶粉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰清香大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>双十二狂欢节</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -861,11 +884,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐冬至</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +1016,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,9 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,6 +1198,44 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1434,8 +1516,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1523,11 +1605,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="1">
@@ -1559,9 +1641,9 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="L3" s="18"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1">
@@ -1593,8 +1675,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
@@ -1620,7 +1702,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1651,14 +1733,14 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>5</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="1">
@@ -1684,108 +1766,146 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>6</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A8" s="35">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="35">
-        <v>1</v>
-      </c>
-      <c r="I8" s="35">
+      <c r="H8" s="34">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34">
         <v>7</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>7</v>
       </c>
-      <c r="K8" s="38">
-        <v>1</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A9" s="35">
+      <c r="K8" s="37">
+        <v>1</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="35">
-        <v>1</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="H9" s="34">
+        <v>1</v>
+      </c>
+      <c r="I9" s="34">
         <v>8</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>8</v>
       </c>
-      <c r="K9" s="38">
-        <v>1</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="K9" s="37">
+        <v>1</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:16" s="51" customFormat="1" ht="16.5">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="47">
+        <v>1607990400</v>
+      </c>
+      <c r="D10" s="47">
+        <v>1608566399</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
+        <v>9</v>
+      </c>
+      <c r="J10" s="50">
+        <v>9</v>
+      </c>
+      <c r="K10" s="51">
+        <v>1</v>
+      </c>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+    </row>
+    <row r="11" spans="1:16" s="51" customFormat="1" ht="16.5">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="47">
+        <v>1607990400</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1608566399</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="47">
+        <v>1</v>
+      </c>
+      <c r="I11" s="47">
+        <v>10</v>
+      </c>
+      <c r="J11" s="50">
+        <v>10</v>
+      </c>
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="1"/>
@@ -1797,8 +1917,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="1"/>
@@ -1810,53 +1930,59 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" customFormat="1"/>
-    <row r="18" spans="1:16" customFormat="1"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" customFormat="1">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" customFormat="1">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+    </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1864,7 +1990,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1872,61 +1998,61 @@
     </row>
     <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="16.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="16.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1934,7 +2060,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1958,7 +2084,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1966,7 +2092,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1986,7 +2112,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2092,10 +2218,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2103,56 +2229,65 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="47" customFormat="1">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="47" customFormat="1">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2162,10 +2297,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2199,10 +2334,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2312,7 +2447,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2332,7 +2467,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2355,7 +2490,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2476,7 +2611,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2488,21 +2623,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2513,21 +2648,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>3</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2538,20 +2673,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>3</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>5</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2562,20 +2697,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2586,20 +2721,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>3</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>7</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2610,21 +2745,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>4</v>
       </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2635,21 +2770,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>4</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -2660,21 +2795,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>4</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>3</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -2685,21 +2820,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>4</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>4</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2707,21 +2842,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>4</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>5</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -2732,21 +2867,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>4</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>6</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="19" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -2757,21 +2892,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>4</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>7</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="19" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -2782,2132 +2917,2386 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>8</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="19" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1">
-      <c r="A26" s="25">
+    <row r="26" spans="1:10" s="24" customFormat="1">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>5</v>
       </c>
-      <c r="C26" s="26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="26" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="25" customFormat="1">
-      <c r="A27" s="25">
+      <c r="J26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="24" customFormat="1">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>5</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>2</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="25" customFormat="1">
-      <c r="A28" s="25">
+      <c r="J27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="24" customFormat="1">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>5</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>3</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="25" customFormat="1">
-      <c r="A29" s="25">
+      <c r="J28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="24" customFormat="1">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>5</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>4</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="28" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1">
-      <c r="A30" s="25">
+    <row r="30" spans="1:10" s="24" customFormat="1">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>5</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>5</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="28" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="25" customFormat="1">
-      <c r="A31" s="25">
+    <row r="31" spans="1:10" s="24" customFormat="1">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>5</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>6</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="28" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1">
-      <c r="A32" s="25">
+    <row r="32" spans="1:10" s="24" customFormat="1">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>5</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>7</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="25" customFormat="1">
-      <c r="A33" s="25">
+      <c r="J32" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="24" customFormat="1">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>5</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>8</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="28" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="30" customFormat="1">
-      <c r="A34" s="25">
+      <c r="J33" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="29" customFormat="1">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>6</v>
       </c>
-      <c r="C34" s="31">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="30">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="31" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="30" customFormat="1">
-      <c r="A35" s="25">
+      <c r="J34" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="29" customFormat="1">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="30">
         <v>6</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="31" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="30" customFormat="1">
-      <c r="A36" s="25">
+      <c r="J35" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="29" customFormat="1">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="30">
         <v>6</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>3</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="31" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="30" customFormat="1">
-      <c r="A37" s="25">
+      <c r="J36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="29" customFormat="1">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="30">
         <v>6</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>4</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="30" customFormat="1">
-      <c r="A38" s="25">
+    <row r="38" spans="1:10" s="29" customFormat="1">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>6</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <v>5</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="30" customFormat="1">
-      <c r="A39" s="25">
+    <row r="39" spans="1:10" s="29" customFormat="1">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <v>6</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>6</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="30" customFormat="1">
-      <c r="A40" s="25">
+    <row r="40" spans="1:10" s="29" customFormat="1">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>6</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <v>7</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="30" customFormat="1">
-      <c r="A41" s="25">
+      <c r="J40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="29" customFormat="1">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="30">
         <v>6</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>8</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="43" customFormat="1">
-      <c r="A42" s="43">
+      <c r="J41" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="42" customFormat="1">
+      <c r="A42" s="42">
         <v>41</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="43">
         <v>7</v>
       </c>
-      <c r="C42" s="44">
-        <v>1</v>
-      </c>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="43">
+        <v>1</v>
+      </c>
+      <c r="D42" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="44" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="43" customFormat="1">
-      <c r="A43" s="43">
+      <c r="J42" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="42" customFormat="1">
+      <c r="A43" s="42">
         <v>42</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <v>7</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="43">
         <v>2</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="44" t="s">
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="43" customFormat="1">
-      <c r="A44" s="43">
+      <c r="J43" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="42" customFormat="1">
+      <c r="A44" s="42">
         <v>43</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="43">
         <v>7</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="43">
         <v>3</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="44" t="s">
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="43" customFormat="1">
-      <c r="A45" s="43">
+      <c r="J44" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="42" customFormat="1">
+      <c r="A45" s="42">
         <v>44</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <v>7</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="43">
         <v>4</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="46" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="43" customFormat="1">
-      <c r="A46" s="43">
+    <row r="46" spans="1:10" s="42" customFormat="1">
+      <c r="A46" s="42">
         <v>45</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <v>7</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="43">
         <v>5</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="46" t="s">
+      <c r="E46" s="43"/>
+      <c r="F46" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="47" t="s">
+      <c r="H46" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="43" customFormat="1">
-      <c r="A47" s="43">
+    <row r="47" spans="1:10" s="42" customFormat="1">
+      <c r="A47" s="42">
         <v>46</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <v>7</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="43">
         <v>6</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="46" t="s">
+      <c r="E47" s="43"/>
+      <c r="F47" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="43" customFormat="1">
-      <c r="A48" s="43">
+    <row r="48" spans="1:10" s="42" customFormat="1">
+      <c r="A48" s="42">
         <v>47</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <v>7</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="43">
         <v>7</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="43"/>
+      <c r="F48" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="47" t="s">
+      <c r="H48" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="43" customFormat="1">
-      <c r="A49" s="43">
+      <c r="J48" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="42" customFormat="1">
+      <c r="A49" s="42">
         <v>48</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <v>7</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="43">
         <v>8</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="46" t="s">
+      <c r="E49" s="43"/>
+      <c r="F49" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="35" customFormat="1">
-      <c r="A50" s="35">
+      <c r="J49" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="34" customFormat="1">
+      <c r="A50" s="34">
         <v>49</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="39">
         <v>8</v>
       </c>
-      <c r="C50" s="40">
-        <v>1</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="39">
+        <v>1</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="40" t="s">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="35" customFormat="1">
-      <c r="A51" s="35">
+      <c r="J50" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="34" customFormat="1">
+      <c r="A51" s="34">
         <v>50</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="39">
         <v>8</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>2</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="40" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="35" customFormat="1">
-      <c r="A52" s="35">
+      <c r="J51" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="34" customFormat="1">
+      <c r="A52" s="34">
         <v>51</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="39">
         <v>8</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <v>3</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="40" t="s">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="35" customFormat="1">
-      <c r="A53" s="35">
+      <c r="J52" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="34" customFormat="1">
+      <c r="A53" s="34">
         <v>52</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="39">
         <v>8</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>4</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="42" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="35" customFormat="1">
-      <c r="A54" s="35">
+    <row r="54" spans="1:10" s="34" customFormat="1">
+      <c r="A54" s="34">
         <v>53</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="39">
         <v>8</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <v>5</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="42" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="35" customFormat="1">
-      <c r="A55" s="35">
+    <row r="55" spans="1:10" s="34" customFormat="1">
+      <c r="A55" s="34">
         <v>54</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="39">
         <v>8</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="39">
         <v>6</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="42" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="35">
+      <c r="J55" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="35" customFormat="1">
-      <c r="A56" s="35">
+    <row r="56" spans="1:10" s="34" customFormat="1">
+      <c r="A56" s="34">
         <v>55</v>
       </c>
-      <c r="B56" s="40">
+      <c r="B56" s="39">
         <v>8</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <v>7</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="42" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="35" customFormat="1">
-      <c r="A57" s="35">
+      <c r="J56" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="34" customFormat="1">
+      <c r="A57" s="34">
         <v>56</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="39">
         <v>8</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>8</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="42" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="16"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="16"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="16"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="16"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="16"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="20"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="16"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="16"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="20"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="16"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="20"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="16"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="20"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="16"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="20"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="16"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="20"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="16"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="20"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="16"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="20"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="16"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="20"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="16"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="16"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="16"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="20"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="16"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="20"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="16"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="20"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="16"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="20"/>
+      <c r="J57" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="47" customFormat="1">
+      <c r="A58" s="47">
+        <v>57</v>
+      </c>
+      <c r="B58" s="55">
+        <v>9</v>
+      </c>
+      <c r="C58" s="55">
+        <v>1</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="47" customFormat="1">
+      <c r="A59" s="47">
+        <v>58</v>
+      </c>
+      <c r="B59" s="55">
+        <v>9</v>
+      </c>
+      <c r="C59" s="55">
+        <v>2</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="47" customFormat="1">
+      <c r="A60" s="47">
+        <v>59</v>
+      </c>
+      <c r="B60" s="55">
+        <v>9</v>
+      </c>
+      <c r="C60" s="55">
+        <v>3</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="47" customFormat="1">
+      <c r="A61" s="47">
+        <v>60</v>
+      </c>
+      <c r="B61" s="55">
+        <v>9</v>
+      </c>
+      <c r="C61" s="55">
+        <v>4</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="55"/>
+      <c r="F61" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="47" customFormat="1">
+      <c r="A62" s="47">
+        <v>61</v>
+      </c>
+      <c r="B62" s="55">
+        <v>9</v>
+      </c>
+      <c r="C62" s="55">
+        <v>5</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="55"/>
+      <c r="F62" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="47" customFormat="1">
+      <c r="A63" s="47">
+        <v>62</v>
+      </c>
+      <c r="B63" s="55">
+        <v>9</v>
+      </c>
+      <c r="C63" s="55">
+        <v>6</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="55"/>
+      <c r="F63" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="47" customFormat="1">
+      <c r="A64" s="47">
+        <v>63</v>
+      </c>
+      <c r="B64" s="55">
+        <v>9</v>
+      </c>
+      <c r="C64" s="55">
+        <v>7</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="47" customFormat="1">
+      <c r="A65" s="47">
+        <v>64</v>
+      </c>
+      <c r="B65" s="55">
+        <v>9</v>
+      </c>
+      <c r="C65" s="55">
+        <v>8</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="55"/>
+      <c r="F65" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="53" customFormat="1">
+      <c r="A66" s="53">
+        <v>65</v>
+      </c>
+      <c r="B66" s="58">
+        <v>10</v>
+      </c>
+      <c r="C66" s="58">
+        <v>1</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="53" customFormat="1">
+      <c r="A67" s="53">
+        <v>66</v>
+      </c>
+      <c r="B67" s="58">
+        <v>10</v>
+      </c>
+      <c r="C67" s="58">
+        <v>2</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="53" customFormat="1">
+      <c r="A68" s="53">
+        <v>67</v>
+      </c>
+      <c r="B68" s="58">
+        <v>10</v>
+      </c>
+      <c r="C68" s="58">
+        <v>3</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="53" customFormat="1">
+      <c r="A69" s="53">
+        <v>68</v>
+      </c>
+      <c r="B69" s="58">
+        <v>10</v>
+      </c>
+      <c r="C69" s="58">
+        <v>4</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="58"/>
+      <c r="F69" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="53" customFormat="1">
+      <c r="A70" s="53">
+        <v>69</v>
+      </c>
+      <c r="B70" s="58">
+        <v>10</v>
+      </c>
+      <c r="C70" s="58">
+        <v>5</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="58"/>
+      <c r="F70" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="53" customFormat="1">
+      <c r="A71" s="53">
+        <v>70</v>
+      </c>
+      <c r="B71" s="58">
+        <v>10</v>
+      </c>
+      <c r="C71" s="58">
+        <v>6</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="58"/>
+      <c r="F71" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="J71" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="53" customFormat="1">
+      <c r="A72" s="53">
+        <v>71</v>
+      </c>
+      <c r="B72" s="58">
+        <v>10</v>
+      </c>
+      <c r="C72" s="58">
+        <v>7</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="58"/>
+      <c r="F72" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="J72" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="53" customFormat="1">
+      <c r="A73" s="53">
+        <v>72</v>
+      </c>
+      <c r="B73" s="58">
+        <v>10</v>
+      </c>
+      <c r="C73" s="58">
+        <v>8</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="58"/>
+      <c r="F73" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="J73" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="19"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="19"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="15"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="19"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="19"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="16"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="20"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="16"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="20"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="16"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="20"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="16"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="20"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="16"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="19"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="16"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="20"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="16"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="20"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="16"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="20"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="16"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="20"/>
-    </row>
-    <row r="90" spans="1:8" s="9" customFormat="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="20"/>
-    </row>
-    <row r="91" spans="1:8" s="9" customFormat="1">
-      <c r="A91" s="16"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="20"/>
-    </row>
-    <row r="92" spans="1:8" s="9" customFormat="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="20"/>
-    </row>
-    <row r="93" spans="1:8" s="9" customFormat="1">
-      <c r="A93" s="16"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="20"/>
-    </row>
-    <row r="94" spans="1:8" s="9" customFormat="1">
-      <c r="A94" s="16"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="1:8" s="9" customFormat="1">
-      <c r="A95" s="16"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="20"/>
-    </row>
-    <row r="96" spans="1:8" s="9" customFormat="1">
-      <c r="A96" s="16"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="20"/>
-    </row>
-    <row r="97" spans="1:8" s="9" customFormat="1">
-      <c r="A97" s="16"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="20"/>
-    </row>
-    <row r="98" spans="1:8" s="9" customFormat="1">
-      <c r="A98" s="16"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="20"/>
-    </row>
-    <row r="99" spans="1:8" s="9" customFormat="1">
-      <c r="A99" s="16"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="20"/>
-    </row>
-    <row r="100" spans="1:8" s="9" customFormat="1">
-      <c r="A100" s="16"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="20"/>
-    </row>
-    <row r="101" spans="1:8" s="9" customFormat="1">
-      <c r="A101" s="16"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="20"/>
-    </row>
-    <row r="102" spans="1:8" s="9" customFormat="1">
-      <c r="A102" s="16"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="20"/>
-    </row>
-    <row r="103" spans="1:8" s="9" customFormat="1">
-      <c r="A103" s="16"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="20"/>
-    </row>
-    <row r="104" spans="1:8" s="9" customFormat="1">
-      <c r="A104" s="16"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="20"/>
-    </row>
-    <row r="105" spans="1:8" s="9" customFormat="1">
-      <c r="A105" s="16"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="20"/>
-    </row>
-    <row r="106" spans="1:8" s="9" customFormat="1">
-      <c r="A106" s="16"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="20"/>
-    </row>
-    <row r="107" spans="1:8" s="9" customFormat="1">
-      <c r="A107" s="16"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="20"/>
-    </row>
-    <row r="108" spans="1:8" s="9" customFormat="1">
-      <c r="A108" s="16"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="20"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="1:8" s="8" customFormat="1">
+      <c r="A90" s="15"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="91" spans="1:8" s="8" customFormat="1">
+      <c r="A91" s="15"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="19"/>
+    </row>
+    <row r="92" spans="1:8" s="8" customFormat="1">
+      <c r="A92" s="15"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="19"/>
+    </row>
+    <row r="93" spans="1:8" s="8" customFormat="1">
+      <c r="A93" s="15"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="19"/>
+    </row>
+    <row r="94" spans="1:8" s="8" customFormat="1">
+      <c r="A94" s="15"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="19"/>
+    </row>
+    <row r="95" spans="1:8" s="8" customFormat="1">
+      <c r="A95" s="15"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="19"/>
+    </row>
+    <row r="96" spans="1:8" s="8" customFormat="1">
+      <c r="A96" s="15"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="19"/>
+    </row>
+    <row r="97" spans="1:8" s="8" customFormat="1">
+      <c r="A97" s="15"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" spans="1:8" s="8" customFormat="1">
+      <c r="A98" s="15"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" spans="1:8" s="8" customFormat="1">
+      <c r="A99" s="15"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="1:8" s="8" customFormat="1">
+      <c r="A100" s="15"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="19"/>
+    </row>
+    <row r="101" spans="1:8" s="8" customFormat="1">
+      <c r="A101" s="15"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="19"/>
+    </row>
+    <row r="102" spans="1:8" s="8" customFormat="1">
+      <c r="A102" s="15"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="19"/>
+    </row>
+    <row r="103" spans="1:8" s="8" customFormat="1">
+      <c r="A103" s="15"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="19"/>
+    </row>
+    <row r="104" spans="1:8" s="8" customFormat="1">
+      <c r="A104" s="15"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="1:8" s="8" customFormat="1">
+      <c r="A105" s="15"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" spans="1:8" s="8" customFormat="1">
+      <c r="A106" s="15"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" spans="1:8" s="8" customFormat="1">
+      <c r="A107" s="15"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="19"/>
+    </row>
+    <row r="108" spans="1:8" s="8" customFormat="1">
+      <c r="A108" s="15"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="19"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="16"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="20"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="19"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="16"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="20"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="19"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="16"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="20"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="16"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="20"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="16"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="20"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="19"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="16"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="20"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="16"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="20"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="19"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="16"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="20"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="19"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="16"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="20"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="19"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="16"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="20"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="19"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="16"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="20"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="19"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="16"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="1:8" s="9" customFormat="1">
-      <c r="A121" s="16"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="20"/>
-    </row>
-    <row r="122" spans="1:8" s="9" customFormat="1">
-      <c r="A122" s="16"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:8" s="9" customFormat="1">
-      <c r="A123" s="16"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="20"/>
-    </row>
-    <row r="124" spans="1:8" s="9" customFormat="1">
-      <c r="A124" s="16"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="20"/>
-    </row>
-    <row r="125" spans="1:8" s="9" customFormat="1">
-      <c r="A125" s="16"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="20"/>
-    </row>
-    <row r="126" spans="1:8" s="9" customFormat="1">
-      <c r="A126" s="16"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="20"/>
-    </row>
-    <row r="127" spans="1:8" s="9" customFormat="1">
-      <c r="A127" s="16"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="20"/>
-    </row>
-    <row r="128" spans="1:8" s="9" customFormat="1">
-      <c r="A128" s="16"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="20"/>
-    </row>
-    <row r="129" spans="1:8" s="9" customFormat="1">
-      <c r="A129" s="16"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="20"/>
-    </row>
-    <row r="130" spans="1:8" s="9" customFormat="1">
-      <c r="A130" s="16"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="20"/>
-    </row>
-    <row r="131" spans="1:8" s="9" customFormat="1">
-      <c r="A131" s="16"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="20"/>
-    </row>
-    <row r="132" spans="1:8" s="9" customFormat="1">
-      <c r="A132" s="16"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="20"/>
-    </row>
-    <row r="133" spans="1:8" s="9" customFormat="1">
-      <c r="A133" s="16"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="20"/>
-    </row>
-    <row r="134" spans="1:8" s="9" customFormat="1">
-      <c r="A134" s="16"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="20"/>
-    </row>
-    <row r="135" spans="1:8" s="9" customFormat="1">
-      <c r="A135" s="16"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="20"/>
-    </row>
-    <row r="136" spans="1:8" s="9" customFormat="1">
-      <c r="A136" s="16"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="20"/>
-    </row>
-    <row r="137" spans="1:8" s="9" customFormat="1">
-      <c r="A137" s="16"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="20"/>
-    </row>
-    <row r="138" spans="1:8" s="9" customFormat="1">
-      <c r="A138" s="16"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="20"/>
-    </row>
-    <row r="139" spans="1:8" s="9" customFormat="1">
-      <c r="A139" s="16"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="20"/>
-    </row>
-    <row r="140" spans="1:8" s="9" customFormat="1">
-      <c r="A140" s="16"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="20"/>
-    </row>
-    <row r="141" spans="1:8" s="9" customFormat="1">
-      <c r="A141" s="16"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="20"/>
-    </row>
-    <row r="142" spans="1:8" s="9" customFormat="1">
-      <c r="A142" s="16"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="20"/>
-    </row>
-    <row r="143" spans="1:8" s="9" customFormat="1">
-      <c r="A143" s="16"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="20"/>
-    </row>
-    <row r="144" spans="1:8" s="9" customFormat="1">
-      <c r="A144" s="16"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="20"/>
-    </row>
-    <row r="145" spans="1:12" s="9" customFormat="1">
-      <c r="A145" s="16"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="20"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="19"/>
+    </row>
+    <row r="121" spans="1:8" s="8" customFormat="1">
+      <c r="A121" s="15"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="19"/>
+    </row>
+    <row r="122" spans="1:8" s="8" customFormat="1">
+      <c r="A122" s="15"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" spans="1:8" s="8" customFormat="1">
+      <c r="A123" s="15"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="19"/>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1">
+      <c r="A124" s="15"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="19"/>
+    </row>
+    <row r="125" spans="1:8" s="8" customFormat="1">
+      <c r="A125" s="15"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="19"/>
+    </row>
+    <row r="126" spans="1:8" s="8" customFormat="1">
+      <c r="A126" s="15"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" spans="1:8" s="8" customFormat="1">
+      <c r="A127" s="15"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="19"/>
+    </row>
+    <row r="128" spans="1:8" s="8" customFormat="1">
+      <c r="A128" s="15"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1">
+      <c r="A129" s="15"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" spans="1:8" s="8" customFormat="1">
+      <c r="A130" s="15"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="19"/>
+    </row>
+    <row r="131" spans="1:8" s="8" customFormat="1">
+      <c r="A131" s="15"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="19"/>
+    </row>
+    <row r="132" spans="1:8" s="8" customFormat="1">
+      <c r="A132" s="15"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="19"/>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1">
+      <c r="A133" s="15"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="19"/>
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1">
+      <c r="A134" s="15"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" spans="1:8" s="8" customFormat="1">
+      <c r="A135" s="15"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="19"/>
+    </row>
+    <row r="136" spans="1:8" s="8" customFormat="1">
+      <c r="A136" s="15"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="19"/>
+    </row>
+    <row r="137" spans="1:8" s="8" customFormat="1">
+      <c r="A137" s="15"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="19"/>
+    </row>
+    <row r="138" spans="1:8" s="8" customFormat="1">
+      <c r="A138" s="15"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="19"/>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1">
+      <c r="A139" s="15"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="19"/>
+    </row>
+    <row r="140" spans="1:8" s="8" customFormat="1">
+      <c r="A140" s="15"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="19"/>
+    </row>
+    <row r="141" spans="1:8" s="8" customFormat="1">
+      <c r="A141" s="15"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="19"/>
+    </row>
+    <row r="142" spans="1:8" s="8" customFormat="1">
+      <c r="A142" s="15"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="19"/>
+    </row>
+    <row r="143" spans="1:8" s="8" customFormat="1">
+      <c r="A143" s="15"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="19"/>
+    </row>
+    <row r="144" spans="1:8" s="8" customFormat="1">
+      <c r="A144" s="15"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="19"/>
+    </row>
+    <row r="145" spans="1:12" s="8" customFormat="1">
+      <c r="A145" s="15"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="19"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="16"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="20"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="19"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="16"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="20"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="19"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="16"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="20"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="19"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="16"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="20"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="19"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="16"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="20"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="19"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="16"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="20"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="19"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="16"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="20"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="19"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="16"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="20"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="16"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="20"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="19"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="16"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="20"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="19"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="16"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="20"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="19"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="16"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="20"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="19"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="16"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="22"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="16"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="16"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="16"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="22"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="16"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="22"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="16"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="16"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="16"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="16"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="16"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="22"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="16"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="16"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="16"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="22"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="16"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="22"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="9"/>
-      <c r="L171" s="9"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="16"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="22"/>
-      <c r="H172" s="20"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="19"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="16"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="22"/>
-      <c r="H173" s="20"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="19"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="16"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="22"/>
-      <c r="H174" s="20"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="19"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="16"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="22"/>
-      <c r="H175" s="20"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="19"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="16"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="20"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="19"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="16"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="20"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="19"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="16"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="20"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="19"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="16"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="20"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="19"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
   <si>
     <t>id|</t>
   </si>
@@ -884,6 +884,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -896,11 +900,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <t>圣诞福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞福利-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_sd_lh",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_sd_lh",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用电烤炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝山咖啡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼油</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,8 +1017,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,6 +1074,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1071,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,6 +1291,43 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1517,7 +1609,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1706,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5">
@@ -1737,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1770,7 +1862,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1803,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
@@ -1836,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
@@ -1907,31 +1999,71 @@
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+    <row r="12" spans="1:16" s="64" customFormat="1" ht="16.5">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="66">
+        <v>1608595200</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1609171199</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="61">
+        <v>1</v>
+      </c>
+      <c r="I12" s="61">
+        <v>11</v>
+      </c>
+      <c r="J12" s="63">
+        <v>11</v>
+      </c>
+      <c r="K12" s="64">
+        <v>1</v>
+      </c>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" spans="1:16" s="64" customFormat="1" ht="16.5">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="66">
+        <v>1608595200</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1609171199</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="61">
+        <v>1</v>
+      </c>
+      <c r="I13" s="61">
+        <v>12</v>
+      </c>
+      <c r="J13" s="63">
+        <v>12</v>
+      </c>
+      <c r="K13" s="64">
+        <v>1</v>
+      </c>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
       <c r="A14" s="8"/>
@@ -2111,8 +2243,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2221,7 +2353,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2232,7 +2364,7 @@
         <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="47" customFormat="1">
@@ -2240,10 +2372,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="47" customFormat="1">
@@ -2251,29 +2383,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="61" customFormat="1">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C12" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="61" customFormat="1">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16"/>
@@ -2296,11 +2432,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4182,167 +4318,430 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="19"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="19"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="15"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="15"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="19"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="15"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="15"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="15"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="15"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="15"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="15"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="15"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" spans="1:8" s="8" customFormat="1">
+    <row r="74" spans="1:10" s="61" customFormat="1">
+      <c r="A74" s="61">
+        <v>73</v>
+      </c>
+      <c r="B74" s="67">
+        <v>11</v>
+      </c>
+      <c r="C74" s="67">
+        <v>1</v>
+      </c>
+      <c r="D74" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="61" customFormat="1">
+      <c r="A75" s="61">
+        <v>74</v>
+      </c>
+      <c r="B75" s="67">
+        <v>11</v>
+      </c>
+      <c r="C75" s="67">
+        <v>2</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="61" customFormat="1">
+      <c r="A76" s="61">
+        <v>75</v>
+      </c>
+      <c r="B76" s="67">
+        <v>11</v>
+      </c>
+      <c r="C76" s="67">
+        <v>3</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="61" customFormat="1">
+      <c r="A77" s="61">
+        <v>76</v>
+      </c>
+      <c r="B77" s="67">
+        <v>11</v>
+      </c>
+      <c r="C77" s="67">
+        <v>4</v>
+      </c>
+      <c r="D77" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="67"/>
+      <c r="F77" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="61" customFormat="1">
+      <c r="A78" s="61">
+        <v>77</v>
+      </c>
+      <c r="B78" s="67">
+        <v>11</v>
+      </c>
+      <c r="C78" s="67">
+        <v>5</v>
+      </c>
+      <c r="D78" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J78" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="61" customFormat="1">
+      <c r="A79" s="61">
+        <v>78</v>
+      </c>
+      <c r="B79" s="67">
+        <v>11</v>
+      </c>
+      <c r="C79" s="67">
+        <v>6</v>
+      </c>
+      <c r="D79" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="67"/>
+      <c r="F79" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="61" customFormat="1">
+      <c r="A80" s="61">
+        <v>79</v>
+      </c>
+      <c r="B80" s="67">
+        <v>11</v>
+      </c>
+      <c r="C80" s="67">
+        <v>7</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="67"/>
+      <c r="F80" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J80" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="61" customFormat="1">
+      <c r="A81" s="61">
+        <v>80</v>
+      </c>
+      <c r="B81" s="67">
+        <v>11</v>
+      </c>
+      <c r="C81" s="67">
+        <v>8</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="67"/>
+      <c r="F81" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="61" customFormat="1">
+      <c r="A82" s="69">
+        <v>81</v>
+      </c>
+      <c r="B82" s="70">
+        <v>12</v>
+      </c>
+      <c r="C82" s="70">
+        <v>1</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="61" customFormat="1">
+      <c r="A83" s="69">
+        <v>82</v>
+      </c>
+      <c r="B83" s="70">
+        <v>12</v>
+      </c>
+      <c r="C83" s="70">
+        <v>2</v>
+      </c>
+      <c r="D83" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="61" customFormat="1">
+      <c r="A84" s="69">
+        <v>83</v>
+      </c>
+      <c r="B84" s="70">
+        <v>12</v>
+      </c>
+      <c r="C84" s="70">
+        <v>3</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="61" customFormat="1">
+      <c r="A85" s="69">
+        <v>84</v>
+      </c>
+      <c r="B85" s="70">
+        <v>12</v>
+      </c>
+      <c r="C85" s="70">
+        <v>4</v>
+      </c>
+      <c r="D85" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="70"/>
+      <c r="F85" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+    </row>
+    <row r="86" spans="1:10" s="61" customFormat="1">
+      <c r="A86" s="69">
+        <v>85</v>
+      </c>
+      <c r="B86" s="70">
+        <v>12</v>
+      </c>
+      <c r="C86" s="70">
+        <v>5</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="70"/>
+      <c r="F86" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="61" customFormat="1">
+      <c r="A87" s="69">
+        <v>86</v>
+      </c>
+      <c r="B87" s="70">
+        <v>12</v>
+      </c>
+      <c r="C87" s="70">
+        <v>6</v>
+      </c>
+      <c r="D87" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="70"/>
+      <c r="F87" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="61" customFormat="1">
+      <c r="A88" s="69">
+        <v>87</v>
+      </c>
+      <c r="B88" s="70">
+        <v>12</v>
+      </c>
+      <c r="C88" s="70">
+        <v>7</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="70"/>
+      <c r="F88" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="61" customFormat="1">
+      <c r="A89" s="69">
+        <v>88</v>
+      </c>
+      <c r="B89" s="70">
+        <v>12</v>
+      </c>
+      <c r="C89" s="70">
+        <v>8</v>
+      </c>
+      <c r="D89" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="70"/>
+      <c r="F89" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="8" customFormat="1">
       <c r="A90" s="15"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -4352,7 +4751,7 @@
       <c r="G90" s="21"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1">
+    <row r="91" spans="1:10" s="8" customFormat="1">
       <c r="A91" s="15"/>
       <c r="B91" s="19"/>
       <c r="C91" s="15"/>
@@ -4362,7 +4761,7 @@
       <c r="G91" s="21"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1">
+    <row r="92" spans="1:10" s="8" customFormat="1">
       <c r="A92" s="15"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -4372,7 +4771,7 @@
       <c r="G92" s="21"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1">
+    <row r="93" spans="1:10" s="8" customFormat="1">
       <c r="A93" s="15"/>
       <c r="B93" s="19"/>
       <c r="C93" s="15"/>
@@ -4382,7 +4781,7 @@
       <c r="G93" s="21"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1">
+    <row r="94" spans="1:10" s="8" customFormat="1">
       <c r="A94" s="15"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -4392,7 +4791,7 @@
       <c r="G94" s="21"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1">
+    <row r="95" spans="1:10" s="8" customFormat="1">
       <c r="A95" s="15"/>
       <c r="B95" s="19"/>
       <c r="C95" s="15"/>
@@ -4402,7 +4801,7 @@
       <c r="G95" s="21"/>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1">
+    <row r="96" spans="1:10" s="8" customFormat="1">
       <c r="A96" s="15"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="170">
   <si>
     <t>id|</t>
   </si>
@@ -908,14 +908,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_sd_lh",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_sd_lh",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -937,6 +929,37 @@
   </si>
   <si>
     <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",</t>
+  </si>
+  <si>
+    <t>元旦好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元旦好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元旦好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华坚果礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年日历</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,14 +1010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1025,7 +1040,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,6 +1101,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1126,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,9 +1173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,9 +1183,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,10 +1199,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,7 +1215,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1213,7 +1228,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1238,7 +1253,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1248,7 +1263,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1282,14 +1297,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1307,13 +1322,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1323,10 +1335,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1608,8 +1623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1697,7 +1712,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="7"/>
@@ -1733,7 +1748,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="16"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1794,7 +1809,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="21">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1825,7 +1840,7 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="21">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -1858,7 +1873,7 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="21">
         <v>6</v>
       </c>
       <c r="K7" s="4">
@@ -1867,250 +1882,290 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="16.5">
-      <c r="A8" s="34">
+    <row r="8" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="34">
-        <v>1</v>
-      </c>
-      <c r="I8" s="34">
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
         <v>7</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <v>7</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-    </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="16.5">
-      <c r="A9" s="34">
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="34">
-        <v>1</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32">
         <v>8</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="34">
         <v>8</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="35">
         <v>0</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="1:16" s="51" customFormat="1" ht="16.5">
-      <c r="A10" s="47">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="1:16" s="49" customFormat="1" ht="16.5">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="45">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="47">
-        <v>1</v>
-      </c>
-      <c r="I10" s="47">
+      <c r="H10" s="45">
+        <v>1</v>
+      </c>
+      <c r="I10" s="45">
         <v>9</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="48">
         <v>9</v>
       </c>
-      <c r="K10" s="51">
-        <v>1</v>
-      </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-    </row>
-    <row r="11" spans="1:16" s="51" customFormat="1" ht="16.5">
-      <c r="A11" s="47">
+      <c r="K10" s="49">
+        <v>1</v>
+      </c>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" s="49" customFormat="1" ht="16.5">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="45">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="45">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="49" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="47">
-        <v>1</v>
-      </c>
-      <c r="I11" s="47">
+      <c r="H11" s="45">
+        <v>1</v>
+      </c>
+      <c r="I11" s="45">
         <v>10</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="48">
         <v>10</v>
       </c>
-      <c r="K11" s="51">
-        <v>1</v>
-      </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-    </row>
-    <row r="12" spans="1:16" s="64" customFormat="1" ht="16.5">
-      <c r="A12" s="61">
+      <c r="K11" s="49">
+        <v>1</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="12" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A12" s="59">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="66">
-        <v>1608595200</v>
-      </c>
-      <c r="D12" s="66">
-        <v>1609171199</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="61">
-        <v>1</v>
-      </c>
-      <c r="I12" s="61">
+      <c r="C12" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D12" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="59">
+        <v>1</v>
+      </c>
+      <c r="I12" s="59">
         <v>11</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="61">
         <v>11</v>
       </c>
-      <c r="K12" s="64">
-        <v>1</v>
-      </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" s="64" customFormat="1" ht="16.5">
-      <c r="A13" s="61">
+      <c r="K12" s="62">
+        <v>1</v>
+      </c>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+    </row>
+    <row r="13" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A13" s="59">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="66">
-        <v>1608595200</v>
-      </c>
-      <c r="D13" s="66">
-        <v>1609171199</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="61">
-        <v>1</v>
-      </c>
-      <c r="I13" s="61">
+      <c r="C13" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D13" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1</v>
+      </c>
+      <c r="I13" s="59">
         <v>12</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="61">
         <v>12</v>
       </c>
-      <c r="K13" s="64">
-        <v>1</v>
-      </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="K13" s="62">
+        <v>1</v>
+      </c>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+    </row>
+    <row r="14" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A14" s="59">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D14" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="59">
+        <v>1</v>
+      </c>
+      <c r="I14" s="59">
+        <v>13</v>
+      </c>
+      <c r="J14" s="61">
+        <v>13</v>
+      </c>
+      <c r="K14" s="62">
+        <v>1</v>
+      </c>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+    </row>
+    <row r="15" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A15" s="59">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D15" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="59">
+        <v>14</v>
+      </c>
+      <c r="J15" s="61">
+        <v>14</v>
+      </c>
+      <c r="K15" s="62">
+        <v>1</v>
+      </c>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="N16" s="13"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:16" customFormat="1">
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -2241,10 +2296,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2367,58 +2422,75 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="47" customFormat="1">
-      <c r="A10" s="47">
+    <row r="10" spans="1:7" s="45" customFormat="1">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="47" customFormat="1">
-      <c r="A11" s="47">
+    <row r="11" spans="1:7" s="45" customFormat="1">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="61" customFormat="1">
-      <c r="A12" s="61">
+      <c r="C11" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="59" customFormat="1">
+      <c r="A12" s="59">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="59" customFormat="1">
+      <c r="A13" s="59">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="59">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="61" customFormat="1">
-      <c r="A13" s="61">
-        <v>12</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="59">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2432,11 +2504,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2470,10 +2542,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2583,7 +2655,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2603,7 +2675,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2626,7 +2698,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2747,7 +2819,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2759,21 +2831,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2784,21 +2856,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2809,20 +2881,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2833,20 +2905,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>3</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2857,20 +2929,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>7</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2881,21 +2953,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="19" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2906,21 +2978,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>4</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>2</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -2931,21 +3003,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -2956,21 +3028,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>4</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>4</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="17" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2978,21 +3050,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <v>4</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>5</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="21" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3003,21 +3075,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="17">
         <v>4</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>6</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="21" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3028,21 +3100,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="17">
         <v>4</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>7</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="17" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3053,2649 +3125,2921 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="17">
         <v>4</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>8</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="17" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="24" customFormat="1">
-      <c r="A26" s="24">
+    <row r="26" spans="1:10" s="22" customFormat="1">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <v>5</v>
       </c>
-      <c r="C26" s="25">
-        <v>1</v>
-      </c>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="25" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="24" customFormat="1">
-      <c r="A27" s="24">
+      <c r="J26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="22" customFormat="1">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <v>5</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="23">
         <v>2</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="25" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="24" customFormat="1">
-      <c r="A28" s="24">
+      <c r="J27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="22" customFormat="1">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="23">
         <v>5</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="23">
         <v>3</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="25" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="24" customFormat="1">
-      <c r="A29" s="24">
+      <c r="J28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="22" customFormat="1">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>5</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="23">
         <v>4</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="27" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="24" customFormat="1">
-      <c r="A30" s="24">
+    <row r="30" spans="1:10" s="22" customFormat="1">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="23">
         <v>5</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="23">
         <v>5</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="24" customFormat="1">
-      <c r="A31" s="24">
+    <row r="31" spans="1:10" s="22" customFormat="1">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>5</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="23">
         <v>6</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="24" customFormat="1">
-      <c r="A32" s="24">
+    <row r="32" spans="1:10" s="22" customFormat="1">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <v>5</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <v>7</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="24" customFormat="1">
-      <c r="A33" s="24">
+      <c r="J32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="22" customFormat="1">
+      <c r="A33" s="22">
         <v>32</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>5</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="23">
         <v>8</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="27" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="29" customFormat="1">
-      <c r="A34" s="24">
+      <c r="J33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="27" customFormat="1">
+      <c r="A34" s="22">
         <v>33</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="28">
         <v>6</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="28">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="30" t="s">
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="29" customFormat="1">
-      <c r="A35" s="24">
+      <c r="J34" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="27" customFormat="1">
+      <c r="A35" s="22">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <v>6</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="28">
         <v>2</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30" t="s">
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="29" customFormat="1">
-      <c r="A36" s="24">
+      <c r="J35" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="27" customFormat="1">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="28">
         <v>6</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="28">
         <v>3</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30" t="s">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="29" customFormat="1">
-      <c r="A37" s="24">
+      <c r="J36" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="27" customFormat="1">
+      <c r="A37" s="22">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="28">
         <v>6</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="28">
         <v>4</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="29" customFormat="1">
-      <c r="A38" s="24">
+    <row r="38" spans="1:10" s="27" customFormat="1">
+      <c r="A38" s="22">
         <v>37</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="28">
         <v>6</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="28">
         <v>5</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="29" customFormat="1">
-      <c r="A39" s="24">
+    <row r="39" spans="1:10" s="27" customFormat="1">
+      <c r="A39" s="22">
         <v>38</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="28">
         <v>6</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="28">
         <v>6</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="29" customFormat="1">
-      <c r="A40" s="24">
+    <row r="40" spans="1:10" s="27" customFormat="1">
+      <c r="A40" s="22">
         <v>39</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="28">
         <v>6</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="28">
         <v>7</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="32" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="29" customFormat="1">
-      <c r="A41" s="24">
+      <c r="J40" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="27" customFormat="1">
+      <c r="A41" s="22">
         <v>40</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="28">
         <v>6</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="28">
         <v>8</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="42" customFormat="1">
-      <c r="A42" s="42">
+      <c r="J41" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="40" customFormat="1">
+      <c r="A42" s="40">
         <v>41</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="41">
         <v>7</v>
       </c>
-      <c r="C42" s="43">
-        <v>1</v>
-      </c>
-      <c r="D42" s="44" t="s">
+      <c r="C42" s="41">
+        <v>1</v>
+      </c>
+      <c r="D42" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="43" t="s">
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="42" customFormat="1">
-      <c r="A43" s="42">
+      <c r="J42" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="40" customFormat="1">
+      <c r="A43" s="40">
         <v>42</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="41">
         <v>7</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="41">
         <v>2</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="43" t="s">
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="42" customFormat="1">
-      <c r="A44" s="42">
+      <c r="J43" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="40" customFormat="1">
+      <c r="A44" s="40">
         <v>43</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="41">
         <v>7</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="41">
         <v>3</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="43" t="s">
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="42" customFormat="1">
-      <c r="A45" s="42">
+      <c r="J44" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="40" customFormat="1">
+      <c r="A45" s="40">
         <v>44</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="41">
         <v>7</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="41">
         <v>4</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="45" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="42" customFormat="1">
-      <c r="A46" s="42">
+    <row r="46" spans="1:10" s="40" customFormat="1">
+      <c r="A46" s="40">
         <v>45</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="41">
         <v>7</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="41">
         <v>5</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="45" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="46" t="s">
+      <c r="H46" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="42" customFormat="1">
-      <c r="A47" s="42">
+    <row r="47" spans="1:10" s="40" customFormat="1">
+      <c r="A47" s="40">
         <v>46</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="41">
         <v>7</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="41">
         <v>6</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="45" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H47" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="42" customFormat="1">
-      <c r="A48" s="42">
+    <row r="48" spans="1:10" s="40" customFormat="1">
+      <c r="A48" s="40">
         <v>47</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="41">
         <v>7</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="41">
         <v>7</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="45" t="s">
+      <c r="E48" s="41"/>
+      <c r="F48" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="46" t="s">
+      <c r="H48" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="42" customFormat="1">
-      <c r="A49" s="42">
+      <c r="J48" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="40" customFormat="1">
+      <c r="A49" s="40">
         <v>48</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="41">
         <v>7</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="41">
         <v>8</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="45" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="34" customFormat="1">
-      <c r="A50" s="34">
+      <c r="J49" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="32" customFormat="1">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="37">
         <v>8</v>
       </c>
-      <c r="C50" s="39">
-        <v>1</v>
-      </c>
-      <c r="D50" s="40" t="s">
+      <c r="C50" s="37">
+        <v>1</v>
+      </c>
+      <c r="D50" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="39" t="s">
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="34" customFormat="1">
-      <c r="A51" s="34">
+      <c r="J50" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="32" customFormat="1">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="37">
         <v>8</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="37">
         <v>2</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="39" t="s">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="34" customFormat="1">
-      <c r="A52" s="34">
+      <c r="J51" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="32" customFormat="1">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="37">
         <v>8</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="37">
         <v>3</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="39" t="s">
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="34" customFormat="1">
-      <c r="A53" s="34">
+      <c r="J52" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="32" customFormat="1">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="37">
         <v>8</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="37">
         <v>4</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="41" t="s">
+      <c r="E53" s="37"/>
+      <c r="F53" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="34" customFormat="1">
-      <c r="A54" s="34">
+    <row r="54" spans="1:10" s="32" customFormat="1">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="39">
+      <c r="B54" s="37">
         <v>8</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="37">
         <v>5</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="41" t="s">
+      <c r="E54" s="37"/>
+      <c r="F54" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="34">
+      <c r="J54" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="34" customFormat="1">
-      <c r="A55" s="34">
+    <row r="55" spans="1:10" s="32" customFormat="1">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="37">
         <v>8</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="37">
         <v>6</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="41" t="s">
+      <c r="E55" s="37"/>
+      <c r="F55" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="41" t="s">
+      <c r="G55" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="34">
+      <c r="J55" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="34" customFormat="1">
-      <c r="A56" s="34">
+    <row r="56" spans="1:10" s="32" customFormat="1">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="37">
         <v>8</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="37">
         <v>7</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="41" t="s">
+      <c r="E56" s="37"/>
+      <c r="F56" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="34" customFormat="1">
-      <c r="A57" s="34">
+      <c r="J56" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="32" customFormat="1">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="39">
+      <c r="B57" s="37">
         <v>8</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="37">
         <v>8</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="41" t="s">
+      <c r="E57" s="37"/>
+      <c r="F57" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="47" customFormat="1">
-      <c r="A58" s="47">
+      <c r="J57" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="45" customFormat="1">
+      <c r="A58" s="45">
         <v>57</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="53">
         <v>9</v>
       </c>
-      <c r="C58" s="55">
-        <v>1</v>
-      </c>
-      <c r="D58" s="56" t="s">
+      <c r="C58" s="53">
+        <v>1</v>
+      </c>
+      <c r="D58" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="55" t="s">
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="47" customFormat="1">
-      <c r="A59" s="47">
+      <c r="J58" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="45" customFormat="1">
+      <c r="A59" s="45">
         <v>58</v>
       </c>
-      <c r="B59" s="55">
+      <c r="B59" s="53">
         <v>9</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59" s="53">
         <v>2</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="55" t="s">
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="47" customFormat="1">
-      <c r="A60" s="47">
+      <c r="J59" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="45" customFormat="1">
+      <c r="A60" s="45">
         <v>59</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="53">
         <v>9</v>
       </c>
-      <c r="C60" s="55">
+      <c r="C60" s="53">
         <v>3</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="55" t="s">
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="47" customFormat="1">
-      <c r="A61" s="47">
+      <c r="J60" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="45" customFormat="1">
+      <c r="A61" s="45">
         <v>60</v>
       </c>
-      <c r="B61" s="55">
+      <c r="B61" s="53">
         <v>9</v>
       </c>
-      <c r="C61" s="55">
+      <c r="C61" s="53">
         <v>4</v>
       </c>
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="57" t="s">
+      <c r="E61" s="53"/>
+      <c r="F61" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="57" t="s">
+      <c r="G61" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="55" t="s">
+      <c r="H61" s="53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="47" customFormat="1">
-      <c r="A62" s="47">
+    <row r="62" spans="1:10" s="45" customFormat="1">
+      <c r="A62" s="45">
         <v>61</v>
       </c>
-      <c r="B62" s="55">
+      <c r="B62" s="53">
         <v>9</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="53">
         <v>5</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="57" t="s">
+      <c r="E62" s="53"/>
+      <c r="F62" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="57" t="s">
+      <c r="G62" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="49" t="s">
+      <c r="H62" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="47">
+      <c r="J62" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="47" customFormat="1">
-      <c r="A63" s="47">
+    <row r="63" spans="1:10" s="45" customFormat="1">
+      <c r="A63" s="45">
         <v>62</v>
       </c>
-      <c r="B63" s="55">
+      <c r="B63" s="53">
         <v>9</v>
       </c>
-      <c r="C63" s="55">
+      <c r="C63" s="53">
         <v>6</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="57" t="s">
+      <c r="E63" s="53"/>
+      <c r="F63" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="57" t="s">
+      <c r="G63" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="47">
+      <c r="J63" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="47" customFormat="1">
-      <c r="A64" s="47">
+    <row r="64" spans="1:10" s="45" customFormat="1">
+      <c r="A64" s="45">
         <v>63</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="53">
         <v>9</v>
       </c>
-      <c r="C64" s="55">
+      <c r="C64" s="53">
         <v>7</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D64" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="57" t="s">
+      <c r="E64" s="53"/>
+      <c r="F64" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="57" t="s">
+      <c r="G64" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="49" t="s">
+      <c r="H64" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="47" customFormat="1">
-      <c r="A65" s="47">
+      <c r="J64" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="45" customFormat="1">
+      <c r="A65" s="45">
         <v>64</v>
       </c>
-      <c r="B65" s="55">
+      <c r="B65" s="53">
         <v>9</v>
       </c>
-      <c r="C65" s="55">
+      <c r="C65" s="53">
         <v>8</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="57" t="s">
+      <c r="E65" s="53"/>
+      <c r="F65" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="57" t="s">
+      <c r="G65" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="55" t="s">
+      <c r="H65" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="53" customFormat="1">
-      <c r="A66" s="53">
+      <c r="J65" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="51" customFormat="1">
+      <c r="A66" s="51">
         <v>65</v>
       </c>
-      <c r="B66" s="58">
+      <c r="B66" s="56">
         <v>10</v>
       </c>
-      <c r="C66" s="58">
-        <v>1</v>
-      </c>
-      <c r="D66" s="59" t="s">
+      <c r="C66" s="56">
+        <v>1</v>
+      </c>
+      <c r="D66" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="58" t="s">
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="53" customFormat="1">
-      <c r="A67" s="53">
+      <c r="J66" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="51" customFormat="1">
+      <c r="A67" s="51">
         <v>66</v>
       </c>
-      <c r="B67" s="58">
+      <c r="B67" s="56">
         <v>10</v>
       </c>
-      <c r="C67" s="58">
+      <c r="C67" s="56">
         <v>2</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="58" t="s">
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="53" customFormat="1">
-      <c r="A68" s="53">
+      <c r="J67" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="51" customFormat="1">
+      <c r="A68" s="51">
         <v>67</v>
       </c>
-      <c r="B68" s="58">
+      <c r="B68" s="56">
         <v>10</v>
       </c>
-      <c r="C68" s="58">
+      <c r="C68" s="56">
         <v>3</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="58" t="s">
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="53" customFormat="1">
-      <c r="A69" s="53">
+      <c r="J68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="51" customFormat="1">
+      <c r="A69" s="51">
         <v>68</v>
       </c>
-      <c r="B69" s="58">
+      <c r="B69" s="56">
         <v>10</v>
       </c>
-      <c r="C69" s="58">
+      <c r="C69" s="56">
         <v>4</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="60" t="s">
+      <c r="E69" s="56"/>
+      <c r="F69" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="60" t="s">
+      <c r="G69" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="58" t="s">
+      <c r="H69" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="53" customFormat="1">
-      <c r="A70" s="53">
+    <row r="70" spans="1:10" s="51" customFormat="1">
+      <c r="A70" s="51">
         <v>69</v>
       </c>
-      <c r="B70" s="58">
+      <c r="B70" s="56">
         <v>10</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="56">
         <v>5</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="60" t="s">
+      <c r="E70" s="56"/>
+      <c r="F70" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="60" t="s">
+      <c r="G70" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="53">
+      <c r="J70" s="51">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="53" customFormat="1">
-      <c r="A71" s="53">
+    <row r="71" spans="1:10" s="51" customFormat="1">
+      <c r="A71" s="51">
         <v>70</v>
       </c>
-      <c r="B71" s="58">
+      <c r="B71" s="56">
         <v>10</v>
       </c>
-      <c r="C71" s="58">
+      <c r="C71" s="56">
         <v>6</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="60" t="s">
+      <c r="E71" s="56"/>
+      <c r="F71" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="60" t="s">
+      <c r="G71" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="54" t="s">
+      <c r="H71" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="53">
+      <c r="J71" s="51">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="53" customFormat="1">
-      <c r="A72" s="53">
+    <row r="72" spans="1:10" s="51" customFormat="1">
+      <c r="A72" s="51">
         <v>71</v>
       </c>
-      <c r="B72" s="58">
+      <c r="B72" s="56">
         <v>10</v>
       </c>
-      <c r="C72" s="58">
+      <c r="C72" s="56">
         <v>7</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="60" t="s">
+      <c r="E72" s="56"/>
+      <c r="F72" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="60" t="s">
+      <c r="G72" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="54" t="s">
+      <c r="H72" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="53" customFormat="1">
-      <c r="A73" s="53">
+      <c r="J72" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="51" customFormat="1">
+      <c r="A73" s="51">
         <v>72</v>
       </c>
-      <c r="B73" s="58">
+      <c r="B73" s="56">
         <v>10</v>
       </c>
-      <c r="C73" s="58">
+      <c r="C73" s="56">
         <v>8</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="60" t="s">
+      <c r="E73" s="56"/>
+      <c r="F73" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="58" t="s">
+      <c r="H73" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="61" customFormat="1">
-      <c r="A74" s="61">
+      <c r="J73" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="59" customFormat="1">
+      <c r="A74" s="59">
         <v>73</v>
       </c>
-      <c r="B74" s="67">
+      <c r="B74" s="64">
         <v>11</v>
       </c>
-      <c r="C74" s="67">
-        <v>1</v>
-      </c>
-      <c r="D74" s="56" t="s">
+      <c r="C74" s="64">
+        <v>1</v>
+      </c>
+      <c r="D74" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="67" t="s">
+      <c r="E74" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="59" customFormat="1">
+      <c r="A75" s="59">
+        <v>74</v>
+      </c>
+      <c r="B75" s="64">
+        <v>11</v>
+      </c>
+      <c r="C75" s="64">
+        <v>2</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="59" customFormat="1">
+      <c r="A76" s="59">
+        <v>75</v>
+      </c>
+      <c r="B76" s="64">
+        <v>11</v>
+      </c>
+      <c r="C76" s="64">
+        <v>3</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="67" t="s">
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="59" customFormat="1">
+      <c r="A77" s="59">
+        <v>76</v>
+      </c>
+      <c r="B77" s="64">
+        <v>11</v>
+      </c>
+      <c r="C77" s="64">
+        <v>4</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="64"/>
+      <c r="F77" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="59" customFormat="1">
+      <c r="A78" s="59">
+        <v>77</v>
+      </c>
+      <c r="B78" s="64">
+        <v>11</v>
+      </c>
+      <c r="C78" s="64">
+        <v>5</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="64"/>
+      <c r="F78" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="J78" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="59" customFormat="1">
+      <c r="A79" s="59">
+        <v>78</v>
+      </c>
+      <c r="B79" s="64">
+        <v>11</v>
+      </c>
+      <c r="C79" s="64">
+        <v>6</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="64"/>
+      <c r="F79" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="59" customFormat="1">
+      <c r="A80" s="59">
+        <v>79</v>
+      </c>
+      <c r="B80" s="64">
+        <v>11</v>
+      </c>
+      <c r="C80" s="64">
+        <v>7</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="64"/>
+      <c r="F80" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J80" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="59" customFormat="1">
+      <c r="A81" s="59">
+        <v>80</v>
+      </c>
+      <c r="B81" s="64">
+        <v>11</v>
+      </c>
+      <c r="C81" s="64">
+        <v>8</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="64"/>
+      <c r="F81" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="59" customFormat="1">
+      <c r="A82" s="66">
+        <v>81</v>
+      </c>
+      <c r="B82" s="67">
+        <v>12</v>
+      </c>
+      <c r="C82" s="67">
+        <v>1</v>
+      </c>
+      <c r="D82" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="61" customFormat="1">
-      <c r="A75" s="61">
-        <v>74</v>
-      </c>
-      <c r="B75" s="67">
-        <v>11</v>
-      </c>
-      <c r="C75" s="67">
+      <c r="I82" s="66"/>
+      <c r="J82" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="59" customFormat="1">
+      <c r="A83" s="66">
+        <v>82</v>
+      </c>
+      <c r="B83" s="67">
+        <v>12</v>
+      </c>
+      <c r="C83" s="67">
         <v>2</v>
       </c>
-      <c r="D75" s="56" t="s">
+      <c r="D83" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="59" customFormat="1">
+      <c r="A84" s="66">
+        <v>83</v>
+      </c>
+      <c r="B84" s="67">
+        <v>12</v>
+      </c>
+      <c r="C84" s="67">
+        <v>3</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="59" customFormat="1">
+      <c r="A85" s="66">
+        <v>84</v>
+      </c>
+      <c r="B85" s="67">
+        <v>12</v>
+      </c>
+      <c r="C85" s="67">
+        <v>4</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="67"/>
+      <c r="F85" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+    </row>
+    <row r="86" spans="1:10" s="59" customFormat="1">
+      <c r="A86" s="66">
+        <v>85</v>
+      </c>
+      <c r="B86" s="67">
+        <v>12</v>
+      </c>
+      <c r="C86" s="67">
+        <v>5</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="67"/>
+      <c r="F86" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="59" customFormat="1">
+      <c r="A87" s="66">
+        <v>86</v>
+      </c>
+      <c r="B87" s="67">
+        <v>12</v>
+      </c>
+      <c r="C87" s="67">
+        <v>6</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="67"/>
+      <c r="F87" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="59" customFormat="1">
+      <c r="A88" s="66">
+        <v>87</v>
+      </c>
+      <c r="B88" s="67">
+        <v>12</v>
+      </c>
+      <c r="C88" s="67">
+        <v>7</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="67"/>
+      <c r="F88" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="59" customFormat="1">
+      <c r="A89" s="66">
+        <v>88</v>
+      </c>
+      <c r="B89" s="67">
+        <v>12</v>
+      </c>
+      <c r="C89" s="67">
+        <v>8</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="67"/>
+      <c r="F89" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="8" customFormat="1">
+      <c r="A90" s="66">
+        <v>89</v>
+      </c>
+      <c r="B90" s="64">
+        <v>13</v>
+      </c>
+      <c r="C90" s="64">
+        <v>1</v>
+      </c>
+      <c r="D90" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="67" t="s">
+      <c r="E90" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="8" customFormat="1">
+      <c r="A91" s="66">
+        <v>90</v>
+      </c>
+      <c r="B91" s="64">
+        <v>13</v>
+      </c>
+      <c r="C91" s="64">
+        <v>2</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="61" customFormat="1">
-      <c r="A76" s="61">
-        <v>75</v>
-      </c>
-      <c r="B76" s="67">
-        <v>11</v>
-      </c>
-      <c r="C76" s="67">
+      <c r="I91" s="59"/>
+      <c r="J91" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="8" customFormat="1">
+      <c r="A92" s="66">
+        <v>91</v>
+      </c>
+      <c r="B92" s="64">
+        <v>13</v>
+      </c>
+      <c r="C92" s="64">
         <v>3</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D92" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="67" t="s">
+      <c r="E92" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="61" customFormat="1">
-      <c r="A77" s="61">
-        <v>76</v>
-      </c>
-      <c r="B77" s="67">
-        <v>11</v>
-      </c>
-      <c r="C77" s="67">
+      <c r="I92" s="59"/>
+      <c r="J92" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="8" customFormat="1">
+      <c r="A93" s="66">
+        <v>92</v>
+      </c>
+      <c r="B93" s="64">
+        <v>13</v>
+      </c>
+      <c r="C93" s="64">
         <v>4</v>
       </c>
-      <c r="D77" s="56" t="s">
+      <c r="D93" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="67"/>
-      <c r="F77" s="68" t="s">
+      <c r="E93" s="64"/>
+      <c r="F93" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="68" t="s">
+      <c r="G93" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="67" t="s">
+      <c r="H93" s="64" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" s="61" customFormat="1">
-      <c r="A78" s="61">
-        <v>77</v>
-      </c>
-      <c r="B78" s="67">
-        <v>11</v>
-      </c>
-      <c r="C78" s="67">
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+    </row>
+    <row r="94" spans="1:10" s="8" customFormat="1">
+      <c r="A94" s="66">
+        <v>93</v>
+      </c>
+      <c r="B94" s="64">
+        <v>13</v>
+      </c>
+      <c r="C94" s="64">
         <v>5</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D94" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="68" t="s">
+      <c r="E94" s="64"/>
+      <c r="F94" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="68" t="s">
+      <c r="G94" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="62" t="s">
+      <c r="H94" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="61">
+      <c r="I94" s="59"/>
+      <c r="J94" s="59">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="61" customFormat="1">
-      <c r="A79" s="61">
-        <v>78</v>
-      </c>
-      <c r="B79" s="67">
-        <v>11</v>
-      </c>
-      <c r="C79" s="67">
+    <row r="95" spans="1:10" s="8" customFormat="1">
+      <c r="A95" s="66">
+        <v>94</v>
+      </c>
+      <c r="B95" s="64">
+        <v>13</v>
+      </c>
+      <c r="C95" s="64">
         <v>6</v>
       </c>
-      <c r="D79" s="56" t="s">
+      <c r="D95" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="68" t="s">
+      <c r="E95" s="64"/>
+      <c r="F95" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="68" t="s">
+      <c r="G95" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="62" t="s">
+      <c r="H95" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="61">
+      <c r="I95" s="59"/>
+      <c r="J95" s="59">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="61" customFormat="1">
-      <c r="A80" s="61">
-        <v>79</v>
-      </c>
-      <c r="B80" s="67">
-        <v>11</v>
-      </c>
-      <c r="C80" s="67">
+    <row r="96" spans="1:10" s="8" customFormat="1">
+      <c r="A96" s="66">
+        <v>95</v>
+      </c>
+      <c r="B96" s="64">
+        <v>13</v>
+      </c>
+      <c r="C96" s="64">
         <v>7</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D96" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="67"/>
-      <c r="F80" s="68" t="s">
+      <c r="E96" s="64"/>
+      <c r="F96" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="68" t="s">
+      <c r="G96" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="62" t="s">
+      <c r="H96" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="61" customFormat="1">
-      <c r="A81" s="61">
-        <v>80</v>
-      </c>
-      <c r="B81" s="67">
-        <v>11</v>
-      </c>
-      <c r="C81" s="67">
+      <c r="I96" s="59"/>
+      <c r="J96" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="8" customFormat="1">
+      <c r="A97" s="66">
+        <v>96</v>
+      </c>
+      <c r="B97" s="64">
+        <v>13</v>
+      </c>
+      <c r="C97" s="64">
         <v>8</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D97" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="67"/>
-      <c r="F81" s="68" t="s">
+      <c r="E97" s="64"/>
+      <c r="F97" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="68" t="s">
+      <c r="G97" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="67" t="s">
+      <c r="H97" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="61" customFormat="1">
-      <c r="A82" s="69">
-        <v>81</v>
-      </c>
-      <c r="B82" s="70">
-        <v>12</v>
-      </c>
-      <c r="C82" s="70">
-        <v>1</v>
-      </c>
-      <c r="D82" s="71" t="s">
+      <c r="I97" s="59"/>
+      <c r="J97" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="8" customFormat="1">
+      <c r="A98" s="66">
+        <v>97</v>
+      </c>
+      <c r="B98" s="67">
+        <v>14</v>
+      </c>
+      <c r="C98" s="67">
+        <v>1</v>
+      </c>
+      <c r="D98" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="70" t="s">
+      <c r="E98" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="61" customFormat="1">
-      <c r="A83" s="69">
-        <v>82</v>
-      </c>
-      <c r="B83" s="70">
-        <v>12</v>
-      </c>
-      <c r="C83" s="70">
+      <c r="I98" s="66"/>
+      <c r="J98" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="8" customFormat="1">
+      <c r="A99" s="66">
+        <v>98</v>
+      </c>
+      <c r="B99" s="67">
+        <v>14</v>
+      </c>
+      <c r="C99" s="67">
         <v>2</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D99" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="70" t="s">
+      <c r="E99" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="69"/>
-      <c r="J83" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="61" customFormat="1">
-      <c r="A84" s="69">
-        <v>83</v>
-      </c>
-      <c r="B84" s="70">
-        <v>12</v>
-      </c>
-      <c r="C84" s="70">
+      <c r="I99" s="66"/>
+      <c r="J99" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="8" customFormat="1">
+      <c r="A100" s="66">
+        <v>99</v>
+      </c>
+      <c r="B100" s="67">
+        <v>14</v>
+      </c>
+      <c r="C100" s="67">
         <v>3</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D100" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="70" t="s">
+      <c r="E100" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="61" customFormat="1">
-      <c r="A85" s="69">
-        <v>84</v>
-      </c>
-      <c r="B85" s="70">
-        <v>12</v>
-      </c>
-      <c r="C85" s="70">
+      <c r="I100" s="66"/>
+      <c r="J100" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="8" customFormat="1">
+      <c r="A101" s="66">
+        <v>100</v>
+      </c>
+      <c r="B101" s="67">
+        <v>14</v>
+      </c>
+      <c r="C101" s="67">
         <v>4</v>
       </c>
-      <c r="D85" s="71" t="s">
+      <c r="D101" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="70"/>
-      <c r="F85" s="72" t="s">
+      <c r="E101" s="67"/>
+      <c r="F101" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G101" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="70" t="s">
+      <c r="H101" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="69"/>
-      <c r="J85" s="69"/>
-    </row>
-    <row r="86" spans="1:10" s="61" customFormat="1">
-      <c r="A86" s="69">
-        <v>85</v>
-      </c>
-      <c r="B86" s="70">
-        <v>12</v>
-      </c>
-      <c r="C86" s="70">
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+    </row>
+    <row r="102" spans="1:10" s="8" customFormat="1">
+      <c r="A102" s="66">
+        <v>101</v>
+      </c>
+      <c r="B102" s="67">
+        <v>14</v>
+      </c>
+      <c r="C102" s="67">
         <v>5</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D102" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="70"/>
-      <c r="F86" s="72" t="s">
+      <c r="E102" s="67"/>
+      <c r="F102" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="72" t="s">
+      <c r="G102" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="73" t="s">
+      <c r="H102" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="69"/>
-      <c r="J86" s="69">
+      <c r="I102" s="66"/>
+      <c r="J102" s="66">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="61" customFormat="1">
-      <c r="A87" s="69">
-        <v>86</v>
-      </c>
-      <c r="B87" s="70">
-        <v>12</v>
-      </c>
-      <c r="C87" s="70">
+    <row r="103" spans="1:10" s="8" customFormat="1">
+      <c r="A103" s="66">
+        <v>102</v>
+      </c>
+      <c r="B103" s="67">
+        <v>14</v>
+      </c>
+      <c r="C103" s="67">
         <v>6</v>
       </c>
-      <c r="D87" s="71" t="s">
+      <c r="D103" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="70"/>
-      <c r="F87" s="72" t="s">
+      <c r="E103" s="67"/>
+      <c r="F103" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="72" t="s">
+      <c r="G103" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="73" t="s">
+      <c r="H103" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69">
+      <c r="I103" s="66"/>
+      <c r="J103" s="66">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="61" customFormat="1">
-      <c r="A88" s="69">
-        <v>87</v>
-      </c>
-      <c r="B88" s="70">
-        <v>12</v>
-      </c>
-      <c r="C88" s="70">
+    <row r="104" spans="1:10" s="8" customFormat="1">
+      <c r="A104" s="66">
+        <v>103</v>
+      </c>
+      <c r="B104" s="67">
+        <v>14</v>
+      </c>
+      <c r="C104" s="67">
         <v>7</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D104" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="70"/>
-      <c r="F88" s="72" t="s">
+      <c r="E104" s="67"/>
+      <c r="F104" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="72" t="s">
+      <c r="G104" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="73" t="s">
+      <c r="H104" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="69"/>
-      <c r="J88" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="61" customFormat="1">
-      <c r="A89" s="69">
-        <v>88</v>
-      </c>
-      <c r="B89" s="70">
-        <v>12</v>
-      </c>
-      <c r="C89" s="70">
+      <c r="I104" s="66"/>
+      <c r="J104" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="8" customFormat="1">
+      <c r="A105" s="66">
+        <v>104</v>
+      </c>
+      <c r="B105" s="67">
+        <v>14</v>
+      </c>
+      <c r="C105" s="67">
         <v>8</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D105" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="70"/>
-      <c r="F89" s="72" t="s">
+      <c r="E105" s="67"/>
+      <c r="F105" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="72" t="s">
+      <c r="G105" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="70" t="s">
+      <c r="H105" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="15"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="15"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="15"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="19"/>
-    </row>
-    <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="15"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="19"/>
-    </row>
-    <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="15"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="15"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="19"/>
-    </row>
-    <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="15"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="19"/>
-    </row>
-    <row r="97" spans="1:8" s="8" customFormat="1">
-      <c r="A97" s="15"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="19"/>
-    </row>
-    <row r="98" spans="1:8" s="8" customFormat="1">
-      <c r="A98" s="15"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="19"/>
-    </row>
-    <row r="99" spans="1:8" s="8" customFormat="1">
-      <c r="A99" s="15"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="19"/>
-    </row>
-    <row r="100" spans="1:8" s="8" customFormat="1">
-      <c r="A100" s="15"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="19"/>
-    </row>
-    <row r="101" spans="1:8" s="8" customFormat="1">
-      <c r="A101" s="15"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="19"/>
-    </row>
-    <row r="102" spans="1:8" s="8" customFormat="1">
-      <c r="A102" s="15"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="19"/>
-    </row>
-    <row r="103" spans="1:8" s="8" customFormat="1">
-      <c r="A103" s="15"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="19"/>
-    </row>
-    <row r="104" spans="1:8" s="8" customFormat="1">
-      <c r="A104" s="15"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="19"/>
-    </row>
-    <row r="105" spans="1:8" s="8" customFormat="1">
-      <c r="A105" s="15"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="19"/>
-    </row>
-    <row r="106" spans="1:8" s="8" customFormat="1">
-      <c r="A106" s="15"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="19"/>
-    </row>
-    <row r="107" spans="1:8" s="8" customFormat="1">
-      <c r="A107" s="15"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="19"/>
-    </row>
-    <row r="108" spans="1:8" s="8" customFormat="1">
-      <c r="A108" s="15"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="19"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="15"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="19"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="15"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="19"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="15"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="19"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="15"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="19"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="8" customFormat="1">
+      <c r="A106" s="13"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:10" s="8" customFormat="1">
+      <c r="A107" s="13"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:10" s="8" customFormat="1">
+      <c r="A108" s="13"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="13"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="13"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="13"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="13"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="15"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="19"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="15"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="19"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="15"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="19"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="15"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="19"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="15"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="19"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="15"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="19"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="15"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="19"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="15"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="19"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="1:8" s="8" customFormat="1">
-      <c r="A121" s="15"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="19"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="1:8" s="8" customFormat="1">
-      <c r="A122" s="15"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="19"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="1:8" s="8" customFormat="1">
-      <c r="A123" s="15"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="19"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="1:8" s="8" customFormat="1">
-      <c r="A124" s="15"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="19"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8" s="8" customFormat="1">
-      <c r="A125" s="15"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="19"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="1:8" s="8" customFormat="1">
-      <c r="A126" s="15"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="19"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="1:8" s="8" customFormat="1">
-      <c r="A127" s="15"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="19"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128" spans="1:8" s="8" customFormat="1">
-      <c r="A128" s="15"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="19"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="1:8" s="8" customFormat="1">
-      <c r="A129" s="15"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="19"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" s="8" customFormat="1">
-      <c r="A130" s="15"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="19"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" spans="1:8" s="8" customFormat="1">
-      <c r="A131" s="15"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="19"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="1:8" s="8" customFormat="1">
-      <c r="A132" s="15"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="19"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="1:8" s="8" customFormat="1">
-      <c r="A133" s="15"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="19"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="1:8" s="8" customFormat="1">
-      <c r="A134" s="15"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="19"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="1:8" s="8" customFormat="1">
-      <c r="A135" s="15"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="19"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="1:8" s="8" customFormat="1">
-      <c r="A136" s="15"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="19"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="1:8" s="8" customFormat="1">
-      <c r="A137" s="15"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="19"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="1:8" s="8" customFormat="1">
-      <c r="A138" s="15"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="19"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="1:8" s="8" customFormat="1">
-      <c r="A139" s="15"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="19"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" spans="1:8" s="8" customFormat="1">
-      <c r="A140" s="15"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="19"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="1:8" s="8" customFormat="1">
-      <c r="A141" s="15"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="19"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="1:8" s="8" customFormat="1">
-      <c r="A142" s="15"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="19"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="1:8" s="8" customFormat="1">
-      <c r="A143" s="15"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="19"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="1:8" s="8" customFormat="1">
-      <c r="A144" s="15"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="19"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="15"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="19"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="15"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="19"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="15"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="19"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="15"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="19"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="15"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="19"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="15"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="19"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="15"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="19"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="15"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="19"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="15"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="19"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="15"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="19"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="15"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="19"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="15"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="19"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="15"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="19"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="15"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="19"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="17"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="15"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="19"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="17"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="15"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="19"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="17"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="15"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="19"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="17"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="15"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="19"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="17"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="15"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="19"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="17"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="15"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="19"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="17"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="15"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="19"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="17"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="15"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="19"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="17"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="15"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="19"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="17"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="15"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="19"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="17"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="15"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="19"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="17"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="15"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="19"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="17"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="15"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="19"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="17"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="15"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="19"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="17"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="15"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="19"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="17"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="15"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="19"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="17"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="15"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="19"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="15"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="19"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="17"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="15"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="19"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="17"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="15"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="19"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="17"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="15"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="19"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="17"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="187">
   <si>
     <t>id|</t>
   </si>
@@ -962,12 +962,80 @@
     <t>新年日历</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>欢乐庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小太阳取暖器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰清香大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hlqd_xx",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_4",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,8 +1107,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,37 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,16 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1211,11 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1224,23 +1254,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1249,99 +1306,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1623,8 +1596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1712,7 +1685,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="7"/>
@@ -1748,7 +1721,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="12"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1809,7 +1782,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1840,7 +1813,7 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -1873,7 +1846,7 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="17">
         <v>6</v>
       </c>
       <c r="K7" s="4">
@@ -1882,290 +1855,339 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="16.5">
-      <c r="A8" s="32">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="8">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="32">
-        <v>1</v>
-      </c>
-      <c r="I8" s="32">
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="17">
         <v>7</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <v>0</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-    </row>
-    <row r="9" spans="1:16" s="35" customFormat="1" ht="16.5">
-      <c r="A9" s="32">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="8">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="32">
-        <v>1</v>
-      </c>
-      <c r="I9" s="32">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
         <v>8</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="17">
         <v>8</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>0</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-    </row>
-    <row r="10" spans="1:16" s="49" customFormat="1" ht="16.5">
-      <c r="A10" s="45">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="8">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="8">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="47" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="45">
-        <v>1</v>
-      </c>
-      <c r="I10" s="45">
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
         <v>9</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="K10" s="49">
-        <v>1</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-    </row>
-    <row r="11" spans="1:16" s="49" customFormat="1" ht="16.5">
-      <c r="A11" s="45">
+      <c r="K10" s="34">
+        <v>1</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="8">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="8">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="47" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="45">
-        <v>1</v>
-      </c>
-      <c r="I11" s="45">
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
         <v>10</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="17">
         <v>10</v>
       </c>
-      <c r="K11" s="49">
-        <v>1</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-    </row>
-    <row r="12" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A12" s="59">
+      <c r="K11" s="34">
+        <v>1</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+    </row>
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="59">
-        <v>1</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
         <v>11</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="17">
         <v>11</v>
       </c>
-      <c r="K12" s="62">
-        <v>1</v>
-      </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-    </row>
-    <row r="13" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A13" s="59">
+      <c r="K12" s="34">
+        <v>1</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="59">
-        <v>1</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
         <v>12</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="17">
         <v>12</v>
       </c>
-      <c r="K13" s="62">
-        <v>1</v>
-      </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-    </row>
-    <row r="14" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A14" s="59">
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="59">
-        <v>1</v>
-      </c>
-      <c r="I14" s="59">
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <v>13</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="17">
         <v>13</v>
       </c>
-      <c r="K14" s="62">
-        <v>1</v>
-      </c>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-    </row>
-    <row r="15" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A15" s="59">
+      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="59">
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
         <v>14</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="17">
         <v>14</v>
       </c>
-      <c r="K15" s="62">
-        <v>1</v>
-      </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="16.5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" customFormat="1">
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="37">
+        <v>1609804800</v>
+      </c>
+      <c r="D16" s="37">
+        <v>1610380799</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
+        <v>15</v>
+      </c>
+      <c r="J16" s="25">
+        <v>15</v>
+      </c>
+      <c r="K16" s="38">
+        <v>1</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="37">
+        <v>1609804800</v>
+      </c>
+      <c r="D17" s="37">
+        <v>1610380799</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>16</v>
+      </c>
+      <c r="J17" s="25">
+        <v>16</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -2296,10 +2318,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2422,74 +2444,100 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="45" customFormat="1">
-      <c r="A10" s="45">
+    <row r="10" spans="1:7" s="18" customFormat="1">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="45" customFormat="1">
-      <c r="A11" s="45">
+    <row r="11" spans="1:7" s="18" customFormat="1">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="59" customFormat="1">
-      <c r="A12" s="59">
+    <row r="12" spans="1:7" s="21" customFormat="1">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="59" customFormat="1">
-      <c r="A13" s="59">
+    <row r="13" spans="1:7" s="21" customFormat="1">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="59">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="59">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="22" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="30" customFormat="1">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:3" s="30" customFormat="1">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2504,11 +2552,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2517,7 +2565,7 @@
     <col min="2" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.875" style="1" customWidth="1"/>
     <col min="9" max="10" width="27.875" style="1" customWidth="1"/>
@@ -2542,10 +2590,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2655,7 +2703,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2675,7 +2723,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2698,7 +2746,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2819,7 +2867,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2831,21 +2879,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2856,21 +2904,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2881,20 +2929,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2905,20 +2953,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>6</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="15" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2929,20 +2977,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>7</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="15" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2953,21 +3001,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>4</v>
       </c>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="17" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="13" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2978,21 +3026,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="13">
         <v>4</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="17" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -3003,21 +3051,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="17" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -3028,21 +3076,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3050,21 +3098,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>5</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="13" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3075,21 +3123,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <v>6</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="13" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3100,21 +3148,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <v>7</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="13" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3125,2921 +3173,3165 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="13" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="22" customFormat="1">
-      <c r="A26" s="22">
+    <row r="26" spans="1:10" s="8" customFormat="1">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="40">
         <v>5</v>
       </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="40">
+        <v>1</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="23" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="22" customFormat="1">
-      <c r="A27" s="22">
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="8" customFormat="1">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="40">
         <v>5</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="40">
         <v>2</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="22" customFormat="1">
-      <c r="A28" s="22">
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="40">
         <v>5</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="40">
         <v>3</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="23" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="22" customFormat="1">
-      <c r="A29" s="22">
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="8" customFormat="1">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="40">
         <v>5</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="40">
         <v>4</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="22" customFormat="1">
-      <c r="A30" s="22">
+    <row r="30" spans="1:10" s="8" customFormat="1">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="40">
         <v>5</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="40">
         <v>5</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="22" customFormat="1">
-      <c r="A31" s="22">
+    <row r="31" spans="1:10" s="8" customFormat="1">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="40">
         <v>5</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="40">
         <v>6</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="25" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="22" customFormat="1">
-      <c r="A32" s="22">
+    <row r="32" spans="1:10" s="8" customFormat="1">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="40">
         <v>5</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="40">
         <v>7</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="22" customFormat="1">
-      <c r="A33" s="22">
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="8" customFormat="1">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="40">
         <v>5</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="40">
         <v>8</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="25" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="27" customFormat="1">
-      <c r="A34" s="22">
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="40">
         <v>6</v>
       </c>
-      <c r="C34" s="28">
-        <v>1</v>
-      </c>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="40">
+        <v>1</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="28" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="27" customFormat="1">
-      <c r="A35" s="22">
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="8" customFormat="1">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="40">
         <v>6</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="40">
         <v>2</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="28" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="27" customFormat="1">
-      <c r="A36" s="22">
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="8" customFormat="1">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="40">
         <v>6</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="40">
         <v>3</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="28" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="27" customFormat="1">
-      <c r="A37" s="22">
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="8" customFormat="1">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="40">
         <v>6</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="40">
         <v>4</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="30" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="27" customFormat="1">
-      <c r="A38" s="22">
+    <row r="38" spans="1:10" s="8" customFormat="1">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="40">
         <v>6</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="40">
         <v>5</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="30" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="27" customFormat="1">
-      <c r="A39" s="22">
+    <row r="39" spans="1:10" s="8" customFormat="1">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="40">
         <v>6</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="40">
         <v>6</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="27" customFormat="1">
-      <c r="A40" s="22">
+    <row r="40" spans="1:10" s="8" customFormat="1">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="40">
         <v>6</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="40">
         <v>7</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="30" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="27" customFormat="1">
-      <c r="A41" s="22">
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="8" customFormat="1">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="40">
         <v>6</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="40">
         <v>8</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="30" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="40" customFormat="1">
-      <c r="A42" s="40">
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="8" customFormat="1">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="40">
         <v>7</v>
       </c>
-      <c r="C42" s="41">
-        <v>1</v>
-      </c>
-      <c r="D42" s="42" t="s">
+      <c r="C42" s="40">
+        <v>1</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="41" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="40" customFormat="1">
-      <c r="A43" s="40">
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="8" customFormat="1">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="40">
         <v>7</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="40">
         <v>2</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="41" t="s">
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="40" customFormat="1">
-      <c r="A44" s="40">
+      <c r="J43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="8" customFormat="1">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="40">
         <v>7</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="40">
         <v>3</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="41" t="s">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="40" customFormat="1">
-      <c r="A45" s="40">
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="40">
         <v>7</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="40">
         <v>4</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="43" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="40" customFormat="1">
-      <c r="A46" s="40">
+    <row r="46" spans="1:10" s="8" customFormat="1">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="40">
         <v>7</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="40">
         <v>5</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="43" t="s">
+      <c r="E46" s="40"/>
+      <c r="F46" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="40" customFormat="1">
-      <c r="A47" s="40">
+    <row r="47" spans="1:10" s="8" customFormat="1">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="40">
         <v>7</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="40">
         <v>6</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="43" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="40" customFormat="1">
-      <c r="A48" s="40">
+    <row r="48" spans="1:10" s="8" customFormat="1">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="40">
         <v>7</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="40">
         <v>7</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="43" t="s">
+      <c r="E48" s="40"/>
+      <c r="F48" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="40" customFormat="1">
-      <c r="A49" s="40">
+      <c r="J48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="8" customFormat="1">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="40">
         <v>7</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="40">
         <v>8</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="43" t="s">
+      <c r="E49" s="40"/>
+      <c r="F49" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="32" customFormat="1">
-      <c r="A50" s="32">
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="8" customFormat="1">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="40">
         <v>8</v>
       </c>
-      <c r="C50" s="37">
-        <v>1</v>
-      </c>
-      <c r="D50" s="38" t="s">
+      <c r="C50" s="40">
+        <v>1</v>
+      </c>
+      <c r="D50" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="37" t="s">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="32" customFormat="1">
-      <c r="A51" s="32">
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="8" customFormat="1">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="40">
         <v>8</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="40">
         <v>2</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="37" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="32" customFormat="1">
-      <c r="A52" s="32">
+      <c r="J51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="8" customFormat="1">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="40">
         <v>8</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="40">
         <v>3</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="37" t="s">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="32" customFormat="1">
-      <c r="A53" s="32">
+      <c r="J52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="8" customFormat="1">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="40">
         <v>8</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="40">
         <v>4</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="39" t="s">
+      <c r="E53" s="40"/>
+      <c r="F53" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="32" customFormat="1">
-      <c r="A54" s="32">
+    <row r="54" spans="1:10" s="8" customFormat="1">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="40">
         <v>8</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="40">
         <v>5</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="39" t="s">
+      <c r="E54" s="40"/>
+      <c r="F54" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="42" t="s">
         <v>62</v>
       </c>
       <c r="H54" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="32" customFormat="1">
-      <c r="A55" s="32">
+    <row r="55" spans="1:10" s="8" customFormat="1">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="40">
         <v>8</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="40">
         <v>6</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="39" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="42" t="s">
         <v>63</v>
       </c>
       <c r="H55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="32">
+      <c r="J55" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="32" customFormat="1">
-      <c r="A56" s="32">
+    <row r="56" spans="1:10" s="8" customFormat="1">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="40">
         <v>8</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="40">
         <v>7</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="39" t="s">
+      <c r="E56" s="40"/>
+      <c r="F56" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G56" s="42" t="s">
         <v>56</v>
       </c>
       <c r="H56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="32" customFormat="1">
-      <c r="A57" s="32">
+      <c r="J56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="8" customFormat="1">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="40">
         <v>8</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="40">
         <v>8</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="39" t="s">
+      <c r="E57" s="40"/>
+      <c r="F57" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="45" customFormat="1">
-      <c r="A58" s="45">
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="8" customFormat="1">
+      <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="53">
+      <c r="B58" s="40">
         <v>9</v>
       </c>
-      <c r="C58" s="53">
-        <v>1</v>
-      </c>
-      <c r="D58" s="54" t="s">
+      <c r="C58" s="40">
+        <v>1</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="53" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="45" customFormat="1">
-      <c r="A59" s="45">
+      <c r="J58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="8" customFormat="1">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="53">
+      <c r="B59" s="40">
         <v>9</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="40">
         <v>2</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="53" t="s">
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="45" customFormat="1">
-      <c r="A60" s="45">
+      <c r="J59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="8" customFormat="1">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="40">
         <v>9</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="40">
         <v>3</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="53" t="s">
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="45" customFormat="1">
-      <c r="A61" s="45">
+      <c r="J60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="8" customFormat="1">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="53">
+      <c r="B61" s="40">
         <v>9</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C61" s="40">
         <v>4</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="55" t="s">
+      <c r="E61" s="40"/>
+      <c r="F61" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="53" t="s">
+      <c r="H61" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="45" customFormat="1">
-      <c r="A62" s="45">
+    <row r="62" spans="1:10" s="8" customFormat="1">
+      <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="53">
+      <c r="B62" s="40">
         <v>9</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C62" s="40">
         <v>5</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="53"/>
-      <c r="F62" s="55" t="s">
+      <c r="E62" s="40"/>
+      <c r="F62" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="45" customFormat="1">
-      <c r="A63" s="45">
+    <row r="63" spans="1:10" s="8" customFormat="1">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="53">
+      <c r="B63" s="40">
         <v>9</v>
       </c>
-      <c r="C63" s="53">
+      <c r="C63" s="40">
         <v>6</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="53"/>
-      <c r="F63" s="55" t="s">
+      <c r="E63" s="40"/>
+      <c r="F63" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="45">
+      <c r="J63" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="45" customFormat="1">
-      <c r="A64" s="45">
+    <row r="64" spans="1:10" s="8" customFormat="1">
+      <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="40">
         <v>9</v>
       </c>
-      <c r="C64" s="53">
+      <c r="C64" s="40">
         <v>7</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="55" t="s">
+      <c r="E64" s="40"/>
+      <c r="F64" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="55" t="s">
+      <c r="G64" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="47" t="s">
+      <c r="H64" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="45" customFormat="1">
-      <c r="A65" s="45">
+      <c r="J64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="8" customFormat="1">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="53">
+      <c r="B65" s="40">
         <v>9</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C65" s="40">
         <v>8</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="55" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="53" t="s">
+      <c r="H65" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="51" customFormat="1">
-      <c r="A66" s="51">
+      <c r="J65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="8" customFormat="1">
+      <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="40">
         <v>10</v>
       </c>
-      <c r="C66" s="56">
-        <v>1</v>
-      </c>
-      <c r="D66" s="57" t="s">
+      <c r="C66" s="40">
+        <v>1</v>
+      </c>
+      <c r="D66" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="56" t="s">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="51" customFormat="1">
-      <c r="A67" s="51">
+      <c r="J66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="8" customFormat="1">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="40">
         <v>10</v>
       </c>
-      <c r="C67" s="56">
+      <c r="C67" s="40">
         <v>2</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="56" t="s">
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="51" customFormat="1">
-      <c r="A68" s="51">
+      <c r="J67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="8" customFormat="1">
+      <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="40">
         <v>10</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="40">
         <v>3</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="56" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="51" customFormat="1">
-      <c r="A69" s="51">
+      <c r="J68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="8" customFormat="1">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="40">
         <v>10</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="40">
         <v>4</v>
       </c>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="58" t="s">
+      <c r="E69" s="40"/>
+      <c r="F69" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="58" t="s">
+      <c r="G69" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="56" t="s">
+      <c r="H69" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="51" customFormat="1">
-      <c r="A70" s="51">
+    <row r="70" spans="1:10" s="8" customFormat="1">
+      <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="40">
         <v>10</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="40">
         <v>5</v>
       </c>
-      <c r="D70" s="57" t="s">
+      <c r="D70" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="56"/>
-      <c r="F70" s="58" t="s">
+      <c r="E70" s="40"/>
+      <c r="F70" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="58" t="s">
+      <c r="G70" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="52" t="s">
+      <c r="H70" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="51">
+      <c r="J70" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="51" customFormat="1">
-      <c r="A71" s="51">
+    <row r="71" spans="1:10" s="8" customFormat="1">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="40">
         <v>10</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="40">
         <v>6</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="56"/>
-      <c r="F71" s="58" t="s">
+      <c r="E71" s="40"/>
+      <c r="F71" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="G71" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="52" t="s">
+      <c r="H71" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="51">
+      <c r="J71" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="51" customFormat="1">
-      <c r="A72" s="51">
+    <row r="72" spans="1:10" s="8" customFormat="1">
+      <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="40">
         <v>10</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="40">
         <v>7</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="58" t="s">
+      <c r="E72" s="40"/>
+      <c r="F72" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="58" t="s">
+      <c r="G72" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="52" t="s">
+      <c r="H72" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="51" customFormat="1">
-      <c r="A73" s="51">
+      <c r="J72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="8" customFormat="1">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="40">
         <v>10</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C73" s="40">
         <v>8</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="56"/>
-      <c r="F73" s="58" t="s">
+      <c r="E73" s="40"/>
+      <c r="F73" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="58" t="s">
+      <c r="G73" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="56" t="s">
+      <c r="H73" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="59" customFormat="1">
-      <c r="A74" s="59">
+      <c r="J73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="8" customFormat="1">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="64">
+      <c r="B74" s="40">
         <v>11</v>
       </c>
-      <c r="C74" s="64">
-        <v>1</v>
-      </c>
-      <c r="D74" s="54" t="s">
+      <c r="C74" s="40">
+        <v>1</v>
+      </c>
+      <c r="D74" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="64" t="s">
+      <c r="E74" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="64" t="s">
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="59" customFormat="1">
-      <c r="A75" s="59">
+      <c r="J74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="8" customFormat="1">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75" s="40">
         <v>11</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="40">
         <v>2</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="64" t="s">
+      <c r="E75" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="64" t="s">
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="59" customFormat="1">
-      <c r="A76" s="59">
+      <c r="J75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="8" customFormat="1">
+      <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="64">
+      <c r="B76" s="40">
         <v>11</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="40">
         <v>3</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="64" t="s">
+      <c r="E76" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="64" t="s">
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="59" customFormat="1">
-      <c r="A77" s="59">
+      <c r="J76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="8" customFormat="1">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="64">
+      <c r="B77" s="40">
         <v>11</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="40">
         <v>4</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D77" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="64"/>
-      <c r="F77" s="65" t="s">
+      <c r="E77" s="40"/>
+      <c r="F77" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="65" t="s">
+      <c r="G77" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="64" t="s">
+      <c r="H77" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="59" customFormat="1">
-      <c r="A78" s="59">
+    <row r="78" spans="1:10" s="8" customFormat="1">
+      <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="64">
+      <c r="B78" s="40">
         <v>11</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="40">
         <v>5</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="64"/>
-      <c r="F78" s="65" t="s">
+      <c r="E78" s="40"/>
+      <c r="F78" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="65" t="s">
+      <c r="G78" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="60" t="s">
+      <c r="H78" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="59">
+      <c r="J78" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="59" customFormat="1">
-      <c r="A79" s="59">
+    <row r="79" spans="1:10" s="8" customFormat="1">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="64">
+      <c r="B79" s="40">
         <v>11</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="40">
         <v>6</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="64"/>
-      <c r="F79" s="65" t="s">
+      <c r="E79" s="40"/>
+      <c r="F79" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="65" t="s">
+      <c r="G79" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="60" t="s">
+      <c r="H79" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="59">
+      <c r="J79" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="59" customFormat="1">
-      <c r="A80" s="59">
+    <row r="80" spans="1:10" s="8" customFormat="1">
+      <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="64">
+      <c r="B80" s="40">
         <v>11</v>
       </c>
-      <c r="C80" s="64">
+      <c r="C80" s="40">
         <v>7</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="64"/>
-      <c r="F80" s="65" t="s">
+      <c r="E80" s="40"/>
+      <c r="F80" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="65" t="s">
+      <c r="G80" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="60" t="s">
+      <c r="H80" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="59" customFormat="1">
-      <c r="A81" s="59">
+      <c r="J80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="8" customFormat="1">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="64">
+      <c r="B81" s="40">
         <v>11</v>
       </c>
-      <c r="C81" s="64">
+      <c r="C81" s="40">
         <v>8</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="64"/>
-      <c r="F81" s="65" t="s">
+      <c r="E81" s="40"/>
+      <c r="F81" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="65" t="s">
+      <c r="G81" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="64" t="s">
+      <c r="H81" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="59" customFormat="1">
-      <c r="A82" s="66">
+      <c r="J81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="8" customFormat="1">
+      <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="67">
+      <c r="B82" s="40">
         <v>12</v>
       </c>
-      <c r="C82" s="67">
-        <v>1</v>
-      </c>
-      <c r="D82" s="68" t="s">
+      <c r="C82" s="40">
+        <v>1</v>
+      </c>
+      <c r="D82" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="67" t="s">
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="59" customFormat="1">
-      <c r="A83" s="66">
+      <c r="J82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="8" customFormat="1">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="67">
+      <c r="B83" s="40">
         <v>12</v>
       </c>
-      <c r="C83" s="67">
+      <c r="C83" s="40">
         <v>2</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="67" t="s">
+      <c r="E83" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="67" t="s">
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="59" customFormat="1">
-      <c r="A84" s="66">
+      <c r="J83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="8" customFormat="1">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="67">
+      <c r="B84" s="40">
         <v>12</v>
       </c>
-      <c r="C84" s="67">
+      <c r="C84" s="40">
         <v>3</v>
       </c>
-      <c r="D84" s="68" t="s">
+      <c r="D84" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="67" t="s">
+      <c r="E84" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="67" t="s">
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="59" customFormat="1">
-      <c r="A85" s="66">
+      <c r="J84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="8" customFormat="1">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="67">
+      <c r="B85" s="40">
         <v>12</v>
       </c>
-      <c r="C85" s="67">
+      <c r="C85" s="40">
         <v>4</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="69" t="s">
+      <c r="E85" s="40"/>
+      <c r="F85" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="G85" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="67" t="s">
+      <c r="H85" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-    </row>
-    <row r="86" spans="1:10" s="59" customFormat="1">
-      <c r="A86" s="66">
+    </row>
+    <row r="86" spans="1:10" s="8" customFormat="1">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="67">
+      <c r="B86" s="40">
         <v>12</v>
       </c>
-      <c r="C86" s="67">
+      <c r="C86" s="40">
         <v>5</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="69" t="s">
+      <c r="E86" s="40"/>
+      <c r="F86" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="69" t="s">
+      <c r="G86" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="70" t="s">
+      <c r="H86" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66">
+      <c r="J86" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="59" customFormat="1">
-      <c r="A87" s="66">
+    <row r="87" spans="1:10" s="8" customFormat="1">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="67">
+      <c r="B87" s="40">
         <v>12</v>
       </c>
-      <c r="C87" s="67">
+      <c r="C87" s="40">
         <v>6</v>
       </c>
-      <c r="D87" s="68" t="s">
+      <c r="D87" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="69" t="s">
+      <c r="E87" s="40"/>
+      <c r="F87" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="69" t="s">
+      <c r="G87" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="70" t="s">
+      <c r="H87" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66">
+      <c r="J87" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="59" customFormat="1">
-      <c r="A88" s="66">
+    <row r="88" spans="1:10" s="8" customFormat="1">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="67">
+      <c r="B88" s="40">
         <v>12</v>
       </c>
-      <c r="C88" s="67">
+      <c r="C88" s="40">
         <v>7</v>
       </c>
-      <c r="D88" s="68" t="s">
+      <c r="D88" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="69" t="s">
+      <c r="E88" s="40"/>
+      <c r="F88" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="69" t="s">
+      <c r="G88" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="70" t="s">
+      <c r="H88" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="59" customFormat="1">
-      <c r="A89" s="66">
+      <c r="J88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="8" customFormat="1">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="67">
+      <c r="B89" s="40">
         <v>12</v>
       </c>
-      <c r="C89" s="67">
+      <c r="C89" s="40">
         <v>8</v>
       </c>
-      <c r="D89" s="68" t="s">
+      <c r="D89" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="69" t="s">
+      <c r="E89" s="40"/>
+      <c r="F89" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="69" t="s">
+      <c r="G89" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="67" t="s">
+      <c r="H89" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66">
+      <c r="J89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="66">
+      <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="64">
+      <c r="B90" s="40">
         <v>13</v>
       </c>
-      <c r="C90" s="64">
-        <v>1</v>
-      </c>
-      <c r="D90" s="54" t="s">
+      <c r="C90" s="40">
+        <v>1</v>
+      </c>
+      <c r="D90" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="64" t="s">
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59">
+      <c r="J90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="66">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="64">
+      <c r="B91" s="40">
         <v>13</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="40">
         <v>2</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="64" t="s">
+      <c r="E91" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="64" t="s">
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59">
+      <c r="J91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="66">
+      <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="64">
+      <c r="B92" s="40">
         <v>13</v>
       </c>
-      <c r="C92" s="64">
+      <c r="C92" s="40">
         <v>3</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="64" t="s">
+      <c r="E92" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="64" t="s">
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59">
+      <c r="J92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="66">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="64">
+      <c r="B93" s="40">
         <v>13</v>
       </c>
-      <c r="C93" s="64">
+      <c r="C93" s="40">
         <v>4</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="65" t="s">
+      <c r="E93" s="40"/>
+      <c r="F93" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="65" t="s">
+      <c r="G93" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="64" t="s">
+      <c r="H93" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
     </row>
     <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="66">
+      <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="64">
+      <c r="B94" s="40">
         <v>13</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="40">
         <v>5</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65" t="s">
+      <c r="E94" s="40"/>
+      <c r="F94" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="65" t="s">
+      <c r="G94" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="H94" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59">
+      <c r="J94" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="66">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="64">
+      <c r="B95" s="40">
         <v>13</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="40">
         <v>6</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65" t="s">
+      <c r="E95" s="40"/>
+      <c r="F95" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="60" t="s">
+      <c r="H95" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59">
+      <c r="J95" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="66">
+      <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="64">
+      <c r="B96" s="40">
         <v>13</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C96" s="40">
         <v>7</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="65" t="s">
+      <c r="E96" s="40"/>
+      <c r="F96" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="65" t="s">
+      <c r="G96" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="60" t="s">
+      <c r="H96" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59">
+      <c r="J96" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="8" customFormat="1">
-      <c r="A97" s="66">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="64">
+      <c r="B97" s="40">
         <v>13</v>
       </c>
-      <c r="C97" s="64">
+      <c r="C97" s="40">
         <v>8</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="65" t="s">
+      <c r="E97" s="40"/>
+      <c r="F97" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="65" t="s">
+      <c r="G97" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="64" t="s">
+      <c r="H97" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59">
+      <c r="J97" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="8" customFormat="1">
-      <c r="A98" s="66">
+      <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="67">
+      <c r="B98" s="40">
         <v>14</v>
       </c>
-      <c r="C98" s="67">
-        <v>1</v>
-      </c>
-      <c r="D98" s="68" t="s">
+      <c r="C98" s="40">
+        <v>1</v>
+      </c>
+      <c r="D98" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="67" t="s">
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66">
+      <c r="J98" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="8" customFormat="1">
-      <c r="A99" s="66">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="67">
+      <c r="B99" s="40">
         <v>14</v>
       </c>
-      <c r="C99" s="67">
+      <c r="C99" s="40">
         <v>2</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="64" t="s">
+      <c r="E99" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="67" t="s">
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66">
+      <c r="J99" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="8" customFormat="1">
-      <c r="A100" s="66">
+      <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="67">
+      <c r="B100" s="40">
         <v>14</v>
       </c>
-      <c r="C100" s="67">
+      <c r="C100" s="40">
         <v>3</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D100" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="64" t="s">
+      <c r="E100" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="67" t="s">
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66">
+      <c r="J100" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="8" customFormat="1">
-      <c r="A101" s="66">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="67">
+      <c r="B101" s="40">
         <v>14</v>
       </c>
-      <c r="C101" s="67">
+      <c r="C101" s="40">
         <v>4</v>
       </c>
-      <c r="D101" s="68" t="s">
+      <c r="D101" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="69" t="s">
+      <c r="E101" s="40"/>
+      <c r="F101" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="67" t="s">
+      <c r="H101" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
     </row>
     <row r="102" spans="1:10" s="8" customFormat="1">
-      <c r="A102" s="66">
+      <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="67">
+      <c r="B102" s="40">
         <v>14</v>
       </c>
-      <c r="C102" s="67">
+      <c r="C102" s="40">
         <v>5</v>
       </c>
-      <c r="D102" s="68" t="s">
+      <c r="D102" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="67"/>
-      <c r="F102" s="69" t="s">
+      <c r="E102" s="40"/>
+      <c r="F102" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="69" t="s">
+      <c r="G102" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="70" t="s">
+      <c r="H102" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66">
+      <c r="J102" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="8" customFormat="1">
-      <c r="A103" s="66">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="67">
+      <c r="B103" s="40">
         <v>14</v>
       </c>
-      <c r="C103" s="67">
+      <c r="C103" s="40">
         <v>6</v>
       </c>
-      <c r="D103" s="68" t="s">
+      <c r="D103" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="67"/>
-      <c r="F103" s="69" t="s">
+      <c r="E103" s="40"/>
+      <c r="F103" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="70" t="s">
+      <c r="H103" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66">
+      <c r="J103" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="8" customFormat="1">
-      <c r="A104" s="66">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="67">
+      <c r="B104" s="40">
         <v>14</v>
       </c>
-      <c r="C104" s="67">
+      <c r="C104" s="40">
         <v>7</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="69" t="s">
+      <c r="E104" s="40"/>
+      <c r="F104" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="69" t="s">
+      <c r="G104" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="70" t="s">
+      <c r="H104" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66">
+      <c r="J104" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="8" customFormat="1">
-      <c r="A105" s="66">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="67">
+      <c r="B105" s="40">
         <v>14</v>
       </c>
-      <c r="C105" s="67">
+      <c r="C105" s="40">
         <v>8</v>
       </c>
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="67"/>
-      <c r="F105" s="69" t="s">
+      <c r="E105" s="40"/>
+      <c r="F105" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="69" t="s">
+      <c r="G105" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="67" t="s">
+      <c r="H105" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66">
+      <c r="J105" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="8" customFormat="1">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="17"/>
+      <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="B106" s="26">
+        <v>15</v>
+      </c>
+      <c r="C106" s="26">
+        <v>1</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="8" customFormat="1">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="17"/>
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="26">
+        <v>15</v>
+      </c>
+      <c r="C107" s="26">
+        <v>2</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:10" s="8" customFormat="1">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="17"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="13"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="17"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="17"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="17"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="13"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="17"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="17"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="17"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="13"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="17"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="17"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="17"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="13"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="17"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="17"/>
-    </row>
-    <row r="121" spans="1:8" s="8" customFormat="1">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="17"/>
-    </row>
-    <row r="122" spans="1:8" s="8" customFormat="1">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="17"/>
-    </row>
-    <row r="123" spans="1:8" s="8" customFormat="1">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="17"/>
-    </row>
-    <row r="124" spans="1:8" s="8" customFormat="1">
-      <c r="A124" s="13"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="17"/>
-    </row>
-    <row r="125" spans="1:8" s="8" customFormat="1">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="17"/>
-    </row>
-    <row r="126" spans="1:8" s="8" customFormat="1">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="127" spans="1:8" s="8" customFormat="1">
-      <c r="A127" s="13"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="17"/>
-    </row>
-    <row r="128" spans="1:8" s="8" customFormat="1">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="17"/>
+      <c r="A108" s="8">
+        <v>107</v>
+      </c>
+      <c r="B108" s="26">
+        <v>15</v>
+      </c>
+      <c r="C108" s="26">
+        <v>3</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="8" customFormat="1">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="26">
+        <v>15</v>
+      </c>
+      <c r="C109" s="26">
+        <v>4</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A110" s="8">
+        <v>109</v>
+      </c>
+      <c r="B110" s="26">
+        <v>15</v>
+      </c>
+      <c r="C110" s="26">
+        <v>5</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="26"/>
+      <c r="F110" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H110" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="26">
+        <v>15</v>
+      </c>
+      <c r="C111" s="26">
+        <v>6</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="8" customFormat="1">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="26">
+        <v>15</v>
+      </c>
+      <c r="C112" s="26">
+        <v>7</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="26"/>
+      <c r="F112" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="26">
+        <v>15</v>
+      </c>
+      <c r="C113" s="26">
+        <v>8</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="8" customFormat="1">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23">
+        <v>16</v>
+      </c>
+      <c r="C114" s="23">
+        <v>1</v>
+      </c>
+      <c r="D114" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="8" customFormat="1">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23">
+        <v>16</v>
+      </c>
+      <c r="C115" s="23">
+        <v>2</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="8" customFormat="1">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23">
+        <v>16</v>
+      </c>
+      <c r="C116" s="23">
+        <v>3</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="8" customFormat="1">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23">
+        <v>16</v>
+      </c>
+      <c r="C117" s="23">
+        <v>4</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="23"/>
+      <c r="F117" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="1:10" s="8" customFormat="1">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23">
+        <v>16</v>
+      </c>
+      <c r="C118" s="23">
+        <v>5</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="23"/>
+      <c r="F118" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="8" customFormat="1">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23">
+        <v>16</v>
+      </c>
+      <c r="C119" s="23">
+        <v>6</v>
+      </c>
+      <c r="D119" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="23"/>
+      <c r="F119" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="8" customFormat="1">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23">
+        <v>16</v>
+      </c>
+      <c r="C120" s="23">
+        <v>7</v>
+      </c>
+      <c r="D120" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="8" customFormat="1">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23">
+        <v>16</v>
+      </c>
+      <c r="C121" s="23">
+        <v>8</v>
+      </c>
+      <c r="D121" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="8" customFormat="1">
+      <c r="A122" s="9"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" s="8" customFormat="1">
+      <c r="A123" s="9"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="13"/>
+    </row>
+    <row r="124" spans="1:10" s="8" customFormat="1">
+      <c r="A124" s="9"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="13"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" s="8" customFormat="1">
+      <c r="A125" s="9"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" s="8" customFormat="1">
+      <c r="A126" s="9"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" s="8" customFormat="1">
+      <c r="A127" s="9"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" s="8" customFormat="1">
+      <c r="A128" s="9"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" s="8" customFormat="1">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="17"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" s="8" customFormat="1">
-      <c r="A130" s="13"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="17"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" s="8" customFormat="1">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="17"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" s="8" customFormat="1">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="17"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" s="8" customFormat="1">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="17"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" s="8" customFormat="1">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="17"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" s="8" customFormat="1">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="17"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" s="8" customFormat="1">
-      <c r="A136" s="13"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="17"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" s="8" customFormat="1">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="17"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" s="8" customFormat="1">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="17"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" s="8" customFormat="1">
-      <c r="A139" s="13"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="17"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" s="8" customFormat="1">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="17"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" s="8" customFormat="1">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="17"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" s="8" customFormat="1">
-      <c r="A142" s="13"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="17"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" s="8" customFormat="1">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="17"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" s="8" customFormat="1">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="17"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="13"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="17"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="17"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="17"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="13"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="17"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="17"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="17"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="13"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="17"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="17"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="17"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="13"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="17"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="17"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="17"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="13"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="17"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="13"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="17"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="13"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="17"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="13"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="13"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="17"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="13"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="17"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="13"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="17"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="13"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="13"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="17"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="13"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="17"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="13"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="17"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="13"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="13"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="17"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="13"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="17"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="13"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="17"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="13"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="13"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="17"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="13"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="17"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="13"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="17"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="13"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="13"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="17"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="13"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="13"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="17"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="13"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="13"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="17"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="13"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="13"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="17"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="13"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="13"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="17"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="13"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="17"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="13"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="17"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="13"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="17"/>
+      <c r="A179" s="9"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="13"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="188">
   <si>
     <t>id|</t>
   </si>
@@ -1028,6 +1028,10 @@
   </si>
   <si>
     <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2556,7 +2560,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5688,7 +5692,7 @@
         <v>186</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H121" s="23" t="s">
         <v>100</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="206">
   <si>
     <t>id|</t>
   </si>
@@ -1031,7 +1031,79 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10,</t>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子汁6瓶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,12 +1201,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1151,7 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,9 +1288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,44 +1312,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1301,13 +1346,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1317,8 +1356,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1662,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1689,7 +1750,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="7"/>
@@ -1725,7 +1786,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="11"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1786,7 +1847,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1817,7 +1878,7 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -1850,7 +1911,7 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>6</v>
       </c>
       <c r="K7" s="4">
@@ -1859,11 +1920,11 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="16.5">
+    <row r="8" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="8">
@@ -1874,7 +1935,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="8">
@@ -1883,20 +1944,20 @@
       <c r="I8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>7</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="27">
         <v>0</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>134</v>
       </c>
       <c r="C9" s="8">
@@ -1907,7 +1968,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="8">
@@ -1916,20 +1977,20 @@
       <c r="I9" s="8">
         <v>8</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>8</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="27">
         <v>0</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="8">
@@ -1940,7 +2001,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H10" s="8">
@@ -1949,20 +2010,20 @@
       <c r="I10" s="8">
         <v>9</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>9</v>
       </c>
-      <c r="K10" s="34">
-        <v>1</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K10" s="27">
+        <v>1</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>143</v>
       </c>
       <c r="C11" s="8">
@@ -1973,7 +2034,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H11" s="8">
@@ -1982,31 +2043,31 @@
       <c r="I11" s="8">
         <v>10</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>10</v>
       </c>
-      <c r="K11" s="34">
-        <v>1</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K11" s="27">
+        <v>1</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="29">
         <v>1609775999</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H12" s="8">
@@ -2015,31 +2076,31 @@
       <c r="I12" s="8">
         <v>11</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>11</v>
       </c>
-      <c r="K12" s="34">
-        <v>1</v>
-      </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K12" s="27">
+        <v>1</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="29">
         <v>1609775999</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H13" s="8">
@@ -2048,31 +2109,31 @@
       <c r="I13" s="8">
         <v>12</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>12</v>
       </c>
-      <c r="K13" s="34">
-        <v>1</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K13" s="27">
+        <v>1</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="29">
         <v>1609775999</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="8">
@@ -2081,31 +2142,31 @@
       <c r="I14" s="8">
         <v>13</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>13</v>
       </c>
-      <c r="K14" s="34">
-        <v>1</v>
-      </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K14" s="27">
+        <v>1</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="29">
         <v>1609775999</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H15" s="8">
@@ -2114,92 +2175,140 @@
       <c r="I15" s="8">
         <v>14</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>14</v>
       </c>
-      <c r="K15" s="34">
-        <v>1</v>
-      </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A16" s="25">
+      <c r="K15" s="27">
+        <v>1</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="29">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="29">
         <v>1610380799</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="29" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="25">
-        <v>1</v>
-      </c>
-      <c r="I16" s="25">
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
         <v>15</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="8">
         <v>15</v>
       </c>
-      <c r="K16" s="38">
-        <v>1</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A17" s="25">
+      <c r="K16" s="27">
+        <v>1</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="29">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="29">
         <v>1610380799</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="29" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
         <v>16</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="8">
         <v>16</v>
       </c>
-      <c r="K17" s="38">
-        <v>1</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="K17" s="27">
+        <v>1</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" s="36" customFormat="1">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1610409600</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1610985599</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
+        <v>17</v>
+      </c>
+      <c r="J18" s="37">
+        <v>17</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="30" customFormat="1">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1610409600</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1610985599</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21">
+        <v>18</v>
+      </c>
+      <c r="J19" s="37">
+        <v>18</v>
+      </c>
+      <c r="K19" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
@@ -2322,10 +2431,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2448,99 +2557,121 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="18" customFormat="1">
-      <c r="A10" s="18">
+    <row r="10" spans="1:7" s="8" customFormat="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="18" customFormat="1">
-      <c r="A11" s="18">
+    <row r="11" spans="1:7" s="8" customFormat="1">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1">
-      <c r="A12" s="21">
+    <row r="12" spans="1:7" s="8" customFormat="1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1">
-      <c r="A13" s="21">
+    <row r="13" spans="1:7" s="8" customFormat="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="26" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21">
+    <row r="14" spans="1:7" s="8" customFormat="1">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="21">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="30" customFormat="1">
-      <c r="A16" s="21">
+    <row r="16" spans="1:7" s="8" customFormat="1">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:3" s="30" customFormat="1">
-      <c r="A17" s="21">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="40">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="40">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2557,10 +2688,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
+      <selection pane="bottomRight" activeCell="E143" sqref="E143:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2594,10 +2725,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2707,7 +2838,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2727,7 +2858,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2750,7 +2881,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2871,7 +3002,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2883,21 +3014,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2908,21 +3039,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>3</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2933,20 +3064,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>5</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2957,20 +3088,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>6</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2981,20 +3112,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>3</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>7</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -3005,21 +3136,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -3030,21 +3161,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -3055,21 +3186,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>4</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>3</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -3080,21 +3211,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>4</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3102,21 +3233,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>4</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>5</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3127,21 +3258,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>4</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>6</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3152,21 +3283,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>4</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>7</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3177,23 +3308,23 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>4</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
@@ -3204,21 +3335,21 @@
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="31">
         <v>5</v>
       </c>
-      <c r="C26" s="40">
-        <v>1</v>
-      </c>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="40" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="31" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="8">
@@ -3229,21 +3360,21 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="31">
         <v>5</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="31">
         <v>2</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="40" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="8">
@@ -3254,21 +3385,21 @@
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="31">
         <v>5</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="31">
         <v>3</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="40" t="s">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="8">
@@ -3279,23 +3410,23 @@
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="31">
         <v>5</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="31">
         <v>4</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3303,23 +3434,23 @@
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="31">
         <v>5</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="31">
         <v>5</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="42" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J30" s="8">
@@ -3330,23 +3461,23 @@
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="31">
         <v>5</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="31">
         <v>6</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="42" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J31" s="8">
@@ -3357,23 +3488,23 @@
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="31">
         <v>5</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="31">
         <v>7</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J32" s="8">
@@ -3384,23 +3515,23 @@
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="31">
         <v>5</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="31">
         <v>8</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="42" t="s">
+      <c r="E33" s="31"/>
+      <c r="F33" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="31" t="s">
         <v>121</v>
       </c>
       <c r="J33" s="8">
@@ -3411,21 +3542,21 @@
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="31">
         <v>6</v>
       </c>
-      <c r="C34" s="40">
-        <v>1</v>
-      </c>
-      <c r="D34" s="41" t="s">
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="40" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J34" s="8">
@@ -3436,21 +3567,21 @@
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="31">
         <v>6</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="31">
         <v>2</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="40" t="s">
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J35" s="8">
@@ -3461,21 +3592,21 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="31">
         <v>6</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="31">
         <v>3</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="40" t="s">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="8">
@@ -3486,23 +3617,23 @@
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="31">
         <v>6</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="31">
         <v>4</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3510,23 +3641,23 @@
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="31">
         <v>6</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="31">
         <v>5</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="42" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J38" s="8">
@@ -3537,23 +3668,23 @@
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="31">
         <v>6</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="31">
         <v>6</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="42" t="s">
+      <c r="E39" s="31"/>
+      <c r="F39" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J39" s="8">
@@ -3564,23 +3695,23 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="31">
         <v>6</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="31">
         <v>7</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="42" t="s">
+      <c r="E40" s="31"/>
+      <c r="F40" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J40" s="8">
@@ -3591,23 +3722,23 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="31">
         <v>6</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="31">
         <v>8</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J41" s="8">
@@ -3618,21 +3749,21 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="31">
         <v>7</v>
       </c>
-      <c r="C42" s="40">
-        <v>1</v>
-      </c>
-      <c r="D42" s="41" t="s">
+      <c r="C42" s="31">
+        <v>1</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="40" t="s">
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J42" s="8">
@@ -3643,21 +3774,21 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="31">
         <v>7</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="31">
         <v>2</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="40" t="s">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J43" s="8">
@@ -3668,21 +3799,21 @@
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="31">
         <v>7</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="31">
         <v>3</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="40" t="s">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="31" t="s">
         <v>95</v>
       </c>
       <c r="J44" s="8">
@@ -3693,23 +3824,23 @@
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="31">
         <v>7</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="31">
         <v>4</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="42" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="42" t="s">
+      <c r="G45" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3717,23 +3848,23 @@
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="31">
         <v>7</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="31">
         <v>5</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="42" t="s">
+      <c r="E46" s="31"/>
+      <c r="F46" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J46" s="8">
@@ -3744,23 +3875,23 @@
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="31">
         <v>7</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="31">
         <v>6</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="42" t="s">
+      <c r="E47" s="31"/>
+      <c r="F47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J47" s="8">
@@ -3771,23 +3902,23 @@
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="31">
         <v>7</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="31">
         <v>7</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="42" t="s">
+      <c r="E48" s="31"/>
+      <c r="F48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J48" s="8">
@@ -3798,23 +3929,23 @@
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="31">
         <v>7</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="31">
         <v>8</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="42" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J49" s="8">
@@ -3825,21 +3956,21 @@
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="31">
         <v>8</v>
       </c>
-      <c r="C50" s="40">
-        <v>1</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="31">
+        <v>1</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="40" t="s">
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J50" s="8">
@@ -3850,21 +3981,21 @@
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="31">
         <v>8</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="31">
         <v>2</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="40" t="s">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J51" s="8">
@@ -3875,21 +4006,21 @@
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="31">
         <v>8</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="31">
         <v>3</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="40" t="s">
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J52" s="8">
@@ -3900,23 +4031,23 @@
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="31">
         <v>8</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="31">
         <v>4</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="42" t="s">
+      <c r="E53" s="31"/>
+      <c r="F53" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3924,23 +4055,23 @@
       <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="31">
         <v>8</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="31">
         <v>5</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="42" t="s">
+      <c r="E54" s="31"/>
+      <c r="F54" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J54" s="8">
@@ -3951,23 +4082,23 @@
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="31">
         <v>8</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="31">
         <v>6</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="42" t="s">
+      <c r="E55" s="31"/>
+      <c r="F55" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J55" s="8">
@@ -3978,23 +4109,23 @@
       <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="40">
+      <c r="B56" s="31">
         <v>8</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="31">
         <v>7</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="42" t="s">
+      <c r="E56" s="31"/>
+      <c r="F56" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J56" s="8">
@@ -4005,23 +4136,23 @@
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="31">
         <v>8</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="31">
         <v>8</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="42" t="s">
+      <c r="E57" s="31"/>
+      <c r="F57" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J57" s="8">
@@ -4032,21 +4163,21 @@
       <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="40">
+      <c r="B58" s="31">
         <v>9</v>
       </c>
-      <c r="C58" s="40">
-        <v>1</v>
-      </c>
-      <c r="D58" s="41" t="s">
+      <c r="C58" s="31">
+        <v>1</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="40" t="s">
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J58" s="8">
@@ -4057,21 +4188,21 @@
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="40">
+      <c r="B59" s="31">
         <v>9</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="31">
         <v>2</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="40" t="s">
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J59" s="8">
@@ -4082,21 +4213,21 @@
       <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="40">
+      <c r="B60" s="31">
         <v>9</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="31">
         <v>3</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="40" t="s">
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J60" s="8">
@@ -4107,23 +4238,23 @@
       <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="31">
         <v>9</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="31">
         <v>4</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="42" t="s">
+      <c r="E61" s="31"/>
+      <c r="F61" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4131,23 +4262,23 @@
       <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="31">
         <v>9</v>
       </c>
-      <c r="C62" s="40">
+      <c r="C62" s="31">
         <v>5</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="42" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="G62" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J62" s="8">
@@ -4158,23 +4289,23 @@
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B63" s="31">
         <v>9</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="31">
         <v>6</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="42" t="s">
+      <c r="E63" s="31"/>
+      <c r="F63" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J63" s="8">
@@ -4185,23 +4316,23 @@
       <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="31">
         <v>9</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="31">
         <v>7</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="42" t="s">
+      <c r="E64" s="31"/>
+      <c r="F64" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J64" s="8">
@@ -4212,23 +4343,23 @@
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="40">
+      <c r="B65" s="31">
         <v>9</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="31">
         <v>8</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="42" t="s">
+      <c r="E65" s="31"/>
+      <c r="F65" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H65" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J65" s="8">
@@ -4239,21 +4370,21 @@
       <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="40">
+      <c r="B66" s="31">
         <v>10</v>
       </c>
-      <c r="C66" s="40">
-        <v>1</v>
-      </c>
-      <c r="D66" s="41" t="s">
+      <c r="C66" s="31">
+        <v>1</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="40" t="s">
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J66" s="8">
@@ -4264,21 +4395,21 @@
       <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="31">
         <v>10</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="31">
         <v>2</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="40" t="s">
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J67" s="8">
@@ -4289,21 +4420,21 @@
       <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="31">
         <v>10</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="31">
         <v>3</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="40" t="s">
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J68" s="8">
@@ -4314,23 +4445,23 @@
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="31">
         <v>10</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="31">
         <v>4</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="42" t="s">
+      <c r="E69" s="31"/>
+      <c r="F69" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4338,23 +4469,23 @@
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="40">
+      <c r="B70" s="31">
         <v>10</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="31">
         <v>5</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="40"/>
-      <c r="F70" s="42" t="s">
+      <c r="E70" s="31"/>
+      <c r="F70" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="42" t="s">
+      <c r="G70" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="33" t="s">
+      <c r="H70" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J70" s="8">
@@ -4365,23 +4496,23 @@
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="40">
+      <c r="B71" s="31">
         <v>10</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="31">
         <v>6</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="40"/>
-      <c r="F71" s="42" t="s">
+      <c r="E71" s="31"/>
+      <c r="F71" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="42" t="s">
+      <c r="G71" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H71" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J71" s="8">
@@ -4392,23 +4523,23 @@
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="31">
         <v>10</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="31">
         <v>7</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="42" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J72" s="8">
@@ -4419,23 +4550,23 @@
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="40">
+      <c r="B73" s="31">
         <v>10</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="31">
         <v>8</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="42" t="s">
+      <c r="E73" s="31"/>
+      <c r="F73" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G73" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="40" t="s">
+      <c r="H73" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J73" s="8">
@@ -4446,21 +4577,21 @@
       <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="40">
+      <c r="B74" s="31">
         <v>11</v>
       </c>
-      <c r="C74" s="40">
-        <v>1</v>
-      </c>
-      <c r="D74" s="41" t="s">
+      <c r="C74" s="31">
+        <v>1</v>
+      </c>
+      <c r="D74" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="40" t="s">
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J74" s="8">
@@ -4471,21 +4602,21 @@
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="40">
+      <c r="B75" s="31">
         <v>11</v>
       </c>
-      <c r="C75" s="40">
+      <c r="C75" s="31">
         <v>2</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="40" t="s">
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J75" s="8">
@@ -4496,21 +4627,21 @@
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="40">
+      <c r="B76" s="31">
         <v>11</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="31">
         <v>3</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="40" t="s">
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J76" s="8">
@@ -4521,23 +4652,23 @@
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="40">
+      <c r="B77" s="31">
         <v>11</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="31">
         <v>4</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="40"/>
-      <c r="F77" s="42" t="s">
+      <c r="E77" s="31"/>
+      <c r="F77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="42" t="s">
+      <c r="G77" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="40" t="s">
+      <c r="H77" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4545,23 +4676,23 @@
       <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="40">
+      <c r="B78" s="31">
         <v>11</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="31">
         <v>5</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="40"/>
-      <c r="F78" s="42" t="s">
+      <c r="E78" s="31"/>
+      <c r="F78" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="42" t="s">
+      <c r="G78" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="33" t="s">
+      <c r="H78" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J78" s="8">
@@ -4572,23 +4703,23 @@
       <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="40">
+      <c r="B79" s="31">
         <v>11</v>
       </c>
-      <c r="C79" s="40">
+      <c r="C79" s="31">
         <v>6</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="40"/>
-      <c r="F79" s="42" t="s">
+      <c r="E79" s="31"/>
+      <c r="F79" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="33" t="s">
+      <c r="H79" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J79" s="8">
@@ -4599,23 +4730,23 @@
       <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="40">
+      <c r="B80" s="31">
         <v>11</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="31">
         <v>7</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="40"/>
-      <c r="F80" s="42" t="s">
+      <c r="E80" s="31"/>
+      <c r="F80" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="42" t="s">
+      <c r="G80" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J80" s="8">
@@ -4626,23 +4757,23 @@
       <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="40">
+      <c r="B81" s="31">
         <v>11</v>
       </c>
-      <c r="C81" s="40">
+      <c r="C81" s="31">
         <v>8</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="40"/>
-      <c r="F81" s="42" t="s">
+      <c r="E81" s="31"/>
+      <c r="F81" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="42" t="s">
+      <c r="G81" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="40" t="s">
+      <c r="H81" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J81" s="8">
@@ -4653,21 +4784,21 @@
       <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="40">
+      <c r="B82" s="31">
         <v>12</v>
       </c>
-      <c r="C82" s="40">
-        <v>1</v>
-      </c>
-      <c r="D82" s="41" t="s">
+      <c r="C82" s="31">
+        <v>1</v>
+      </c>
+      <c r="D82" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="40" t="s">
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J82" s="8">
@@ -4678,21 +4809,21 @@
       <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="40">
+      <c r="B83" s="31">
         <v>12</v>
       </c>
-      <c r="C83" s="40">
+      <c r="C83" s="31">
         <v>2</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="40" t="s">
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J83" s="8">
@@ -4703,21 +4834,21 @@
       <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="31">
         <v>12</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="31">
         <v>3</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="40" t="s">
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J84" s="8">
@@ -4728,23 +4859,23 @@
       <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="40">
+      <c r="B85" s="31">
         <v>12</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C85" s="31">
         <v>4</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="40"/>
-      <c r="F85" s="42" t="s">
+      <c r="E85" s="31"/>
+      <c r="F85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="42" t="s">
+      <c r="G85" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="40" t="s">
+      <c r="H85" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4752,23 +4883,23 @@
       <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="40">
+      <c r="B86" s="31">
         <v>12</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="31">
         <v>5</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="40"/>
-      <c r="F86" s="42" t="s">
+      <c r="E86" s="31"/>
+      <c r="F86" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="42" t="s">
+      <c r="G86" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J86" s="8">
@@ -4779,23 +4910,23 @@
       <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="40">
+      <c r="B87" s="31">
         <v>12</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="31">
         <v>6</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="40"/>
-      <c r="F87" s="42" t="s">
+      <c r="E87" s="31"/>
+      <c r="F87" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="42" t="s">
+      <c r="G87" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J87" s="8">
@@ -4806,23 +4937,23 @@
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="40">
+      <c r="B88" s="31">
         <v>12</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="31">
         <v>7</v>
       </c>
-      <c r="D88" s="41" t="s">
+      <c r="D88" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="40"/>
-      <c r="F88" s="42" t="s">
+      <c r="E88" s="31"/>
+      <c r="F88" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="42" t="s">
+      <c r="G88" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J88" s="8">
@@ -4833,23 +4964,23 @@
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="40">
+      <c r="B89" s="31">
         <v>12</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="31">
         <v>8</v>
       </c>
-      <c r="D89" s="41" t="s">
+      <c r="D89" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="40"/>
-      <c r="F89" s="42" t="s">
+      <c r="E89" s="31"/>
+      <c r="F89" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="42" t="s">
+      <c r="G89" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="40" t="s">
+      <c r="H89" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J89" s="8">
@@ -4860,21 +4991,21 @@
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="40">
+      <c r="B90" s="31">
         <v>13</v>
       </c>
-      <c r="C90" s="40">
-        <v>1</v>
-      </c>
-      <c r="D90" s="41" t="s">
+      <c r="C90" s="31">
+        <v>1</v>
+      </c>
+      <c r="D90" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="40" t="s">
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J90" s="8">
@@ -4885,21 +5016,21 @@
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="40">
+      <c r="B91" s="31">
         <v>13</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C91" s="31">
         <v>2</v>
       </c>
-      <c r="D91" s="41" t="s">
+      <c r="D91" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="40" t="s">
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J91" s="8">
@@ -4910,21 +5041,21 @@
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="40">
+      <c r="B92" s="31">
         <v>13</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="31">
         <v>3</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D92" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="40" t="s">
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J92" s="8">
@@ -4935,23 +5066,23 @@
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="40">
+      <c r="B93" s="31">
         <v>13</v>
       </c>
-      <c r="C93" s="40">
+      <c r="C93" s="31">
         <v>4</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="40"/>
-      <c r="F93" s="42" t="s">
+      <c r="E93" s="31"/>
+      <c r="F93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="42" t="s">
+      <c r="G93" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="40" t="s">
+      <c r="H93" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4959,23 +5090,23 @@
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="40">
+      <c r="B94" s="31">
         <v>13</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="31">
         <v>5</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D94" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="40"/>
-      <c r="F94" s="42" t="s">
+      <c r="E94" s="31"/>
+      <c r="F94" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="42" t="s">
+      <c r="G94" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="33" t="s">
+      <c r="H94" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J94" s="8">
@@ -4986,23 +5117,23 @@
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="40">
+      <c r="B95" s="31">
         <v>13</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C95" s="31">
         <v>6</v>
       </c>
-      <c r="D95" s="41" t="s">
+      <c r="D95" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="40"/>
-      <c r="F95" s="42" t="s">
+      <c r="E95" s="31"/>
+      <c r="F95" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="42" t="s">
+      <c r="G95" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J95" s="8">
@@ -5013,23 +5144,23 @@
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="40">
+      <c r="B96" s="31">
         <v>13</v>
       </c>
-      <c r="C96" s="40">
+      <c r="C96" s="31">
         <v>7</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="40"/>
-      <c r="F96" s="42" t="s">
+      <c r="E96" s="31"/>
+      <c r="F96" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="42" t="s">
+      <c r="G96" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J96" s="8">
@@ -5040,23 +5171,23 @@
       <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="40">
+      <c r="B97" s="31">
         <v>13</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="31">
         <v>8</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="40"/>
-      <c r="F97" s="42" t="s">
+      <c r="E97" s="31"/>
+      <c r="F97" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="42" t="s">
+      <c r="G97" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="40" t="s">
+      <c r="H97" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J97" s="8">
@@ -5067,21 +5198,21 @@
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="40">
+      <c r="B98" s="31">
         <v>14</v>
       </c>
-      <c r="C98" s="40">
-        <v>1</v>
-      </c>
-      <c r="D98" s="41" t="s">
+      <c r="C98" s="31">
+        <v>1</v>
+      </c>
+      <c r="D98" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="40" t="s">
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J98" s="8">
@@ -5092,21 +5223,21 @@
       <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="40">
+      <c r="B99" s="31">
         <v>14</v>
       </c>
-      <c r="C99" s="40">
+      <c r="C99" s="31">
         <v>2</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="40" t="s">
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J99" s="8">
@@ -5117,21 +5248,21 @@
       <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="40">
+      <c r="B100" s="31">
         <v>14</v>
       </c>
-      <c r="C100" s="40">
+      <c r="C100" s="31">
         <v>3</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="40" t="s">
+      <c r="E100" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="40" t="s">
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J100" s="8">
@@ -5142,23 +5273,23 @@
       <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="40">
+      <c r="B101" s="31">
         <v>14</v>
       </c>
-      <c r="C101" s="40">
+      <c r="C101" s="31">
         <v>4</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="40"/>
-      <c r="F101" s="42" t="s">
+      <c r="E101" s="31"/>
+      <c r="F101" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="42" t="s">
+      <c r="G101" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="40" t="s">
+      <c r="H101" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5166,23 +5297,23 @@
       <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="40">
+      <c r="B102" s="31">
         <v>14</v>
       </c>
-      <c r="C102" s="40">
+      <c r="C102" s="31">
         <v>5</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D102" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="40"/>
-      <c r="F102" s="42" t="s">
+      <c r="E102" s="31"/>
+      <c r="F102" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="42" t="s">
+      <c r="G102" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J102" s="8">
@@ -5193,23 +5324,23 @@
       <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="40">
+      <c r="B103" s="31">
         <v>14</v>
       </c>
-      <c r="C103" s="40">
+      <c r="C103" s="31">
         <v>6</v>
       </c>
-      <c r="D103" s="41" t="s">
+      <c r="D103" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="40"/>
-      <c r="F103" s="42" t="s">
+      <c r="E103" s="31"/>
+      <c r="F103" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="42" t="s">
+      <c r="G103" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H103" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J103" s="8">
@@ -5220,23 +5351,23 @@
       <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="40">
+      <c r="B104" s="31">
         <v>14</v>
       </c>
-      <c r="C104" s="40">
+      <c r="C104" s="31">
         <v>7</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="40"/>
-      <c r="F104" s="42" t="s">
+      <c r="E104" s="31"/>
+      <c r="F104" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J104" s="8">
@@ -5247,23 +5378,23 @@
       <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="40">
+      <c r="B105" s="31">
         <v>14</v>
       </c>
-      <c r="C105" s="40">
+      <c r="C105" s="31">
         <v>8</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="40"/>
-      <c r="F105" s="42" t="s">
+      <c r="E105" s="31"/>
+      <c r="F105" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="40" t="s">
+      <c r="H105" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J105" s="8">
@@ -5274,25 +5405,24 @@
       <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="26">
+      <c r="B106" s="31">
         <v>15</v>
       </c>
-      <c r="C106" s="26">
-        <v>1</v>
-      </c>
-      <c r="D106" s="27" t="s">
+      <c r="C106" s="31">
+        <v>1</v>
+      </c>
+      <c r="D106" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="26" t="s">
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25">
+      <c r="J106" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5300,25 +5430,24 @@
       <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="26">
+      <c r="B107" s="31">
         <v>15</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="31">
         <v>2</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="26" t="s">
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25">
+      <c r="J107" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5326,25 +5455,24 @@
       <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="26">
+      <c r="B108" s="31">
         <v>15</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="31">
         <v>3</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="26" t="s">
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25">
+      <c r="J108" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5352,53 +5480,50 @@
       <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="26">
+      <c r="B109" s="31">
         <v>15</v>
       </c>
-      <c r="C109" s="26">
+      <c r="C109" s="31">
         <v>4</v>
       </c>
-      <c r="D109" s="27" t="s">
+      <c r="D109" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="28" t="s">
+      <c r="E109" s="31"/>
+      <c r="F109" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H109" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="26">
+      <c r="B110" s="31">
         <v>15</v>
       </c>
-      <c r="C110" s="26">
+      <c r="C110" s="31">
         <v>5</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="26"/>
-      <c r="F110" s="44" t="s">
+      <c r="E110" s="31"/>
+      <c r="F110" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25">
+      <c r="J110" s="8">
         <v>3</v>
       </c>
     </row>
@@ -5406,27 +5531,26 @@
       <c r="A111" s="8">
         <v>110</v>
       </c>
-      <c r="B111" s="26">
+      <c r="B111" s="31">
         <v>15</v>
       </c>
-      <c r="C111" s="26">
+      <c r="C111" s="31">
         <v>6</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D111" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="44" t="s">
+      <c r="E111" s="31"/>
+      <c r="F111" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="G111" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H111" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25">
+      <c r="J111" s="8">
         <v>2</v>
       </c>
     </row>
@@ -5434,27 +5558,26 @@
       <c r="A112" s="8">
         <v>111</v>
       </c>
-      <c r="B112" s="26">
+      <c r="B112" s="31">
         <v>15</v>
       </c>
-      <c r="C112" s="26">
+      <c r="C112" s="31">
         <v>7</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="28" t="s">
+      <c r="E112" s="31"/>
+      <c r="F112" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="28" t="s">
+      <c r="G112" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H112" s="29" t="s">
+      <c r="H112" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25">
+      <c r="J112" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5462,27 +5585,26 @@
       <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B113" s="26">
+      <c r="B113" s="31">
         <v>15</v>
       </c>
-      <c r="C113" s="26">
+      <c r="C113" s="31">
         <v>8</v>
       </c>
-      <c r="D113" s="27" t="s">
+      <c r="D113" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E113" s="26"/>
-      <c r="F113" s="44" t="s">
+      <c r="E113" s="31"/>
+      <c r="F113" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H113" s="26" t="s">
+      <c r="H113" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25">
+      <c r="J113" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5490,25 +5612,24 @@
       <c r="A114" s="8">
         <v>113</v>
       </c>
-      <c r="B114" s="23">
+      <c r="B114" s="31">
         <v>16</v>
       </c>
-      <c r="C114" s="23">
-        <v>1</v>
-      </c>
-      <c r="D114" s="43" t="s">
+      <c r="C114" s="31">
+        <v>1</v>
+      </c>
+      <c r="D114" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E114" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="23" t="s">
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21">
+      <c r="J114" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5516,25 +5637,24 @@
       <c r="A115" s="8">
         <v>114</v>
       </c>
-      <c r="B115" s="23">
+      <c r="B115" s="31">
         <v>16</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="31">
         <v>2</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E115" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="23" t="s">
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21">
+      <c r="J115" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5542,25 +5662,24 @@
       <c r="A116" s="8">
         <v>115</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="31">
         <v>16</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="31">
         <v>3</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="D116" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="23" t="s">
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21">
+      <c r="J116" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5568,53 +5687,50 @@
       <c r="A117" s="8">
         <v>116</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="31">
         <v>16</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="31">
         <v>4</v>
       </c>
-      <c r="D117" s="43" t="s">
+      <c r="D117" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="24" t="s">
+      <c r="E117" s="31"/>
+      <c r="F117" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G117" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H117" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="I117" s="21"/>
-      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="1:10" s="8" customFormat="1">
       <c r="A118" s="8">
         <v>117</v>
       </c>
-      <c r="B118" s="23">
+      <c r="B118" s="31">
         <v>16</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="31">
         <v>5</v>
       </c>
-      <c r="D118" s="43" t="s">
+      <c r="D118" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="24" t="s">
+      <c r="E118" s="31"/>
+      <c r="F118" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G118" s="24" t="s">
+      <c r="G118" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H118" s="22" t="s">
+      <c r="H118" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21">
+      <c r="J118" s="8">
         <v>3</v>
       </c>
     </row>
@@ -5622,27 +5738,26 @@
       <c r="A119" s="8">
         <v>118</v>
       </c>
-      <c r="B119" s="23">
+      <c r="B119" s="31">
         <v>16</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="31">
         <v>6</v>
       </c>
-      <c r="D119" s="43" t="s">
+      <c r="D119" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="22" t="s">
+      <c r="E119" s="31"/>
+      <c r="F119" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G119" s="24" t="s">
+      <c r="G119" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="22" t="s">
+      <c r="H119" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21">
+      <c r="J119" s="8">
         <v>2</v>
       </c>
     </row>
@@ -5650,27 +5765,26 @@
       <c r="A120" s="8">
         <v>119</v>
       </c>
-      <c r="B120" s="23">
+      <c r="B120" s="31">
         <v>16</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="31">
         <v>7</v>
       </c>
-      <c r="D120" s="43" t="s">
+      <c r="D120" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="24" t="s">
+      <c r="E120" s="31"/>
+      <c r="F120" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G120" s="24" t="s">
+      <c r="G120" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="H120" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21">
+      <c r="J120" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5678,398 +5792,670 @@
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B121" s="31">
         <v>16</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="31">
         <v>8</v>
       </c>
-      <c r="D121" s="43" t="s">
+      <c r="D121" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="22" t="s">
+      <c r="E121" s="31"/>
+      <c r="F121" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G121" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="H121" s="23" t="s">
+      <c r="G121" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21">
+      <c r="J121" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="8" customFormat="1">
-      <c r="A122" s="9"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="B122" s="19">
+        <v>17</v>
+      </c>
+      <c r="C122" s="19">
+        <v>1</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:10" s="8" customFormat="1">
-      <c r="A123" s="9"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="13"/>
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="19">
+        <v>17</v>
+      </c>
+      <c r="C123" s="19">
+        <v>2</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:10" s="8" customFormat="1">
-      <c r="A124" s="9"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="13"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="19">
+        <v>17</v>
+      </c>
+      <c r="C124" s="19">
+        <v>3</v>
+      </c>
+      <c r="D124" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F124" s="17"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:10" s="8" customFormat="1">
-      <c r="A125" s="9"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="13"/>
-    </row>
-    <row r="126" spans="1:10" s="8" customFormat="1">
-      <c r="A126" s="9"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="13"/>
-    </row>
-    <row r="127" spans="1:10" s="8" customFormat="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="13"/>
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="19">
+        <v>17</v>
+      </c>
+      <c r="C125" s="19">
+        <v>4</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="B126" s="19">
+        <v>17</v>
+      </c>
+      <c r="C126" s="19">
+        <v>5</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="19">
+        <v>17</v>
+      </c>
+      <c r="C127" s="19">
+        <v>6</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:10" s="8" customFormat="1">
-      <c r="A128" s="9"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="13"/>
-    </row>
-    <row r="129" spans="1:8" s="8" customFormat="1">
-      <c r="A129" s="9"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="13"/>
-    </row>
-    <row r="130" spans="1:8" s="8" customFormat="1">
-      <c r="A130" s="9"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="13"/>
-    </row>
-    <row r="131" spans="1:8" s="8" customFormat="1">
-      <c r="A131" s="9"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="13"/>
-    </row>
-    <row r="132" spans="1:8" s="8" customFormat="1">
-      <c r="A132" s="9"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="13"/>
-    </row>
-    <row r="133" spans="1:8" s="8" customFormat="1">
-      <c r="A133" s="9"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="13"/>
-    </row>
-    <row r="134" spans="1:8" s="8" customFormat="1">
-      <c r="A134" s="9"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="13"/>
-    </row>
-    <row r="135" spans="1:8" s="8" customFormat="1">
-      <c r="A135" s="9"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="13"/>
-    </row>
-    <row r="136" spans="1:8" s="8" customFormat="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="13"/>
-    </row>
-    <row r="137" spans="1:8" s="8" customFormat="1">
-      <c r="A137" s="9"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="13"/>
-    </row>
-    <row r="138" spans="1:8" s="8" customFormat="1">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="19">
+        <v>17</v>
+      </c>
+      <c r="C128" s="19">
+        <v>7</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" s="19">
+        <v>17</v>
+      </c>
+      <c r="C129" s="19">
+        <v>8</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="8" customFormat="1">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="B130" s="22">
+        <v>18</v>
+      </c>
+      <c r="C130" s="22">
+        <v>1</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="8" customFormat="1">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="22">
+        <v>18</v>
+      </c>
+      <c r="C131" s="22">
+        <v>2</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="8" customFormat="1">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="B132" s="22">
+        <v>18</v>
+      </c>
+      <c r="C132" s="22">
+        <v>3</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="8" customFormat="1">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="22">
+        <v>18</v>
+      </c>
+      <c r="C133" s="22">
+        <v>4</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="22"/>
+      <c r="F133" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+    </row>
+    <row r="134" spans="1:10" s="8" customFormat="1">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="22">
+        <v>18</v>
+      </c>
+      <c r="C134" s="22">
+        <v>5</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E134" s="22"/>
+      <c r="F134" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="8" customFormat="1">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="22">
+        <v>18</v>
+      </c>
+      <c r="C135" s="22">
+        <v>6</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="8" customFormat="1">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="B136" s="22">
+        <v>18</v>
+      </c>
+      <c r="C136" s="22">
+        <v>7</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="22"/>
+      <c r="F136" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="8" customFormat="1">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="22">
+        <v>18</v>
+      </c>
+      <c r="C137" s="22">
+        <v>8</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="8" customFormat="1">
       <c r="A138" s="9"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="9"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="13"/>
-    </row>
-    <row r="139" spans="1:8" s="8" customFormat="1">
+      <c r="E138" s="12"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="12"/>
+    </row>
+    <row r="139" spans="1:10" s="8" customFormat="1">
       <c r="A139" s="9"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="9"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="13"/>
-    </row>
-    <row r="140" spans="1:8" s="8" customFormat="1">
+      <c r="E139" s="12"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="1:10" s="8" customFormat="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="9"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="13"/>
-    </row>
-    <row r="141" spans="1:8" s="8" customFormat="1">
+      <c r="E140" s="12"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="1:10" s="8" customFormat="1">
       <c r="A141" s="9"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="9"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="13"/>
-    </row>
-    <row r="142" spans="1:8" s="8" customFormat="1">
+      <c r="E141" s="12"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="12"/>
+    </row>
+    <row r="142" spans="1:10" s="8" customFormat="1">
       <c r="A142" s="9"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="9"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="13"/>
-    </row>
-    <row r="143" spans="1:8" s="8" customFormat="1">
+      <c r="E142" s="12"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="12"/>
+    </row>
+    <row r="143" spans="1:10" s="8" customFormat="1">
       <c r="A143" s="9"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="9"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="13"/>
-    </row>
-    <row r="144" spans="1:8" s="8" customFormat="1">
+      <c r="E143" s="12"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="1:10" s="8" customFormat="1">
       <c r="A144" s="9"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="9"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="13"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1">
       <c r="A145" s="9"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="9"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="13"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="9"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="9"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="13"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="9"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="9"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="13"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="9"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="9"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="13"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="9"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="9"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="13"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="12"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="9"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="9"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="13"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="9"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="9"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="13"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="12"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="9"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="9"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="13"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="9"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="9"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="13"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="12"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="9"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="9"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="13"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="9"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="9"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="13"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="12"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="9"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="9"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="13"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="12"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="9"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="9"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="13"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="12"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="9"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="9"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="13"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="12"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
@@ -6077,13 +6463,13 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="9"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="9"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="13"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="12"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
@@ -6091,13 +6477,13 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="9"/>
-      <c r="B160" s="13"/>
-      <c r="C160" s="9"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="9"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="13"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="12"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
@@ -6105,13 +6491,13 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="9"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="9"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="13"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="12"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
@@ -6119,13 +6505,13 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="9"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="9"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="9"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="13"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="12"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
@@ -6133,13 +6519,13 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="9"/>
-      <c r="B163" s="13"/>
-      <c r="C163" s="9"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="13"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="12"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -6147,13 +6533,13 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="9"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="9"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="9"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="13"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="12"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
@@ -6161,13 +6547,13 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="9"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="9"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="13"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="12"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
@@ -6175,13 +6561,13 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="9"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="9"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
       <c r="D166" s="9"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="13"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="12"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
@@ -6189,13 +6575,13 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="9"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="9"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
       <c r="D167" s="9"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="13"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="12"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
@@ -6203,13 +6589,13 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="9"/>
-      <c r="B168" s="13"/>
-      <c r="C168" s="9"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="13"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="12"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -6217,13 +6603,13 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="9"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="9"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="13"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="12"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
@@ -6231,13 +6617,13 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="9"/>
-      <c r="B170" s="13"/>
-      <c r="C170" s="9"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="9"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="13"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="12"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
@@ -6245,13 +6631,13 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="9"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="9"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="9"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="13"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="12"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
@@ -6259,83 +6645,83 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="9"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="9"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="9"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="13"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="9"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="9"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="9"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="13"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="12"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="9"/>
-      <c r="B174" s="13"/>
-      <c r="C174" s="9"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="13"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="12"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="9"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="9"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="13"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="12"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="9"/>
-      <c r="B176" s="13"/>
-      <c r="C176" s="9"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="13"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="9"/>
-      <c r="B177" s="13"/>
-      <c r="C177" s="9"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="9"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="13"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="9"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="9"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="9"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="13"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="12"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="9"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="9"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="9"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="13"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="12"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="208">
   <si>
     <t>id|</t>
   </si>
@@ -1104,6 +1104,14 @@
   </si>
   <si>
     <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2433,8 +2441,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2661,7 +2669,7 @@
         <v>191</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2672,7 +2680,7 @@
         <v>187</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2695,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -1047,10 +1047,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兑换奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>金龙鱼油4L</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1107,11 +1103,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <t>兑换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2442,7 +2442,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2666,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>206</v>
@@ -2677,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>207</v>
@@ -5837,12 +5837,12 @@
         <v>131</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="17">
@@ -5863,12 +5863,12 @@
         <v>131</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="17">
@@ -5889,12 +5889,12 @@
         <v>131</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="17">
@@ -5922,7 +5922,7 @@
         <v>103</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
@@ -5948,7 +5948,7 @@
         <v>175</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="17">
@@ -5976,7 +5976,7 @@
         <v>175</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="17">
@@ -6004,7 +6004,7 @@
         <v>56</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="17">
@@ -6032,7 +6032,7 @@
         <v>175</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="17">
@@ -6053,12 +6053,12 @@
         <v>132</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F130" s="24"/>
       <c r="G130" s="24"/>
       <c r="H130" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I130" s="21"/>
       <c r="J130" s="21">
@@ -6079,12 +6079,12 @@
         <v>132</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F131" s="24"/>
       <c r="G131" s="24"/>
       <c r="H131" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I131" s="21"/>
       <c r="J131" s="21">
@@ -6105,12 +6105,12 @@
         <v>132</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F132" s="24"/>
       <c r="G132" s="24"/>
       <c r="H132" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I132" s="21"/>
       <c r="J132" s="21">
@@ -6164,7 +6164,7 @@
         <v>62</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I134" s="21"/>
       <c r="J134" s="21">
@@ -6192,7 +6192,7 @@
         <v>178</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I135" s="21"/>
       <c r="J135" s="21">
@@ -6220,7 +6220,7 @@
         <v>56</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I136" s="21"/>
       <c r="J136" s="21">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="209">
   <si>
     <t>id|</t>
   </si>
@@ -1112,6 +1112,10 @@
   </si>
   <si>
     <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2441,7 +2445,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2695,11 +2699,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E143" sqref="E143:E144"/>
+      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6245,7 +6249,7 @@
         <v>186</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="H137" s="24" t="s">
         <v>100</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="245">
   <si>
     <t>id|</t>
   </si>
@@ -1047,6 +1047,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>金龙鱼油4L</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1103,19 +1107,155 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兑换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档电热水袋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生酥1斤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_gong","prop_fclb_xi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_fa","prop_fclb_cai",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_gong","prop_fclb_xi","prop_fclb_fa","prop_fclb_cai",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_001</t>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
+  </si>
+  <si>
+    <t>1,1,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1202,7 +1342,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,6 +1370,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,14 +1521,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1393,6 +1539,61 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1674,18 +1875,19 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="52" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="52" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2262,147 +2464,391 @@
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
     </row>
-    <row r="18" spans="1:16" s="36" customFormat="1">
-      <c r="A18" s="21">
+    <row r="18" spans="1:16" s="43" customFormat="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="42">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="42">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="21">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
         <v>17</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="16">
         <v>17</v>
       </c>
-      <c r="K18" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="30" customFormat="1">
-      <c r="A19" s="21">
+      <c r="K18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="27" customFormat="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="8">
         <v>1610409600</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="8">
         <v>1610985599</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="21">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
         <v>18</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="16">
         <v>18</v>
       </c>
-      <c r="K19" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="K19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="35" customFormat="1">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1611014400</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1611590399</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>19</v>
+      </c>
+      <c r="J20" s="36">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="30" customFormat="1">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1611014400</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1611590399</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="36">
+        <v>20</v>
+      </c>
+      <c r="K21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D22" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="51">
+        <v>1</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="51">
+        <v>21</v>
+      </c>
+      <c r="K22" s="48">
+        <v>1</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="51">
+        <v>1</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="51">
+        <v>22</v>
+      </c>
+      <c r="K23" s="48">
+        <v>1</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+    </row>
+    <row r="24" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D24" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="51">
+        <v>1</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="51">
+        <v>23</v>
+      </c>
+      <c r="K24" s="48">
+        <v>1</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" s="56" customFormat="1">
+      <c r="A25" s="56">
+        <v>24</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D25" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="60">
+        <v>1</v>
+      </c>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60">
+        <v>24</v>
+      </c>
+      <c r="K25" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="56" customFormat="1">
+      <c r="A26" s="56">
+        <v>25</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D26" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="60">
+        <v>1</v>
+      </c>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60">
+        <v>25</v>
+      </c>
+      <c r="K26" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="56" customFormat="1">
+      <c r="A27" s="58">
+        <v>26</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D27" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="60">
+        <v>1</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60">
+        <v>26</v>
+      </c>
+      <c r="K27" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="48" customFormat="1">
+      <c r="A28" s="48">
+        <v>27</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D28" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="51">
+        <v>1</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="51">
+        <v>27</v>
+      </c>
+      <c r="K28" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="48" customFormat="1">
+      <c r="A29" s="48">
+        <v>28</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D29" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="51">
+        <v>1</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="51">
+        <v>28</v>
+      </c>
+      <c r="K29" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="48" customFormat="1">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D30" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="51">
+        <v>1</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="51">
+        <v>29</v>
+      </c>
+      <c r="K30" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2410,7 +2856,6 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2443,10 +2888,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2623,10 +3068,10 @@
       <c r="C14" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
       <c r="A15" s="8">
@@ -2649,10 +3094,10 @@
       <c r="C16" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1">
       <c r="A17" s="8">
@@ -2665,26 +3110,48 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="40">
+    <row r="18" spans="1:3" s="8" customFormat="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="38">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="40">
-        <v>18</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>207</v>
+      <c r="C21" s="39" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2700,10 +3167,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5526,7 +5993,7 @@
         <v>131</v>
       </c>
       <c r="E110" s="31"/>
-      <c r="F110" s="42" t="s">
+      <c r="F110" s="40" t="s">
         <v>182</v>
       </c>
       <c r="G110" s="33" t="s">
@@ -5553,7 +6020,7 @@
         <v>131</v>
       </c>
       <c r="E111" s="31"/>
-      <c r="F111" s="42" t="s">
+      <c r="F111" s="40" t="s">
         <v>183</v>
       </c>
       <c r="G111" s="33" t="s">
@@ -5607,7 +6074,7 @@
         <v>131</v>
       </c>
       <c r="E113" s="31"/>
-      <c r="F113" s="42" t="s">
+      <c r="F113" s="40" t="s">
         <v>184</v>
       </c>
       <c r="G113" s="33" t="s">
@@ -5831,25 +6298,24 @@
       <c r="A122" s="8">
         <v>121</v>
       </c>
-      <c r="B122" s="19">
+      <c r="B122" s="31">
         <v>17</v>
       </c>
-      <c r="C122" s="19">
-        <v>1</v>
-      </c>
-      <c r="D122" s="34" t="s">
+      <c r="C122" s="31">
+        <v>1</v>
+      </c>
+      <c r="D122" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17">
+      <c r="E122" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J122" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5857,25 +6323,24 @@
       <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B123" s="31">
         <v>17</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C123" s="31">
         <v>2</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17">
+      <c r="E123" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J123" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5883,25 +6348,23 @@
       <c r="A124" s="8">
         <v>123</v>
       </c>
-      <c r="B124" s="19">
+      <c r="B124" s="31">
         <v>17</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="31">
         <v>3</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E124" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17">
+      <c r="E124" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J124" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5909,53 +6372,50 @@
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="19">
+      <c r="B125" s="31">
         <v>17</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="31">
         <v>4</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="20" t="s">
+      <c r="E125" s="31"/>
+      <c r="F125" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H125" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
+      <c r="H125" s="33" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="126" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A126" s="8">
         <v>125</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B126" s="31">
         <v>17</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="31">
         <v>5</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="43" t="s">
+      <c r="E126" s="31"/>
+      <c r="F126" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H126" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17">
+      <c r="H126" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J126" s="8">
         <v>3</v>
       </c>
     </row>
@@ -5963,27 +6423,26 @@
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="19">
+      <c r="B127" s="31">
         <v>17</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="31">
         <v>6</v>
       </c>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="43" t="s">
+      <c r="E127" s="31"/>
+      <c r="F127" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="20" t="s">
+      <c r="G127" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H127" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17">
+      <c r="H127" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J127" s="8">
         <v>2</v>
       </c>
     </row>
@@ -5991,27 +6450,26 @@
       <c r="A128" s="8">
         <v>127</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B128" s="31">
         <v>17</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="31">
         <v>7</v>
       </c>
-      <c r="D128" s="34" t="s">
+      <c r="D128" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="20" t="s">
+      <c r="E128" s="31"/>
+      <c r="F128" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G128" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H128" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17">
+      <c r="H128" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J128" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6019,27 +6477,26 @@
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="31">
         <v>17</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="31">
         <v>8</v>
       </c>
-      <c r="D129" s="34" t="s">
+      <c r="D129" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="43" t="s">
+      <c r="E129" s="31"/>
+      <c r="F129" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H129" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17">
+      <c r="H129" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J129" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6047,25 +6504,24 @@
       <c r="A130" s="8">
         <v>129</v>
       </c>
-      <c r="B130" s="22">
+      <c r="B130" s="31">
         <v>18</v>
       </c>
-      <c r="C130" s="22">
-        <v>1</v>
-      </c>
-      <c r="D130" s="23" t="s">
+      <c r="C130" s="31">
+        <v>1</v>
+      </c>
+      <c r="D130" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E130" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21">
+      <c r="E130" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J130" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6073,25 +6529,24 @@
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="22">
+      <c r="B131" s="31">
         <v>18</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131" s="31">
         <v>2</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D131" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E131" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21">
+      <c r="E131" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J131" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6099,25 +6554,24 @@
       <c r="A132" s="8">
         <v>131</v>
       </c>
-      <c r="B132" s="22">
+      <c r="B132" s="31">
         <v>18</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132" s="31">
         <v>3</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21">
+      <c r="E132" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J132" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6125,53 +6579,50 @@
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="22">
+      <c r="B133" s="31">
         <v>18</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C133" s="31">
         <v>4</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="24" t="s">
+      <c r="E133" s="31"/>
+      <c r="F133" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G133" s="24" t="s">
+      <c r="G133" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="24" t="s">
+      <c r="H133" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="1:10" s="8" customFormat="1">
       <c r="A134" s="8">
         <v>133</v>
       </c>
-      <c r="B134" s="22">
+      <c r="B134" s="31">
         <v>18</v>
       </c>
-      <c r="C134" s="22">
+      <c r="C134" s="31">
         <v>5</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="24" t="s">
+      <c r="E134" s="31"/>
+      <c r="F134" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="24" t="s">
+      <c r="G134" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H134" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21">
+      <c r="H134" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J134" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6179,27 +6630,26 @@
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="22">
+      <c r="B135" s="31">
         <v>18</v>
       </c>
-      <c r="C135" s="22">
+      <c r="C135" s="31">
         <v>6</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="25" t="s">
+      <c r="E135" s="31"/>
+      <c r="F135" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G135" s="24" t="s">
+      <c r="G135" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H135" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21">
+      <c r="H135" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J135" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6207,27 +6657,26 @@
       <c r="A136" s="8">
         <v>135</v>
       </c>
-      <c r="B136" s="22">
+      <c r="B136" s="31">
         <v>18</v>
       </c>
-      <c r="C136" s="22">
+      <c r="C136" s="31">
         <v>7</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="24" t="s">
+      <c r="E136" s="31"/>
+      <c r="F136" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G136" s="24" t="s">
+      <c r="G136" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H136" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21">
+      <c r="H136" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J136" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6235,297 +6684,720 @@
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="22">
+      <c r="B137" s="31">
         <v>18</v>
       </c>
-      <c r="C137" s="22">
+      <c r="C137" s="31">
         <v>8</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D137" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="25" t="s">
+      <c r="E137" s="31"/>
+      <c r="F137" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G137" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H137" s="24" t="s">
+      <c r="G137" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H137" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21">
+      <c r="J137" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="8" customFormat="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="19">
+        <v>19</v>
+      </c>
+      <c r="C138" s="19">
+        <v>1</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:10" s="8" customFormat="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="19">
+        <v>19</v>
+      </c>
+      <c r="C139" s="19">
+        <v>2</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:10" s="8" customFormat="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="19">
+        <v>19</v>
+      </c>
+      <c r="C140" s="19">
+        <v>3</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:10" s="8" customFormat="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="12"/>
-    </row>
-    <row r="142" spans="1:10" s="8" customFormat="1">
-      <c r="A142" s="9"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" s="8" customFormat="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="12"/>
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="19">
+        <v>19</v>
+      </c>
+      <c r="C141" s="19">
+        <v>4</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" s="19"/>
+      <c r="F141" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="19">
+        <v>19</v>
+      </c>
+      <c r="C142" s="19">
+        <v>5</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E142" s="19"/>
+      <c r="F142" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H142" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="19">
+        <v>19</v>
+      </c>
+      <c r="C143" s="19">
+        <v>6</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" spans="1:10" s="8" customFormat="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="12"/>
-    </row>
-    <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="12"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="9"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="12"/>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="9"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="9"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="12"/>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="9"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="12"/>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="9"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="12"/>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="9"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="12"/>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="9"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="12"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="9"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="12"/>
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="19">
+        <v>19</v>
+      </c>
+      <c r="C144" s="19">
+        <v>7</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="8" customFormat="1" ht="16.5">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="19">
+        <v>19</v>
+      </c>
+      <c r="C145" s="19">
+        <v>8</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H145" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="8" customFormat="1">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="22">
+        <v>20</v>
+      </c>
+      <c r="C146" s="22">
+        <v>1</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" s="8" customFormat="1">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="B147" s="22">
+        <v>20</v>
+      </c>
+      <c r="C147" s="22">
+        <v>2</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" s="8" customFormat="1">
+      <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="B148" s="22">
+        <v>20</v>
+      </c>
+      <c r="C148" s="22">
+        <v>3</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="8" customFormat="1">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="B149" s="22">
+        <v>20</v>
+      </c>
+      <c r="C149" s="22">
+        <v>4</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E149" s="22"/>
+      <c r="F149" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+    </row>
+    <row r="150" spans="1:12" s="8" customFormat="1">
+      <c r="A150" s="8">
+        <v>149</v>
+      </c>
+      <c r="B150" s="22">
+        <v>20</v>
+      </c>
+      <c r="C150" s="22">
+        <v>5</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" s="22"/>
+      <c r="F150" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="8" customFormat="1">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="22">
+        <v>20</v>
+      </c>
+      <c r="C151" s="22">
+        <v>6</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="22"/>
+      <c r="F151" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I151" s="21"/>
+      <c r="J151" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="8" customFormat="1">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="B152" s="22">
+        <v>20</v>
+      </c>
+      <c r="C152" s="22">
+        <v>7</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="22"/>
+      <c r="F152" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I152" s="21"/>
+      <c r="J152" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="8" customFormat="1">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="22">
+        <v>20</v>
+      </c>
+      <c r="C153" s="22">
+        <v>8</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="22"/>
+      <c r="F153" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="9"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="12"/>
+      <c r="A154" s="8">
+        <v>153</v>
+      </c>
+      <c r="B154" s="53">
+        <v>21</v>
+      </c>
+      <c r="C154" s="53">
+        <v>1</v>
+      </c>
+      <c r="D154" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" s="53"/>
+      <c r="F154" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G154" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="H154" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="9"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="12"/>
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="53">
+        <v>22</v>
+      </c>
+      <c r="C155" s="53">
+        <v>1</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" s="53"/>
+      <c r="F155" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G155" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="H155" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="9"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="12"/>
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="53">
+        <v>23</v>
+      </c>
+      <c r="C156" s="53">
+        <v>1</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="53"/>
+      <c r="F156" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G156" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H156" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="I156" s="45"/>
+      <c r="J156" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="9"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="12"/>
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="B157" s="62">
+        <v>24</v>
+      </c>
+      <c r="C157" s="62">
+        <v>1</v>
+      </c>
+      <c r="D157" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E157" s="62"/>
+      <c r="F157" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="G157" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="H157" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I157" s="58"/>
+      <c r="J157" s="58">
+        <v>9999</v>
+      </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="9"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="62">
+        <v>25</v>
+      </c>
+      <c r="C158" s="62">
+        <v>1</v>
+      </c>
+      <c r="D158" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E158" s="62"/>
+      <c r="F158" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="G158" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="H158" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58">
+        <v>9999</v>
+      </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="9"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="B159" s="62">
+        <v>26</v>
+      </c>
+      <c r="C159" s="62">
+        <v>1</v>
+      </c>
+      <c r="D159" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E159" s="62"/>
+      <c r="F159" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="G159" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H159" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I159" s="58"/>
+      <c r="J159" s="58">
+        <v>9999</v>
+      </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="9"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="B160" s="53">
+        <v>27</v>
+      </c>
+      <c r="C160" s="53">
+        <v>1</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" s="53"/>
+      <c r="F160" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G160" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H160" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I160" s="45"/>
+      <c r="J160" s="45">
+        <v>9999</v>
+      </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="9"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
+      <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="B161" s="53">
+        <v>28</v>
+      </c>
+      <c r="C161" s="53">
+        <v>1</v>
+      </c>
+      <c r="D161" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" s="53"/>
+      <c r="F161" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G161" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="H161" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45">
+        <v>9999</v>
+      </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="9"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="53">
+        <v>29</v>
+      </c>
+      <c r="C162" s="53">
+        <v>1</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E162" s="53"/>
+      <c r="F162" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G162" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="H162" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="I162" s="45"/>
+      <c r="J162" s="45">
+        <v>9999</v>
+      </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
@@ -6533,7 +7405,6 @@
       <c r="A163" s="9"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
-      <c r="D163" s="9"/>
       <c r="E163" s="12"/>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="254">
   <si>
     <t>id|</t>
   </si>
@@ -1115,6 +1115,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>坚果大礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1247,19 +1259,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢盛典</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢盛典</t>
+    <t>太阳取暖器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档暖手宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛围巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳兑奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳兑奖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,18 +1406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,53 +1571,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1879,7 +1861,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1889,9 +1871,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="52" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="45" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="45" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2528,342 +2510,390 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="35" customFormat="1">
-      <c r="A20" s="21">
+    <row r="20" spans="1:16" s="43" customFormat="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="8">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="21">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
         <v>19</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="16">
         <v>19</v>
       </c>
-      <c r="K20" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="30" customFormat="1">
-      <c r="A21" s="21">
+      <c r="K20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="27" customFormat="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="25" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
         <v>20</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="16">
         <v>20</v>
       </c>
-      <c r="K21" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A22" s="45">
+      <c r="K21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="45">
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="42">
+        <v>21</v>
+      </c>
+      <c r="K22" s="27">
+        <v>1</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D23" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" s="51">
-        <v>1</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="51">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="42">
+        <v>1</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="42">
+        <v>22</v>
+      </c>
+      <c r="K23" s="27">
+        <v>1</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="42">
+        <v>23</v>
+      </c>
+      <c r="K24" s="27">
+        <v>1</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:16" s="27" customFormat="1">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="42">
+        <v>1</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42">
+        <v>24</v>
+      </c>
+      <c r="K25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="27" customFormat="1">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="42">
+        <v>1</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="42">
+        <v>25</v>
+      </c>
+      <c r="K26" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="27" customFormat="1">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="42">
+        <v>1</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="42">
+        <v>26</v>
+      </c>
+      <c r="K27" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="27" customFormat="1">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="42">
+        <v>1</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
+        <v>27</v>
+      </c>
+      <c r="K28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="27" customFormat="1">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="42">
+        <v>1</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="42">
+        <v>28</v>
+      </c>
+      <c r="K29" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="27" customFormat="1">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="42">
+        <v>1</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="42">
+        <v>29</v>
+      </c>
+      <c r="K30" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="43" customFormat="1">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1611619200</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1612195199</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
         <v>21</v>
       </c>
-      <c r="K22" s="48">
-        <v>1</v>
-      </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A23" s="45">
+      <c r="J31" s="36">
+        <v>30</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="27" customFormat="1">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="38">
+        <v>1611619200</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1612195199</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1</v>
+      </c>
+      <c r="I32" s="38">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D23" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="51">
-        <v>1</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="51">
-        <v>22</v>
-      </c>
-      <c r="K23" s="48">
-        <v>1</v>
-      </c>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A24" s="45">
-        <v>23</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D24" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="51">
-        <v>1</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="51">
-        <v>23</v>
-      </c>
-      <c r="K24" s="48">
-        <v>1</v>
-      </c>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" s="56" customFormat="1">
-      <c r="A25" s="56">
-        <v>24</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="58">
-        <v>1611014400</v>
-      </c>
-      <c r="D25" s="58">
-        <v>1611590399</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="60">
-        <v>1</v>
-      </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60">
-        <v>24</v>
-      </c>
-      <c r="K25" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="56" customFormat="1">
-      <c r="A26" s="56">
-        <v>25</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="58">
-        <v>1611014400</v>
-      </c>
-      <c r="D26" s="58">
-        <v>1611590399</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26" s="60">
-        <v>1</v>
-      </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60">
-        <v>25</v>
-      </c>
-      <c r="K26" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="56" customFormat="1">
-      <c r="A27" s="58">
-        <v>26</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="58">
-        <v>1611014400</v>
-      </c>
-      <c r="D27" s="58">
-        <v>1611590399</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="60">
-        <v>1</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60">
-        <v>26</v>
-      </c>
-      <c r="K27" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="48" customFormat="1">
-      <c r="A28" s="48">
-        <v>27</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D28" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="51">
-        <v>1</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="51">
-        <v>27</v>
-      </c>
-      <c r="K28" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="48" customFormat="1">
-      <c r="A29" s="48">
-        <v>28</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D29" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="51">
-        <v>1</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="51">
-        <v>28</v>
-      </c>
-      <c r="K29" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="48" customFormat="1">
-      <c r="A30" s="45">
-        <v>29</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D30" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="H30" s="51">
-        <v>1</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="51">
-        <v>29</v>
-      </c>
-      <c r="K30" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="J32" s="47">
+        <v>31</v>
+      </c>
+      <c r="K32" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
@@ -2892,10 +2922,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3136,26 +3166,48 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="38">
+    <row r="20" spans="1:3" s="8" customFormat="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="38">
+      <c r="B20" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>243</v>
+      <c r="B21" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="38">
+        <v>22</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3171,10 +3223,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="E163" sqref="E163:E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6715,25 +6767,24 @@
       <c r="A138" s="8">
         <v>137</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B138" s="31">
         <v>19</v>
       </c>
-      <c r="C138" s="19">
-        <v>1</v>
-      </c>
-      <c r="D138" s="34" t="s">
+      <c r="C138" s="31">
+        <v>1</v>
+      </c>
+      <c r="D138" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E138" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20" t="s">
+      <c r="E138" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17">
+      <c r="J138" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6741,25 +6792,24 @@
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="19">
+      <c r="B139" s="31">
         <v>19</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C139" s="31">
         <v>2</v>
       </c>
-      <c r="D139" s="34" t="s">
+      <c r="D139" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E139" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20" t="s">
+      <c r="E139" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17">
+      <c r="J139" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6767,25 +6817,23 @@
       <c r="A140" s="8">
         <v>139</v>
       </c>
-      <c r="B140" s="19">
+      <c r="B140" s="31">
         <v>19</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="31">
         <v>3</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E140" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20" t="s">
+      <c r="E140" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17">
+      <c r="J140" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6793,53 +6841,50 @@
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="19">
+      <c r="B141" s="31">
         <v>19</v>
       </c>
-      <c r="C141" s="19">
+      <c r="C141" s="31">
         <v>4</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="20" t="s">
+      <c r="E141" s="31"/>
+      <c r="F141" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G141" s="20" t="s">
+      <c r="G141" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
     </row>
     <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A142" s="8">
         <v>141</v>
       </c>
-      <c r="B142" s="19">
+      <c r="B142" s="31">
         <v>19</v>
       </c>
-      <c r="C142" s="19">
+      <c r="C142" s="31">
         <v>5</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="41" t="s">
+      <c r="E142" s="31"/>
+      <c r="F142" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G142" s="20" t="s">
+      <c r="G142" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H142" s="18" t="s">
+      <c r="H142" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17">
+      <c r="J142" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6847,27 +6892,26 @@
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="19">
+      <c r="B143" s="31">
         <v>19</v>
       </c>
-      <c r="C143" s="19">
+      <c r="C143" s="31">
         <v>6</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="41" t="s">
+      <c r="E143" s="31"/>
+      <c r="F143" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G143" s="20" t="s">
+      <c r="G143" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H143" s="18" t="s">
+      <c r="H143" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17">
+      <c r="J143" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6875,732 +6919,939 @@
       <c r="A144" s="8">
         <v>143</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="31">
         <v>19</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C144" s="31">
         <v>7</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="20" t="s">
+      <c r="E144" s="31"/>
+      <c r="F144" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G144" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="H144" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="8" customFormat="1" ht="16.5">
+      <c r="J144" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="19">
+      <c r="B145" s="31">
         <v>19</v>
       </c>
-      <c r="C145" s="19">
+      <c r="C145" s="31">
         <v>8</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="41" t="s">
+      <c r="E145" s="31"/>
+      <c r="F145" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H145" s="20" t="s">
+      <c r="H145" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" s="8" customFormat="1">
+      <c r="J145" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="8" customFormat="1">
       <c r="A146" s="8">
         <v>145</v>
       </c>
-      <c r="B146" s="22">
+      <c r="B146" s="31">
         <v>20</v>
       </c>
-      <c r="C146" s="22">
-        <v>1</v>
-      </c>
-      <c r="D146" s="23" t="s">
+      <c r="C146" s="31">
+        <v>1</v>
+      </c>
+      <c r="D146" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24" t="s">
+      <c r="E146" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" s="8" customFormat="1">
+      <c r="J146" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="8" customFormat="1">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="31">
         <v>20</v>
       </c>
-      <c r="C147" s="22">
+      <c r="C147" s="31">
         <v>2</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E147" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24" t="s">
+      <c r="E147" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" s="8" customFormat="1">
+      <c r="J147" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="8" customFormat="1">
       <c r="A148" s="8">
         <v>147</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="31">
         <v>20</v>
       </c>
-      <c r="C148" s="22">
+      <c r="C148" s="31">
         <v>3</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E148" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24" t="s">
+      <c r="E148" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" s="8" customFormat="1">
+      <c r="J148" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="8" customFormat="1">
       <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="31">
         <v>20</v>
       </c>
-      <c r="C149" s="22">
+      <c r="C149" s="31">
         <v>4</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G149" s="24" t="s">
+      <c r="E149" s="31"/>
+      <c r="F149" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G149" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H149" s="24" t="s">
+      <c r="H149" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-    </row>
-    <row r="150" spans="1:12" s="8" customFormat="1">
+    </row>
+    <row r="150" spans="1:10" s="8" customFormat="1">
       <c r="A150" s="8">
         <v>149</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="31">
         <v>20</v>
       </c>
-      <c r="C150" s="22">
+      <c r="C150" s="31">
         <v>5</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="24" t="s">
+      <c r="E150" s="31"/>
+      <c r="F150" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G150" s="24" t="s">
+      <c r="G150" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H150" s="25" t="s">
+      <c r="H150" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21">
+      <c r="J150" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="8" customFormat="1">
+    <row r="151" spans="1:10" s="8" customFormat="1">
       <c r="A151" s="8">
         <v>150</v>
       </c>
-      <c r="B151" s="22">
+      <c r="B151" s="31">
         <v>20</v>
       </c>
-      <c r="C151" s="22">
+      <c r="C151" s="31">
         <v>6</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="25" t="s">
+      <c r="E151" s="31"/>
+      <c r="F151" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="24" t="s">
+      <c r="G151" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H151" s="25" t="s">
+      <c r="H151" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I151" s="21"/>
-      <c r="J151" s="21">
+      <c r="J151" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="8" customFormat="1">
+    <row r="152" spans="1:10" s="8" customFormat="1">
       <c r="A152" s="8">
         <v>151</v>
       </c>
-      <c r="B152" s="22">
+      <c r="B152" s="31">
         <v>20</v>
       </c>
-      <c r="C152" s="22">
+      <c r="C152" s="31">
         <v>7</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="22"/>
-      <c r="F152" s="24" t="s">
+      <c r="E152" s="31"/>
+      <c r="F152" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G152" s="24" t="s">
+      <c r="G152" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="H152" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" s="8" customFormat="1">
+      <c r="J152" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="8" customFormat="1">
       <c r="A153" s="8">
         <v>152</v>
       </c>
-      <c r="B153" s="22">
+      <c r="B153" s="31">
         <v>20</v>
       </c>
-      <c r="C153" s="22">
+      <c r="C153" s="31">
         <v>8</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="22"/>
-      <c r="F153" s="25" t="s">
+      <c r="E153" s="31"/>
+      <c r="F153" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G153" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H153" s="24" t="s">
+      <c r="G153" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H153" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="J153" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="8" customFormat="1">
       <c r="A154" s="8">
         <v>153</v>
       </c>
-      <c r="B154" s="53">
+      <c r="B154" s="31">
         <v>21</v>
       </c>
-      <c r="C154" s="53">
-        <v>1</v>
-      </c>
-      <c r="D154" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E154" s="53"/>
-      <c r="F154" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G154" s="55" t="s">
+      <c r="C154" s="31">
+        <v>1</v>
+      </c>
+      <c r="D154" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="H154" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45">
+      <c r="E154" s="31"/>
+      <c r="F154" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G154" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H154" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J154" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:10" s="8" customFormat="1">
       <c r="A155" s="8">
         <v>154</v>
       </c>
-      <c r="B155" s="53">
+      <c r="B155" s="31">
         <v>22</v>
       </c>
-      <c r="C155" s="53">
-        <v>1</v>
-      </c>
-      <c r="D155" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E155" s="53"/>
-      <c r="F155" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G155" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="H155" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="I155" s="45"/>
-      <c r="J155" s="45">
+      <c r="C155" s="31">
+        <v>1</v>
+      </c>
+      <c r="D155" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" s="31"/>
+      <c r="F155" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G155" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H155" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J155" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:10" s="8" customFormat="1">
       <c r="A156" s="8">
         <v>155</v>
       </c>
-      <c r="B156" s="53">
+      <c r="B156" s="31">
         <v>23</v>
       </c>
-      <c r="C156" s="53">
-        <v>1</v>
-      </c>
-      <c r="D156" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E156" s="53"/>
-      <c r="F156" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G156" s="55" t="s">
+      <c r="C156" s="31">
+        <v>1</v>
+      </c>
+      <c r="D156" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="31"/>
+      <c r="F156" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="H156" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="I156" s="45"/>
-      <c r="J156" s="45">
+      <c r="G156" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="H156" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J156" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:10" s="8" customFormat="1">
       <c r="A157" s="8">
         <v>156</v>
       </c>
-      <c r="B157" s="62">
+      <c r="B157" s="31">
         <v>24</v>
       </c>
-      <c r="C157" s="62">
-        <v>1</v>
-      </c>
-      <c r="D157" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E157" s="62"/>
-      <c r="F157" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="G157" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="H157" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58">
+      <c r="C157" s="31">
+        <v>1</v>
+      </c>
+      <c r="D157" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E157" s="31"/>
+      <c r="F157" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G157" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H157" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J157" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:10" s="8" customFormat="1">
       <c r="A158" s="8">
         <v>157</v>
       </c>
-      <c r="B158" s="62">
+      <c r="B158" s="31">
         <v>25</v>
       </c>
-      <c r="C158" s="62">
-        <v>1</v>
-      </c>
-      <c r="D158" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E158" s="62"/>
-      <c r="F158" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="G158" s="64" t="s">
+      <c r="C158" s="31">
+        <v>1</v>
+      </c>
+      <c r="D158" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="H158" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58">
+      <c r="E158" s="31"/>
+      <c r="F158" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G158" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H158" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J158" s="8">
         <v>9999</v>
       </c>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="1:12">
+    </row>
+    <row r="159" spans="1:10" s="8" customFormat="1">
       <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="62">
+      <c r="B159" s="31">
         <v>26</v>
       </c>
-      <c r="C159" s="62">
-        <v>1</v>
-      </c>
-      <c r="D159" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E159" s="62"/>
-      <c r="F159" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="G159" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="H159" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58">
+      <c r="C159" s="31">
+        <v>1</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E159" s="31"/>
+      <c r="F159" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G159" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="H159" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J159" s="8">
         <v>9999</v>
       </c>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="1:12">
+    </row>
+    <row r="160" spans="1:10" s="8" customFormat="1">
       <c r="A160" s="8">
         <v>159</v>
       </c>
-      <c r="B160" s="53">
+      <c r="B160" s="31">
         <v>27</v>
       </c>
-      <c r="C160" s="53">
-        <v>1</v>
-      </c>
-      <c r="D160" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E160" s="53"/>
-      <c r="F160" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G160" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="H160" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="I160" s="45"/>
-      <c r="J160" s="45">
+      <c r="C160" s="31">
+        <v>1</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" s="31"/>
+      <c r="F160" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G160" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="H160" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J160" s="8">
         <v>9999</v>
       </c>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="1:12">
+    </row>
+    <row r="161" spans="1:10" s="8" customFormat="1">
       <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="53">
+      <c r="B161" s="31">
         <v>28</v>
       </c>
-      <c r="C161" s="53">
-        <v>1</v>
-      </c>
-      <c r="D161" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E161" s="53"/>
-      <c r="F161" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G161" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="H161" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45">
+      <c r="C161" s="31">
+        <v>1</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" s="31"/>
+      <c r="F161" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G161" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="H161" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J161" s="8">
         <v>9999</v>
       </c>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="1:12">
+    </row>
+    <row r="162" spans="1:10" s="8" customFormat="1">
       <c r="A162" s="8">
         <v>161</v>
       </c>
-      <c r="B162" s="53">
+      <c r="B162" s="31">
         <v>29</v>
       </c>
-      <c r="C162" s="53">
-        <v>1</v>
-      </c>
-      <c r="D162" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E162" s="53"/>
-      <c r="F162" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G162" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="H162" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="I162" s="45"/>
-      <c r="J162" s="45">
+      <c r="C162" s="31">
+        <v>1</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E162" s="31"/>
+      <c r="F162" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G162" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="H162" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J162" s="8">
         <v>9999</v>
       </c>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="9"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="9"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="9"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="9"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="9"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="9"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="9"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="9"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="8"/>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="9"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="9"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="12"/>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="9"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="12"/>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="9"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="9"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="12"/>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="9"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="12"/>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="9"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="12"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="9"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="12"/>
-    </row>
-    <row r="179" spans="1:8">
+    </row>
+    <row r="163" spans="1:10" s="8" customFormat="1">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="B163" s="19">
+        <v>30</v>
+      </c>
+      <c r="C163" s="19">
+        <v>1</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="8" customFormat="1">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="B164" s="19">
+        <v>30</v>
+      </c>
+      <c r="C164" s="19">
+        <v>2</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="8" customFormat="1">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="B165" s="19">
+        <v>30</v>
+      </c>
+      <c r="C165" s="19">
+        <v>3</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F165" s="17"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="8" customFormat="1">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="19">
+        <v>30</v>
+      </c>
+      <c r="C166" s="19">
+        <v>4</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H166" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="19">
+        <v>30</v>
+      </c>
+      <c r="C167" s="19">
+        <v>5</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="19">
+        <v>30</v>
+      </c>
+      <c r="C168" s="19">
+        <v>6</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E168" s="19"/>
+      <c r="F168" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G168" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="8" customFormat="1">
+      <c r="A169" s="8">
+        <v>168</v>
+      </c>
+      <c r="B169" s="19">
+        <v>30</v>
+      </c>
+      <c r="C169" s="19">
+        <v>7</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G169" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A170" s="8">
+        <v>169</v>
+      </c>
+      <c r="B170" s="19">
+        <v>30</v>
+      </c>
+      <c r="C170" s="19">
+        <v>8</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E170" s="19"/>
+      <c r="F170" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="8" customFormat="1">
+      <c r="A171" s="8">
+        <v>170</v>
+      </c>
+      <c r="B171" s="22">
+        <v>31</v>
+      </c>
+      <c r="C171" s="22">
+        <v>1</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I171" s="21"/>
+      <c r="J171" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="8" customFormat="1">
+      <c r="A172" s="8">
+        <v>171</v>
+      </c>
+      <c r="B172" s="22">
+        <v>31</v>
+      </c>
+      <c r="C172" s="22">
+        <v>2</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I172" s="21"/>
+      <c r="J172" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="8" customFormat="1">
+      <c r="A173" s="8">
+        <v>172</v>
+      </c>
+      <c r="B173" s="22">
+        <v>31</v>
+      </c>
+      <c r="C173" s="22">
+        <v>3</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I173" s="21"/>
+      <c r="J173" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="8" customFormat="1">
+      <c r="A174" s="8">
+        <v>173</v>
+      </c>
+      <c r="B174" s="22">
+        <v>31</v>
+      </c>
+      <c r="C174" s="22">
+        <v>4</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E174" s="22"/>
+      <c r="F174" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H174" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I174" s="21"/>
+      <c r="J174" s="21"/>
+    </row>
+    <row r="175" spans="1:10" s="8" customFormat="1">
+      <c r="A175" s="8">
+        <v>174</v>
+      </c>
+      <c r="B175" s="22">
+        <v>31</v>
+      </c>
+      <c r="C175" s="22">
+        <v>5</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E175" s="22"/>
+      <c r="F175" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H175" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I175" s="21"/>
+      <c r="J175" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="8" customFormat="1">
+      <c r="A176" s="8">
+        <v>175</v>
+      </c>
+      <c r="B176" s="22">
+        <v>31</v>
+      </c>
+      <c r="C176" s="22">
+        <v>6</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E176" s="22"/>
+      <c r="F176" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I176" s="21"/>
+      <c r="J176" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="8" customFormat="1">
+      <c r="A177" s="8">
+        <v>176</v>
+      </c>
+      <c r="B177" s="22">
+        <v>31</v>
+      </c>
+      <c r="C177" s="22">
+        <v>7</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E177" s="22"/>
+      <c r="F177" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H177" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="8" customFormat="1">
+      <c r="A178" s="8">
+        <v>177</v>
+      </c>
+      <c r="B178" s="22">
+        <v>31</v>
+      </c>
+      <c r="C178" s="22">
+        <v>8</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E178" s="22"/>
+      <c r="F178" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H178" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I178" s="21"/>
+      <c r="J178" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="9"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="263">
   <si>
     <t>id|</t>
   </si>
@@ -1271,6 +1271,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1287,11 +1295,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>太阳兑奖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳兑奖</t>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹声声辞旧岁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹声声辞旧岁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在爆竹换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在爆竹换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核桃花生奶16盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1449,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1465,9 +1501,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1860,8 +1893,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1871,9 +1904,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="45" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="44" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="45" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="44" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -1950,11 +1983,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="1">
@@ -1986,9 +2019,9 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="L3" s="10"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1">
@@ -2020,8 +2053,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
@@ -2047,7 +2080,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -2078,14 +2111,14 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>5</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="1">
@@ -2111,805 +2144,849 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>6</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A8" s="8">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="26" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>7</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>7</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>0</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A9" s="8">
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="26" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>8</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>8</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <v>0</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A10" s="8">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>9</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>9</v>
       </c>
-      <c r="K10" s="27">
-        <v>1</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A11" s="8">
+      <c r="K10" s="26">
+        <v>1</v>
+      </c>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>10</v>
       </c>
-      <c r="K11" s="27">
-        <v>1</v>
-      </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A12" s="8">
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="26" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>11</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>11</v>
       </c>
-      <c r="K12" s="27">
-        <v>1</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A13" s="8">
+      <c r="K12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="26" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>12</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>12</v>
       </c>
-      <c r="K13" s="27">
-        <v>1</v>
-      </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A14" s="8">
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="26" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>13</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>13</v>
       </c>
-      <c r="K14" s="27">
-        <v>1</v>
-      </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A15" s="8">
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="26" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>14</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>14</v>
       </c>
-      <c r="K15" s="27">
-        <v>1</v>
-      </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A16" s="8">
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>1610380799</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="26" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>15</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>15</v>
       </c>
-      <c r="K16" s="27">
-        <v>1</v>
-      </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A17" s="8">
+      <c r="K16" s="26">
+        <v>1</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>1610380799</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="26" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
         <v>16</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>16</v>
       </c>
-      <c r="K17" s="27">
-        <v>1</v>
-      </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:16" s="43" customFormat="1">
-      <c r="A18" s="8">
+      <c r="K17" s="26">
+        <v>1</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="1:16" s="42" customFormat="1">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
         <v>17</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>17</v>
       </c>
-      <c r="K18" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="27" customFormat="1">
-      <c r="A19" s="8">
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="26" customFormat="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1610409600</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>1610985599</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
         <v>18</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>18</v>
       </c>
-      <c r="K19" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="43" customFormat="1">
-      <c r="A20" s="8">
+      <c r="K19" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="42" customFormat="1">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>19</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>19</v>
       </c>
-      <c r="K20" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="27" customFormat="1">
-      <c r="A21" s="8">
+      <c r="K20" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="26" customFormat="1">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="26" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
         <v>20</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>20</v>
       </c>
-      <c r="K21" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A22" s="8">
+      <c r="K21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="42">
-        <v>1</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="42">
+      <c r="H22" s="41">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="41">
         <v>21</v>
       </c>
-      <c r="K22" s="27">
-        <v>1</v>
-      </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-    </row>
-    <row r="23" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A23" s="8">
+      <c r="K22" s="26">
+        <v>1</v>
+      </c>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="46" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="42">
-        <v>1</v>
-      </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="42">
+      <c r="H23" s="41">
+        <v>1</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="41">
         <v>22</v>
       </c>
-      <c r="K23" s="27">
-        <v>1</v>
-      </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-    </row>
-    <row r="24" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A24" s="8">
+      <c r="K23" s="26">
+        <v>1</v>
+      </c>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="46" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="42">
-        <v>1</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="42">
+      <c r="H24" s="41">
+        <v>1</v>
+      </c>
+      <c r="I24" s="42"/>
+      <c r="J24" s="41">
         <v>23</v>
       </c>
-      <c r="K24" s="27">
-        <v>1</v>
-      </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-    </row>
-    <row r="25" spans="1:16" s="27" customFormat="1">
-      <c r="A25" s="8">
+      <c r="K24" s="26">
+        <v>1</v>
+      </c>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" spans="1:16" s="26" customFormat="1">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="42">
-        <v>1</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="42">
+      <c r="H25" s="41">
+        <v>1</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="41">
         <v>24</v>
       </c>
-      <c r="K25" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="27" customFormat="1">
-      <c r="A26" s="8">
+      <c r="K25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="26" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="H26" s="42">
-        <v>1</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="42">
+      <c r="H26" s="41">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="41">
         <v>25</v>
       </c>
-      <c r="K26" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="27" customFormat="1">
-      <c r="A27" s="8">
+      <c r="K26" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="26" customFormat="1">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="46" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="42">
-        <v>1</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="42">
+      <c r="H27" s="41">
+        <v>1</v>
+      </c>
+      <c r="I27" s="42"/>
+      <c r="J27" s="41">
         <v>26</v>
       </c>
-      <c r="K27" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="27" customFormat="1">
-      <c r="A28" s="8">
+      <c r="K27" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="26" customFormat="1">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="46" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="42">
-        <v>1</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="42">
+      <c r="H28" s="41">
+        <v>1</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="J28" s="41">
         <v>27</v>
       </c>
-      <c r="K28" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="27" customFormat="1">
-      <c r="A29" s="8">
+      <c r="K28" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="26" customFormat="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="46" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="42">
-        <v>1</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="42">
+      <c r="H29" s="41">
+        <v>1</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="J29" s="41">
         <v>28</v>
       </c>
-      <c r="K29" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="27" customFormat="1">
-      <c r="A30" s="8">
+      <c r="K29" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="26" customFormat="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="46" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="42">
-        <v>1</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="42">
+      <c r="H30" s="41">
+        <v>1</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="41">
         <v>29</v>
       </c>
-      <c r="K30" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="43" customFormat="1">
-      <c r="A31" s="8">
+      <c r="K30" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="42" customFormat="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="21">
+        <v>252</v>
+      </c>
+      <c r="C31" s="7">
         <v>1611619200</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="7">
         <v>1612195199</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
       <c r="G31" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="21">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
         <v>21</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="15">
         <v>30</v>
       </c>
-      <c r="K31" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="27" customFormat="1">
-      <c r="A32" s="8">
+      <c r="K31" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="26" customFormat="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="38">
+      <c r="B32" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="7">
         <v>1611619200</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="7">
         <v>1612195199</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="38">
-        <v>1</v>
-      </c>
-      <c r="I32" s="38">
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
         <v>22</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="15">
         <v>31</v>
       </c>
-      <c r="K32" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="K32" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="42" customFormat="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1612224000</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1612799999</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="20">
+        <v>1</v>
+      </c>
+      <c r="I33" s="20">
+        <v>23</v>
+      </c>
+      <c r="J33" s="35">
+        <v>32</v>
+      </c>
+      <c r="K33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="26" customFormat="1">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="37">
+        <v>1612224000</v>
+      </c>
+      <c r="D34" s="37">
+        <v>1612799999</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="37">
+        <v>1</v>
+      </c>
+      <c r="I34" s="37">
+        <v>24</v>
+      </c>
+      <c r="J34" s="46">
+        <v>33</v>
+      </c>
+      <c r="K34" s="47">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2922,10 +2999,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3048,166 +3125,188 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:7" s="7" customFormat="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:7" s="7" customFormat="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="8">
+    <row r="12" spans="1:7" s="7" customFormat="1">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="8">
+    <row r="13" spans="1:7" s="7" customFormat="1">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:7" s="7" customFormat="1">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="8">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="8">
+    <row r="16" spans="1:7" s="7" customFormat="1">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:3" s="8" customFormat="1">
-      <c r="A17" s="8">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:3" s="7" customFormat="1">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1">
-      <c r="A19" s="8">
+    <row r="19" spans="1:3" s="7" customFormat="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:3" s="7" customFormat="1">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:3" s="7" customFormat="1">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="21">
+    <row r="22" spans="1:3" s="7" customFormat="1">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="25" t="s">
         <v>249</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="37">
+        <v>24</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3220,13 +3319,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E163" sqref="E163:E165"/>
+      <selection pane="bottomRight" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3260,10 +3359,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -3373,7 +3472,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -3393,7 +3492,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3416,7 +3515,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3537,7 +3636,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -3549,21 +3648,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -3574,21 +3673,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -3599,20 +3698,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -3623,20 +3722,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -3647,20 +3746,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>7</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -3671,21 +3770,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>4</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -3696,21 +3795,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -3721,21 +3820,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>4</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>3</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -3746,21 +3845,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>4</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3768,21 +3867,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>5</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3793,21 +3892,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>4</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>6</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3818,21 +3917,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>4</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>7</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3843,4023 +3942,4426 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>4</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="8" customFormat="1">
-      <c r="A26" s="8">
+    <row r="26" spans="1:10" s="7" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <v>5</v>
       </c>
-      <c r="C26" s="31">
-        <v>1</v>
-      </c>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="31" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="8" customFormat="1">
-      <c r="A27" s="8">
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="7" customFormat="1">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="30">
         <v>5</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>2</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="31" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="8" customFormat="1">
-      <c r="A28" s="8">
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="7" customFormat="1">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <v>5</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>3</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="31" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="8" customFormat="1">
-      <c r="A29" s="8">
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <v>5</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <v>4</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="33" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="8" customFormat="1">
-      <c r="A30" s="8">
+    <row r="30" spans="1:10" s="7" customFormat="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>5</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>5</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="8" customFormat="1">
-      <c r="A31" s="8">
+    <row r="31" spans="1:10" s="7" customFormat="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="30">
         <v>5</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <v>6</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="8" customFormat="1">
-      <c r="A32" s="8">
+    <row r="32" spans="1:10" s="7" customFormat="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="30">
         <v>5</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <v>7</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="8" customFormat="1">
-      <c r="A33" s="8">
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="7" customFormat="1">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="30">
         <v>5</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <v>8</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="33" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="8" customFormat="1">
-      <c r="A34" s="8">
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="7" customFormat="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>6</v>
       </c>
-      <c r="C34" s="31">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="30">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="31" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="8" customFormat="1">
-      <c r="A35" s="8">
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="7" customFormat="1">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="30">
         <v>6</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="31" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="8" customFormat="1">
-      <c r="A36" s="8">
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="30">
         <v>6</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>3</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="31" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="8" customFormat="1">
-      <c r="A37" s="8">
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="7" customFormat="1">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="30">
         <v>6</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>4</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="8" customFormat="1">
-      <c r="A38" s="8">
+    <row r="38" spans="1:10" s="7" customFormat="1">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>6</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <v>5</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="8" customFormat="1">
-      <c r="A39" s="8">
+    <row r="39" spans="1:10" s="7" customFormat="1">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <v>6</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>6</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="8" customFormat="1">
-      <c r="A40" s="8">
+    <row r="40" spans="1:10" s="7" customFormat="1">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>6</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <v>7</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="8" customFormat="1">
-      <c r="A41" s="8">
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="7" customFormat="1">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="30">
         <v>6</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>8</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="8" customFormat="1">
-      <c r="A42" s="8">
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="7" customFormat="1">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="30">
         <v>7</v>
       </c>
-      <c r="C42" s="31">
-        <v>1</v>
-      </c>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="30">
+        <v>1</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="31" t="s">
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="8" customFormat="1">
-      <c r="A43" s="8">
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="7" customFormat="1">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="30">
         <v>7</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <v>2</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="8" customFormat="1">
-      <c r="A44" s="8">
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="7" customFormat="1">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="30">
         <v>7</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="30">
         <v>3</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="31" t="s">
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="8" customFormat="1">
-      <c r="A45" s="8">
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="7" customFormat="1">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="30">
         <v>7</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="30">
         <v>4</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="33" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="8" customFormat="1">
-      <c r="A46" s="8">
+    <row r="46" spans="1:10" s="7" customFormat="1">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="30">
         <v>7</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <v>5</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="33" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="8" customFormat="1">
-      <c r="A47" s="8">
+    <row r="47" spans="1:10" s="7" customFormat="1">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="30">
         <v>7</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="30">
         <v>6</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="33" t="s">
+      <c r="E47" s="30"/>
+      <c r="F47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="8" customFormat="1">
-      <c r="A48" s="8">
+    <row r="48" spans="1:10" s="7" customFormat="1">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="30">
         <v>7</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <v>7</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="33" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="8" customFormat="1">
-      <c r="A49" s="8">
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="7" customFormat="1">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="30">
         <v>7</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="30">
         <v>8</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="33" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="8" customFormat="1">
-      <c r="A50" s="8">
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="7" customFormat="1">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="30">
         <v>8</v>
       </c>
-      <c r="C50" s="31">
-        <v>1</v>
-      </c>
-      <c r="D50" s="32" t="s">
+      <c r="C50" s="30">
+        <v>1</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="31" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="8" customFormat="1">
-      <c r="A51" s="8">
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="7" customFormat="1">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="30">
         <v>8</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="30">
         <v>2</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="31" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="8" customFormat="1">
-      <c r="A52" s="8">
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="7" customFormat="1">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="30">
         <v>8</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="30">
         <v>3</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="31" t="s">
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="8" customFormat="1">
-      <c r="A53" s="8">
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="7" customFormat="1">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="30">
         <v>8</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="30">
         <v>4</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="33" t="s">
+      <c r="E53" s="30"/>
+      <c r="F53" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="8" customFormat="1">
-      <c r="A54" s="8">
+    <row r="54" spans="1:10" s="7" customFormat="1">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="30">
         <v>8</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="30">
         <v>5</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="33" t="s">
+      <c r="E54" s="30"/>
+      <c r="F54" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="8" customFormat="1">
-      <c r="A55" s="8">
+    <row r="55" spans="1:10" s="7" customFormat="1">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="30">
         <v>8</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="30">
         <v>6</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="33" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="8" customFormat="1">
-      <c r="A56" s="8">
+    <row r="56" spans="1:10" s="7" customFormat="1">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="30">
         <v>8</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="30">
         <v>7</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="33" t="s">
+      <c r="E56" s="30"/>
+      <c r="F56" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="33" t="s">
+      <c r="G56" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="8" customFormat="1">
-      <c r="A57" s="8">
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="7" customFormat="1">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="30">
         <v>8</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="30">
         <v>8</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="33" t="s">
+      <c r="E57" s="30"/>
+      <c r="F57" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="G57" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="8" customFormat="1">
-      <c r="A58" s="8">
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="7" customFormat="1">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="30">
         <v>9</v>
       </c>
-      <c r="C58" s="31">
-        <v>1</v>
-      </c>
-      <c r="D58" s="32" t="s">
+      <c r="C58" s="30">
+        <v>1</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="31" t="s">
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="8" customFormat="1">
-      <c r="A59" s="8">
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="7" customFormat="1">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="30">
         <v>9</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="30">
         <v>2</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="31" t="s">
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="8" customFormat="1">
-      <c r="A60" s="8">
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="7" customFormat="1">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="30">
         <v>9</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="30">
         <v>3</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="31" t="s">
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="8" customFormat="1">
-      <c r="A61" s="8">
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="7" customFormat="1">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="30">
         <v>9</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="30">
         <v>4</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="33" t="s">
+      <c r="E61" s="30"/>
+      <c r="F61" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="G61" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="8" customFormat="1">
-      <c r="A62" s="8">
+    <row r="62" spans="1:10" s="7" customFormat="1">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="30">
         <v>9</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="30">
         <v>5</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="33" t="s">
+      <c r="E62" s="30"/>
+      <c r="F62" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="8" customFormat="1">
-      <c r="A63" s="8">
+    <row r="63" spans="1:10" s="7" customFormat="1">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="30">
         <v>9</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="30">
         <v>6</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="33" t="s">
+      <c r="E63" s="30"/>
+      <c r="F63" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="8" customFormat="1">
-      <c r="A64" s="8">
+    <row r="64" spans="1:10" s="7" customFormat="1">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="30">
         <v>9</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64" s="30">
         <v>7</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="33" t="s">
+      <c r="E64" s="30"/>
+      <c r="F64" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="33" t="s">
+      <c r="G64" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="8" customFormat="1">
-      <c r="A65" s="8">
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="7" customFormat="1">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="30">
         <v>9</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="30">
         <v>8</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="33" t="s">
+      <c r="E65" s="30"/>
+      <c r="F65" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="8" customFormat="1">
-      <c r="A66" s="8">
+      <c r="J65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="7" customFormat="1">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="30">
         <v>10</v>
       </c>
-      <c r="C66" s="31">
-        <v>1</v>
-      </c>
-      <c r="D66" s="32" t="s">
+      <c r="C66" s="30">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="31" t="s">
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="8" customFormat="1">
-      <c r="A67" s="8">
+      <c r="J66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="7" customFormat="1">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="30">
         <v>10</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="30">
         <v>2</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="31" t="s">
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="8" customFormat="1">
-      <c r="A68" s="8">
+      <c r="J67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="7" customFormat="1">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="30">
         <v>10</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="30">
         <v>3</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="31" t="s">
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="8" customFormat="1">
-      <c r="A69" s="8">
+      <c r="J68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="7" customFormat="1">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="30">
         <v>10</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="30">
         <v>4</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="33" t="s">
+      <c r="E69" s="30"/>
+      <c r="F69" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H69" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="8" customFormat="1">
-      <c r="A70" s="8">
+    <row r="70" spans="1:10" s="7" customFormat="1">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="30">
         <v>10</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="30">
         <v>5</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="33" t="s">
+      <c r="E70" s="30"/>
+      <c r="F70" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="8" customFormat="1">
-      <c r="A71" s="8">
+    <row r="71" spans="1:10" s="7" customFormat="1">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="30">
         <v>10</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="30">
         <v>6</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="33" t="s">
+      <c r="E71" s="30"/>
+      <c r="F71" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="8" customFormat="1">
-      <c r="A72" s="8">
+    <row r="72" spans="1:10" s="7" customFormat="1">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="30">
         <v>10</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="30">
         <v>7</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="33" t="s">
+      <c r="E72" s="30"/>
+      <c r="F72" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="8" customFormat="1">
-      <c r="A73" s="8">
+      <c r="J72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="7" customFormat="1">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="30">
         <v>10</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="30">
         <v>8</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="33" t="s">
+      <c r="E73" s="30"/>
+      <c r="F73" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="33" t="s">
+      <c r="G73" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="8" customFormat="1">
-      <c r="A74" s="8">
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="7" customFormat="1">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="30">
         <v>11</v>
       </c>
-      <c r="C74" s="31">
-        <v>1</v>
-      </c>
-      <c r="D74" s="32" t="s">
+      <c r="C74" s="30">
+        <v>1</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="31" t="s">
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="8" customFormat="1">
-      <c r="A75" s="8">
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="7" customFormat="1">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="30">
         <v>11</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75" s="30">
         <v>2</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="31" t="s">
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="8" customFormat="1">
-      <c r="A76" s="8">
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="7" customFormat="1">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="30">
         <v>11</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="30">
         <v>3</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="31" t="s">
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="8" customFormat="1">
-      <c r="A77" s="8">
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="7" customFormat="1">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="30">
         <v>11</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="30">
         <v>4</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="33" t="s">
+      <c r="E77" s="30"/>
+      <c r="F77" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="H77" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="8" customFormat="1">
-      <c r="A78" s="8">
+    <row r="78" spans="1:10" s="7" customFormat="1">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="30">
         <v>11</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="30">
         <v>5</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="33" t="s">
+      <c r="E78" s="30"/>
+      <c r="F78" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H78" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="8" customFormat="1">
-      <c r="A79" s="8">
+    <row r="79" spans="1:10" s="7" customFormat="1">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79" s="30">
         <v>11</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="30">
         <v>6</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="33" t="s">
+      <c r="E79" s="30"/>
+      <c r="F79" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="8" customFormat="1">
-      <c r="A80" s="8">
+    <row r="80" spans="1:10" s="7" customFormat="1">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="30">
         <v>11</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80" s="30">
         <v>7</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="33" t="s">
+      <c r="E80" s="30"/>
+      <c r="F80" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="8" customFormat="1">
-      <c r="A81" s="8">
+      <c r="J80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="7" customFormat="1">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="30">
         <v>11</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="30">
         <v>8</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="33" t="s">
+      <c r="E81" s="30"/>
+      <c r="F81" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="8" customFormat="1">
-      <c r="A82" s="8">
+      <c r="J81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="7" customFormat="1">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="31">
+      <c r="B82" s="30">
         <v>12</v>
       </c>
-      <c r="C82" s="31">
-        <v>1</v>
-      </c>
-      <c r="D82" s="32" t="s">
+      <c r="C82" s="30">
+        <v>1</v>
+      </c>
+      <c r="D82" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="31" t="s">
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="8" customFormat="1">
-      <c r="A83" s="8">
+      <c r="J82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="7" customFormat="1">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="31">
+      <c r="B83" s="30">
         <v>12</v>
       </c>
-      <c r="C83" s="31">
+      <c r="C83" s="30">
         <v>2</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="31" t="s">
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J83" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="8" customFormat="1">
-      <c r="A84" s="8">
+      <c r="J83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="7" customFormat="1">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="31">
+      <c r="B84" s="30">
         <v>12</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="30">
         <v>3</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="31" t="s">
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J84" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="8" customFormat="1">
-      <c r="A85" s="8">
+      <c r="J84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="7" customFormat="1">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="31">
+      <c r="B85" s="30">
         <v>12</v>
       </c>
-      <c r="C85" s="31">
+      <c r="C85" s="30">
         <v>4</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="33" t="s">
+      <c r="E85" s="30"/>
+      <c r="F85" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="H85" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="8" customFormat="1">
-      <c r="A86" s="8">
+    <row r="86" spans="1:10" s="7" customFormat="1">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="31">
+      <c r="B86" s="30">
         <v>12</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86" s="30">
         <v>5</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="33" t="s">
+      <c r="E86" s="30"/>
+      <c r="F86" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="8" customFormat="1">
-      <c r="A87" s="8">
+    <row r="87" spans="1:10" s="7" customFormat="1">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B87" s="30">
         <v>12</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87" s="30">
         <v>6</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="33" t="s">
+      <c r="E87" s="30"/>
+      <c r="F87" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="8" customFormat="1">
-      <c r="A88" s="8">
+    <row r="88" spans="1:10" s="7" customFormat="1">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B88" s="30">
         <v>12</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88" s="30">
         <v>7</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="33" t="s">
+      <c r="E88" s="30"/>
+      <c r="F88" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="26" t="s">
+      <c r="H88" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J88" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="8" customFormat="1">
-      <c r="A89" s="8">
+      <c r="J88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="7" customFormat="1">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89" s="30">
         <v>12</v>
       </c>
-      <c r="C89" s="31">
+      <c r="C89" s="30">
         <v>8</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="33" t="s">
+      <c r="E89" s="30"/>
+      <c r="F89" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="H89" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J89" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="8">
+      <c r="J89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="7" customFormat="1">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="31">
+      <c r="B90" s="30">
         <v>13</v>
       </c>
-      <c r="C90" s="31">
-        <v>1</v>
-      </c>
-      <c r="D90" s="32" t="s">
+      <c r="C90" s="30">
+        <v>1</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="31" t="s">
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J90" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="8">
+      <c r="J90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="7" customFormat="1">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B91" s="30">
         <v>13</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91" s="30">
         <v>2</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="31" t="s">
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J91" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="8">
+      <c r="J91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="7" customFormat="1">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="31">
+      <c r="B92" s="30">
         <v>13</v>
       </c>
-      <c r="C92" s="31">
+      <c r="C92" s="30">
         <v>3</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="31" t="s">
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J92" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="8">
+      <c r="J92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="7" customFormat="1">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B93" s="30">
         <v>13</v>
       </c>
-      <c r="C93" s="31">
+      <c r="C93" s="30">
         <v>4</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="33" t="s">
+      <c r="E93" s="30"/>
+      <c r="F93" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G93" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H93" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="8">
+    <row r="94" spans="1:10" s="7" customFormat="1">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="31">
+      <c r="B94" s="30">
         <v>13</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="30">
         <v>5</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="33" t="s">
+      <c r="E94" s="30"/>
+      <c r="F94" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G94" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="8">
+    <row r="95" spans="1:10" s="7" customFormat="1">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="31">
+      <c r="B95" s="30">
         <v>13</v>
       </c>
-      <c r="C95" s="31">
+      <c r="C95" s="30">
         <v>6</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="33" t="s">
+      <c r="E95" s="30"/>
+      <c r="F95" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="26" t="s">
+      <c r="H95" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="8">
+    <row r="96" spans="1:10" s="7" customFormat="1">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="31">
+      <c r="B96" s="30">
         <v>13</v>
       </c>
-      <c r="C96" s="31">
+      <c r="C96" s="30">
         <v>7</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="33" t="s">
+      <c r="E96" s="30"/>
+      <c r="F96" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="33" t="s">
+      <c r="G96" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J96" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="8" customFormat="1">
-      <c r="A97" s="8">
+      <c r="J96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="7" customFormat="1">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="30">
         <v>13</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="30">
         <v>8</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="33" t="s">
+      <c r="E97" s="30"/>
+      <c r="F97" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="33" t="s">
+      <c r="G97" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="31" t="s">
+      <c r="H97" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J97" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="8" customFormat="1">
-      <c r="A98" s="8">
+      <c r="J97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="7" customFormat="1">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="30">
         <v>14</v>
       </c>
-      <c r="C98" s="31">
-        <v>1</v>
-      </c>
-      <c r="D98" s="32" t="s">
+      <c r="C98" s="30">
+        <v>1</v>
+      </c>
+      <c r="D98" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="31" t="s">
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J98" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="8" customFormat="1">
-      <c r="A99" s="8">
+      <c r="J98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="7" customFormat="1">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="31">
+      <c r="B99" s="30">
         <v>14</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="30">
         <v>2</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="31" t="s">
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J99" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="8" customFormat="1">
-      <c r="A100" s="8">
+      <c r="J99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="7" customFormat="1">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="31">
+      <c r="B100" s="30">
         <v>14</v>
       </c>
-      <c r="C100" s="31">
+      <c r="C100" s="30">
         <v>3</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="31" t="s">
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J100" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="8" customFormat="1">
-      <c r="A101" s="8">
+      <c r="J100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="7" customFormat="1">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="31">
+      <c r="B101" s="30">
         <v>14</v>
       </c>
-      <c r="C101" s="31">
+      <c r="C101" s="30">
         <v>4</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="D101" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="33" t="s">
+      <c r="E101" s="30"/>
+      <c r="F101" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G101" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="31" t="s">
+      <c r="H101" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="8" customFormat="1">
-      <c r="A102" s="8">
+    <row r="102" spans="1:10" s="7" customFormat="1">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="30">
         <v>14</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="30">
         <v>5</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="33" t="s">
+      <c r="E102" s="30"/>
+      <c r="F102" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G102" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="8" customFormat="1">
-      <c r="A103" s="8">
+    <row r="103" spans="1:10" s="7" customFormat="1">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="30">
         <v>14</v>
       </c>
-      <c r="C103" s="31">
+      <c r="C103" s="30">
         <v>6</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="D103" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="33" t="s">
+      <c r="E103" s="30"/>
+      <c r="F103" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H103" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J103" s="8">
+      <c r="J103" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="8" customFormat="1">
-      <c r="A104" s="8">
+    <row r="104" spans="1:10" s="7" customFormat="1">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="31">
+      <c r="B104" s="30">
         <v>14</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="30">
         <v>7</v>
       </c>
-      <c r="D104" s="32" t="s">
+      <c r="D104" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="33" t="s">
+      <c r="E104" s="30"/>
+      <c r="F104" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="H104" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J104" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="8" customFormat="1">
-      <c r="A105" s="8">
+      <c r="J104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="7" customFormat="1">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="30">
         <v>14</v>
       </c>
-      <c r="C105" s="31">
+      <c r="C105" s="30">
         <v>8</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="33" t="s">
+      <c r="E105" s="30"/>
+      <c r="F105" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="H105" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J105" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="8" customFormat="1">
-      <c r="A106" s="8">
+      <c r="J105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="7" customFormat="1">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="31">
+      <c r="B106" s="30">
         <v>15</v>
       </c>
-      <c r="C106" s="31">
-        <v>1</v>
-      </c>
-      <c r="D106" s="32" t="s">
+      <c r="C106" s="30">
+        <v>1</v>
+      </c>
+      <c r="D106" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="31" t="s">
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J106" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="8" customFormat="1">
-      <c r="A107" s="8">
+      <c r="J106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="7" customFormat="1">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="31">
+      <c r="B107" s="30">
         <v>15</v>
       </c>
-      <c r="C107" s="31">
+      <c r="C107" s="30">
         <v>2</v>
       </c>
-      <c r="D107" s="32" t="s">
+      <c r="D107" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="31" t="s">
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J107" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="8" customFormat="1">
-      <c r="A108" s="8">
+      <c r="J107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="7" customFormat="1">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="30">
         <v>15</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="30">
         <v>3</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D108" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="31" t="s">
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J108" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="8" customFormat="1">
-      <c r="A109" s="8">
+      <c r="J108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="7" customFormat="1">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B109" s="30">
         <v>15</v>
       </c>
-      <c r="C109" s="31">
+      <c r="C109" s="30">
         <v>4</v>
       </c>
-      <c r="D109" s="32" t="s">
+      <c r="D109" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="33" t="s">
+      <c r="E109" s="30"/>
+      <c r="F109" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H109" s="31" t="s">
+      <c r="H109" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A110" s="8">
+    <row r="110" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="31">
+      <c r="B110" s="30">
         <v>15</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="30">
         <v>5</v>
       </c>
-      <c r="D110" s="32" t="s">
+      <c r="D110" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="40" t="s">
+      <c r="E110" s="30"/>
+      <c r="F110" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="H110" s="26" t="s">
+      <c r="H110" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J110" s="8">
+      <c r="J110" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A111" s="8">
+    <row r="111" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="31">
+      <c r="B111" s="30">
         <v>15</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="30">
         <v>6</v>
       </c>
-      <c r="D111" s="32" t="s">
+      <c r="D111" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="40" t="s">
+      <c r="E111" s="30"/>
+      <c r="F111" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G111" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="8" customFormat="1">
-      <c r="A112" s="8">
+    <row r="112" spans="1:10" s="7" customFormat="1">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="31">
+      <c r="B112" s="30">
         <v>15</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="30">
         <v>7</v>
       </c>
-      <c r="D112" s="32" t="s">
+      <c r="D112" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="33" t="s">
+      <c r="E112" s="30"/>
+      <c r="F112" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="33" t="s">
+      <c r="G112" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="H112" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J112" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A113" s="8">
+      <c r="J112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="31">
+      <c r="B113" s="30">
         <v>15</v>
       </c>
-      <c r="C113" s="31">
+      <c r="C113" s="30">
         <v>8</v>
       </c>
-      <c r="D113" s="32" t="s">
+      <c r="D113" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E113" s="31"/>
-      <c r="F113" s="40" t="s">
+      <c r="E113" s="30"/>
+      <c r="F113" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="H113" s="31" t="s">
+      <c r="H113" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J113" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="8" customFormat="1">
-      <c r="A114" s="8">
+      <c r="J113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="7" customFormat="1">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="31">
+      <c r="B114" s="30">
         <v>16</v>
       </c>
-      <c r="C114" s="31">
-        <v>1</v>
-      </c>
-      <c r="D114" s="32" t="s">
+      <c r="C114" s="30">
+        <v>1</v>
+      </c>
+      <c r="D114" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="31" t="s">
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J114" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="8" customFormat="1">
-      <c r="A115" s="8">
+      <c r="J114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="7" customFormat="1">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="31">
+      <c r="B115" s="30">
         <v>16</v>
       </c>
-      <c r="C115" s="31">
+      <c r="C115" s="30">
         <v>2</v>
       </c>
-      <c r="D115" s="32" t="s">
+      <c r="D115" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="31" t="s">
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J115" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="8" customFormat="1">
-      <c r="A116" s="8">
+      <c r="J115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="7" customFormat="1">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="31">
+      <c r="B116" s="30">
         <v>16</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="30">
         <v>3</v>
       </c>
-      <c r="D116" s="32" t="s">
+      <c r="D116" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="31" t="s">
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J116" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="8" customFormat="1">
-      <c r="A117" s="8">
+      <c r="J116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="7" customFormat="1">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="31">
+      <c r="B117" s="30">
         <v>16</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="30">
         <v>4</v>
       </c>
-      <c r="D117" s="32" t="s">
+      <c r="D117" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="31"/>
-      <c r="F117" s="33" t="s">
+      <c r="E117" s="30"/>
+      <c r="F117" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H117" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="8" customFormat="1">
-      <c r="A118" s="8">
+    <row r="118" spans="1:10" s="7" customFormat="1">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="31">
+      <c r="B118" s="30">
         <v>16</v>
       </c>
-      <c r="C118" s="31">
+      <c r="C118" s="30">
         <v>5</v>
       </c>
-      <c r="D118" s="32" t="s">
+      <c r="D118" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="33" t="s">
+      <c r="E118" s="30"/>
+      <c r="F118" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J118" s="8">
+      <c r="J118" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="8" customFormat="1">
-      <c r="A119" s="8">
+    <row r="119" spans="1:10" s="7" customFormat="1">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="31">
+      <c r="B119" s="30">
         <v>16</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="30">
         <v>6</v>
       </c>
-      <c r="D119" s="32" t="s">
+      <c r="D119" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E119" s="31"/>
-      <c r="F119" s="26" t="s">
+      <c r="E119" s="30"/>
+      <c r="F119" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="26" t="s">
+      <c r="H119" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J119" s="8">
+      <c r="J119" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="8" customFormat="1">
-      <c r="A120" s="8">
+    <row r="120" spans="1:10" s="7" customFormat="1">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="31">
+      <c r="B120" s="30">
         <v>16</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="30">
         <v>7</v>
       </c>
-      <c r="D120" s="32" t="s">
+      <c r="D120" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="31"/>
-      <c r="F120" s="33" t="s">
+      <c r="E120" s="30"/>
+      <c r="F120" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="26" t="s">
+      <c r="H120" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J120" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="8" customFormat="1">
-      <c r="A121" s="8">
+      <c r="J120" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="7" customFormat="1">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="31">
+      <c r="B121" s="30">
         <v>16</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="30">
         <v>8</v>
       </c>
-      <c r="D121" s="32" t="s">
+      <c r="D121" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="26" t="s">
+      <c r="E121" s="30"/>
+      <c r="F121" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="H121" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J121" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="8" customFormat="1">
-      <c r="A122" s="8">
+      <c r="J121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="7" customFormat="1">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="31">
+      <c r="B122" s="30">
         <v>17</v>
       </c>
-      <c r="C122" s="31">
-        <v>1</v>
-      </c>
-      <c r="D122" s="32" t="s">
+      <c r="C122" s="30">
+        <v>1</v>
+      </c>
+      <c r="D122" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33" t="s">
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="J122" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="8" customFormat="1">
-      <c r="A123" s="8">
+      <c r="J122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="7" customFormat="1">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="31">
+      <c r="B123" s="30">
         <v>17</v>
       </c>
-      <c r="C123" s="31">
+      <c r="C123" s="30">
         <v>2</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E123" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33" t="s">
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J123" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="8" customFormat="1">
-      <c r="A124" s="8">
+      <c r="J123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="7" customFormat="1">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="31">
+      <c r="B124" s="30">
         <v>17</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C124" s="30">
         <v>3</v>
       </c>
-      <c r="D124" s="32" t="s">
+      <c r="D124" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33" t="s">
+      <c r="G124" s="32"/>
+      <c r="H124" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="J124" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="8" customFormat="1">
-      <c r="A125" s="8">
+      <c r="J124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="7" customFormat="1">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="31">
+      <c r="B125" s="30">
         <v>17</v>
       </c>
-      <c r="C125" s="31">
+      <c r="C125" s="30">
         <v>4</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="31"/>
-      <c r="F125" s="33" t="s">
+      <c r="E125" s="30"/>
+      <c r="F125" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H125" s="33" t="s">
+      <c r="H125" s="32" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A126" s="8">
+    <row r="126" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="31">
+      <c r="B126" s="30">
         <v>17</v>
       </c>
-      <c r="C126" s="31">
+      <c r="C126" s="30">
         <v>5</v>
       </c>
-      <c r="D126" s="32" t="s">
+      <c r="D126" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="31"/>
-      <c r="F126" s="40" t="s">
+      <c r="E126" s="30"/>
+      <c r="F126" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H126" s="26" t="s">
+      <c r="H126" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A127" s="8">
+    <row r="127" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="31">
+      <c r="B127" s="30">
         <v>17</v>
       </c>
-      <c r="C127" s="31">
+      <c r="C127" s="30">
         <v>6</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="D127" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="31"/>
-      <c r="F127" s="40" t="s">
+      <c r="E127" s="30"/>
+      <c r="F127" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="G127" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H127" s="26" t="s">
+      <c r="H127" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="8" customFormat="1">
-      <c r="A128" s="8">
+    <row r="128" spans="1:10" s="7" customFormat="1">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="31">
+      <c r="B128" s="30">
         <v>17</v>
       </c>
-      <c r="C128" s="31">
+      <c r="C128" s="30">
         <v>7</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D128" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E128" s="31"/>
-      <c r="F128" s="33" t="s">
+      <c r="E128" s="30"/>
+      <c r="F128" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G128" s="33" t="s">
+      <c r="G128" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H128" s="26" t="s">
+      <c r="H128" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="J128" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A129" s="8">
+      <c r="J128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="31">
+      <c r="B129" s="30">
         <v>17</v>
       </c>
-      <c r="C129" s="31">
+      <c r="C129" s="30">
         <v>8</v>
       </c>
-      <c r="D129" s="32" t="s">
+      <c r="D129" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="31"/>
-      <c r="F129" s="40" t="s">
+      <c r="E129" s="30"/>
+      <c r="F129" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H129" s="33" t="s">
+      <c r="H129" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="J129" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="8" customFormat="1">
-      <c r="A130" s="8">
+      <c r="J129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="7" customFormat="1">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="31">
+      <c r="B130" s="30">
         <v>18</v>
       </c>
-      <c r="C130" s="31">
-        <v>1</v>
-      </c>
-      <c r="D130" s="32" t="s">
+      <c r="C130" s="30">
+        <v>1</v>
+      </c>
+      <c r="D130" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E130" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33" t="s">
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="J130" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" s="8" customFormat="1">
-      <c r="A131" s="8">
+      <c r="J130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="7" customFormat="1">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="31">
+      <c r="B131" s="30">
         <v>18</v>
       </c>
-      <c r="C131" s="31">
+      <c r="C131" s="30">
         <v>2</v>
       </c>
-      <c r="D131" s="32" t="s">
+      <c r="D131" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E131" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33" t="s">
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="8" customFormat="1">
-      <c r="A132" s="8">
+      <c r="J131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="7" customFormat="1">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="31">
+      <c r="B132" s="30">
         <v>18</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="30">
         <v>3</v>
       </c>
-      <c r="D132" s="32" t="s">
+      <c r="D132" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33" t="s">
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="J132" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="8" customFormat="1">
-      <c r="A133" s="8">
+      <c r="J132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="7" customFormat="1">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="31">
+      <c r="B133" s="30">
         <v>18</v>
       </c>
-      <c r="C133" s="31">
+      <c r="C133" s="30">
         <v>4</v>
       </c>
-      <c r="D133" s="32" t="s">
+      <c r="D133" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="31"/>
-      <c r="F133" s="33" t="s">
+      <c r="E133" s="30"/>
+      <c r="F133" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="33" t="s">
+      <c r="H133" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="8" customFormat="1">
-      <c r="A134" s="8">
+    <row r="134" spans="1:10" s="7" customFormat="1">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="31">
+      <c r="B134" s="30">
         <v>18</v>
       </c>
-      <c r="C134" s="31">
+      <c r="C134" s="30">
         <v>5</v>
       </c>
-      <c r="D134" s="32" t="s">
+      <c r="D134" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="31"/>
-      <c r="F134" s="33" t="s">
+      <c r="E134" s="30"/>
+      <c r="F134" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H134" s="26" t="s">
+      <c r="H134" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="8" customFormat="1">
-      <c r="A135" s="8">
+    <row r="135" spans="1:10" s="7" customFormat="1">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="31">
+      <c r="B135" s="30">
         <v>18</v>
       </c>
-      <c r="C135" s="31">
+      <c r="C135" s="30">
         <v>6</v>
       </c>
-      <c r="D135" s="32" t="s">
+      <c r="D135" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E135" s="31"/>
-      <c r="F135" s="26" t="s">
+      <c r="E135" s="30"/>
+      <c r="F135" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G135" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H135" s="26" t="s">
+      <c r="H135" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="8" customFormat="1">
-      <c r="A136" s="8">
+    <row r="136" spans="1:10" s="7" customFormat="1">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="31">
+      <c r="B136" s="30">
         <v>18</v>
       </c>
-      <c r="C136" s="31">
+      <c r="C136" s="30">
         <v>7</v>
       </c>
-      <c r="D136" s="32" t="s">
+      <c r="D136" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E136" s="31"/>
-      <c r="F136" s="33" t="s">
+      <c r="E136" s="30"/>
+      <c r="F136" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G136" s="33" t="s">
+      <c r="G136" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J136" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="8" customFormat="1">
-      <c r="A137" s="8">
+      <c r="J136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="7" customFormat="1">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="31">
+      <c r="B137" s="30">
         <v>18</v>
       </c>
-      <c r="C137" s="31">
+      <c r="C137" s="30">
         <v>8</v>
       </c>
-      <c r="D137" s="32" t="s">
+      <c r="D137" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E137" s="31"/>
-      <c r="F137" s="26" t="s">
+      <c r="E137" s="30"/>
+      <c r="F137" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G137" s="33" t="s">
+      <c r="G137" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H137" s="33" t="s">
+      <c r="H137" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J137" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="8" customFormat="1">
-      <c r="A138" s="8">
+      <c r="J137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="7" customFormat="1">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="31">
+      <c r="B138" s="30">
         <v>19</v>
       </c>
-      <c r="C138" s="31">
-        <v>1</v>
-      </c>
-      <c r="D138" s="32" t="s">
+      <c r="C138" s="30">
+        <v>1</v>
+      </c>
+      <c r="D138" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33" t="s">
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J138" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="8" customFormat="1">
-      <c r="A139" s="8">
+      <c r="J138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="7" customFormat="1">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="31">
+      <c r="B139" s="30">
         <v>19</v>
       </c>
-      <c r="C139" s="31">
+      <c r="C139" s="30">
         <v>2</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="D139" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E139" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33" t="s">
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J139" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="8" customFormat="1">
-      <c r="A140" s="8">
+      <c r="J139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="7" customFormat="1">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="31">
+      <c r="B140" s="30">
         <v>19</v>
       </c>
-      <c r="C140" s="31">
+      <c r="C140" s="30">
         <v>3</v>
       </c>
-      <c r="D140" s="32" t="s">
+      <c r="D140" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E140" s="31" t="s">
+      <c r="E140" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33" t="s">
+      <c r="G140" s="32"/>
+      <c r="H140" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J140" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="8" customFormat="1">
-      <c r="A141" s="8">
+      <c r="J140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="7" customFormat="1">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="31">
+      <c r="B141" s="30">
         <v>19</v>
       </c>
-      <c r="C141" s="31">
+      <c r="C141" s="30">
         <v>4</v>
       </c>
-      <c r="D141" s="32" t="s">
+      <c r="D141" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="31"/>
-      <c r="F141" s="33" t="s">
+      <c r="E141" s="30"/>
+      <c r="F141" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G141" s="33" t="s">
+      <c r="G141" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A142" s="8">
+    <row r="142" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="31">
+      <c r="B142" s="30">
         <v>19</v>
       </c>
-      <c r="C142" s="31">
+      <c r="C142" s="30">
         <v>5</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D142" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E142" s="31"/>
-      <c r="F142" s="40" t="s">
+      <c r="E142" s="30"/>
+      <c r="F142" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G142" s="33" t="s">
+      <c r="G142" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H142" s="26" t="s">
+      <c r="H142" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A143" s="8">
+    <row r="143" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="31">
+      <c r="B143" s="30">
         <v>19</v>
       </c>
-      <c r="C143" s="31">
+      <c r="C143" s="30">
         <v>6</v>
       </c>
-      <c r="D143" s="32" t="s">
+      <c r="D143" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E143" s="31"/>
-      <c r="F143" s="40" t="s">
+      <c r="E143" s="30"/>
+      <c r="F143" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G143" s="33" t="s">
+      <c r="G143" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H143" s="26" t="s">
+      <c r="H143" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J143" s="8">
+      <c r="J143" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="8" customFormat="1">
-      <c r="A144" s="8">
+    <row r="144" spans="1:10" s="7" customFormat="1">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="31">
+      <c r="B144" s="30">
         <v>19</v>
       </c>
-      <c r="C144" s="31">
+      <c r="C144" s="30">
         <v>7</v>
       </c>
-      <c r="D144" s="32" t="s">
+      <c r="D144" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E144" s="31"/>
-      <c r="F144" s="33" t="s">
+      <c r="E144" s="30"/>
+      <c r="F144" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="33" t="s">
+      <c r="G144" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H144" s="26" t="s">
+      <c r="H144" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J144" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A145" s="8">
+      <c r="J144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="31">
+      <c r="B145" s="30">
         <v>19</v>
       </c>
-      <c r="C145" s="31">
+      <c r="C145" s="30">
         <v>8</v>
       </c>
-      <c r="D145" s="32" t="s">
+      <c r="D145" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E145" s="31"/>
-      <c r="F145" s="40" t="s">
+      <c r="E145" s="30"/>
+      <c r="F145" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G145" s="33" t="s">
+      <c r="G145" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H145" s="33" t="s">
+      <c r="H145" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J145" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" s="8" customFormat="1">
-      <c r="A146" s="8">
+      <c r="J145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="7" customFormat="1">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="31">
+      <c r="B146" s="30">
         <v>20</v>
       </c>
-      <c r="C146" s="31">
-        <v>1</v>
-      </c>
-      <c r="D146" s="32" t="s">
+      <c r="C146" s="30">
+        <v>1</v>
+      </c>
+      <c r="D146" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="31" t="s">
+      <c r="E146" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33" t="s">
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J146" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="8" customFormat="1">
-      <c r="A147" s="8">
+      <c r="J146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="7" customFormat="1">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="30">
         <v>20</v>
       </c>
-      <c r="C147" s="31">
+      <c r="C147" s="30">
         <v>2</v>
       </c>
-      <c r="D147" s="32" t="s">
+      <c r="D147" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E147" s="31" t="s">
+      <c r="E147" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33" t="s">
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J147" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" s="8" customFormat="1">
-      <c r="A148" s="8">
+      <c r="J147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="7" customFormat="1">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="31">
+      <c r="B148" s="30">
         <v>20</v>
       </c>
-      <c r="C148" s="31">
+      <c r="C148" s="30">
         <v>3</v>
       </c>
-      <c r="D148" s="32" t="s">
+      <c r="D148" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E148" s="31" t="s">
+      <c r="E148" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33" t="s">
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J148" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" s="8" customFormat="1">
-      <c r="A149" s="8">
+      <c r="J148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="7" customFormat="1">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="31">
+      <c r="B149" s="30">
         <v>20</v>
       </c>
-      <c r="C149" s="31">
+      <c r="C149" s="30">
         <v>4</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E149" s="31"/>
-      <c r="F149" s="33" t="s">
+      <c r="E149" s="30"/>
+      <c r="F149" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="G149" s="33" t="s">
+      <c r="G149" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H149" s="33" t="s">
+      <c r="H149" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="8" customFormat="1">
-      <c r="A150" s="8">
+    <row r="150" spans="1:10" s="7" customFormat="1">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="31">
+      <c r="B150" s="30">
         <v>20</v>
       </c>
-      <c r="C150" s="31">
+      <c r="C150" s="30">
         <v>5</v>
       </c>
-      <c r="D150" s="32" t="s">
+      <c r="D150" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E150" s="31"/>
-      <c r="F150" s="33" t="s">
+      <c r="E150" s="30"/>
+      <c r="F150" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J150" s="8">
+      <c r="J150" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="8" customFormat="1">
-      <c r="A151" s="8">
+    <row r="151" spans="1:10" s="7" customFormat="1">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="31">
+      <c r="B151" s="30">
         <v>20</v>
       </c>
-      <c r="C151" s="31">
+      <c r="C151" s="30">
         <v>6</v>
       </c>
-      <c r="D151" s="32" t="s">
+      <c r="D151" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E151" s="31"/>
-      <c r="F151" s="26" t="s">
+      <c r="E151" s="30"/>
+      <c r="F151" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="33" t="s">
+      <c r="G151" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H151" s="26" t="s">
+      <c r="H151" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J151" s="8">
+      <c r="J151" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="8" customFormat="1">
-      <c r="A152" s="8">
+    <row r="152" spans="1:10" s="7" customFormat="1">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B152" s="30">
         <v>20</v>
       </c>
-      <c r="C152" s="31">
+      <c r="C152" s="30">
         <v>7</v>
       </c>
-      <c r="D152" s="32" t="s">
+      <c r="D152" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="31"/>
-      <c r="F152" s="33" t="s">
+      <c r="E152" s="30"/>
+      <c r="F152" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G152" s="33" t="s">
+      <c r="G152" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H152" s="26" t="s">
+      <c r="H152" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J152" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="8" customFormat="1">
-      <c r="A153" s="8">
+      <c r="J152" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="7" customFormat="1">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B153" s="30">
         <v>20</v>
       </c>
-      <c r="C153" s="31">
+      <c r="C153" s="30">
         <v>8</v>
       </c>
-      <c r="D153" s="32" t="s">
+      <c r="D153" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="31"/>
-      <c r="F153" s="26" t="s">
+      <c r="E153" s="30"/>
+      <c r="F153" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G153" s="33" t="s">
+      <c r="G153" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H153" s="33" t="s">
+      <c r="H153" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J153" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" s="8" customFormat="1">
-      <c r="A154" s="8">
+      <c r="J153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="7" customFormat="1">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B154" s="30">
         <v>21</v>
       </c>
-      <c r="C154" s="31">
-        <v>1</v>
-      </c>
-      <c r="D154" s="32" t="s">
+      <c r="C154" s="30">
+        <v>1</v>
+      </c>
+      <c r="D154" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E154" s="31"/>
-      <c r="F154" s="33" t="s">
+      <c r="E154" s="30"/>
+      <c r="F154" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G154" s="33" t="s">
+      <c r="G154" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="H154" s="31" t="s">
+      <c r="H154" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="J154" s="8">
+      <c r="J154" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="8" customFormat="1">
-      <c r="A155" s="8">
+    <row r="155" spans="1:10" s="7" customFormat="1">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B155" s="30">
         <v>22</v>
       </c>
-      <c r="C155" s="31">
-        <v>1</v>
-      </c>
-      <c r="D155" s="32" t="s">
+      <c r="C155" s="30">
+        <v>1</v>
+      </c>
+      <c r="D155" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E155" s="31"/>
-      <c r="F155" s="33" t="s">
+      <c r="E155" s="30"/>
+      <c r="F155" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G155" s="33" t="s">
+      <c r="G155" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="H155" s="31" t="s">
+      <c r="H155" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="J155" s="8">
+      <c r="J155" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="8" customFormat="1">
-      <c r="A156" s="8">
+    <row r="156" spans="1:10" s="7" customFormat="1">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="31">
+      <c r="B156" s="30">
         <v>23</v>
       </c>
-      <c r="C156" s="31">
-        <v>1</v>
-      </c>
-      <c r="D156" s="32" t="s">
+      <c r="C156" s="30">
+        <v>1</v>
+      </c>
+      <c r="D156" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E156" s="31"/>
-      <c r="F156" s="33" t="s">
+      <c r="E156" s="30"/>
+      <c r="F156" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G156" s="33" t="s">
+      <c r="G156" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="H156" s="31" t="s">
+      <c r="H156" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="J156" s="8">
+      <c r="J156" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="8" customFormat="1">
-      <c r="A157" s="8">
+    <row r="157" spans="1:10" s="7" customFormat="1">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="31">
+      <c r="B157" s="30">
         <v>24</v>
       </c>
-      <c r="C157" s="31">
-        <v>1</v>
-      </c>
-      <c r="D157" s="32" t="s">
+      <c r="C157" s="30">
+        <v>1</v>
+      </c>
+      <c r="D157" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E157" s="31"/>
-      <c r="F157" s="33" t="s">
+      <c r="E157" s="30"/>
+      <c r="F157" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G157" s="33" t="s">
+      <c r="G157" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="H157" s="31" t="s">
+      <c r="H157" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J157" s="8">
+      <c r="J157" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="8" customFormat="1">
-      <c r="A158" s="8">
+    <row r="158" spans="1:10" s="7" customFormat="1">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="31">
+      <c r="B158" s="30">
         <v>25</v>
       </c>
-      <c r="C158" s="31">
-        <v>1</v>
-      </c>
-      <c r="D158" s="32" t="s">
+      <c r="C158" s="30">
+        <v>1</v>
+      </c>
+      <c r="D158" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E158" s="31"/>
-      <c r="F158" s="33" t="s">
+      <c r="E158" s="30"/>
+      <c r="F158" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G158" s="33" t="s">
+      <c r="G158" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="H158" s="31" t="s">
+      <c r="H158" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J158" s="8">
+      <c r="J158" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="8" customFormat="1">
-      <c r="A159" s="8">
+    <row r="159" spans="1:10" s="7" customFormat="1">
+      <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="30">
         <v>26</v>
       </c>
-      <c r="C159" s="31">
-        <v>1</v>
-      </c>
-      <c r="D159" s="32" t="s">
+      <c r="C159" s="30">
+        <v>1</v>
+      </c>
+      <c r="D159" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E159" s="31"/>
-      <c r="F159" s="33" t="s">
+      <c r="E159" s="30"/>
+      <c r="F159" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G159" s="33" t="s">
+      <c r="G159" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="H159" s="31" t="s">
+      <c r="H159" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="J159" s="8">
+      <c r="J159" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="8" customFormat="1">
-      <c r="A160" s="8">
+    <row r="160" spans="1:10" s="7" customFormat="1">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="31">
+      <c r="B160" s="30">
         <v>27</v>
       </c>
-      <c r="C160" s="31">
-        <v>1</v>
-      </c>
-      <c r="D160" s="32" t="s">
+      <c r="C160" s="30">
+        <v>1</v>
+      </c>
+      <c r="D160" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E160" s="31"/>
-      <c r="F160" s="33" t="s">
+      <c r="E160" s="30"/>
+      <c r="F160" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G160" s="33" t="s">
+      <c r="G160" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="H160" s="31" t="s">
+      <c r="H160" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J160" s="8">
+      <c r="J160" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="8" customFormat="1">
-      <c r="A161" s="8">
+    <row r="161" spans="1:10" s="7" customFormat="1">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="30">
         <v>28</v>
       </c>
-      <c r="C161" s="31">
-        <v>1</v>
-      </c>
-      <c r="D161" s="32" t="s">
+      <c r="C161" s="30">
+        <v>1</v>
+      </c>
+      <c r="D161" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E161" s="31"/>
-      <c r="F161" s="33" t="s">
+      <c r="E161" s="30"/>
+      <c r="F161" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G161" s="33" t="s">
+      <c r="G161" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="H161" s="31" t="s">
+      <c r="H161" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J161" s="8">
+      <c r="J161" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="8" customFormat="1">
-      <c r="A162" s="8">
+    <row r="162" spans="1:10" s="7" customFormat="1">
+      <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="31">
+      <c r="B162" s="30">
         <v>29</v>
       </c>
-      <c r="C162" s="31">
-        <v>1</v>
-      </c>
-      <c r="D162" s="32" t="s">
+      <c r="C162" s="30">
+        <v>1</v>
+      </c>
+      <c r="D162" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="31"/>
-      <c r="F162" s="33" t="s">
+      <c r="E162" s="30"/>
+      <c r="F162" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G162" s="33" t="s">
+      <c r="G162" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="H162" s="31" t="s">
+      <c r="H162" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="J162" s="8">
+      <c r="J162" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="8" customFormat="1">
-      <c r="A163" s="8">
+    <row r="163" spans="1:10" s="7" customFormat="1">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="19">
+      <c r="B163" s="30">
         <v>30</v>
       </c>
-      <c r="C163" s="19">
-        <v>1</v>
-      </c>
-      <c r="D163" s="34" t="s">
+      <c r="C163" s="30">
+        <v>1</v>
+      </c>
+      <c r="D163" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E163" s="19" t="s">
+      <c r="E163" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20" t="s">
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" s="8" customFormat="1">
-      <c r="A164" s="8">
+      <c r="J163" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="7" customFormat="1">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="19">
+      <c r="B164" s="30">
         <v>30</v>
       </c>
-      <c r="C164" s="19">
+      <c r="C164" s="30">
         <v>2</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20" t="s">
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="8" customFormat="1">
-      <c r="A165" s="8">
+      <c r="J164" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="7" customFormat="1">
+      <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="19">
+      <c r="B165" s="30">
         <v>30</v>
       </c>
-      <c r="C165" s="19">
+      <c r="C165" s="30">
         <v>3</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E165" s="19" t="s">
+      <c r="E165" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="F165" s="17"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20" t="s">
+      <c r="G165" s="32"/>
+      <c r="H165" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="8" customFormat="1">
-      <c r="A166" s="8">
+      <c r="J165" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="7" customFormat="1">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="19">
+      <c r="B166" s="30">
         <v>30</v>
       </c>
-      <c r="C166" s="19">
+      <c r="C166" s="30">
         <v>4</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="20" t="s">
+      <c r="E166" s="30"/>
+      <c r="F166" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G166" s="20" t="s">
+      <c r="G166" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H166" s="20" t="s">
+      <c r="H166" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-    </row>
-    <row r="167" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A167" s="8">
+    </row>
+    <row r="167" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="19">
+      <c r="B167" s="30">
         <v>30</v>
       </c>
-      <c r="C167" s="19">
+      <c r="C167" s="30">
         <v>5</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="41" t="s">
+      <c r="E167" s="30"/>
+      <c r="F167" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G167" s="20" t="s">
+      <c r="G167" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H167" s="18" t="s">
+      <c r="H167" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17">
+      <c r="J167" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A168" s="8">
+    <row r="168" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="19">
+      <c r="B168" s="30">
         <v>30</v>
       </c>
-      <c r="C168" s="19">
+      <c r="C168" s="30">
         <v>6</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="41" t="s">
+      <c r="E168" s="30"/>
+      <c r="F168" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G168" s="20" t="s">
+      <c r="G168" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H168" s="18" t="s">
+      <c r="H168" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17">
+      <c r="J168" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="8" customFormat="1">
-      <c r="A169" s="8">
+    <row r="169" spans="1:10" s="7" customFormat="1">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="19">
+      <c r="B169" s="30">
         <v>30</v>
       </c>
-      <c r="C169" s="19">
+      <c r="C169" s="30">
         <v>7</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E169" s="19"/>
-      <c r="F169" s="20" t="s">
+      <c r="E169" s="30"/>
+      <c r="F169" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="G169" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H169" s="18" t="s">
+      <c r="H169" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A170" s="8">
+      <c r="J169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="19">
+      <c r="B170" s="30">
         <v>30</v>
       </c>
-      <c r="C170" s="19">
+      <c r="C170" s="30">
         <v>8</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E170" s="19"/>
-      <c r="F170" s="41" t="s">
+      <c r="E170" s="30"/>
+      <c r="F170" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G170" s="20" t="s">
+      <c r="G170" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H170" s="20" t="s">
+      <c r="H170" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="8" customFormat="1">
-      <c r="A171" s="8">
+      <c r="J170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="7" customFormat="1">
+      <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="22">
+      <c r="B171" s="30">
         <v>31</v>
       </c>
-      <c r="C171" s="22">
-        <v>1</v>
-      </c>
-      <c r="D171" s="23" t="s">
+      <c r="C171" s="30">
+        <v>1</v>
+      </c>
+      <c r="D171" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E171" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24" t="s">
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I171" s="21"/>
-      <c r="J171" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="8" customFormat="1">
-      <c r="A172" s="8">
+      <c r="J171" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="7" customFormat="1">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="22">
+      <c r="B172" s="30">
         <v>31</v>
       </c>
-      <c r="C172" s="22">
+      <c r="C172" s="30">
         <v>2</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E172" s="22" t="s">
+      <c r="E172" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="24" t="s">
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I172" s="21"/>
-      <c r="J172" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="8" customFormat="1">
-      <c r="A173" s="8">
+      <c r="J172" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="7" customFormat="1">
+      <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="22">
+      <c r="B173" s="30">
         <v>31</v>
       </c>
-      <c r="C173" s="22">
+      <c r="C173" s="30">
         <v>3</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E173" s="22" t="s">
+      <c r="E173" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="24" t="s">
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I173" s="21"/>
-      <c r="J173" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="8" customFormat="1">
-      <c r="A174" s="8">
+      <c r="J173" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="7" customFormat="1">
+      <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="22">
+      <c r="B174" s="30">
         <v>31</v>
       </c>
-      <c r="C174" s="22">
+      <c r="C174" s="30">
         <v>4</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E174" s="22"/>
-      <c r="F174" s="24" t="s">
+      <c r="E174" s="30"/>
+      <c r="F174" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="G174" s="24" t="s">
+      <c r="G174" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H174" s="24" t="s">
+      <c r="H174" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I174" s="21"/>
-      <c r="J174" s="21"/>
-    </row>
-    <row r="175" spans="1:10" s="8" customFormat="1">
-      <c r="A175" s="8">
+    </row>
+    <row r="175" spans="1:10" s="7" customFormat="1">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="22">
+      <c r="B175" s="30">
         <v>31</v>
       </c>
-      <c r="C175" s="22">
+      <c r="C175" s="30">
         <v>5</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E175" s="22"/>
-      <c r="F175" s="24" t="s">
+      <c r="E175" s="30"/>
+      <c r="F175" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G175" s="24" t="s">
+      <c r="G175" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H175" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I175" s="21"/>
-      <c r="J175" s="21">
+      <c r="J175" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="8" customFormat="1">
-      <c r="A176" s="8">
+    <row r="176" spans="1:10" s="7" customFormat="1">
+      <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="22">
+      <c r="B176" s="30">
         <v>31</v>
       </c>
-      <c r="C176" s="22">
+      <c r="C176" s="30">
         <v>6</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D176" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E176" s="22"/>
+      <c r="E176" s="30"/>
       <c r="F176" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G176" s="24" t="s">
+      <c r="G176" s="32" t="s">
         <v>178</v>
       </c>
       <c r="H176" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I176" s="21"/>
-      <c r="J176" s="21">
+      <c r="J176" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="8" customFormat="1">
-      <c r="A177" s="8">
+    <row r="177" spans="1:10" s="7" customFormat="1">
+      <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="22">
+      <c r="B177" s="30">
         <v>31</v>
       </c>
-      <c r="C177" s="22">
+      <c r="C177" s="30">
         <v>7</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D177" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E177" s="22"/>
-      <c r="F177" s="24" t="s">
+      <c r="E177" s="30"/>
+      <c r="F177" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G177" s="24" t="s">
+      <c r="G177" s="32" t="s">
         <v>56</v>
       </c>
       <c r="H177" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" s="8" customFormat="1">
-      <c r="A178" s="8">
+      <c r="J177" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="7" customFormat="1">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="22">
+      <c r="B178" s="30">
         <v>31</v>
       </c>
-      <c r="C178" s="22">
+      <c r="C178" s="30">
         <v>8</v>
       </c>
-      <c r="D178" s="23" t="s">
+      <c r="D178" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E178" s="22"/>
+      <c r="E178" s="30"/>
       <c r="F178" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G178" s="24" t="s">
+      <c r="G178" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H178" s="24" t="s">
+      <c r="H178" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I178" s="21"/>
-      <c r="J178" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="9"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="12"/>
+      <c r="J178" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="7" customFormat="1">
+      <c r="A179" s="7">
+        <v>178</v>
+      </c>
+      <c r="B179" s="18">
+        <v>32</v>
+      </c>
+      <c r="C179" s="18">
+        <v>1</v>
+      </c>
+      <c r="D179" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I179" s="16"/>
+      <c r="J179" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="7" customFormat="1">
+      <c r="A180" s="7">
+        <v>179</v>
+      </c>
+      <c r="B180" s="18">
+        <v>32</v>
+      </c>
+      <c r="C180" s="18">
+        <v>2</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="7" customFormat="1">
+      <c r="A181" s="7">
+        <v>180</v>
+      </c>
+      <c r="B181" s="18">
+        <v>32</v>
+      </c>
+      <c r="C181" s="18">
+        <v>3</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F181" s="16"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="7" customFormat="1">
+      <c r="A182" s="7">
+        <v>181</v>
+      </c>
+      <c r="B182" s="18">
+        <v>32</v>
+      </c>
+      <c r="C182" s="18">
+        <v>4</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E182" s="18"/>
+      <c r="F182" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G182" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+    </row>
+    <row r="183" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A183" s="7">
+        <v>182</v>
+      </c>
+      <c r="B183" s="18">
+        <v>32</v>
+      </c>
+      <c r="C183" s="18">
+        <v>5</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E183" s="18"/>
+      <c r="F183" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G183" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H183" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A184" s="7">
+        <v>183</v>
+      </c>
+      <c r="B184" s="18">
+        <v>32</v>
+      </c>
+      <c r="C184" s="18">
+        <v>6</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="18"/>
+      <c r="F184" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G184" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="7" customFormat="1">
+      <c r="A185" s="7">
+        <v>184</v>
+      </c>
+      <c r="B185" s="18">
+        <v>32</v>
+      </c>
+      <c r="C185" s="18">
+        <v>7</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E185" s="18"/>
+      <c r="F185" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G185" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H185" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I185" s="16"/>
+      <c r="J185" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A186" s="7">
+        <v>185</v>
+      </c>
+      <c r="B186" s="18">
+        <v>32</v>
+      </c>
+      <c r="C186" s="18">
+        <v>8</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E186" s="18"/>
+      <c r="F186" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G186" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H186" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="7" customFormat="1">
+      <c r="A187" s="7">
+        <v>186</v>
+      </c>
+      <c r="B187" s="21">
+        <v>33</v>
+      </c>
+      <c r="C187" s="21">
+        <v>1</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="7" customFormat="1">
+      <c r="A188" s="7">
+        <v>187</v>
+      </c>
+      <c r="B188" s="21">
+        <v>33</v>
+      </c>
+      <c r="C188" s="21">
+        <v>2</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F188" s="23"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" s="7" customFormat="1">
+      <c r="A189" s="7">
+        <v>188</v>
+      </c>
+      <c r="B189" s="21">
+        <v>33</v>
+      </c>
+      <c r="C189" s="21">
+        <v>3</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F189" s="23"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I189" s="20"/>
+      <c r="J189" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" s="7" customFormat="1">
+      <c r="A190" s="7">
+        <v>189</v>
+      </c>
+      <c r="B190" s="21">
+        <v>33</v>
+      </c>
+      <c r="C190" s="21">
+        <v>4</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E190" s="21"/>
+      <c r="F190" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H190" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="1:10" s="7" customFormat="1">
+      <c r="A191" s="7">
+        <v>190</v>
+      </c>
+      <c r="B191" s="21">
+        <v>33</v>
+      </c>
+      <c r="C191" s="21">
+        <v>5</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E191" s="21"/>
+      <c r="F191" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H191" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" s="7" customFormat="1">
+      <c r="A192" s="7">
+        <v>191</v>
+      </c>
+      <c r="B192" s="21">
+        <v>33</v>
+      </c>
+      <c r="C192" s="21">
+        <v>6</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E192" s="21"/>
+      <c r="F192" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H192" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="7" customFormat="1">
+      <c r="A193" s="7">
+        <v>192</v>
+      </c>
+      <c r="B193" s="21">
+        <v>33</v>
+      </c>
+      <c r="C193" s="21">
+        <v>7</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E193" s="21"/>
+      <c r="F193" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H193" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" s="7" customFormat="1">
+      <c r="A194" s="7">
+        <v>193</v>
+      </c>
+      <c r="B194" s="21">
+        <v>33</v>
+      </c>
+      <c r="C194" s="21">
+        <v>8</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E194" s="21"/>
+      <c r="F194" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H194" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1115,14 +1115,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>狂欢庆典</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1256,6 +1248,14 @@
   </si>
   <si>
     <t>3500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2589,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="45">
         <v>1611014400</v>
@@ -2600,7 +2600,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H22" s="51">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="45">
         <v>1611014400</v>
@@ -2631,7 +2631,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
       <c r="G23" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H23" s="51">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24" s="45">
         <v>1611014400</v>
@@ -2662,7 +2662,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H24" s="51">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C25" s="58">
         <v>1611014400</v>
@@ -2691,7 +2691,7 @@
         <v>1611590399</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H25" s="60">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="58">
         <v>1611014400</v>
@@ -2718,7 +2718,7 @@
         <v>1611590399</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H26" s="60">
         <v>1</v>
@@ -2736,7 +2736,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C27" s="58">
         <v>1611014400</v>
@@ -2747,7 +2747,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H27" s="60">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C28" s="45">
         <v>1611014400</v>
@@ -2776,7 +2776,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H28" s="51">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C29" s="45">
         <v>1611014400</v>
@@ -2805,7 +2805,7 @@
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H29" s="51">
         <v>1</v>
@@ -2823,7 +2823,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" s="45">
         <v>1611014400</v>
@@ -2834,7 +2834,7 @@
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H30" s="51">
         <v>1</v>
@@ -2890,8 +2890,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3137,10 +3137,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3151,7 +3151,7 @@
         <v>206</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3166,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6721,7 +6721,7 @@
         <v>131</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
@@ -6747,7 +6747,7 @@
         <v>131</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
@@ -6773,7 +6773,7 @@
         <v>131</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="20"/>
@@ -6937,7 +6937,7 @@
         <v>132</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F146" s="24"/>
       <c r="G146" s="24"/>
@@ -6963,7 +6963,7 @@
         <v>132</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F147" s="24"/>
       <c r="G147" s="24"/>
@@ -6989,7 +6989,7 @@
         <v>132</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="E149" s="22"/>
       <c r="F149" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G149" s="24" t="s">
         <v>103</v>
@@ -7129,7 +7129,7 @@
         <v>186</v>
       </c>
       <c r="G153" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H153" s="24" t="s">
         <v>100</v>
@@ -7150,17 +7150,17 @@
         <v>1</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E154" s="53"/>
       <c r="F154" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G154" s="55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H154" s="53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I154" s="45"/>
       <c r="J154" s="45">
@@ -7178,17 +7178,17 @@
         <v>1</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E155" s="53"/>
       <c r="F155" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="G155" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="G155" s="55" t="s">
-        <v>225</v>
-      </c>
       <c r="H155" s="53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I155" s="45"/>
       <c r="J155" s="45">
@@ -7206,17 +7206,17 @@
         <v>1</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E156" s="53"/>
       <c r="F156" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G156" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H156" s="53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I156" s="45"/>
       <c r="J156" s="45">
@@ -7234,17 +7234,17 @@
         <v>1</v>
       </c>
       <c r="D157" s="63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E157" s="62"/>
       <c r="F157" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="G157" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="G157" s="64" t="s">
+      <c r="H157" s="62" t="s">
         <v>225</v>
-      </c>
-      <c r="H157" s="62" t="s">
-        <v>227</v>
       </c>
       <c r="I157" s="58"/>
       <c r="J157" s="58">
@@ -7262,17 +7262,17 @@
         <v>1</v>
       </c>
       <c r="D158" s="63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E158" s="62"/>
       <c r="F158" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G158" s="64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H158" s="62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I158" s="58"/>
       <c r="J158" s="58">
@@ -7292,17 +7292,17 @@
         <v>1</v>
       </c>
       <c r="D159" s="63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E159" s="62"/>
       <c r="F159" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G159" s="64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H159" s="62" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I159" s="58"/>
       <c r="J159" s="58">
@@ -7322,17 +7322,17 @@
         <v>1</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E160" s="53"/>
       <c r="F160" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G160" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H160" s="53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I160" s="45"/>
       <c r="J160" s="45">
@@ -7352,17 +7352,17 @@
         <v>1</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E161" s="53"/>
       <c r="F161" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G161" s="55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H161" s="53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I161" s="45"/>
       <c r="J161" s="45">
@@ -7382,17 +7382,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E162" s="53"/>
       <c r="F162" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G162" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H162" s="53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I162" s="45"/>
       <c r="J162" s="45">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="246">
   <si>
     <t>id|</t>
   </si>
@@ -1115,10 +1115,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢庆典</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>坚果大礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1256,6 +1252,14 @@
   </si>
   <si>
     <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢盛典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢盛典</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2589,7 +2593,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="45">
         <v>1611014400</v>
@@ -2600,7 +2604,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="51">
         <v>1</v>
@@ -2620,7 +2624,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="45">
         <v>1611014400</v>
@@ -2631,7 +2635,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
       <c r="G23" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H23" s="51">
         <v>1</v>
@@ -2651,7 +2655,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="45">
         <v>1611014400</v>
@@ -2662,7 +2666,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H24" s="51">
         <v>1</v>
@@ -2682,7 +2686,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="58">
         <v>1611014400</v>
@@ -2691,7 +2695,7 @@
         <v>1611590399</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H25" s="60">
         <v>1</v>
@@ -2709,7 +2713,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="58">
         <v>1611014400</v>
@@ -2718,7 +2722,7 @@
         <v>1611590399</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H26" s="60">
         <v>1</v>
@@ -2736,7 +2740,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="58">
         <v>1611014400</v>
@@ -2747,7 +2751,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H27" s="60">
         <v>1</v>
@@ -2765,7 +2769,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="45">
         <v>1611014400</v>
@@ -2776,7 +2780,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H28" s="51">
         <v>1</v>
@@ -2794,7 +2798,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="45">
         <v>1611014400</v>
@@ -2805,7 +2809,7 @@
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H29" s="51">
         <v>1</v>
@@ -2823,7 +2827,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="45">
         <v>1611014400</v>
@@ -2834,7 +2838,7 @@
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H30" s="51">
         <v>1</v>
@@ -2891,7 +2895,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3137,10 +3141,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3148,10 +3152,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6721,7 +6725,7 @@
         <v>131</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
@@ -6747,7 +6751,7 @@
         <v>131</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
@@ -6773,7 +6777,7 @@
         <v>131</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="20"/>
@@ -6937,7 +6941,7 @@
         <v>132</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F146" s="24"/>
       <c r="G146" s="24"/>
@@ -6963,7 +6967,7 @@
         <v>132</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F147" s="24"/>
       <c r="G147" s="24"/>
@@ -6989,7 +6993,7 @@
         <v>132</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
@@ -7016,7 +7020,7 @@
       </c>
       <c r="E149" s="22"/>
       <c r="F149" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G149" s="24" t="s">
         <v>103</v>
@@ -7129,7 +7133,7 @@
         <v>186</v>
       </c>
       <c r="G153" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H153" s="24" t="s">
         <v>100</v>
@@ -7150,17 +7154,17 @@
         <v>1</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E154" s="53"/>
       <c r="F154" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G154" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="G154" s="55" t="s">
-        <v>222</v>
-      </c>
       <c r="H154" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I154" s="45"/>
       <c r="J154" s="45">
@@ -7178,17 +7182,17 @@
         <v>1</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E155" s="53"/>
       <c r="F155" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G155" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H155" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I155" s="45"/>
       <c r="J155" s="45">
@@ -7206,17 +7210,17 @@
         <v>1</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E156" s="53"/>
       <c r="F156" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G156" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H156" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I156" s="45"/>
       <c r="J156" s="45">
@@ -7234,17 +7238,17 @@
         <v>1</v>
       </c>
       <c r="D157" s="63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E157" s="62"/>
       <c r="F157" s="64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G157" s="64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H157" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I157" s="58"/>
       <c r="J157" s="58">
@@ -7262,17 +7266,17 @@
         <v>1</v>
       </c>
       <c r="D158" s="63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E158" s="62"/>
       <c r="F158" s="64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G158" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H158" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I158" s="58"/>
       <c r="J158" s="58">
@@ -7292,17 +7296,17 @@
         <v>1</v>
       </c>
       <c r="D159" s="63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E159" s="62"/>
       <c r="F159" s="64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G159" s="64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H159" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I159" s="58"/>
       <c r="J159" s="58">
@@ -7322,17 +7326,17 @@
         <v>1</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E160" s="53"/>
       <c r="F160" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G160" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H160" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I160" s="45"/>
       <c r="J160" s="45">
@@ -7352,17 +7356,17 @@
         <v>1</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E161" s="53"/>
       <c r="F161" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G161" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H161" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I161" s="45"/>
       <c r="J161" s="45">
@@ -7382,17 +7386,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E162" s="53"/>
       <c r="F162" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G162" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H162" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I162" s="45"/>
       <c r="J162" s="45">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
     <sheet name="email|邮件" sheetId="4" r:id="rId2"/>
     <sheet name="award" sheetId="3" r:id="rId3"/>
+    <sheet name="all_powerful|万能兑换" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="303">
   <si>
     <t>id|</t>
   </si>
@@ -142,10 +143,6 @@
   </si>
   <si>
     <t>award_cfg_id|配置id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_id|兑换奖励id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1328,6 +1325,182 @@
   </si>
   <si>
     <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_k","prop_gdn_l",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在过大年活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在过大年活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米10斤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,3800,3800,3800,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,2000,2000,2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250,1250,1250,1250,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500,1500,1500,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新年好礼-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-cjj</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_k","prop_gdn_l",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_powerful_type|万能道具类型</t>
+  </si>
+  <si>
+    <t>act_id|兑换id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_wn</t>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800,0,800,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id|兑换奖励id
+（一键兑换时，奖励消耗从大到小设置）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,0,0,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0,0,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福利--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>团团圆圆闹元宵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元宵福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元宵福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐福记礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀核桃4罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档纯棉浴巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1414,7 +1587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1441,7 +1614,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,7 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,17 +1769,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1608,11 +1792,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1891,10 +2143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1904,9 +2156,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="44" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="41" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="41" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -1929,10 +2181,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
@@ -1969,7 +2221,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1984,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -1994,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>1592868600</v>
@@ -2005,7 +2257,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -2028,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>1597707000</v>
@@ -2039,7 +2291,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2061,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1">
         <v>1601335800</v>
@@ -2072,7 +2324,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -2092,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>1606176000</v>
@@ -2103,7 +2355,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2125,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -2136,7 +2388,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -2158,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="7">
         <v>1607385600</v>
@@ -2169,7 +2421,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2191,7 +2443,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="7">
         <v>1607385600</v>
@@ -2202,7 +2454,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2224,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="7">
         <v>1607990400</v>
@@ -2235,7 +2487,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2257,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7">
         <v>1607990400</v>
@@ -2268,7 +2520,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2290,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="28">
         <v>1609200000</v>
@@ -2301,7 +2553,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2323,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28">
         <v>1609200000</v>
@@ -2334,7 +2586,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2356,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="28">
         <v>1609200000</v>
@@ -2367,7 +2619,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2389,7 +2641,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="28">
         <v>1609200000</v>
@@ -2400,7 +2652,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2422,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="28">
         <v>1609804800</v>
@@ -2433,7 +2685,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2455,7 +2707,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="28">
         <v>1609804800</v>
@@ -2466,7 +2718,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2483,21 +2735,21 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
     </row>
-    <row r="18" spans="1:16" s="42" customFormat="1">
+    <row r="18" spans="1:16" s="39" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="41">
+        <v>186</v>
+      </c>
+      <c r="C18" s="38">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="38">
         <v>1610985599</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2516,8 +2768,8 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>188</v>
+      <c r="B19" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="C19" s="7">
         <v>1610409600</v>
@@ -2528,7 +2780,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2543,12 +2795,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="42" customFormat="1">
+    <row r="20" spans="1:16" s="39" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="7">
         <v>1611014400</v>
@@ -2557,7 +2809,7 @@
         <v>1611590399</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2577,7 +2829,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="7">
         <v>1611014400</v>
@@ -2588,7 +2840,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2608,7 +2860,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="7">
         <v>1611014400</v>
@@ -2618,14 +2870,14 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="41">
-        <v>1</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="41">
+      <c r="G22" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="38">
         <v>21</v>
       </c>
       <c r="K22" s="26">
@@ -2639,7 +2891,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="7">
         <v>1611014400</v>
@@ -2649,14 +2901,14 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="41">
-        <v>1</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="41">
+      <c r="G23" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="38">
         <v>22</v>
       </c>
       <c r="K23" s="26">
@@ -2670,7 +2922,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="7">
         <v>1611014400</v>
@@ -2680,14 +2932,14 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" s="41">
-        <v>1</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="41">
+      <c r="G24" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="38">
         <v>23</v>
       </c>
       <c r="K24" s="26">
@@ -2701,7 +2953,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="7">
         <v>1611014400</v>
@@ -2709,14 +2961,14 @@
       <c r="D25" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="41">
-        <v>1</v>
-      </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="41">
+      <c r="G25" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="38">
         <v>24</v>
       </c>
       <c r="K25" s="26">
@@ -2728,7 +2980,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="7">
         <v>1611014400</v>
@@ -2736,14 +2988,14 @@
       <c r="D26" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="41">
-        <v>1</v>
-      </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="41">
+      <c r="G26" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="38">
         <v>25</v>
       </c>
       <c r="K26" s="26">
@@ -2755,7 +3007,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="7">
         <v>1611014400</v>
@@ -2765,14 +3017,14 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" s="41">
-        <v>1</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="41">
+      <c r="G27" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="38">
         <v>26</v>
       </c>
       <c r="K27" s="26">
@@ -2784,7 +3036,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="7">
         <v>1611014400</v>
@@ -2794,14 +3046,14 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="41">
-        <v>1</v>
-      </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="41">
+      <c r="G28" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="38">
+        <v>1</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38">
         <v>27</v>
       </c>
       <c r="K28" s="26">
@@ -2813,7 +3065,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="7">
         <v>1611014400</v>
@@ -2823,14 +3075,14 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H29" s="41">
-        <v>1</v>
-      </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="41">
+      <c r="G29" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="38">
+        <v>1</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="38">
         <v>28</v>
       </c>
       <c r="K29" s="26">
@@ -2842,7 +3094,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" s="7">
         <v>1611014400</v>
@@ -2852,26 +3104,26 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="H30" s="41">
-        <v>1</v>
-      </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="41">
+      <c r="G30" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="38">
+        <v>1</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="38">
         <v>29</v>
       </c>
       <c r="K30" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="42" customFormat="1">
+    <row r="31" spans="1:16" s="39" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="7">
         <v>1611619200</v>
@@ -2880,7 +3132,7 @@
         <v>1612195199</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2900,7 +3152,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="7">
         <v>1611619200</v>
@@ -2911,7 +3163,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2926,67 +3178,367 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="42" customFormat="1">
+    <row r="33" spans="1:16" s="39" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="20">
+      <c r="B33" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="7">
         <v>1612224000</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="7">
         <v>1612799999</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="20">
-        <v>1</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="G33" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
         <v>23</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="15">
         <v>32</v>
       </c>
-      <c r="K33" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="26" customFormat="1">
+      <c r="K33" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="26" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="7">
         <v>1612224000</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="7">
         <v>1612799999</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="37">
-        <v>1</v>
-      </c>
-      <c r="I34" s="37">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
         <v>24</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="15">
         <v>33</v>
       </c>
-      <c r="K34" s="47">
-        <v>1</v>
-      </c>
+      <c r="K34" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="46" customFormat="1">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="H35" s="48">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16">
+        <v>25</v>
+      </c>
+      <c r="J35" s="45">
+        <v>34</v>
+      </c>
+      <c r="K35" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="29" customFormat="1">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="20">
+        <v>1612828800</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1613404799</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="44">
+        <v>1</v>
+      </c>
+      <c r="I36" s="20">
+        <v>26</v>
+      </c>
+      <c r="J36" s="34">
+        <v>35</v>
+      </c>
+      <c r="K36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D37" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="59">
+        <v>1</v>
+      </c>
+      <c r="I37" s="60"/>
+      <c r="J37" s="59">
+        <v>36</v>
+      </c>
+      <c r="K37" s="61">
+        <v>1</v>
+      </c>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+    </row>
+    <row r="38" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D38" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" s="59">
+        <v>1</v>
+      </c>
+      <c r="I38" s="60"/>
+      <c r="J38" s="59">
+        <v>37</v>
+      </c>
+      <c r="K38" s="61">
+        <v>1</v>
+      </c>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+    </row>
+    <row r="39" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D39" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="59">
+        <v>1</v>
+      </c>
+      <c r="I39" s="60"/>
+      <c r="J39" s="59">
+        <v>38</v>
+      </c>
+      <c r="K39" s="61">
+        <v>1</v>
+      </c>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+    </row>
+    <row r="40" spans="1:16" s="46" customFormat="1">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="66">
+        <v>1614038400</v>
+      </c>
+      <c r="D40" s="66">
+        <v>1614614399</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" s="67">
+        <v>1</v>
+      </c>
+      <c r="I40" s="66">
+        <v>27</v>
+      </c>
+      <c r="J40" s="68">
+        <v>39</v>
+      </c>
+      <c r="K40" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="29" customFormat="1">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="66">
+        <v>1614038400</v>
+      </c>
+      <c r="D41" s="66">
+        <v>1614614399</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" s="67">
+        <v>1</v>
+      </c>
+      <c r="I41" s="66">
+        <v>28</v>
+      </c>
+      <c r="J41" s="68">
+        <v>40</v>
+      </c>
+      <c r="K41" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="26" customFormat="1">
+      <c r="A42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="44" spans="1:16" s="26" customFormat="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:16" s="26" customFormat="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:16" s="26" customFormat="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:16" s="26" customFormat="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:16" s="26" customFormat="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" s="26" customFormat="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" s="26" customFormat="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2999,10 +3551,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3033,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -3047,10 +3599,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -3061,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -3075,10 +3627,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3086,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3097,10 +3649,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3108,10 +3660,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3119,10 +3671,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1">
@@ -3130,10 +3682,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>152</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1">
@@ -3141,10 +3693,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1">
@@ -3152,10 +3704,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1">
@@ -3163,10 +3715,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1">
@@ -3174,25 +3726,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1">
@@ -3200,25 +3752,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+        <v>171</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="7" customFormat="1">
@@ -3226,10 +3778,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="7" customFormat="1">
@@ -3237,10 +3789,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="7" customFormat="1">
@@ -3248,10 +3800,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="7" customFormat="1">
@@ -3259,10 +3811,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="7" customFormat="1">
@@ -3270,10 +3822,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="7" customFormat="1">
@@ -3281,32 +3833,76 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="37">
-        <v>24</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>259</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3319,13 +3915,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F189" sqref="F189"/>
+      <selection pane="bottomRight" activeCell="I202" sqref="I202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3351,34 +3947,34 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
@@ -3395,13 +3991,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -3421,19 +4017,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3447,13 +4043,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -3470,13 +4066,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3490,13 +4086,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -3513,13 +4109,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -3536,13 +4132,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -3559,16 +4155,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -3585,13 +4181,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -3608,13 +4204,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -3631,14 +4227,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -3655,15 +4251,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -3680,15 +4276,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -3706,13 +4302,13 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
@@ -3730,13 +4326,13 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -3754,13 +4350,13 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3777,15 +4373,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3802,15 +4398,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -3827,15 +4423,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -3854,13 +4450,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3876,13 +4472,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="11"/>
       <c r="F22" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -3901,13 +4497,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="11"/>
       <c r="F23" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -3926,13 +4522,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="11"/>
       <c r="F24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -3949,17 +4545,17 @@
         <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -3976,15 +4572,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="7">
         <v>1</v>
@@ -4001,15 +4597,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="7">
         <v>1</v>
@@ -4026,15 +4622,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="7">
         <v>1</v>
@@ -4051,17 +4647,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1">
@@ -4075,17 +4671,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J30" s="7">
         <v>3</v>
@@ -4102,17 +4698,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" s="7">
         <v>2</v>
@@ -4129,17 +4725,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="7">
         <v>1</v>
@@ -4156,17 +4752,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" s="7">
         <v>1</v>
@@ -4183,15 +4779,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="7">
         <v>1</v>
@@ -4208,15 +4804,15 @@
         <v>2</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J35" s="7">
         <v>1</v>
@@ -4233,15 +4829,15 @@
         <v>3</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="7">
         <v>1</v>
@@ -4258,17 +4854,17 @@
         <v>4</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1">
@@ -4282,17 +4878,17 @@
         <v>5</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
@@ -4309,17 +4905,17 @@
         <v>6</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J39" s="7">
         <v>2</v>
@@ -4336,17 +4932,17 @@
         <v>7</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="7">
         <v>1</v>
@@ -4363,17 +4959,17 @@
         <v>8</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
@@ -4390,15 +4986,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="7">
         <v>1</v>
@@ -4415,15 +5011,15 @@
         <v>2</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J43" s="7">
         <v>1</v>
@@ -4440,15 +5036,15 @@
         <v>3</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J44" s="7">
         <v>1</v>
@@ -4465,17 +5061,17 @@
         <v>4</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1">
@@ -4489,17 +5085,17 @@
         <v>5</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -4516,17 +5112,17 @@
         <v>6</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" s="7">
         <v>2</v>
@@ -4543,17 +5139,17 @@
         <v>7</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J48" s="7">
         <v>1</v>
@@ -4570,17 +5166,17 @@
         <v>8</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J49" s="7">
         <v>1</v>
@@ -4597,15 +5193,15 @@
         <v>1</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="7">
         <v>1</v>
@@ -4622,15 +5218,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51" s="7">
         <v>1</v>
@@ -4647,15 +5243,15 @@
         <v>3</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" s="7">
         <v>1</v>
@@ -4672,17 +5268,17 @@
         <v>4</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1">
@@ -4696,17 +5292,17 @@
         <v>5</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54" s="7">
         <v>3</v>
@@ -4723,17 +5319,17 @@
         <v>6</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J55" s="7">
         <v>2</v>
@@ -4750,17 +5346,17 @@
         <v>7</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J56" s="7">
         <v>1</v>
@@ -4777,17 +5373,17 @@
         <v>8</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="30"/>
       <c r="F57" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J57" s="7">
         <v>1</v>
@@ -4804,15 +5400,15 @@
         <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J58" s="7">
         <v>1</v>
@@ -4829,15 +5425,15 @@
         <v>2</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J59" s="7">
         <v>1</v>
@@ -4854,15 +5450,15 @@
         <v>3</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60" s="7">
         <v>1</v>
@@ -4879,17 +5475,17 @@
         <v>4</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="7" customFormat="1">
@@ -4903,17 +5499,17 @@
         <v>5</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62" s="30"/>
       <c r="F62" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J62" s="7">
         <v>3</v>
@@ -4930,17 +5526,17 @@
         <v>6</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J63" s="7">
         <v>2</v>
@@ -4957,17 +5553,17 @@
         <v>7</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J64" s="7">
         <v>1</v>
@@ -4984,17 +5580,17 @@
         <v>8</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -5011,15 +5607,15 @@
         <v>1</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" s="7">
         <v>1</v>
@@ -5036,15 +5632,15 @@
         <v>2</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J67" s="7">
         <v>1</v>
@@ -5061,15 +5657,15 @@
         <v>3</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" s="7">
         <v>1</v>
@@ -5086,17 +5682,17 @@
         <v>4</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="7" customFormat="1">
@@ -5110,17 +5706,17 @@
         <v>5</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J70" s="7">
         <v>3</v>
@@ -5137,17 +5733,17 @@
         <v>6</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J71" s="7">
         <v>2</v>
@@ -5164,17 +5760,17 @@
         <v>7</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" s="30"/>
       <c r="F72" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J72" s="7">
         <v>1</v>
@@ -5191,17 +5787,17 @@
         <v>8</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J73" s="7">
         <v>1</v>
@@ -5218,15 +5814,15 @@
         <v>1</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="7">
         <v>1</v>
@@ -5243,15 +5839,15 @@
         <v>2</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J75" s="7">
         <v>1</v>
@@ -5268,15 +5864,15 @@
         <v>3</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J76" s="7">
         <v>1</v>
@@ -5293,17 +5889,17 @@
         <v>4</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="7" customFormat="1">
@@ -5317,17 +5913,17 @@
         <v>5</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J78" s="7">
         <v>3</v>
@@ -5344,17 +5940,17 @@
         <v>6</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J79" s="7">
         <v>2</v>
@@ -5371,17 +5967,17 @@
         <v>7</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J80" s="7">
         <v>1</v>
@@ -5398,17 +5994,17 @@
         <v>8</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J81" s="7">
         <v>1</v>
@@ -5425,15 +6021,15 @@
         <v>1</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
       <c r="H82" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J82" s="7">
         <v>1</v>
@@ -5450,15 +6046,15 @@
         <v>2</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
       <c r="H83" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J83" s="7">
         <v>1</v>
@@ -5475,15 +6071,15 @@
         <v>3</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
       <c r="H84" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J84" s="7">
         <v>1</v>
@@ -5500,17 +6096,17 @@
         <v>4</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="30"/>
       <c r="F85" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1">
@@ -5524,17 +6120,17 @@
         <v>5</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="30"/>
       <c r="F86" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J86" s="7">
         <v>3</v>
@@ -5551,17 +6147,17 @@
         <v>6</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="30"/>
       <c r="F87" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J87" s="7">
         <v>2</v>
@@ -5578,17 +6174,17 @@
         <v>7</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="30"/>
       <c r="F88" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J88" s="7">
         <v>1</v>
@@ -5605,17 +6201,17 @@
         <v>8</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="30"/>
       <c r="F89" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J89" s="7">
         <v>1</v>
@@ -5632,15 +6228,15 @@
         <v>1</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
       <c r="H90" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J90" s="7">
         <v>1</v>
@@ -5657,15 +6253,15 @@
         <v>2</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
       <c r="H91" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J91" s="7">
         <v>1</v>
@@ -5682,15 +6278,15 @@
         <v>3</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
       <c r="H92" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J92" s="7">
         <v>1</v>
@@ -5707,17 +6303,17 @@
         <v>4</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E93" s="30"/>
       <c r="F93" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="7" customFormat="1">
@@ -5731,17 +6327,17 @@
         <v>5</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J94" s="7">
         <v>3</v>
@@ -5758,17 +6354,17 @@
         <v>6</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E95" s="30"/>
       <c r="F95" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J95" s="7">
         <v>2</v>
@@ -5785,17 +6381,17 @@
         <v>7</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96" s="30"/>
       <c r="F96" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J96" s="7">
         <v>1</v>
@@ -5812,17 +6408,17 @@
         <v>8</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E97" s="30"/>
       <c r="F97" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J97" s="7">
         <v>1</v>
@@ -5839,15 +6435,15 @@
         <v>1</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
       <c r="H98" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J98" s="7">
         <v>1</v>
@@ -5864,15 +6460,15 @@
         <v>2</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
       <c r="H99" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J99" s="7">
         <v>1</v>
@@ -5889,15 +6485,15 @@
         <v>3</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
       <c r="H100" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J100" s="7">
         <v>1</v>
@@ -5914,17 +6510,17 @@
         <v>4</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="7" customFormat="1">
@@ -5938,17 +6534,17 @@
         <v>5</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J102" s="7">
         <v>3</v>
@@ -5965,17 +6561,17 @@
         <v>6</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J103" s="7">
         <v>2</v>
@@ -5992,17 +6588,17 @@
         <v>7</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J104" s="7">
         <v>1</v>
@@ -6019,17 +6615,17 @@
         <v>8</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J105" s="7">
         <v>1</v>
@@ -6046,15 +6642,15 @@
         <v>1</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
       <c r="H106" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J106" s="7">
         <v>1</v>
@@ -6071,15 +6667,15 @@
         <v>2</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
       <c r="H107" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J107" s="7">
         <v>1</v>
@@ -6096,15 +6692,15 @@
         <v>3</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
       <c r="H108" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J108" s="7">
         <v>1</v>
@@ -6121,17 +6717,17 @@
         <v>4</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -6145,17 +6741,17 @@
         <v>5</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" s="30"/>
-      <c r="F110" s="39" t="s">
-        <v>182</v>
+      <c r="F110" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J110" s="7">
         <v>3</v>
@@ -6172,17 +6768,17 @@
         <v>6</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111" s="30"/>
-      <c r="F111" s="39" t="s">
-        <v>183</v>
+      <c r="F111" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J111" s="7">
         <v>2</v>
@@ -6199,17 +6795,17 @@
         <v>7</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J112" s="7">
         <v>1</v>
@@ -6226,17 +6822,17 @@
         <v>8</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E113" s="30"/>
-      <c r="F113" s="39" t="s">
-        <v>184</v>
+      <c r="F113" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J113" s="7">
         <v>1</v>
@@ -6253,15 +6849,15 @@
         <v>1</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
       <c r="H114" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J114" s="7">
         <v>1</v>
@@ -6278,15 +6874,15 @@
         <v>2</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
       <c r="H115" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J115" s="7">
         <v>1</v>
@@ -6303,15 +6899,15 @@
         <v>3</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
       <c r="H116" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J116" s="7">
         <v>1</v>
@@ -6328,17 +6924,17 @@
         <v>4</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="7" customFormat="1">
@@ -6352,17 +6948,17 @@
         <v>5</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J118" s="7">
         <v>3</v>
@@ -6379,17 +6975,17 @@
         <v>6</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J119" s="7">
         <v>2</v>
@@ -6406,17 +7002,17 @@
         <v>7</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J120" s="7">
         <v>1</v>
@@ -6433,17 +7029,17 @@
         <v>8</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J121" s="7">
         <v>1</v>
@@ -6460,15 +7056,15 @@
         <v>1</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32"/>
       <c r="H122" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J122" s="7">
         <v>1</v>
@@ -6485,15 +7081,15 @@
         <v>2</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
       <c r="H123" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J123" s="7">
         <v>1</v>
@@ -6510,14 +7106,14 @@
         <v>3</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G124" s="32"/>
       <c r="H124" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J124" s="7">
         <v>1</v>
@@ -6534,17 +7130,17 @@
         <v>4</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H125" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -6558,17 +7154,17 @@
         <v>5</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E126" s="30"/>
-      <c r="F126" s="39" t="s">
-        <v>182</v>
+      <c r="F126" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J126" s="7">
         <v>3</v>
@@ -6585,17 +7181,17 @@
         <v>6</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127" s="30"/>
-      <c r="F127" s="39" t="s">
-        <v>183</v>
+      <c r="F127" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J127" s="7">
         <v>2</v>
@@ -6612,17 +7208,17 @@
         <v>7</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" s="30"/>
       <c r="F128" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J128" s="7">
         <v>1</v>
@@ -6639,17 +7235,17 @@
         <v>8</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129" s="30"/>
-      <c r="F129" s="39" t="s">
-        <v>184</v>
+      <c r="F129" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H129" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J129" s="7">
         <v>1</v>
@@ -6666,15 +7262,15 @@
         <v>1</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="32"/>
       <c r="H130" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J130" s="7">
         <v>1</v>
@@ -6691,15 +7287,15 @@
         <v>2</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
       <c r="H131" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J131" s="7">
         <v>1</v>
@@ -6716,15 +7312,15 @@
         <v>3</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E132" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
       <c r="H132" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J132" s="7">
         <v>1</v>
@@ -6741,17 +7337,17 @@
         <v>4</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="30"/>
       <c r="F133" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="7" customFormat="1">
@@ -6765,17 +7361,17 @@
         <v>5</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E134" s="30"/>
       <c r="F134" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J134" s="7">
         <v>3</v>
@@ -6792,17 +7388,17 @@
         <v>6</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E135" s="30"/>
       <c r="F135" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J135" s="7">
         <v>2</v>
@@ -6819,17 +7415,17 @@
         <v>7</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E136" s="30"/>
       <c r="F136" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J136" s="7">
         <v>1</v>
@@ -6846,17 +7442,17 @@
         <v>8</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E137" s="30"/>
       <c r="F137" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H137" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J137" s="7">
         <v>1</v>
@@ -6873,15 +7469,15 @@
         <v>1</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E138" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32"/>
       <c r="H138" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J138" s="7">
         <v>1</v>
@@ -6898,15 +7494,15 @@
         <v>2</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="32"/>
       <c r="H139" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J139" s="7">
         <v>1</v>
@@ -6923,14 +7519,14 @@
         <v>3</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E140" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G140" s="32"/>
       <c r="H140" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J140" s="7">
         <v>1</v>
@@ -6947,17 +7543,17 @@
         <v>4</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E141" s="30"/>
       <c r="F141" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H141" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -6971,17 +7567,17 @@
         <v>5</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E142" s="30"/>
-      <c r="F142" s="39" t="s">
-        <v>182</v>
+      <c r="F142" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J142" s="7">
         <v>3</v>
@@ -6998,17 +7594,17 @@
         <v>6</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E143" s="30"/>
-      <c r="F143" s="39" t="s">
-        <v>183</v>
+      <c r="F143" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H143" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J143" s="7">
         <v>2</v>
@@ -7025,17 +7621,17 @@
         <v>7</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E144" s="30"/>
       <c r="F144" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J144" s="7">
         <v>1</v>
@@ -7052,17 +7648,17 @@
         <v>8</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E145" s="30"/>
-      <c r="F145" s="39" t="s">
-        <v>184</v>
+      <c r="F145" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H145" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J145" s="7">
         <v>1</v>
@@ -7079,15 +7675,15 @@
         <v>1</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
       <c r="H146" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J146" s="7">
         <v>1</v>
@@ -7104,15 +7700,15 @@
         <v>2</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="32"/>
       <c r="H147" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J147" s="7">
         <v>1</v>
@@ -7129,15 +7725,15 @@
         <v>3</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E148" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
       <c r="H148" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J148" s="7">
         <v>1</v>
@@ -7154,17 +7750,17 @@
         <v>4</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E149" s="30"/>
       <c r="F149" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="7" customFormat="1">
@@ -7178,17 +7774,17 @@
         <v>5</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E150" s="30"/>
       <c r="F150" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J150" s="7">
         <v>3</v>
@@ -7205,17 +7801,17 @@
         <v>6</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E151" s="30"/>
       <c r="F151" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H151" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J151" s="7">
         <v>2</v>
@@ -7232,17 +7828,17 @@
         <v>7</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J152" s="7">
         <v>1</v>
@@ -7259,17 +7855,17 @@
         <v>8</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E153" s="30"/>
       <c r="F153" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J153" s="7">
         <v>1</v>
@@ -7286,17 +7882,17 @@
         <v>1</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G154" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G154" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="H154" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J154" s="7">
         <v>9999</v>
@@ -7313,17 +7909,17 @@
         <v>1</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E155" s="30"/>
       <c r="F155" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H155" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J155" s="7">
         <v>9999</v>
@@ -7340,17 +7936,17 @@
         <v>1</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E156" s="30"/>
       <c r="F156" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J156" s="7">
         <v>9999</v>
@@ -7367,17 +7963,17 @@
         <v>1</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E157" s="30"/>
       <c r="F157" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H157" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J157" s="7">
         <v>9999</v>
@@ -7394,17 +7990,17 @@
         <v>1</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E158" s="30"/>
       <c r="F158" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J158" s="7">
         <v>9999</v>
@@ -7421,17 +8017,17 @@
         <v>1</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E159" s="30"/>
       <c r="F159" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J159" s="7">
         <v>9999</v>
@@ -7448,17 +8044,17 @@
         <v>1</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E160" s="30"/>
       <c r="F160" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H160" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J160" s="7">
         <v>9999</v>
@@ -7475,17 +8071,17 @@
         <v>1</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E161" s="30"/>
       <c r="F161" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J161" s="7">
         <v>9999</v>
@@ -7502,17 +8098,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E162" s="30"/>
       <c r="F162" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J162" s="7">
         <v>9999</v>
@@ -7529,15 +8125,15 @@
         <v>1</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E163" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="32"/>
       <c r="H163" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J163" s="7">
         <v>1</v>
@@ -7554,15 +8150,15 @@
         <v>2</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E164" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
       <c r="H164" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J164" s="7">
         <v>1</v>
@@ -7579,14 +8175,14 @@
         <v>3</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E165" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G165" s="32"/>
       <c r="H165" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J165" s="7">
         <v>1</v>
@@ -7603,17 +8199,17 @@
         <v>4</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E166" s="30"/>
       <c r="F166" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H166" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -7627,17 +8223,17 @@
         <v>5</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E167" s="30"/>
-      <c r="F167" s="39" t="s">
-        <v>182</v>
+      <c r="F167" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H167" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J167" s="7">
         <v>3</v>
@@ -7654,17 +8250,17 @@
         <v>6</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E168" s="30"/>
-      <c r="F168" s="39" t="s">
-        <v>183</v>
+      <c r="F168" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H168" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J168" s="7">
         <v>2</v>
@@ -7681,17 +8277,17 @@
         <v>7</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E169" s="30"/>
       <c r="F169" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J169" s="7">
         <v>1</v>
@@ -7708,17 +8304,17 @@
         <v>8</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E170" s="30"/>
-      <c r="F170" s="39" t="s">
-        <v>184</v>
+      <c r="F170" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H170" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J170" s="7">
         <v>1</v>
@@ -7735,15 +8331,15 @@
         <v>1</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="32"/>
       <c r="H171" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J171" s="7">
         <v>1</v>
@@ -7760,15 +8356,15 @@
         <v>2</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="32"/>
       <c r="H172" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J172" s="7">
         <v>1</v>
@@ -7785,15 +8381,15 @@
         <v>3</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="32"/>
       <c r="H173" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J173" s="7">
         <v>1</v>
@@ -7810,17 +8406,17 @@
         <v>4</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H174" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="7" customFormat="1">
@@ -7834,17 +8430,17 @@
         <v>5</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E175" s="30"/>
       <c r="F175" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H175" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J175" s="7">
         <v>3</v>
@@ -7861,17 +8457,17 @@
         <v>6</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E176" s="30"/>
       <c r="F176" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H176" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J176" s="7">
         <v>2</v>
@@ -7888,17 +8484,17 @@
         <v>7</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E177" s="30"/>
       <c r="F177" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H177" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J177" s="7">
         <v>1</v>
@@ -7915,17 +8511,17 @@
         <v>8</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E178" s="30"/>
       <c r="F178" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G178" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H178" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J178" s="7">
         <v>1</v>
@@ -7935,25 +8531,24 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="18">
+      <c r="B179" s="30">
         <v>32</v>
       </c>
-      <c r="C179" s="18">
-        <v>1</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16">
+      <c r="C179" s="30">
+        <v>1</v>
+      </c>
+      <c r="D179" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J179" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7961,25 +8556,24 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="18">
+      <c r="B180" s="30">
         <v>32</v>
       </c>
-      <c r="C180" s="18">
+      <c r="C180" s="30">
         <v>2</v>
       </c>
-      <c r="D180" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E180" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I180" s="16"/>
-      <c r="J180" s="16">
+      <c r="D180" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E180" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J180" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7987,25 +8581,23 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="18">
+      <c r="B181" s="30">
         <v>32</v>
       </c>
-      <c r="C181" s="18">
+      <c r="C181" s="30">
         <v>3</v>
       </c>
-      <c r="D181" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F181" s="16"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I181" s="16"/>
-      <c r="J181" s="16">
+      <c r="D181" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E181" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J181" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8013,53 +8605,50 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="18">
+      <c r="B182" s="30">
         <v>32</v>
       </c>
-      <c r="C182" s="18">
+      <c r="C182" s="30">
         <v>4</v>
       </c>
-      <c r="D182" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E182" s="18"/>
-      <c r="F182" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G182" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H182" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I182" s="16"/>
-      <c r="J182" s="16"/>
+      <c r="D182" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E182" s="30"/>
+      <c r="F182" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G182" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H182" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="183" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="18">
+      <c r="B183" s="30">
         <v>32</v>
       </c>
-      <c r="C183" s="18">
+      <c r="C183" s="30">
         <v>5</v>
       </c>
-      <c r="D183" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E183" s="18"/>
-      <c r="F183" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="G183" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H183" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I183" s="16"/>
-      <c r="J183" s="16">
+      <c r="D183" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E183" s="30"/>
+      <c r="F183" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H183" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J183" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8067,27 +8656,26 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="18">
+      <c r="B184" s="30">
         <v>32</v>
       </c>
-      <c r="C184" s="18">
+      <c r="C184" s="30">
         <v>6</v>
       </c>
-      <c r="D184" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E184" s="18"/>
-      <c r="F184" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G184" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H184" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I184" s="16"/>
-      <c r="J184" s="16">
+      <c r="D184" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E184" s="30"/>
+      <c r="F184" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G184" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H184" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J184" s="7">
         <v>2</v>
       </c>
     </row>
@@ -8095,27 +8683,26 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="18">
+      <c r="B185" s="30">
         <v>32</v>
       </c>
-      <c r="C185" s="18">
+      <c r="C185" s="30">
         <v>7</v>
       </c>
-      <c r="D185" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E185" s="18"/>
-      <c r="F185" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G185" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H185" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I185" s="16"/>
-      <c r="J185" s="16">
+      <c r="D185" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="30"/>
+      <c r="F185" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H185" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J185" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8123,27 +8710,26 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="18">
+      <c r="B186" s="30">
         <v>32</v>
       </c>
-      <c r="C186" s="18">
+      <c r="C186" s="30">
         <v>8</v>
       </c>
-      <c r="D186" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E186" s="18"/>
-      <c r="F186" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G186" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H186" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I186" s="16"/>
-      <c r="J186" s="16">
+      <c r="D186" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="30"/>
+      <c r="F186" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G186" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H186" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J186" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8151,25 +8737,24 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="21">
+      <c r="B187" s="30">
         <v>33</v>
       </c>
-      <c r="C187" s="21">
-        <v>1</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="F187" s="23"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20">
+      <c r="C187" s="30">
+        <v>1</v>
+      </c>
+      <c r="D187" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E187" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J187" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8177,25 +8762,24 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="21">
+      <c r="B188" s="30">
         <v>33</v>
       </c>
-      <c r="C188" s="21">
+      <c r="C188" s="30">
         <v>2</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F188" s="23"/>
-      <c r="G188" s="23"/>
-      <c r="H188" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I188" s="20"/>
-      <c r="J188" s="20">
+      <c r="D188" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E188" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J188" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8203,25 +8787,24 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="21">
+      <c r="B189" s="30">
         <v>33</v>
       </c>
-      <c r="C189" s="21">
+      <c r="C189" s="30">
         <v>3</v>
       </c>
-      <c r="D189" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="F189" s="23"/>
-      <c r="G189" s="23"/>
-      <c r="H189" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I189" s="20"/>
-      <c r="J189" s="20">
+      <c r="D189" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E189" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J189" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8229,53 +8812,50 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="21">
+      <c r="B190" s="30">
         <v>33</v>
       </c>
-      <c r="C190" s="21">
+      <c r="C190" s="30">
         <v>4</v>
       </c>
-      <c r="D190" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E190" s="21"/>
-      <c r="F190" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G190" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H190" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I190" s="20"/>
-      <c r="J190" s="20"/>
+      <c r="D190" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E190" s="30"/>
+      <c r="F190" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H190" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="191" spans="1:10" s="7" customFormat="1">
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="21">
+      <c r="B191" s="30">
         <v>33</v>
       </c>
-      <c r="C191" s="21">
+      <c r="C191" s="30">
         <v>5</v>
       </c>
-      <c r="D191" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E191" s="21"/>
-      <c r="F191" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G191" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H191" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I191" s="20"/>
-      <c r="J191" s="20">
+      <c r="D191" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" s="30"/>
+      <c r="F191" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H191" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J191" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8283,27 +8863,26 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="21">
+      <c r="B192" s="30">
         <v>33</v>
       </c>
-      <c r="C192" s="21">
+      <c r="C192" s="30">
         <v>6</v>
       </c>
-      <c r="D192" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E192" s="21"/>
-      <c r="F192" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G192" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H192" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I192" s="20"/>
-      <c r="J192" s="20">
+      <c r="D192" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E192" s="30"/>
+      <c r="F192" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G192" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H192" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J192" s="7">
         <v>2</v>
       </c>
     </row>
@@ -8311,27 +8890,26 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="30">
         <v>33</v>
       </c>
-      <c r="C193" s="21">
+      <c r="C193" s="30">
         <v>7</v>
       </c>
-      <c r="D193" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E193" s="21"/>
-      <c r="F193" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G193" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H193" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I193" s="20"/>
-      <c r="J193" s="20">
+      <c r="D193" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" s="30"/>
+      <c r="F193" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J193" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8339,27 +8917,1127 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="21">
+      <c r="B194" s="30">
         <v>33</v>
       </c>
-      <c r="C194" s="21">
+      <c r="C194" s="30">
         <v>8</v>
       </c>
-      <c r="D194" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E194" s="21"/>
-      <c r="F194" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="G194" s="23" t="s">
+      <c r="D194" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E194" s="30"/>
+      <c r="F194" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G194" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H194" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J194" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="7" customFormat="1">
+      <c r="A195" s="7">
+        <v>194</v>
+      </c>
+      <c r="B195" s="45">
+        <v>34</v>
+      </c>
+      <c r="C195" s="18">
+        <v>1</v>
+      </c>
+      <c r="D195" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I195" s="16"/>
+      <c r="J195" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" s="7" customFormat="1">
+      <c r="A196" s="7">
+        <v>195</v>
+      </c>
+      <c r="B196" s="45">
+        <v>34</v>
+      </c>
+      <c r="C196" s="18">
+        <v>2</v>
+      </c>
+      <c r="D196" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="I196" s="16"/>
+      <c r="J196" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="7" customFormat="1">
+      <c r="A197" s="7">
+        <v>196</v>
+      </c>
+      <c r="B197" s="45">
+        <v>34</v>
+      </c>
+      <c r="C197" s="18">
+        <v>3</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E197" s="18"/>
+      <c r="F197" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G197" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I197" s="16"/>
+      <c r="J197" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="7" customFormat="1">
+      <c r="A198" s="7">
+        <v>197</v>
+      </c>
+      <c r="B198" s="45">
+        <v>34</v>
+      </c>
+      <c r="C198" s="18">
+        <v>4</v>
+      </c>
+      <c r="D198" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E198" s="18"/>
+      <c r="F198" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H198" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I198" s="16"/>
+      <c r="J198" s="16"/>
+    </row>
+    <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A199" s="7">
+        <v>198</v>
+      </c>
+      <c r="B199" s="45">
+        <v>34</v>
+      </c>
+      <c r="C199" s="18">
+        <v>5</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E199" s="18"/>
+      <c r="F199" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G199" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I199" s="16"/>
+      <c r="J199" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A200" s="7">
+        <v>199</v>
+      </c>
+      <c r="B200" s="45">
+        <v>34</v>
+      </c>
+      <c r="C200" s="18">
+        <v>6</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E200" s="18"/>
+      <c r="F200" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G200" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I200" s="16"/>
+      <c r="J200" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" s="7" customFormat="1">
+      <c r="A201" s="7">
+        <v>200</v>
+      </c>
+      <c r="B201" s="45">
+        <v>34</v>
+      </c>
+      <c r="C201" s="18">
+        <v>7</v>
+      </c>
+      <c r="D201" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E201" s="18"/>
+      <c r="F201" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I201" s="16"/>
+      <c r="J201" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A202" s="7">
+        <v>201</v>
+      </c>
+      <c r="B202" s="45">
+        <v>34</v>
+      </c>
+      <c r="C202" s="18">
+        <v>8</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E202" s="18"/>
+      <c r="F202" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G202" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H202" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="I202" s="16"/>
+      <c r="J202" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" s="7" customFormat="1">
+      <c r="A203" s="7">
+        <v>202</v>
+      </c>
+      <c r="B203" s="34">
+        <v>35</v>
+      </c>
+      <c r="C203" s="21">
+        <v>1</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E203" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="I203" s="20"/>
+      <c r="J203" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" s="7" customFormat="1">
+      <c r="A204" s="7">
+        <v>203</v>
+      </c>
+      <c r="B204" s="34">
+        <v>35</v>
+      </c>
+      <c r="C204" s="21">
+        <v>2</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E204" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
+      <c r="H204" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" s="7" customFormat="1">
+      <c r="A205" s="7">
+        <v>204</v>
+      </c>
+      <c r="B205" s="34">
+        <v>35</v>
+      </c>
+      <c r="C205" s="21">
+        <v>3</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E205" s="21"/>
+      <c r="F205" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G205" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H205" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I205" s="20"/>
+      <c r="J205" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" s="7" customFormat="1">
+      <c r="A206" s="7">
+        <v>205</v>
+      </c>
+      <c r="B206" s="34">
+        <v>35</v>
+      </c>
+      <c r="C206" s="21">
+        <v>4</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E206" s="21"/>
+      <c r="F206" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G206" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H206" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="1:10" s="7" customFormat="1">
+      <c r="A207" s="7">
+        <v>206</v>
+      </c>
+      <c r="B207" s="34">
+        <v>35</v>
+      </c>
+      <c r="C207" s="21">
+        <v>5</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E207" s="21"/>
+      <c r="F207" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G207" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H207" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" s="7" customFormat="1">
+      <c r="A208" s="7">
+        <v>207</v>
+      </c>
+      <c r="B208" s="34">
+        <v>35</v>
+      </c>
+      <c r="C208" s="21">
+        <v>6</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E208" s="21"/>
+      <c r="F208" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G208" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H208" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" s="7" customFormat="1">
+      <c r="A209" s="7">
+        <v>208</v>
+      </c>
+      <c r="B209" s="34">
+        <v>35</v>
+      </c>
+      <c r="C209" s="21">
+        <v>7</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E209" s="21"/>
+      <c r="F209" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H209" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" s="7" customFormat="1">
+      <c r="A210" s="7">
+        <v>209</v>
+      </c>
+      <c r="B210" s="34">
+        <v>35</v>
+      </c>
+      <c r="C210" s="21">
+        <v>8</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E210" s="21"/>
+      <c r="F210" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G210" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H210" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="7" customFormat="1">
+      <c r="A211" s="7">
+        <v>210</v>
+      </c>
+      <c r="B211" s="62">
+        <v>36</v>
+      </c>
+      <c r="C211" s="62">
+        <v>1</v>
+      </c>
+      <c r="D211" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E211" s="62"/>
+      <c r="F211" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="H211" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I211" s="57"/>
+      <c r="J211" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="7" customFormat="1">
+      <c r="A212" s="7">
+        <v>211</v>
+      </c>
+      <c r="B212" s="62">
+        <v>36</v>
+      </c>
+      <c r="C212" s="62">
+        <v>2</v>
+      </c>
+      <c r="D212" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E212" s="62"/>
+      <c r="F212" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G212" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H212" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I212" s="57"/>
+      <c r="J212" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="7" customFormat="1">
+      <c r="A213" s="7">
+        <v>212</v>
+      </c>
+      <c r="B213" s="62">
+        <v>36</v>
+      </c>
+      <c r="C213" s="62">
+        <v>3</v>
+      </c>
+      <c r="D213" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E213" s="62"/>
+      <c r="F213" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H213" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="7" customFormat="1">
+      <c r="A214" s="7">
+        <v>213</v>
+      </c>
+      <c r="B214" s="62">
+        <v>37</v>
+      </c>
+      <c r="C214" s="62">
+        <v>1</v>
+      </c>
+      <c r="D214" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E214" s="62"/>
+      <c r="F214" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H214" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I214" s="57"/>
+      <c r="J214" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" s="7" customFormat="1">
+      <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="H194" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20">
+      <c r="B215" s="62">
+        <v>37</v>
+      </c>
+      <c r="C215" s="62">
+        <v>2</v>
+      </c>
+      <c r="D215" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E215" s="62"/>
+      <c r="F215" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H215" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I215" s="57"/>
+      <c r="J215" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="7" customFormat="1">
+      <c r="A216" s="7">
+        <v>215</v>
+      </c>
+      <c r="B216" s="62">
+        <v>37</v>
+      </c>
+      <c r="C216" s="62">
+        <v>3</v>
+      </c>
+      <c r="D216" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E216" s="62"/>
+      <c r="F216" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G216" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="H216" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I216" s="57"/>
+      <c r="J216" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="7" customFormat="1">
+      <c r="A217" s="7">
+        <v>216</v>
+      </c>
+      <c r="B217" s="62">
+        <v>38</v>
+      </c>
+      <c r="C217" s="62">
+        <v>1</v>
+      </c>
+      <c r="D217" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E217" s="62"/>
+      <c r="F217" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G217" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="H217" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I217" s="57"/>
+      <c r="J217" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="7" customFormat="1">
+      <c r="A218" s="7">
+        <v>217</v>
+      </c>
+      <c r="B218" s="62">
+        <v>38</v>
+      </c>
+      <c r="C218" s="62">
+        <v>2</v>
+      </c>
+      <c r="D218" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E218" s="62"/>
+      <c r="F218" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="H218" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I218" s="57"/>
+      <c r="J218" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="7" customFormat="1">
+      <c r="A219" s="7">
+        <v>218</v>
+      </c>
+      <c r="B219" s="62">
+        <v>38</v>
+      </c>
+      <c r="C219" s="62">
+        <v>3</v>
+      </c>
+      <c r="D219" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E219" s="62"/>
+      <c r="F219" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="H219" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I219" s="57"/>
+      <c r="J219" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="7" customFormat="1">
+      <c r="A220" s="7">
+        <v>219</v>
+      </c>
+      <c r="B220" s="30">
+        <v>39</v>
+      </c>
+      <c r="C220" s="30">
+        <v>1</v>
+      </c>
+      <c r="D220" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J220" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="7" customFormat="1">
+      <c r="A221" s="7">
+        <v>220</v>
+      </c>
+      <c r="B221" s="30">
+        <v>39</v>
+      </c>
+      <c r="C221" s="30">
+        <v>2</v>
+      </c>
+      <c r="D221" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J221" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="7" customFormat="1">
+      <c r="A222" s="7">
+        <v>221</v>
+      </c>
+      <c r="B222" s="30">
+        <v>39</v>
+      </c>
+      <c r="C222" s="30">
+        <v>3</v>
+      </c>
+      <c r="D222" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E222" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G222" s="32"/>
+      <c r="H222" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J222" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="7" customFormat="1">
+      <c r="A223" s="7">
+        <v>222</v>
+      </c>
+      <c r="B223" s="30">
+        <v>39</v>
+      </c>
+      <c r="C223" s="30">
+        <v>4</v>
+      </c>
+      <c r="D223" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E223" s="30"/>
+      <c r="F223" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H223" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A224" s="7">
+        <v>223</v>
+      </c>
+      <c r="B224" s="30">
+        <v>39</v>
+      </c>
+      <c r="C224" s="30">
+        <v>5</v>
+      </c>
+      <c r="D224" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E224" s="30"/>
+      <c r="F224" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G224" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H224" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J224" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A225" s="7">
+        <v>224</v>
+      </c>
+      <c r="B225" s="30">
+        <v>39</v>
+      </c>
+      <c r="C225" s="30">
+        <v>6</v>
+      </c>
+      <c r="D225" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E225" s="30"/>
+      <c r="F225" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H225" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J225" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" s="7" customFormat="1">
+      <c r="A226" s="7">
+        <v>225</v>
+      </c>
+      <c r="B226" s="30">
+        <v>39</v>
+      </c>
+      <c r="C226" s="30">
+        <v>7</v>
+      </c>
+      <c r="D226" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E226" s="30"/>
+      <c r="F226" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H226" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J226" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A227" s="7">
+        <v>226</v>
+      </c>
+      <c r="B227" s="30">
+        <v>39</v>
+      </c>
+      <c r="C227" s="30">
+        <v>8</v>
+      </c>
+      <c r="D227" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E227" s="30"/>
+      <c r="F227" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G227" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H227" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J227" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" s="7" customFormat="1">
+      <c r="A228" s="7">
+        <v>227</v>
+      </c>
+      <c r="B228" s="30">
+        <v>40</v>
+      </c>
+      <c r="C228" s="30">
+        <v>1</v>
+      </c>
+      <c r="D228" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E228" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32"/>
+      <c r="H228" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J228" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" s="7" customFormat="1">
+      <c r="A229" s="7">
+        <v>228</v>
+      </c>
+      <c r="B229" s="30">
+        <v>40</v>
+      </c>
+      <c r="C229" s="30">
+        <v>2</v>
+      </c>
+      <c r="D229" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J229" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" s="7" customFormat="1">
+      <c r="A230" s="7">
+        <v>229</v>
+      </c>
+      <c r="B230" s="30">
+        <v>40</v>
+      </c>
+      <c r="C230" s="30">
+        <v>3</v>
+      </c>
+      <c r="D230" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32"/>
+      <c r="H230" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J230" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" s="7" customFormat="1">
+      <c r="A231" s="7">
+        <v>230</v>
+      </c>
+      <c r="B231" s="30">
+        <v>40</v>
+      </c>
+      <c r="C231" s="30">
+        <v>4</v>
+      </c>
+      <c r="D231" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E231" s="30"/>
+      <c r="F231" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G231" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H231" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" s="7" customFormat="1">
+      <c r="A232" s="7">
+        <v>231</v>
+      </c>
+      <c r="B232" s="30">
+        <v>40</v>
+      </c>
+      <c r="C232" s="30">
+        <v>5</v>
+      </c>
+      <c r="D232" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E232" s="30"/>
+      <c r="F232" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H232" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J232" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" s="7" customFormat="1">
+      <c r="A233" s="7">
+        <v>232</v>
+      </c>
+      <c r="B233" s="30">
+        <v>40</v>
+      </c>
+      <c r="C233" s="30">
+        <v>6</v>
+      </c>
+      <c r="D233" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E233" s="30"/>
+      <c r="F233" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G233" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H233" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J233" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" s="7" customFormat="1">
+      <c r="A234" s="7">
+        <v>233</v>
+      </c>
+      <c r="B234" s="30">
+        <v>40</v>
+      </c>
+      <c r="C234" s="30">
+        <v>7</v>
+      </c>
+      <c r="D234" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E234" s="30"/>
+      <c r="F234" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H234" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J234" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" s="7" customFormat="1">
+      <c r="A235" s="7">
+        <v>234</v>
+      </c>
+      <c r="B235" s="30">
+        <v>40</v>
+      </c>
+      <c r="C235" s="30">
+        <v>8</v>
+      </c>
+      <c r="D235" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E235" s="30"/>
+      <c r="F235" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G235" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H235" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J235" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8371,4 +10049,104 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7">
+        <v>34</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>35</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="41"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="41"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="41"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="41"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3917,11 +3917,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I202" sqref="I202"/>
+      <selection pane="bottomRight" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8947,8 +8947,8 @@
       <c r="B195" s="45">
         <v>34</v>
       </c>
-      <c r="C195" s="18">
-        <v>1</v>
+      <c r="C195" s="30">
+        <v>2</v>
       </c>
       <c r="D195" s="33" t="s">
         <v>130</v>
@@ -8973,8 +8973,8 @@
       <c r="B196" s="45">
         <v>34</v>
       </c>
-      <c r="C196" s="18">
-        <v>2</v>
+      <c r="C196" s="30">
+        <v>4</v>
       </c>
       <c r="D196" s="33" t="s">
         <v>130</v>
@@ -8999,8 +8999,8 @@
       <c r="B197" s="45">
         <v>34</v>
       </c>
-      <c r="C197" s="18">
-        <v>3</v>
+      <c r="C197" s="30">
+        <v>6</v>
       </c>
       <c r="D197" s="33" t="s">
         <v>130</v>
@@ -9027,8 +9027,8 @@
       <c r="B198" s="45">
         <v>34</v>
       </c>
-      <c r="C198" s="18">
-        <v>4</v>
+      <c r="C198" s="30">
+        <v>1</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>130</v>
@@ -9053,8 +9053,8 @@
       <c r="B199" s="45">
         <v>34</v>
       </c>
-      <c r="C199" s="18">
-        <v>5</v>
+      <c r="C199" s="30">
+        <v>3</v>
       </c>
       <c r="D199" s="33" t="s">
         <v>130</v>
@@ -9081,8 +9081,8 @@
       <c r="B200" s="45">
         <v>34</v>
       </c>
-      <c r="C200" s="18">
-        <v>6</v>
+      <c r="C200" s="30">
+        <v>5</v>
       </c>
       <c r="D200" s="33" t="s">
         <v>130</v>
@@ -9109,7 +9109,7 @@
       <c r="B201" s="45">
         <v>34</v>
       </c>
-      <c r="C201" s="18">
+      <c r="C201" s="30">
         <v>7</v>
       </c>
       <c r="D201" s="33" t="s">
@@ -9137,7 +9137,7 @@
       <c r="B202" s="45">
         <v>34</v>
       </c>
-      <c r="C202" s="18">
+      <c r="C202" s="30">
         <v>8</v>
       </c>
       <c r="D202" s="33" t="s">
@@ -9165,8 +9165,8 @@
       <c r="B203" s="34">
         <v>35</v>
       </c>
-      <c r="C203" s="21">
-        <v>1</v>
+      <c r="C203" s="30">
+        <v>2</v>
       </c>
       <c r="D203" s="22" t="s">
         <v>131</v>
@@ -9191,8 +9191,8 @@
       <c r="B204" s="34">
         <v>35</v>
       </c>
-      <c r="C204" s="21">
-        <v>2</v>
+      <c r="C204" s="30">
+        <v>4</v>
       </c>
       <c r="D204" s="22" t="s">
         <v>131</v>
@@ -9217,8 +9217,8 @@
       <c r="B205" s="34">
         <v>35</v>
       </c>
-      <c r="C205" s="21">
-        <v>3</v>
+      <c r="C205" s="30">
+        <v>6</v>
       </c>
       <c r="D205" s="22" t="s">
         <v>131</v>
@@ -9245,8 +9245,8 @@
       <c r="B206" s="34">
         <v>35</v>
       </c>
-      <c r="C206" s="21">
-        <v>4</v>
+      <c r="C206" s="30">
+        <v>1</v>
       </c>
       <c r="D206" s="22" t="s">
         <v>131</v>
@@ -9271,8 +9271,8 @@
       <c r="B207" s="34">
         <v>35</v>
       </c>
-      <c r="C207" s="21">
-        <v>5</v>
+      <c r="C207" s="30">
+        <v>3</v>
       </c>
       <c r="D207" s="22" t="s">
         <v>131</v>
@@ -9299,8 +9299,8 @@
       <c r="B208" s="34">
         <v>35</v>
       </c>
-      <c r="C208" s="21">
-        <v>6</v>
+      <c r="C208" s="30">
+        <v>5</v>
       </c>
       <c r="D208" s="22" t="s">
         <v>131</v>
@@ -9327,7 +9327,7 @@
       <c r="B209" s="34">
         <v>35</v>
       </c>
-      <c r="C209" s="21">
+      <c r="C209" s="30">
         <v>7</v>
       </c>
       <c r="D209" s="22" t="s">
@@ -9355,7 +9355,7 @@
       <c r="B210" s="34">
         <v>35</v>
       </c>
-      <c r="C210" s="21">
+      <c r="C210" s="30">
         <v>8</v>
       </c>
       <c r="D210" s="22" t="s">
@@ -10055,7 +10055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="308">
   <si>
     <t>id|</t>
   </si>
@@ -1501,6 +1501,26 @@
   </si>
   <si>
     <t>6000,6000,6000,6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3918,10 +3938,10 @@
   <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D205" sqref="D205"/>
+      <selection pane="bottomRight" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9387,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="63" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="E211" s="62"/>
       <c r="F211" s="64" t="s">
@@ -9415,7 +9435,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="63" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="E212" s="62"/>
       <c r="F212" s="64" t="s">
@@ -9443,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="63" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="E213" s="62"/>
       <c r="F213" s="64" t="s">
@@ -9471,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="63" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="E214" s="62"/>
       <c r="F214" s="64" t="s">
@@ -9499,7 +9519,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="63" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="E215" s="62"/>
       <c r="F215" s="64" t="s">
@@ -9527,7 +9547,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="63" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="E216" s="62"/>
       <c r="F216" s="64" t="s">
@@ -9555,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="63" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="E217" s="62"/>
       <c r="F217" s="64" t="s">
@@ -9583,7 +9603,7 @@
         <v>2</v>
       </c>
       <c r="D218" s="63" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="E218" s="62"/>
       <c r="F218" s="64" t="s">
@@ -9611,7 +9631,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="63" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="E219" s="62"/>
       <c r="F219" s="64" t="s">

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="319">
   <si>
     <t>id|</t>
   </si>
@@ -1364,6 +1364,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>60000,6000,6000,6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3000,3000,3000,3000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1500,7 +1504,34 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6000,6000,6000,6000,</t>
+    <t>女神的礼物</t>
+  </si>
+  <si>
+    <t>女神的礼物--cjj</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神节</t>
+  </si>
+  <si>
+    <t>恭喜您在女神的礼物活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在女神的礼物活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽玩偶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1513,6 +1544,14 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1607,7 +1646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,37 +1661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1741,31 +1756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1778,9 +1768,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1788,17 +1775,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1812,30 +1792,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1844,46 +1801,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2165,8 +2111,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2176,9 +2122,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="41" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="28" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="28" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2425,11 +2371,11 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="7">
@@ -2440,7 +2386,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="16" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="7">
@@ -2452,17 +2398,17 @@
       <c r="J8" s="15">
         <v>7</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="17">
         <v>0</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="7">
@@ -2473,7 +2419,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="16" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="7">
@@ -2485,17 +2431,17 @@
       <c r="J9" s="15">
         <v>8</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="7">
@@ -2506,7 +2452,7 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="16" t="s">
         <v>143</v>
       </c>
       <c r="H10" s="7">
@@ -2518,17 +2464,17 @@
       <c r="J10" s="15">
         <v>9</v>
       </c>
-      <c r="K10" s="26">
-        <v>1</v>
-      </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-    </row>
-    <row r="11" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C11" s="7">
@@ -2539,7 +2485,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="16" t="s">
         <v>143</v>
       </c>
       <c r="H11" s="7">
@@ -2551,28 +2497,28 @@
       <c r="J11" s="15">
         <v>10</v>
       </c>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K11" s="17">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="19">
         <v>1609775999</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H12" s="7">
@@ -2584,28 +2530,28 @@
       <c r="J12" s="15">
         <v>11</v>
       </c>
-      <c r="K12" s="26">
-        <v>1</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="19">
         <v>1609775999</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H13" s="7">
@@ -2617,28 +2563,28 @@
       <c r="J13" s="15">
         <v>12</v>
       </c>
-      <c r="K13" s="26">
-        <v>1</v>
-      </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K13" s="17">
+        <v>1</v>
+      </c>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="19">
         <v>1609775999</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H14" s="7">
@@ -2650,28 +2596,28 @@
       <c r="J14" s="15">
         <v>13</v>
       </c>
-      <c r="K14" s="26">
-        <v>1</v>
-      </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="19">
         <v>1609775999</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="7">
@@ -2683,28 +2629,28 @@
       <c r="J15" s="15">
         <v>14</v>
       </c>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="19">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="19">
         <v>1610380799</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H16" s="7">
@@ -2716,28 +2662,28 @@
       <c r="J16" s="7">
         <v>15</v>
       </c>
-      <c r="K16" s="26">
-        <v>1</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="19">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="19">
         <v>1610380799</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H17" s="7">
@@ -2749,26 +2695,26 @@
       <c r="J17" s="7">
         <v>16</v>
       </c>
-      <c r="K17" s="26">
-        <v>1</v>
-      </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" s="39" customFormat="1">
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" spans="1:16" s="26" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="25">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="25">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H18" s="7">
@@ -2780,15 +2726,15 @@
       <c r="J18" s="15">
         <v>17</v>
       </c>
-      <c r="K18" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="26" customFormat="1">
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="17" customFormat="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C19" s="7">
@@ -2799,7 +2745,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="16" t="s">
         <v>189</v>
       </c>
       <c r="H19" s="7">
@@ -2811,15 +2757,15 @@
       <c r="J19" s="15">
         <v>18</v>
       </c>
-      <c r="K19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="39" customFormat="1">
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="26" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>205</v>
       </c>
       <c r="C20" s="7">
@@ -2828,7 +2774,7 @@
       <c r="D20" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H20" s="7">
@@ -2840,15 +2786,15 @@
       <c r="J20" s="15">
         <v>19</v>
       </c>
-      <c r="K20" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="26" customFormat="1">
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="17" customFormat="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C21" s="7">
@@ -2859,7 +2805,7 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H21" s="7">
@@ -2871,15 +2817,15 @@
       <c r="J21" s="15">
         <v>20</v>
       </c>
-      <c r="K21" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="16" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="7">
@@ -2890,27 +2836,27 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="38">
-        <v>1</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="38">
+      <c r="H22" s="25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="25">
         <v>21</v>
       </c>
-      <c r="K22" s="26">
-        <v>1</v>
-      </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C23" s="7">
@@ -2921,27 +2867,27 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H23" s="38">
-        <v>1</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="38">
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="25">
         <v>22</v>
       </c>
-      <c r="K23" s="26">
-        <v>1</v>
-      </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K23" s="17">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C24" s="7">
@@ -2952,27 +2898,27 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="38">
-        <v>1</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="38">
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="25">
         <v>23</v>
       </c>
-      <c r="K24" s="26">
-        <v>1</v>
-      </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" s="26" customFormat="1">
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" spans="1:16" s="17" customFormat="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="16" t="s">
         <v>230</v>
       </c>
       <c r="C25" s="7">
@@ -2981,25 +2927,25 @@
       <c r="D25" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H25" s="38">
-        <v>1</v>
-      </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38">
+      <c r="H25" s="25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="25">
         <v>24</v>
       </c>
-      <c r="K25" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="26" customFormat="1">
+      <c r="K25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="17" customFormat="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="16" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="7">
@@ -3008,25 +2954,25 @@
       <c r="D26" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="38">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="38">
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="25">
         <v>25</v>
       </c>
-      <c r="K26" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="26" customFormat="1">
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="17" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C27" s="7">
@@ -3037,25 +2983,25 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H27" s="38">
-        <v>1</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="38">
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="25">
         <v>26</v>
       </c>
-      <c r="K27" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="26" customFormat="1">
+      <c r="K27" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="17" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="7">
@@ -3066,25 +3012,25 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H28" s="38">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38">
+      <c r="H28" s="25">
+        <v>1</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="25">
         <v>27</v>
       </c>
-      <c r="K28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="26" customFormat="1">
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="17" customFormat="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="16" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="7">
@@ -3095,25 +3041,25 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H29" s="38">
-        <v>1</v>
-      </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="38">
+      <c r="H29" s="25">
+        <v>1</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="25">
         <v>28</v>
       </c>
-      <c r="K29" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="26" customFormat="1">
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="17" customFormat="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C30" s="7">
@@ -3124,25 +3070,25 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="38">
-        <v>1</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="38">
+      <c r="H30" s="25">
+        <v>1</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="25">
         <v>29</v>
       </c>
-      <c r="K30" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="39" customFormat="1">
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="26" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="16" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="7">
@@ -3151,7 +3097,7 @@
       <c r="D31" s="7">
         <v>1612195199</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H31" s="7">
@@ -3163,15 +3109,15 @@
       <c r="J31" s="15">
         <v>30</v>
       </c>
-      <c r="K31" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="26" customFormat="1">
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="17" customFormat="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="16" t="s">
         <v>252</v>
       </c>
       <c r="C32" s="7">
@@ -3182,7 +3128,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H32" s="7">
@@ -3194,15 +3140,15 @@
       <c r="J32" s="15">
         <v>31</v>
       </c>
-      <c r="K32" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="39" customFormat="1">
+      <c r="K32" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="26" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="16" t="s">
         <v>253</v>
       </c>
       <c r="C33" s="7">
@@ -3211,7 +3157,7 @@
       <c r="D33" s="7">
         <v>1612799999</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H33" s="7">
@@ -3223,15 +3169,15 @@
       <c r="J33" s="15">
         <v>32</v>
       </c>
-      <c r="K33" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="26" customFormat="1">
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="17" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="16" t="s">
         <v>254</v>
       </c>
       <c r="C34" s="7">
@@ -3242,7 +3188,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H34" s="7">
@@ -3254,309 +3200,362 @@
       <c r="J34" s="15">
         <v>33</v>
       </c>
-      <c r="K34" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="46" customFormat="1">
+      <c r="K34" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="17" customFormat="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="7">
         <v>1612828800</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="7">
         <v>1613404799</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="H35" s="48">
-        <v>1</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" s="25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
         <v>25</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="15">
         <v>34</v>
       </c>
-      <c r="K35" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="29" customFormat="1">
+      <c r="K35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="17" customFormat="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" s="20">
+      <c r="B36" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="7">
         <v>1612828800</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="7">
         <v>1613404799</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="43" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="44">
-        <v>1</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="H36" s="25">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
         <v>26</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="15">
         <v>35</v>
       </c>
-      <c r="K36" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="57">
+      <c r="B37" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H37" s="59">
-        <v>1</v>
-      </c>
-      <c r="I37" s="60"/>
-      <c r="J37" s="59">
+      <c r="H37" s="25">
+        <v>1</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="25">
         <v>36</v>
       </c>
-      <c r="K37" s="61">
-        <v>1</v>
-      </c>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-    </row>
-    <row r="38" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="57">
+      <c r="B38" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H38" s="59">
-        <v>1</v>
-      </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="59">
+      <c r="H38" s="25">
+        <v>1</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="25">
         <v>37</v>
       </c>
-      <c r="K38" s="61">
-        <v>1</v>
-      </c>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-    </row>
-    <row r="39" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="57">
+      <c r="B39" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H39" s="59">
-        <v>1</v>
-      </c>
-      <c r="I39" s="60"/>
-      <c r="J39" s="59">
+      <c r="H39" s="25">
+        <v>1</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="25">
         <v>38</v>
       </c>
-      <c r="K39" s="61">
-        <v>1</v>
-      </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-    </row>
-    <row r="40" spans="1:16" s="46" customFormat="1">
+      <c r="K39" s="17">
+        <v>1</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="1:16" s="17" customFormat="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="C40" s="66">
+      <c r="B40" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="7">
         <v>1614038400</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="7">
         <v>1614614399</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="H40" s="67">
-        <v>1</v>
-      </c>
-      <c r="I40" s="66">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="25">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
         <v>27</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="15">
         <v>39</v>
       </c>
-      <c r="K40" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="29" customFormat="1">
+      <c r="K40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="17" customFormat="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="C41" s="66">
+      <c r="B41" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="7">
         <v>1614038400</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="7">
         <v>1614614399</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="70" t="s">
-        <v>295</v>
-      </c>
-      <c r="H41" s="67">
-        <v>1</v>
-      </c>
-      <c r="I41" s="66">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
         <v>28</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="15">
         <v>40</v>
       </c>
-      <c r="K41" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="26" customFormat="1">
-      <c r="A42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="44" spans="1:16" s="26" customFormat="1">
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="39" customFormat="1">
+      <c r="A42" s="34">
+        <v>41</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1614643200</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1615219199</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="37">
+        <v>1</v>
+      </c>
+      <c r="I42" s="34">
+        <v>29</v>
+      </c>
+      <c r="J42" s="38">
+        <v>41</v>
+      </c>
+      <c r="K42" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="39" customFormat="1">
+      <c r="A43" s="34">
+        <v>42</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="34">
+        <v>1614643200</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1615219199</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="H43" s="37">
+        <v>1</v>
+      </c>
+      <c r="I43" s="34">
+        <v>30</v>
+      </c>
+      <c r="J43" s="38">
+        <v>42</v>
+      </c>
+      <c r="K43" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="17" customFormat="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="54"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="38"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="7"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:16" s="26" customFormat="1">
+    <row r="45" spans="1:16" s="17" customFormat="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="38"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="7"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:16" s="26" customFormat="1">
+    <row r="46" spans="1:16" s="17" customFormat="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="54"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="7"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:16" s="26" customFormat="1">
+    <row r="47" spans="1:16" s="17" customFormat="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="54"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="38"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="7"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:16" s="26" customFormat="1">
+    <row r="48" spans="1:16" s="17" customFormat="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="54"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="38"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="7"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="26" customFormat="1">
+    <row r="49" spans="1:10" s="17" customFormat="1">
       <c r="A49" s="7"/>
-      <c r="B49" s="54"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="38"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="7"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="26" customFormat="1">
+    <row r="50" spans="1:10" s="17" customFormat="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="7"/>
       <c r="J50" s="15"/>
     </row>
@@ -3571,10 +3570,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3701,10 +3700,10 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="16" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3712,10 +3711,10 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3723,10 +3722,10 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3734,10 +3733,10 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3745,25 +3744,25 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="16" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3771,25 +3770,25 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3800,7 +3799,7 @@
       <c r="B18" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3811,7 +3810,7 @@
       <c r="B19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3819,10 +3818,10 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="16" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3830,10 +3829,10 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="16" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3841,10 +3840,10 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="16" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3852,10 +3851,10 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3863,10 +3862,10 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="16" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3874,55 +3873,77 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" s="7" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" s="7" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="70" t="s">
+      <c r="B28" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="C28" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="7" customFormat="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>298</v>
+      <c r="B29" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="34" customFormat="1">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="34" customFormat="1">
+      <c r="A31" s="34">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3935,13 +3956,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E216" sqref="E216"/>
+      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3967,7 +3988,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -4585,21 +4606,21 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="20">
         <v>5</v>
       </c>
-      <c r="C26" s="30">
-        <v>1</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="20" t="s">
         <v>114</v>
       </c>
       <c r="J26" s="7">
@@ -4610,21 +4631,21 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="20">
         <v>5</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="20">
         <v>2</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="30" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="20" t="s">
         <v>115</v>
       </c>
       <c r="J27" s="7">
@@ -4635,21 +4656,21 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="20">
         <v>5</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="20">
         <v>3</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="20" t="s">
         <v>116</v>
       </c>
       <c r="J28" s="7">
@@ -4660,23 +4681,23 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="20">
         <v>5</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="20">
         <v>4</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="32" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="20" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4684,23 +4705,23 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="20">
         <v>5</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="32" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J30" s="7">
@@ -4711,23 +4732,23 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="20">
         <v>5</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="20">
         <v>6</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="32" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J31" s="7">
@@ -4738,23 +4759,23 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>5</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="20">
         <v>7</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="32" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J32" s="7">
@@ -4765,23 +4786,23 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="20">
         <v>5</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="20">
         <v>8</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="32" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="20" t="s">
         <v>120</v>
       </c>
       <c r="J33" s="7">
@@ -4792,21 +4813,21 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="20">
         <v>6</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="30" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J34" s="7">
@@ -4817,21 +4838,21 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="20">
         <v>6</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="20">
         <v>2</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J35" s="7">
@@ -4842,21 +4863,21 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="20">
         <v>6</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="20">
         <v>3</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J36" s="7">
@@ -4867,23 +4888,23 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="20">
         <v>6</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="20">
         <v>4</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="32" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4891,23 +4912,23 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="20">
         <v>6</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="20">
         <v>5</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="32" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J38" s="7">
@@ -4918,23 +4939,23 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="20">
         <v>6</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="20">
         <v>6</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="32" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J39" s="7">
@@ -4945,23 +4966,23 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="20">
         <v>6</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="20">
         <v>7</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="32" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J40" s="7">
@@ -4972,23 +4993,23 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="20">
         <v>6</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="20">
         <v>8</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="32" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J41" s="7">
@@ -4999,21 +5020,21 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="20">
         <v>7</v>
       </c>
-      <c r="C42" s="30">
-        <v>1</v>
-      </c>
-      <c r="D42" s="31" t="s">
+      <c r="C42" s="20">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="30" t="s">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J42" s="7">
@@ -5024,21 +5045,21 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="20">
         <v>7</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="20">
         <v>2</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J43" s="7">
@@ -5049,21 +5070,21 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="20">
         <v>7</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="20">
         <v>3</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="30" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="20" t="s">
         <v>94</v>
       </c>
       <c r="J44" s="7">
@@ -5074,23 +5095,23 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="20">
         <v>7</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="20">
         <v>4</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="32" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5098,23 +5119,23 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="20">
         <v>7</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="20">
         <v>5</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="32" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J46" s="7">
@@ -5125,23 +5146,23 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="20">
         <v>7</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="20">
         <v>6</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="32" t="s">
+      <c r="E47" s="20"/>
+      <c r="F47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J47" s="7">
@@ -5152,23 +5173,23 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="20">
         <v>7</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="20">
         <v>7</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="32" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J48" s="7">
@@ -5179,23 +5200,23 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="20">
         <v>7</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="20">
         <v>8</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="32" t="s">
+      <c r="E49" s="20"/>
+      <c r="F49" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J49" s="7">
@@ -5206,21 +5227,21 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="20">
         <v>8</v>
       </c>
-      <c r="C50" s="30">
-        <v>1</v>
-      </c>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="30" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J50" s="7">
@@ -5231,21 +5252,21 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="20">
         <v>8</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="20">
         <v>2</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="30" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J51" s="7">
@@ -5256,21 +5277,21 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="20">
         <v>8</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="20">
         <v>3</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J52" s="7">
@@ -5281,23 +5302,23 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="20">
         <v>8</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="20">
         <v>4</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="32" t="s">
+      <c r="E53" s="20"/>
+      <c r="F53" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5305,23 +5326,23 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="20">
         <v>8</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="20">
         <v>5</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="32" t="s">
+      <c r="E54" s="20"/>
+      <c r="F54" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="7">
@@ -5332,23 +5353,23 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="20">
         <v>8</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="20">
         <v>6</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="32" t="s">
+      <c r="E55" s="20"/>
+      <c r="F55" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J55" s="7">
@@ -5359,23 +5380,23 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="20">
         <v>8</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="20">
         <v>7</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="32" t="s">
+      <c r="E56" s="20"/>
+      <c r="F56" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J56" s="7">
@@ -5386,23 +5407,23 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="20">
         <v>8</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="20">
         <v>8</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="32" t="s">
+      <c r="E57" s="20"/>
+      <c r="F57" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J57" s="7">
@@ -5413,21 +5434,21 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="20">
         <v>9</v>
       </c>
-      <c r="C58" s="30">
-        <v>1</v>
-      </c>
-      <c r="D58" s="31" t="s">
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="30" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J58" s="7">
@@ -5438,21 +5459,21 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="20">
         <v>9</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="20">
         <v>2</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="30" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J59" s="7">
@@ -5463,21 +5484,21 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="20">
         <v>9</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="20">
         <v>3</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="30" t="s">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J60" s="7">
@@ -5488,23 +5509,23 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="20">
         <v>9</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="20">
         <v>4</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="32" t="s">
+      <c r="E61" s="20"/>
+      <c r="F61" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5512,23 +5533,23 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="20">
         <v>9</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="20">
         <v>5</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="32" t="s">
+      <c r="E62" s="20"/>
+      <c r="F62" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J62" s="7">
@@ -5539,23 +5560,23 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="20">
         <v>9</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="20">
         <v>6</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="32" t="s">
+      <c r="E63" s="20"/>
+      <c r="F63" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J63" s="7">
@@ -5566,23 +5587,23 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="20">
         <v>9</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="20">
         <v>7</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="32" t="s">
+      <c r="E64" s="20"/>
+      <c r="F64" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J64" s="7">
@@ -5593,23 +5614,23 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="20">
         <v>9</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="20">
         <v>8</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="32" t="s">
+      <c r="E65" s="20"/>
+      <c r="F65" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J65" s="7">
@@ -5620,21 +5641,21 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="20">
         <v>10</v>
       </c>
-      <c r="C66" s="30">
-        <v>1</v>
-      </c>
-      <c r="D66" s="31" t="s">
+      <c r="C66" s="20">
+        <v>1</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="30" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J66" s="7">
@@ -5645,21 +5666,21 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="30">
+      <c r="B67" s="20">
         <v>10</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="20">
         <v>2</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="30" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J67" s="7">
@@ -5670,21 +5691,21 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="20">
         <v>10</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="20">
         <v>3</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="30" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J68" s="7">
@@ -5695,23 +5716,23 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="20">
         <v>10</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="20">
         <v>4</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="32" t="s">
+      <c r="E69" s="20"/>
+      <c r="F69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5719,23 +5740,23 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="20">
         <v>10</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="20">
         <v>5</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="32" t="s">
+      <c r="E70" s="20"/>
+      <c r="F70" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J70" s="7">
@@ -5746,23 +5767,23 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71" s="20">
         <v>10</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="20">
         <v>6</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="32" t="s">
+      <c r="E71" s="20"/>
+      <c r="F71" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J71" s="7">
@@ -5773,23 +5794,23 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="20">
         <v>10</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="20">
         <v>7</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" s="32" t="s">
+      <c r="E72" s="20"/>
+      <c r="F72" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J72" s="7">
@@ -5800,23 +5821,23 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="30">
+      <c r="B73" s="20">
         <v>10</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="20">
         <v>8</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="32" t="s">
+      <c r="E73" s="20"/>
+      <c r="F73" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H73" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J73" s="7">
@@ -5827,21 +5848,21 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="30">
+      <c r="B74" s="20">
         <v>11</v>
       </c>
-      <c r="C74" s="30">
-        <v>1</v>
-      </c>
-      <c r="D74" s="31" t="s">
+      <c r="C74" s="20">
+        <v>1</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="30" t="s">
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J74" s="7">
@@ -5852,21 +5873,21 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="30">
+      <c r="B75" s="20">
         <v>11</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="20">
         <v>2</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="30" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J75" s="7">
@@ -5877,21 +5898,21 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="30">
+      <c r="B76" s="20">
         <v>11</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="20">
         <v>3</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="30" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J76" s="7">
@@ -5902,23 +5923,23 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" s="20">
         <v>11</v>
       </c>
-      <c r="C77" s="30">
+      <c r="C77" s="20">
         <v>4</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="32" t="s">
+      <c r="E77" s="20"/>
+      <c r="F77" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="H77" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5926,23 +5947,23 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="30">
+      <c r="B78" s="20">
         <v>11</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="20">
         <v>5</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="32" t="s">
+      <c r="E78" s="20"/>
+      <c r="F78" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J78" s="7">
@@ -5953,23 +5974,23 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="30">
+      <c r="B79" s="20">
         <v>11</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="20">
         <v>6</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" s="32" t="s">
+      <c r="E79" s="20"/>
+      <c r="F79" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J79" s="7">
@@ -5980,23 +6001,23 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="30">
+      <c r="B80" s="20">
         <v>11</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="20">
         <v>7</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="32" t="s">
+      <c r="E80" s="20"/>
+      <c r="F80" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J80" s="7">
@@ -6007,23 +6028,23 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="20">
         <v>11</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="20">
         <v>8</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="32" t="s">
+      <c r="E81" s="20"/>
+      <c r="F81" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H81" s="30" t="s">
+      <c r="H81" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J81" s="7">
@@ -6034,21 +6055,21 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82" s="20">
         <v>12</v>
       </c>
-      <c r="C82" s="30">
-        <v>1</v>
-      </c>
-      <c r="D82" s="31" t="s">
+      <c r="C82" s="20">
+        <v>1</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="30" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J82" s="7">
@@ -6059,21 +6080,21 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="30">
+      <c r="B83" s="20">
         <v>12</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="20">
         <v>2</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="30" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J83" s="7">
@@ -6084,21 +6105,21 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="30">
+      <c r="B84" s="20">
         <v>12</v>
       </c>
-      <c r="C84" s="30">
+      <c r="C84" s="20">
         <v>3</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="30" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J84" s="7">
@@ -6109,23 +6130,23 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="30">
+      <c r="B85" s="20">
         <v>12</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="20">
         <v>4</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" s="32" t="s">
+      <c r="E85" s="20"/>
+      <c r="F85" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H85" s="30" t="s">
+      <c r="H85" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6133,23 +6154,23 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="30">
+      <c r="B86" s="20">
         <v>12</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="20">
         <v>5</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" s="32" t="s">
+      <c r="E86" s="20"/>
+      <c r="F86" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J86" s="7">
@@ -6160,23 +6181,23 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="20">
         <v>12</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="20">
         <v>6</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" s="32" t="s">
+      <c r="E87" s="20"/>
+      <c r="F87" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J87" s="7">
@@ -6187,23 +6208,23 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="30">
+      <c r="B88" s="20">
         <v>12</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="20">
         <v>7</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="32" t="s">
+      <c r="E88" s="20"/>
+      <c r="F88" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J88" s="7">
@@ -6214,23 +6235,23 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="30">
+      <c r="B89" s="20">
         <v>12</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="20">
         <v>8</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" s="32" t="s">
+      <c r="E89" s="20"/>
+      <c r="F89" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H89" s="30" t="s">
+      <c r="H89" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J89" s="7">
@@ -6241,21 +6262,21 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" s="20">
         <v>13</v>
       </c>
-      <c r="C90" s="30">
-        <v>1</v>
-      </c>
-      <c r="D90" s="31" t="s">
+      <c r="C90" s="20">
+        <v>1</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="30" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J90" s="7">
@@ -6266,21 +6287,21 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91" s="20">
         <v>13</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="20">
         <v>2</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="30" t="s">
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J91" s="7">
@@ -6291,21 +6312,21 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="20">
         <v>13</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="20">
         <v>3</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="30" t="s">
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J92" s="7">
@@ -6316,23 +6337,23 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="30">
+      <c r="B93" s="20">
         <v>13</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="20">
         <v>4</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" s="32" t="s">
+      <c r="E93" s="20"/>
+      <c r="F93" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H93" s="30" t="s">
+      <c r="H93" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6340,23 +6361,23 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="30">
+      <c r="B94" s="20">
         <v>13</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="20">
         <v>5</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="32" t="s">
+      <c r="E94" s="20"/>
+      <c r="F94" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J94" s="7">
@@ -6367,23 +6388,23 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="30">
+      <c r="B95" s="20">
         <v>13</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="20">
         <v>6</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="32" t="s">
+      <c r="E95" s="20"/>
+      <c r="F95" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="25" t="s">
+      <c r="H95" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J95" s="7">
@@ -6394,23 +6415,23 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="30">
+      <c r="B96" s="20">
         <v>13</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="20">
         <v>7</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E96" s="30"/>
-      <c r="F96" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="32" t="s">
+      <c r="E96" s="20"/>
+      <c r="F96" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J96" s="7">
@@ -6421,23 +6442,23 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="30">
+      <c r="B97" s="20">
         <v>13</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="20">
         <v>8</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E97" s="30"/>
-      <c r="F97" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="32" t="s">
+      <c r="E97" s="20"/>
+      <c r="F97" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H97" s="30" t="s">
+      <c r="H97" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J97" s="7">
@@ -6448,21 +6469,21 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="20">
         <v>14</v>
       </c>
-      <c r="C98" s="30">
-        <v>1</v>
-      </c>
-      <c r="D98" s="31" t="s">
+      <c r="C98" s="20">
+        <v>1</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="30" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J98" s="7">
@@ -6473,21 +6494,21 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="20">
         <v>14</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="20">
         <v>2</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="30" t="s">
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J99" s="7">
@@ -6498,21 +6519,21 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="20">
         <v>14</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="20">
         <v>3</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="30" t="s">
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J100" s="7">
@@ -6523,23 +6544,23 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="30">
+      <c r="B101" s="20">
         <v>14</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="20">
         <v>4</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" s="32" t="s">
+      <c r="E101" s="20"/>
+      <c r="F101" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H101" s="30" t="s">
+      <c r="H101" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6547,23 +6568,23 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" s="20">
         <v>14</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="20">
         <v>5</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G102" s="32" t="s">
+      <c r="E102" s="20"/>
+      <c r="F102" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H102" s="25" t="s">
+      <c r="H102" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J102" s="7">
@@ -6574,23 +6595,23 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="30">
+      <c r="B103" s="20">
         <v>14</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="20">
         <v>6</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" s="32" t="s">
+      <c r="E103" s="20"/>
+      <c r="F103" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H103" s="25" t="s">
+      <c r="H103" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J103" s="7">
@@ -6601,23 +6622,23 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="20">
         <v>14</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="20">
         <v>7</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G104" s="32" t="s">
+      <c r="E104" s="20"/>
+      <c r="F104" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J104" s="7">
@@ -6628,23 +6649,23 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="20">
         <v>14</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="20">
         <v>8</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" s="32" t="s">
+      <c r="E105" s="20"/>
+      <c r="F105" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H105" s="30" t="s">
+      <c r="H105" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J105" s="7">
@@ -6655,21 +6676,21 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="20">
         <v>15</v>
       </c>
-      <c r="C106" s="30">
-        <v>1</v>
-      </c>
-      <c r="D106" s="31" t="s">
+      <c r="C106" s="20">
+        <v>1</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="30" t="s">
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J106" s="7">
@@ -6680,21 +6701,21 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="30">
+      <c r="B107" s="20">
         <v>15</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="20">
         <v>2</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="30" t="s">
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J107" s="7">
@@ -6705,21 +6726,21 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="30">
+      <c r="B108" s="20">
         <v>15</v>
       </c>
-      <c r="C108" s="30">
+      <c r="C108" s="20">
         <v>3</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="30" t="s">
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J108" s="7">
@@ -6730,23 +6751,23 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="30">
+      <c r="B109" s="20">
         <v>15</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C109" s="20">
         <v>4</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" s="32" t="s">
+      <c r="E109" s="20"/>
+      <c r="F109" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H109" s="30" t="s">
+      <c r="H109" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6754,23 +6775,23 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="30">
+      <c r="B110" s="20">
         <v>15</v>
       </c>
-      <c r="C110" s="30">
+      <c r="C110" s="20">
         <v>5</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="36" t="s">
+      <c r="E110" s="20"/>
+      <c r="F110" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G110" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H110" s="25" t="s">
+      <c r="H110" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J110" s="7">
@@ -6781,23 +6802,23 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="20">
         <v>15</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="20">
         <v>6</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="36" t="s">
+      <c r="E111" s="20"/>
+      <c r="F111" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="G111" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H111" s="25" t="s">
+      <c r="H111" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J111" s="7">
@@ -6808,23 +6829,23 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="30">
+      <c r="B112" s="20">
         <v>15</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="20">
         <v>7</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G112" s="32" t="s">
+      <c r="E112" s="20"/>
+      <c r="F112" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H112" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J112" s="7">
@@ -6835,23 +6856,23 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="30">
+      <c r="B113" s="20">
         <v>15</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="20">
         <v>8</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="36" t="s">
+      <c r="E113" s="20"/>
+      <c r="F113" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G113" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="H113" s="30" t="s">
+      <c r="H113" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J113" s="7">
@@ -6862,21 +6883,21 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="30">
+      <c r="B114" s="20">
         <v>16</v>
       </c>
-      <c r="C114" s="30">
-        <v>1</v>
-      </c>
-      <c r="D114" s="31" t="s">
+      <c r="C114" s="20">
+        <v>1</v>
+      </c>
+      <c r="D114" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="30" t="s">
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J114" s="7">
@@ -6887,21 +6908,21 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="30">
+      <c r="B115" s="20">
         <v>16</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="20">
         <v>2</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="30" t="s">
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J115" s="7">
@@ -6912,21 +6933,21 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="30">
+      <c r="B116" s="20">
         <v>16</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="20">
         <v>3</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="30" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J116" s="7">
@@ -6937,23 +6958,23 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="30">
+      <c r="B117" s="20">
         <v>16</v>
       </c>
-      <c r="C117" s="30">
+      <c r="C117" s="20">
         <v>4</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E117" s="30"/>
-      <c r="F117" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" s="32" t="s">
+      <c r="E117" s="20"/>
+      <c r="F117" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H117" s="30" t="s">
+      <c r="H117" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6961,23 +6982,23 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="30">
+      <c r="B118" s="20">
         <v>16</v>
       </c>
-      <c r="C118" s="30">
+      <c r="C118" s="20">
         <v>5</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E118" s="30"/>
-      <c r="F118" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118" s="32" t="s">
+      <c r="E118" s="20"/>
+      <c r="F118" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J118" s="7">
@@ -6988,23 +7009,23 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="30">
+      <c r="B119" s="20">
         <v>16</v>
       </c>
-      <c r="C119" s="30">
+      <c r="C119" s="20">
         <v>6</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E119" s="30"/>
-      <c r="F119" s="25" t="s">
+      <c r="E119" s="20"/>
+      <c r="F119" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G119" s="32" t="s">
+      <c r="G119" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="H119" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J119" s="7">
@@ -7015,23 +7036,23 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="30">
+      <c r="B120" s="20">
         <v>16</v>
       </c>
-      <c r="C120" s="30">
+      <c r="C120" s="20">
         <v>7</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="30"/>
-      <c r="F120" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G120" s="32" t="s">
+      <c r="E120" s="20"/>
+      <c r="F120" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H120" s="25" t="s">
+      <c r="H120" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J120" s="7">
@@ -7042,23 +7063,23 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="30">
+      <c r="B121" s="20">
         <v>16</v>
       </c>
-      <c r="C121" s="30">
+      <c r="C121" s="20">
         <v>8</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="25" t="s">
+      <c r="E121" s="20"/>
+      <c r="F121" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H121" s="30" t="s">
+      <c r="H121" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J121" s="7">
@@ -7069,21 +7090,21 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="30">
+      <c r="B122" s="20">
         <v>17</v>
       </c>
-      <c r="C122" s="30">
-        <v>1</v>
-      </c>
-      <c r="D122" s="31" t="s">
+      <c r="C122" s="20">
+        <v>1</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22" t="s">
         <v>202</v>
       </c>
       <c r="J122" s="7">
@@ -7094,21 +7115,21 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="30">
+      <c r="B123" s="20">
         <v>17</v>
       </c>
-      <c r="C123" s="30">
+      <c r="C123" s="20">
         <v>2</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32" t="s">
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22" t="s">
         <v>203</v>
       </c>
       <c r="J123" s="7">
@@ -7119,20 +7140,20 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="30">
+      <c r="B124" s="20">
         <v>17</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124" s="20">
         <v>3</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32" t="s">
+      <c r="G124" s="22"/>
+      <c r="H124" s="22" t="s">
         <v>204</v>
       </c>
       <c r="J124" s="7">
@@ -7143,23 +7164,23 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="30">
+      <c r="B125" s="20">
         <v>17</v>
       </c>
-      <c r="C125" s="30">
+      <c r="C125" s="20">
         <v>4</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="30"/>
-      <c r="F125" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" s="32" t="s">
+      <c r="E125" s="20"/>
+      <c r="F125" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H125" s="32" t="s">
+      <c r="H125" s="22" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7167,23 +7188,23 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="30">
+      <c r="B126" s="20">
         <v>17</v>
       </c>
-      <c r="C126" s="30">
+      <c r="C126" s="20">
         <v>5</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="30"/>
-      <c r="F126" s="36" t="s">
+      <c r="E126" s="20"/>
+      <c r="F126" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G126" s="32" t="s">
+      <c r="G126" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H126" s="25" t="s">
+      <c r="H126" s="16" t="s">
         <v>198</v>
       </c>
       <c r="J126" s="7">
@@ -7194,23 +7215,23 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="30">
+      <c r="B127" s="20">
         <v>17</v>
       </c>
-      <c r="C127" s="30">
+      <c r="C127" s="20">
         <v>6</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E127" s="30"/>
-      <c r="F127" s="36" t="s">
+      <c r="E127" s="20"/>
+      <c r="F127" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G127" s="32" t="s">
+      <c r="G127" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H127" s="16" t="s">
         <v>199</v>
       </c>
       <c r="J127" s="7">
@@ -7221,23 +7242,23 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="30">
+      <c r="B128" s="20">
         <v>17</v>
       </c>
-      <c r="C128" s="30">
+      <c r="C128" s="20">
         <v>7</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G128" s="32" t="s">
+      <c r="E128" s="20"/>
+      <c r="F128" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G128" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="16" t="s">
         <v>196</v>
       </c>
       <c r="J128" s="7">
@@ -7248,23 +7269,23 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="30">
+      <c r="B129" s="20">
         <v>17</v>
       </c>
-      <c r="C129" s="30">
+      <c r="C129" s="20">
         <v>8</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E129" s="30"/>
-      <c r="F129" s="36" t="s">
+      <c r="E129" s="20"/>
+      <c r="F129" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G129" s="32" t="s">
+      <c r="G129" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H129" s="32" t="s">
+      <c r="H129" s="22" t="s">
         <v>195</v>
       </c>
       <c r="J129" s="7">
@@ -7275,21 +7296,21 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="30">
+      <c r="B130" s="20">
         <v>18</v>
       </c>
-      <c r="C130" s="30">
-        <v>1</v>
-      </c>
-      <c r="D130" s="31" t="s">
+      <c r="C130" s="20">
+        <v>1</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="E130" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32" t="s">
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22" t="s">
         <v>202</v>
       </c>
       <c r="J130" s="7">
@@ -7300,21 +7321,21 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="30">
+      <c r="B131" s="20">
         <v>18</v>
       </c>
-      <c r="C131" s="30">
+      <c r="C131" s="20">
         <v>2</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32" t="s">
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22" t="s">
         <v>203</v>
       </c>
       <c r="J131" s="7">
@@ -7325,21 +7346,21 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="30">
+      <c r="B132" s="20">
         <v>18</v>
       </c>
-      <c r="C132" s="30">
+      <c r="C132" s="20">
         <v>3</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32" t="s">
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22" t="s">
         <v>204</v>
       </c>
       <c r="J132" s="7">
@@ -7350,23 +7371,23 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="30">
+      <c r="B133" s="20">
         <v>18</v>
       </c>
-      <c r="C133" s="30">
+      <c r="C133" s="20">
         <v>4</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="30"/>
-      <c r="F133" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" s="32" t="s">
+      <c r="E133" s="20"/>
+      <c r="F133" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G133" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H133" s="32" t="s">
+      <c r="H133" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7374,23 +7395,23 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="30">
+      <c r="B134" s="20">
         <v>18</v>
       </c>
-      <c r="C134" s="30">
+      <c r="C134" s="20">
         <v>5</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E134" s="30"/>
-      <c r="F134" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G134" s="32" t="s">
+      <c r="E134" s="20"/>
+      <c r="F134" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="16" t="s">
         <v>200</v>
       </c>
       <c r="J134" s="7">
@@ -7401,23 +7422,23 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="30">
+      <c r="B135" s="20">
         <v>18</v>
       </c>
-      <c r="C135" s="30">
+      <c r="C135" s="20">
         <v>6</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E135" s="30"/>
-      <c r="F135" s="25" t="s">
+      <c r="E135" s="20"/>
+      <c r="F135" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H135" s="25" t="s">
+      <c r="H135" s="16" t="s">
         <v>197</v>
       </c>
       <c r="J135" s="7">
@@ -7428,23 +7449,23 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="30">
+      <c r="B136" s="20">
         <v>18</v>
       </c>
-      <c r="C136" s="30">
+      <c r="C136" s="20">
         <v>7</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E136" s="30"/>
-      <c r="F136" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G136" s="32" t="s">
+      <c r="E136" s="20"/>
+      <c r="F136" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="16" t="s">
         <v>201</v>
       </c>
       <c r="J136" s="7">
@@ -7455,23 +7476,23 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="30">
+      <c r="B137" s="20">
         <v>18</v>
       </c>
-      <c r="C137" s="30">
+      <c r="C137" s="20">
         <v>8</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E137" s="30"/>
-      <c r="F137" s="25" t="s">
+      <c r="E137" s="20"/>
+      <c r="F137" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G137" s="32" t="s">
+      <c r="G137" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H137" s="32" t="s">
+      <c r="H137" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J137" s="7">
@@ -7482,21 +7503,21 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="30">
+      <c r="B138" s="20">
         <v>19</v>
       </c>
-      <c r="C138" s="30">
-        <v>1</v>
-      </c>
-      <c r="D138" s="31" t="s">
+      <c r="C138" s="20">
+        <v>1</v>
+      </c>
+      <c r="D138" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E138" s="30" t="s">
+      <c r="E138" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32" t="s">
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J138" s="7">
@@ -7507,21 +7528,21 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="30">
+      <c r="B139" s="20">
         <v>19</v>
       </c>
-      <c r="C139" s="30">
+      <c r="C139" s="20">
         <v>2</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32" t="s">
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J139" s="7">
@@ -7532,20 +7553,20 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="30">
+      <c r="B140" s="20">
         <v>19</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="20">
         <v>3</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32" t="s">
+      <c r="G140" s="22"/>
+      <c r="H140" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J140" s="7">
@@ -7556,23 +7577,23 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="30">
+      <c r="B141" s="20">
         <v>19</v>
       </c>
-      <c r="C141" s="30">
+      <c r="C141" s="20">
         <v>4</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E141" s="30"/>
-      <c r="F141" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="32" t="s">
+      <c r="E141" s="20"/>
+      <c r="F141" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H141" s="32" t="s">
+      <c r="H141" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7580,23 +7601,23 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="30">
+      <c r="B142" s="20">
         <v>19</v>
       </c>
-      <c r="C142" s="30">
+      <c r="C142" s="20">
         <v>5</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E142" s="30"/>
-      <c r="F142" s="36" t="s">
+      <c r="E142" s="20"/>
+      <c r="F142" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G142" s="32" t="s">
+      <c r="G142" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H142" s="25" t="s">
+      <c r="H142" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J142" s="7">
@@ -7607,23 +7628,23 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="30">
+      <c r="B143" s="20">
         <v>19</v>
       </c>
-      <c r="C143" s="30">
+      <c r="C143" s="20">
         <v>6</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E143" s="30"/>
-      <c r="F143" s="36" t="s">
+      <c r="E143" s="20"/>
+      <c r="F143" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G143" s="32" t="s">
+      <c r="G143" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H143" s="25" t="s">
+      <c r="H143" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J143" s="7">
@@ -7634,23 +7655,23 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="30">
+      <c r="B144" s="20">
         <v>19</v>
       </c>
-      <c r="C144" s="30">
+      <c r="C144" s="20">
         <v>7</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E144" s="30"/>
-      <c r="F144" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G144" s="32" t="s">
+      <c r="E144" s="20"/>
+      <c r="F144" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H144" s="25" t="s">
+      <c r="H144" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J144" s="7">
@@ -7661,23 +7682,23 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="30">
+      <c r="B145" s="20">
         <v>19</v>
       </c>
-      <c r="C145" s="30">
+      <c r="C145" s="20">
         <v>8</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E145" s="30"/>
-      <c r="F145" s="36" t="s">
+      <c r="E145" s="20"/>
+      <c r="F145" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="32" t="s">
+      <c r="G145" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H145" s="32" t="s">
+      <c r="H145" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J145" s="7">
@@ -7688,21 +7709,21 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="30">
+      <c r="B146" s="20">
         <v>20</v>
       </c>
-      <c r="C146" s="30">
-        <v>1</v>
-      </c>
-      <c r="D146" s="31" t="s">
+      <c r="C146" s="20">
+        <v>1</v>
+      </c>
+      <c r="D146" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E146" s="30" t="s">
+      <c r="E146" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32" t="s">
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J146" s="7">
@@ -7713,21 +7734,21 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="30">
+      <c r="B147" s="20">
         <v>20</v>
       </c>
-      <c r="C147" s="30">
+      <c r="C147" s="20">
         <v>2</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E147" s="30" t="s">
+      <c r="E147" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32" t="s">
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J147" s="7">
@@ -7738,21 +7759,21 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="30">
+      <c r="B148" s="20">
         <v>20</v>
       </c>
-      <c r="C148" s="30">
+      <c r="C148" s="20">
         <v>3</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32" t="s">
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J148" s="7">
@@ -7763,23 +7784,23 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="30">
+      <c r="B149" s="20">
         <v>20</v>
       </c>
-      <c r="C149" s="30">
+      <c r="C149" s="20">
         <v>4</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="32" t="s">
+      <c r="E149" s="20"/>
+      <c r="F149" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G149" s="32" t="s">
+      <c r="G149" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H149" s="32" t="s">
+      <c r="H149" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7787,23 +7808,23 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="30">
+      <c r="B150" s="20">
         <v>20</v>
       </c>
-      <c r="C150" s="30">
+      <c r="C150" s="20">
         <v>5</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E150" s="30"/>
-      <c r="F150" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" s="32" t="s">
+      <c r="E150" s="20"/>
+      <c r="F150" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G150" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H150" s="25" t="s">
+      <c r="H150" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J150" s="7">
@@ -7814,23 +7835,23 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="30">
+      <c r="B151" s="20">
         <v>20</v>
       </c>
-      <c r="C151" s="30">
+      <c r="C151" s="20">
         <v>6</v>
       </c>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="25" t="s">
+      <c r="E151" s="20"/>
+      <c r="F151" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="32" t="s">
+      <c r="G151" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H151" s="25" t="s">
+      <c r="H151" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J151" s="7">
@@ -7841,23 +7862,23 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="30">
+      <c r="B152" s="20">
         <v>20</v>
       </c>
-      <c r="C152" s="30">
+      <c r="C152" s="20">
         <v>7</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E152" s="30"/>
-      <c r="F152" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="32" t="s">
+      <c r="E152" s="20"/>
+      <c r="F152" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="H152" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J152" s="7">
@@ -7868,23 +7889,23 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="30">
+      <c r="B153" s="20">
         <v>20</v>
       </c>
-      <c r="C153" s="30">
+      <c r="C153" s="20">
         <v>8</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E153" s="30"/>
-      <c r="F153" s="25" t="s">
+      <c r="E153" s="20"/>
+      <c r="F153" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G153" s="32" t="s">
+      <c r="G153" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H153" s="32" t="s">
+      <c r="H153" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J153" s="7">
@@ -7895,23 +7916,23 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="30">
+      <c r="B154" s="20">
         <v>21</v>
       </c>
-      <c r="C154" s="30">
-        <v>1</v>
-      </c>
-      <c r="D154" s="31" t="s">
+      <c r="C154" s="20">
+        <v>1</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E154" s="30"/>
-      <c r="F154" s="32" t="s">
+      <c r="E154" s="20"/>
+      <c r="F154" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G154" s="32" t="s">
+      <c r="G154" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H154" s="30" t="s">
+      <c r="H154" s="20" t="s">
         <v>227</v>
       </c>
       <c r="J154" s="7">
@@ -7922,23 +7943,23 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="30">
+      <c r="B155" s="20">
         <v>22</v>
       </c>
-      <c r="C155" s="30">
-        <v>1</v>
-      </c>
-      <c r="D155" s="31" t="s">
+      <c r="C155" s="20">
+        <v>1</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E155" s="30"/>
-      <c r="F155" s="32" t="s">
+      <c r="E155" s="20"/>
+      <c r="F155" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G155" s="32" t="s">
+      <c r="G155" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H155" s="30" t="s">
+      <c r="H155" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J155" s="7">
@@ -7949,23 +7970,23 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="30">
+      <c r="B156" s="20">
         <v>23</v>
       </c>
-      <c r="C156" s="30">
-        <v>1</v>
-      </c>
-      <c r="D156" s="31" t="s">
+      <c r="C156" s="20">
+        <v>1</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E156" s="30"/>
-      <c r="F156" s="32" t="s">
+      <c r="E156" s="20"/>
+      <c r="F156" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G156" s="32" t="s">
+      <c r="G156" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="30" t="s">
+      <c r="H156" s="20" t="s">
         <v>229</v>
       </c>
       <c r="J156" s="7">
@@ -7976,23 +7997,23 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="30">
+      <c r="B157" s="20">
         <v>24</v>
       </c>
-      <c r="C157" s="30">
-        <v>1</v>
-      </c>
-      <c r="D157" s="31" t="s">
+      <c r="C157" s="20">
+        <v>1</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E157" s="30"/>
-      <c r="F157" s="32" t="s">
+      <c r="E157" s="20"/>
+      <c r="F157" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G157" s="32" t="s">
+      <c r="G157" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H157" s="30" t="s">
+      <c r="H157" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J157" s="7">
@@ -8003,23 +8024,23 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="30">
+      <c r="B158" s="20">
         <v>25</v>
       </c>
-      <c r="C158" s="30">
-        <v>1</v>
-      </c>
-      <c r="D158" s="31" t="s">
+      <c r="C158" s="20">
+        <v>1</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E158" s="30"/>
-      <c r="F158" s="32" t="s">
+      <c r="E158" s="20"/>
+      <c r="F158" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G158" s="32" t="s">
+      <c r="G158" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="H158" s="30" t="s">
+      <c r="H158" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J158" s="7">
@@ -8030,23 +8051,23 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="30">
+      <c r="B159" s="20">
         <v>26</v>
       </c>
-      <c r="C159" s="30">
-        <v>1</v>
-      </c>
-      <c r="D159" s="31" t="s">
+      <c r="C159" s="20">
+        <v>1</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E159" s="30"/>
-      <c r="F159" s="32" t="s">
+      <c r="E159" s="20"/>
+      <c r="F159" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G159" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="H159" s="30" t="s">
+      <c r="H159" s="20" t="s">
         <v>238</v>
       </c>
       <c r="J159" s="7">
@@ -8057,23 +8078,23 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="30">
+      <c r="B160" s="20">
         <v>27</v>
       </c>
-      <c r="C160" s="30">
-        <v>1</v>
-      </c>
-      <c r="D160" s="31" t="s">
+      <c r="C160" s="20">
+        <v>1</v>
+      </c>
+      <c r="D160" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E160" s="30"/>
-      <c r="F160" s="32" t="s">
+      <c r="E160" s="20"/>
+      <c r="F160" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G160" s="32" t="s">
+      <c r="G160" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H160" s="30" t="s">
+      <c r="H160" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J160" s="7">
@@ -8084,23 +8105,23 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="30">
+      <c r="B161" s="20">
         <v>28</v>
       </c>
-      <c r="C161" s="30">
-        <v>1</v>
-      </c>
-      <c r="D161" s="31" t="s">
+      <c r="C161" s="20">
+        <v>1</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E161" s="30"/>
-      <c r="F161" s="32" t="s">
+      <c r="E161" s="20"/>
+      <c r="F161" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G161" s="32" t="s">
+      <c r="G161" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H161" s="30" t="s">
+      <c r="H161" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J161" s="7">
@@ -8111,23 +8132,23 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="30">
+      <c r="B162" s="20">
         <v>29</v>
       </c>
-      <c r="C162" s="30">
-        <v>1</v>
-      </c>
-      <c r="D162" s="31" t="s">
+      <c r="C162" s="20">
+        <v>1</v>
+      </c>
+      <c r="D162" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E162" s="30"/>
-      <c r="F162" s="32" t="s">
+      <c r="E162" s="20"/>
+      <c r="F162" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G162" s="32" t="s">
+      <c r="G162" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H162" s="30" t="s">
+      <c r="H162" s="20" t="s">
         <v>229</v>
       </c>
       <c r="J162" s="7">
@@ -8138,21 +8159,21 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="30">
+      <c r="B163" s="20">
         <v>30</v>
       </c>
-      <c r="C163" s="30">
-        <v>1</v>
-      </c>
-      <c r="D163" s="31" t="s">
+      <c r="C163" s="20">
+        <v>1</v>
+      </c>
+      <c r="D163" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="30" t="s">
+      <c r="E163" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32" t="s">
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J163" s="7">
@@ -8163,21 +8184,21 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="30">
+      <c r="B164" s="20">
         <v>30</v>
       </c>
-      <c r="C164" s="30">
+      <c r="C164" s="20">
         <v>2</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="E164" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32" t="s">
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J164" s="7">
@@ -8188,20 +8209,20 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="30">
+      <c r="B165" s="20">
         <v>30</v>
       </c>
-      <c r="C165" s="30">
+      <c r="C165" s="20">
         <v>3</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E165" s="30" t="s">
+      <c r="E165" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32" t="s">
+      <c r="G165" s="22"/>
+      <c r="H165" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J165" s="7">
@@ -8212,23 +8233,23 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="30">
+      <c r="B166" s="20">
         <v>30</v>
       </c>
-      <c r="C166" s="30">
+      <c r="C166" s="20">
         <v>4</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E166" s="30"/>
-      <c r="F166" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G166" s="32" t="s">
+      <c r="E166" s="20"/>
+      <c r="F166" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H166" s="32" t="s">
+      <c r="H166" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8236,23 +8257,23 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="30">
+      <c r="B167" s="20">
         <v>30</v>
       </c>
-      <c r="C167" s="30">
+      <c r="C167" s="20">
         <v>5</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E167" s="30"/>
-      <c r="F167" s="36" t="s">
+      <c r="E167" s="20"/>
+      <c r="F167" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G167" s="32" t="s">
+      <c r="G167" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H167" s="25" t="s">
+      <c r="H167" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J167" s="7">
@@ -8263,23 +8284,23 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="30">
+      <c r="B168" s="20">
         <v>30</v>
       </c>
-      <c r="C168" s="30">
+      <c r="C168" s="20">
         <v>6</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E168" s="30"/>
-      <c r="F168" s="36" t="s">
+      <c r="E168" s="20"/>
+      <c r="F168" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H168" s="25" t="s">
+      <c r="H168" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J168" s="7">
@@ -8290,23 +8311,23 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="30">
+      <c r="B169" s="20">
         <v>30</v>
       </c>
-      <c r="C169" s="30">
+      <c r="C169" s="20">
         <v>7</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E169" s="30"/>
-      <c r="F169" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G169" s="32" t="s">
+      <c r="E169" s="20"/>
+      <c r="F169" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H169" s="25" t="s">
+      <c r="H169" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J169" s="7">
@@ -8317,23 +8338,23 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="30">
+      <c r="B170" s="20">
         <v>30</v>
       </c>
-      <c r="C170" s="30">
+      <c r="C170" s="20">
         <v>8</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D170" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E170" s="30"/>
-      <c r="F170" s="36" t="s">
+      <c r="E170" s="20"/>
+      <c r="F170" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G170" s="32" t="s">
+      <c r="G170" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H170" s="32" t="s">
+      <c r="H170" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J170" s="7">
@@ -8344,21 +8365,21 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="30">
+      <c r="B171" s="20">
         <v>31</v>
       </c>
-      <c r="C171" s="30">
-        <v>1</v>
-      </c>
-      <c r="D171" s="31" t="s">
+      <c r="C171" s="20">
+        <v>1</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32" t="s">
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J171" s="7">
@@ -8369,21 +8390,21 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="30">
+      <c r="B172" s="20">
         <v>31</v>
       </c>
-      <c r="C172" s="30">
+      <c r="C172" s="20">
         <v>2</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="D172" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E172" s="30" t="s">
+      <c r="E172" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32" t="s">
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J172" s="7">
@@ -8394,21 +8415,21 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="30">
+      <c r="B173" s="20">
         <v>31</v>
       </c>
-      <c r="C173" s="30">
+      <c r="C173" s="20">
         <v>3</v>
       </c>
-      <c r="D173" s="31" t="s">
+      <c r="D173" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="32" t="s">
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J173" s="7">
@@ -8419,23 +8440,23 @@
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="30">
+      <c r="B174" s="20">
         <v>31</v>
       </c>
-      <c r="C174" s="30">
+      <c r="C174" s="20">
         <v>4</v>
       </c>
-      <c r="D174" s="31" t="s">
+      <c r="D174" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E174" s="30"/>
-      <c r="F174" s="32" t="s">
+      <c r="E174" s="20"/>
+      <c r="F174" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G174" s="32" t="s">
+      <c r="G174" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H174" s="32" t="s">
+      <c r="H174" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8443,23 +8464,23 @@
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="30">
+      <c r="B175" s="20">
         <v>31</v>
       </c>
-      <c r="C175" s="30">
+      <c r="C175" s="20">
         <v>5</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="D175" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E175" s="30"/>
-      <c r="F175" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G175" s="32" t="s">
+      <c r="E175" s="20"/>
+      <c r="F175" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H175" s="25" t="s">
+      <c r="H175" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J175" s="7">
@@ -8470,23 +8491,23 @@
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="30">
+      <c r="B176" s="20">
         <v>31</v>
       </c>
-      <c r="C176" s="30">
+      <c r="C176" s="20">
         <v>6</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E176" s="30"/>
-      <c r="F176" s="25" t="s">
+      <c r="E176" s="20"/>
+      <c r="F176" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G176" s="32" t="s">
+      <c r="G176" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H176" s="25" t="s">
+      <c r="H176" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J176" s="7">
@@ -8497,23 +8518,23 @@
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="30">
+      <c r="B177" s="20">
         <v>31</v>
       </c>
-      <c r="C177" s="30">
+      <c r="C177" s="20">
         <v>7</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="D177" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E177" s="30"/>
-      <c r="F177" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" s="32" t="s">
+      <c r="E177" s="20"/>
+      <c r="F177" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H177" s="25" t="s">
+      <c r="H177" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J177" s="7">
@@ -8524,23 +8545,23 @@
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="30">
+      <c r="B178" s="20">
         <v>31</v>
       </c>
-      <c r="C178" s="30">
+      <c r="C178" s="20">
         <v>8</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D178" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E178" s="30"/>
-      <c r="F178" s="25" t="s">
+      <c r="E178" s="20"/>
+      <c r="F178" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G178" s="32" t="s">
+      <c r="G178" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H178" s="32" t="s">
+      <c r="H178" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J178" s="7">
@@ -8551,21 +8572,21 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="30">
+      <c r="B179" s="20">
         <v>32</v>
       </c>
-      <c r="C179" s="30">
-        <v>1</v>
-      </c>
-      <c r="D179" s="31" t="s">
+      <c r="C179" s="20">
+        <v>1</v>
+      </c>
+      <c r="D179" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E179" s="30" t="s">
+      <c r="E179" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F179" s="32"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="32" t="s">
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J179" s="7">
@@ -8576,21 +8597,21 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="30">
+      <c r="B180" s="20">
         <v>32</v>
       </c>
-      <c r="C180" s="30">
+      <c r="C180" s="20">
         <v>2</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="D180" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="E180" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F180" s="32"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32" t="s">
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J180" s="7">
@@ -8601,20 +8622,20 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="30">
+      <c r="B181" s="20">
         <v>32</v>
       </c>
-      <c r="C181" s="30">
+      <c r="C181" s="20">
         <v>3</v>
       </c>
-      <c r="D181" s="31" t="s">
+      <c r="D181" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E181" s="30" t="s">
+      <c r="E181" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G181" s="32"/>
-      <c r="H181" s="32" t="s">
+      <c r="G181" s="22"/>
+      <c r="H181" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J181" s="7">
@@ -8625,23 +8646,23 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="30">
+      <c r="B182" s="20">
         <v>32</v>
       </c>
-      <c r="C182" s="30">
+      <c r="C182" s="20">
         <v>4</v>
       </c>
-      <c r="D182" s="31" t="s">
+      <c r="D182" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E182" s="30"/>
-      <c r="F182" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G182" s="32" t="s">
+      <c r="E182" s="20"/>
+      <c r="F182" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G182" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H182" s="32" t="s">
+      <c r="H182" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8649,23 +8670,23 @@
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="30">
+      <c r="B183" s="20">
         <v>32</v>
       </c>
-      <c r="C183" s="30">
+      <c r="C183" s="20">
         <v>5</v>
       </c>
-      <c r="D183" s="31" t="s">
+      <c r="D183" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E183" s="30"/>
-      <c r="F183" s="36" t="s">
+      <c r="E183" s="20"/>
+      <c r="F183" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G183" s="32" t="s">
+      <c r="G183" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H183" s="25" t="s">
+      <c r="H183" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J183" s="7">
@@ -8676,23 +8697,23 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="30">
+      <c r="B184" s="20">
         <v>32</v>
       </c>
-      <c r="C184" s="30">
+      <c r="C184" s="20">
         <v>6</v>
       </c>
-      <c r="D184" s="31" t="s">
+      <c r="D184" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E184" s="30"/>
-      <c r="F184" s="36" t="s">
+      <c r="E184" s="20"/>
+      <c r="F184" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G184" s="32" t="s">
+      <c r="G184" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H184" s="25" t="s">
+      <c r="H184" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J184" s="7">
@@ -8703,23 +8724,23 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="30">
+      <c r="B185" s="20">
         <v>32</v>
       </c>
-      <c r="C185" s="30">
+      <c r="C185" s="20">
         <v>7</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E185" s="30"/>
-      <c r="F185" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G185" s="32" t="s">
+      <c r="E185" s="20"/>
+      <c r="F185" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H185" s="25" t="s">
+      <c r="H185" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J185" s="7">
@@ -8730,23 +8751,23 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="30">
+      <c r="B186" s="20">
         <v>32</v>
       </c>
-      <c r="C186" s="30">
+      <c r="C186" s="20">
         <v>8</v>
       </c>
-      <c r="D186" s="31" t="s">
+      <c r="D186" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E186" s="30"/>
-      <c r="F186" s="36" t="s">
+      <c r="E186" s="20"/>
+      <c r="F186" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G186" s="32" t="s">
+      <c r="G186" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H186" s="32" t="s">
+      <c r="H186" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J186" s="7">
@@ -8757,21 +8778,21 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="30">
+      <c r="B187" s="20">
         <v>33</v>
       </c>
-      <c r="C187" s="30">
-        <v>1</v>
-      </c>
-      <c r="D187" s="31" t="s">
+      <c r="C187" s="20">
+        <v>1</v>
+      </c>
+      <c r="D187" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E187" s="30" t="s">
+      <c r="E187" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="32" t="s">
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J187" s="7">
@@ -8782,21 +8803,21 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="30">
+      <c r="B188" s="20">
         <v>33</v>
       </c>
-      <c r="C188" s="30">
+      <c r="C188" s="20">
         <v>2</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E188" s="30" t="s">
+      <c r="E188" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32" t="s">
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J188" s="7">
@@ -8807,21 +8828,21 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="30">
+      <c r="B189" s="20">
         <v>33</v>
       </c>
-      <c r="C189" s="30">
+      <c r="C189" s="20">
         <v>3</v>
       </c>
-      <c r="D189" s="31" t="s">
+      <c r="D189" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E189" s="30" t="s">
+      <c r="E189" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32" t="s">
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J189" s="7">
@@ -8832,23 +8853,23 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="30">
+      <c r="B190" s="20">
         <v>33</v>
       </c>
-      <c r="C190" s="30">
+      <c r="C190" s="20">
         <v>4</v>
       </c>
-      <c r="D190" s="31" t="s">
+      <c r="D190" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E190" s="30"/>
-      <c r="F190" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G190" s="32" t="s">
+      <c r="E190" s="20"/>
+      <c r="F190" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H190" s="32" t="s">
+      <c r="H190" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8856,23 +8877,23 @@
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="30">
+      <c r="B191" s="20">
         <v>33</v>
       </c>
-      <c r="C191" s="30">
+      <c r="C191" s="20">
         <v>5</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="D191" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E191" s="30"/>
-      <c r="F191" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G191" s="32" t="s">
+      <c r="E191" s="20"/>
+      <c r="F191" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H191" s="25" t="s">
+      <c r="H191" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J191" s="7">
@@ -8883,23 +8904,23 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="30">
+      <c r="B192" s="20">
         <v>33</v>
       </c>
-      <c r="C192" s="30">
+      <c r="C192" s="20">
         <v>6</v>
       </c>
-      <c r="D192" s="31" t="s">
+      <c r="D192" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E192" s="30"/>
-      <c r="F192" s="25" t="s">
+      <c r="E192" s="20"/>
+      <c r="F192" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G192" s="32" t="s">
+      <c r="G192" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H192" s="25" t="s">
+      <c r="H192" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J192" s="7">
@@ -8910,23 +8931,23 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="30">
+      <c r="B193" s="20">
         <v>33</v>
       </c>
-      <c r="C193" s="30">
+      <c r="C193" s="20">
         <v>7</v>
       </c>
-      <c r="D193" s="31" t="s">
+      <c r="D193" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E193" s="30"/>
-      <c r="F193" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G193" s="32" t="s">
+      <c r="E193" s="20"/>
+      <c r="F193" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H193" s="25" t="s">
+      <c r="H193" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J193" s="7">
@@ -8937,23 +8958,23 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="30">
+      <c r="B194" s="20">
         <v>33</v>
       </c>
-      <c r="C194" s="30">
+      <c r="C194" s="20">
         <v>8</v>
       </c>
-      <c r="D194" s="31" t="s">
+      <c r="D194" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E194" s="30"/>
-      <c r="F194" s="25" t="s">
+      <c r="E194" s="20"/>
+      <c r="F194" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G194" s="32" t="s">
+      <c r="G194" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H194" s="32" t="s">
+      <c r="H194" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J194" s="7">
@@ -8964,25 +8985,24 @@
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="45">
+      <c r="B195" s="15">
         <v>34</v>
       </c>
-      <c r="C195" s="30">
+      <c r="C195" s="20">
         <v>2</v>
       </c>
-      <c r="D195" s="33" t="s">
+      <c r="D195" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19" t="s">
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I195" s="16"/>
-      <c r="J195" s="16">
+      <c r="J195" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8990,25 +9010,24 @@
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="45">
+      <c r="B196" s="15">
         <v>34</v>
       </c>
-      <c r="C196" s="30">
+      <c r="C196" s="20">
         <v>4</v>
       </c>
-      <c r="D196" s="33" t="s">
+      <c r="D196" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19" t="s">
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="I196" s="16"/>
-      <c r="J196" s="16">
+      <c r="J196" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9016,27 +9035,26 @@
       <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="45">
+      <c r="B197" s="15">
         <v>34</v>
       </c>
-      <c r="C197" s="30">
+      <c r="C197" s="20">
         <v>6</v>
       </c>
-      <c r="D197" s="33" t="s">
+      <c r="D197" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E197" s="18"/>
-      <c r="F197" s="53" t="s">
+      <c r="E197" s="20"/>
+      <c r="F197" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G197" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H197" s="19" t="s">
+      <c r="G197" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H197" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I197" s="16"/>
-      <c r="J197" s="16">
+      <c r="J197" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9044,53 +9062,50 @@
       <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="45">
+      <c r="B198" s="15">
         <v>34</v>
       </c>
-      <c r="C198" s="30">
-        <v>1</v>
-      </c>
-      <c r="D198" s="33" t="s">
+      <c r="C198" s="20">
+        <v>1</v>
+      </c>
+      <c r="D198" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E198" s="18"/>
-      <c r="F198" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G198" s="19" t="s">
+      <c r="E198" s="20"/>
+      <c r="F198" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H198" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="I198" s="16"/>
-      <c r="J198" s="16"/>
+      <c r="H198" s="22" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="45">
+      <c r="B199" s="15">
         <v>34</v>
       </c>
-      <c r="C199" s="30">
+      <c r="C199" s="20">
         <v>3</v>
       </c>
-      <c r="D199" s="33" t="s">
+      <c r="D199" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E199" s="18"/>
-      <c r="F199" s="37" t="s">
+      <c r="E199" s="20"/>
+      <c r="F199" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G199" s="19" t="s">
+      <c r="G199" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H199" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I199" s="16"/>
-      <c r="J199" s="16">
+      <c r="H199" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J199" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9098,27 +9113,26 @@
       <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" s="45">
+      <c r="B200" s="15">
         <v>34</v>
       </c>
-      <c r="C200" s="30">
+      <c r="C200" s="20">
         <v>5</v>
       </c>
-      <c r="D200" s="33" t="s">
+      <c r="D200" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E200" s="18"/>
-      <c r="F200" s="37" t="s">
+      <c r="E200" s="20"/>
+      <c r="F200" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G200" s="19" t="s">
+      <c r="G200" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H200" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="I200" s="16"/>
-      <c r="J200" s="16">
+      <c r="H200" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J200" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9126,27 +9140,26 @@
       <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="45">
+      <c r="B201" s="15">
         <v>34</v>
       </c>
-      <c r="C201" s="30">
+      <c r="C201" s="20">
         <v>7</v>
       </c>
-      <c r="D201" s="33" t="s">
+      <c r="D201" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E201" s="18"/>
-      <c r="F201" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G201" s="19" t="s">
+      <c r="E201" s="20"/>
+      <c r="F201" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H201" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="I201" s="16"/>
-      <c r="J201" s="16">
+      <c r="H201" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J201" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9154,27 +9167,26 @@
       <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="45">
+      <c r="B202" s="15">
         <v>34</v>
       </c>
-      <c r="C202" s="30">
+      <c r="C202" s="20">
         <v>8</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="D202" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E202" s="18"/>
-      <c r="F202" s="37" t="s">
+      <c r="E202" s="20"/>
+      <c r="F202" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G202" s="19" t="s">
+      <c r="G202" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H202" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I202" s="16"/>
-      <c r="J202" s="16">
+      <c r="H202" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="J202" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9182,25 +9194,24 @@
       <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" s="34">
+      <c r="B203" s="15">
         <v>35</v>
       </c>
-      <c r="C203" s="30">
+      <c r="C203" s="20">
         <v>2</v>
       </c>
-      <c r="D203" s="22" t="s">
+      <c r="D203" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="23" t="s">
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I203" s="20"/>
-      <c r="J203" s="20">
+      <c r="J203" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9208,25 +9219,24 @@
       <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" s="34">
+      <c r="B204" s="15">
         <v>35</v>
       </c>
-      <c r="C204" s="30">
+      <c r="C204" s="20">
         <v>4</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="D204" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F204" s="23"/>
-      <c r="G204" s="23"/>
-      <c r="H204" s="23" t="s">
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="I204" s="20"/>
-      <c r="J204" s="20">
+      <c r="J204" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9234,27 +9244,26 @@
       <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" s="34">
+      <c r="B205" s="15">
         <v>35</v>
       </c>
-      <c r="C205" s="30">
+      <c r="C205" s="20">
         <v>6</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E205" s="21"/>
-      <c r="F205" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="G205" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="H205" s="23" t="s">
+      <c r="E205" s="20"/>
+      <c r="F205" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G205" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H205" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I205" s="20"/>
-      <c r="J205" s="20">
+      <c r="J205" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9262,53 +9271,50 @@
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="34">
+      <c r="B206" s="15">
         <v>35</v>
       </c>
-      <c r="C206" s="30">
-        <v>1</v>
-      </c>
-      <c r="D206" s="22" t="s">
+      <c r="C206" s="20">
+        <v>1</v>
+      </c>
+      <c r="D206" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E206" s="21"/>
-      <c r="F206" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G206" s="23" t="s">
+      <c r="E206" s="20"/>
+      <c r="F206" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G206" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H206" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="I206" s="20"/>
-      <c r="J206" s="20"/>
+      <c r="H206" s="22" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
       <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" s="34">
+      <c r="B207" s="15">
         <v>35</v>
       </c>
-      <c r="C207" s="30">
+      <c r="C207" s="20">
         <v>3</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="D207" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E207" s="21"/>
-      <c r="F207" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G207" s="23" t="s">
+      <c r="E207" s="20"/>
+      <c r="F207" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G207" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H207" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="I207" s="20"/>
-      <c r="J207" s="20">
+      <c r="H207" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J207" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9316,27 +9322,26 @@
       <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="34">
+      <c r="B208" s="15">
         <v>35</v>
       </c>
-      <c r="C208" s="30">
+      <c r="C208" s="20">
         <v>5</v>
       </c>
-      <c r="D208" s="22" t="s">
+      <c r="D208" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E208" s="21"/>
-      <c r="F208" s="24" t="s">
+      <c r="E208" s="20"/>
+      <c r="F208" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G208" s="23" t="s">
+      <c r="G208" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H208" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="I208" s="20"/>
-      <c r="J208" s="20">
+      <c r="H208" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J208" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9344,27 +9349,26 @@
       <c r="A209" s="7">
         <v>208</v>
       </c>
-      <c r="B209" s="34">
+      <c r="B209" s="15">
         <v>35</v>
       </c>
-      <c r="C209" s="30">
+      <c r="C209" s="20">
         <v>7</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D209" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E209" s="21"/>
-      <c r="F209" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G209" s="23" t="s">
+      <c r="E209" s="20"/>
+      <c r="F209" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H209" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20">
+      <c r="H209" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J209" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9372,27 +9376,26 @@
       <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" s="34">
+      <c r="B210" s="15">
         <v>35</v>
       </c>
-      <c r="C210" s="30">
+      <c r="C210" s="20">
         <v>8</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="D210" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E210" s="21"/>
-      <c r="F210" s="24" t="s">
+      <c r="E210" s="20"/>
+      <c r="F210" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G210" s="23" t="s">
+      <c r="G210" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H210" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20">
+      <c r="H210" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="J210" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9400,27 +9403,26 @@
       <c r="A211" s="7">
         <v>210</v>
       </c>
-      <c r="B211" s="62">
+      <c r="B211" s="20">
         <v>36</v>
       </c>
-      <c r="C211" s="62">
-        <v>1</v>
-      </c>
-      <c r="D211" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E211" s="62"/>
-      <c r="F211" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G211" s="64" t="s">
+      <c r="C211" s="20">
+        <v>1</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E211" s="20"/>
+      <c r="F211" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H211" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="I211" s="57"/>
-      <c r="J211" s="57">
+      <c r="H211" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="J211" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9428,27 +9430,26 @@
       <c r="A212" s="7">
         <v>211</v>
       </c>
-      <c r="B212" s="62">
+      <c r="B212" s="20">
         <v>36</v>
       </c>
-      <c r="C212" s="62">
+      <c r="C212" s="20">
         <v>2</v>
       </c>
-      <c r="D212" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E212" s="62"/>
-      <c r="F212" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G212" s="64" t="s">
+      <c r="D212" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E212" s="20"/>
+      <c r="F212" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G212" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H212" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="I212" s="57"/>
-      <c r="J212" s="57">
+      <c r="H212" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="J212" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9456,27 +9457,26 @@
       <c r="A213" s="7">
         <v>212</v>
       </c>
-      <c r="B213" s="62">
+      <c r="B213" s="20">
         <v>36</v>
       </c>
-      <c r="C213" s="62">
+      <c r="C213" s="20">
         <v>3</v>
       </c>
-      <c r="D213" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="E213" s="62"/>
-      <c r="F213" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G213" s="64" t="s">
+      <c r="D213" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E213" s="20"/>
+      <c r="F213" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H213" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="I213" s="57"/>
-      <c r="J213" s="57">
+      <c r="H213" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="J213" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9484,27 +9484,26 @@
       <c r="A214" s="7">
         <v>213</v>
       </c>
-      <c r="B214" s="62">
+      <c r="B214" s="20">
         <v>37</v>
       </c>
-      <c r="C214" s="62">
-        <v>1</v>
-      </c>
-      <c r="D214" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="E214" s="62"/>
-      <c r="F214" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G214" s="64" t="s">
+      <c r="C214" s="20">
+        <v>1</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E214" s="20"/>
+      <c r="F214" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H214" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="I214" s="57"/>
-      <c r="J214" s="57">
+      <c r="H214" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J214" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9512,27 +9511,26 @@
       <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="B215" s="62">
+      <c r="B215" s="20">
         <v>37</v>
       </c>
-      <c r="C215" s="62">
+      <c r="C215" s="20">
         <v>2</v>
       </c>
-      <c r="D215" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E215" s="62"/>
-      <c r="F215" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G215" s="64" t="s">
+      <c r="D215" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E215" s="20"/>
+      <c r="F215" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H215" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="I215" s="57"/>
-      <c r="J215" s="57">
+      <c r="H215" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J215" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9540,27 +9538,26 @@
       <c r="A216" s="7">
         <v>215</v>
       </c>
-      <c r="B216" s="62">
+      <c r="B216" s="20">
         <v>37</v>
       </c>
-      <c r="C216" s="62">
+      <c r="C216" s="20">
         <v>3</v>
       </c>
-      <c r="D216" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="E216" s="62"/>
-      <c r="F216" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G216" s="64" t="s">
+      <c r="D216" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E216" s="20"/>
+      <c r="F216" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G216" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H216" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="I216" s="57"/>
-      <c r="J216" s="57">
+      <c r="H216" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J216" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9568,27 +9565,26 @@
       <c r="A217" s="7">
         <v>216</v>
       </c>
-      <c r="B217" s="62">
+      <c r="B217" s="20">
         <v>38</v>
       </c>
-      <c r="C217" s="62">
-        <v>1</v>
-      </c>
-      <c r="D217" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E217" s="62"/>
-      <c r="F217" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G217" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="H217" s="62" t="s">
+      <c r="C217" s="20">
+        <v>1</v>
+      </c>
+      <c r="D217" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E217" s="20"/>
+      <c r="F217" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G217" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H217" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I217" s="57"/>
-      <c r="J217" s="57">
+      <c r="J217" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9596,27 +9592,26 @@
       <c r="A218" s="7">
         <v>217</v>
       </c>
-      <c r="B218" s="62">
+      <c r="B218" s="20">
         <v>38</v>
       </c>
-      <c r="C218" s="62">
+      <c r="C218" s="20">
         <v>2</v>
       </c>
-      <c r="D218" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E218" s="62"/>
-      <c r="F218" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G218" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H218" s="62" t="s">
+      <c r="D218" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E218" s="20"/>
+      <c r="F218" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H218" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I218" s="57"/>
-      <c r="J218" s="57">
+      <c r="J218" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9624,27 +9619,26 @@
       <c r="A219" s="7">
         <v>218</v>
       </c>
-      <c r="B219" s="62">
+      <c r="B219" s="20">
         <v>38</v>
       </c>
-      <c r="C219" s="62">
+      <c r="C219" s="20">
         <v>3</v>
       </c>
-      <c r="D219" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="E219" s="62"/>
-      <c r="F219" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G219" s="64" t="s">
+      <c r="D219" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E219" s="20"/>
+      <c r="F219" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H219" s="62" t="s">
+      <c r="H219" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I219" s="57"/>
-      <c r="J219" s="57">
+      <c r="J219" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9652,21 +9646,21 @@
       <c r="A220" s="7">
         <v>219</v>
       </c>
-      <c r="B220" s="30">
+      <c r="B220" s="20">
         <v>39</v>
       </c>
-      <c r="C220" s="30">
-        <v>1</v>
-      </c>
-      <c r="D220" s="31" t="s">
+      <c r="C220" s="20">
+        <v>1</v>
+      </c>
+      <c r="D220" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E220" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="32" t="s">
+      <c r="E220" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J220" s="7">
@@ -9677,21 +9671,21 @@
       <c r="A221" s="7">
         <v>220</v>
       </c>
-      <c r="B221" s="30">
+      <c r="B221" s="20">
         <v>39</v>
       </c>
-      <c r="C221" s="30">
+      <c r="C221" s="20">
         <v>2</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D221" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E221" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F221" s="32"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="32" t="s">
+      <c r="E221" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J221" s="7">
@@ -9702,20 +9696,20 @@
       <c r="A222" s="7">
         <v>221</v>
       </c>
-      <c r="B222" s="30">
+      <c r="B222" s="20">
         <v>39</v>
       </c>
-      <c r="C222" s="30">
+      <c r="C222" s="20">
         <v>3</v>
       </c>
-      <c r="D222" s="31" t="s">
+      <c r="D222" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E222" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="G222" s="32"/>
-      <c r="H222" s="32" t="s">
+      <c r="E222" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G222" s="22"/>
+      <c r="H222" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J222" s="7">
@@ -9726,23 +9720,23 @@
       <c r="A223" s="7">
         <v>222</v>
       </c>
-      <c r="B223" s="30">
+      <c r="B223" s="20">
         <v>39</v>
       </c>
-      <c r="C223" s="30">
+      <c r="C223" s="20">
         <v>4</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E223" s="30"/>
-      <c r="F223" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G223" s="32" t="s">
+      <c r="E223" s="20"/>
+      <c r="F223" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H223" s="32" t="s">
+      <c r="H223" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9750,23 +9744,23 @@
       <c r="A224" s="7">
         <v>223</v>
       </c>
-      <c r="B224" s="30">
+      <c r="B224" s="20">
         <v>39</v>
       </c>
-      <c r="C224" s="30">
+      <c r="C224" s="20">
         <v>5</v>
       </c>
-      <c r="D224" s="31" t="s">
+      <c r="D224" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E224" s="30"/>
-      <c r="F224" s="36" t="s">
+      <c r="E224" s="20"/>
+      <c r="F224" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G224" s="32" t="s">
+      <c r="G224" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H224" s="25" t="s">
+      <c r="H224" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J224" s="7">
@@ -9777,23 +9771,23 @@
       <c r="A225" s="7">
         <v>224</v>
       </c>
-      <c r="B225" s="30">
+      <c r="B225" s="20">
         <v>39</v>
       </c>
-      <c r="C225" s="30">
+      <c r="C225" s="20">
         <v>6</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E225" s="30"/>
-      <c r="F225" s="36" t="s">
+      <c r="E225" s="20"/>
+      <c r="F225" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G225" s="32" t="s">
+      <c r="G225" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H225" s="25" t="s">
+      <c r="H225" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J225" s="7">
@@ -9804,23 +9798,23 @@
       <c r="A226" s="7">
         <v>225</v>
       </c>
-      <c r="B226" s="30">
+      <c r="B226" s="20">
         <v>39</v>
       </c>
-      <c r="C226" s="30">
+      <c r="C226" s="20">
         <v>7</v>
       </c>
-      <c r="D226" s="31" t="s">
+      <c r="D226" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E226" s="30"/>
-      <c r="F226" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G226" s="32" t="s">
+      <c r="E226" s="20"/>
+      <c r="F226" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G226" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H226" s="25" t="s">
+      <c r="H226" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J226" s="7">
@@ -9831,23 +9825,23 @@
       <c r="A227" s="7">
         <v>226</v>
       </c>
-      <c r="B227" s="30">
+      <c r="B227" s="20">
         <v>39</v>
       </c>
-      <c r="C227" s="30">
+      <c r="C227" s="20">
         <v>8</v>
       </c>
-      <c r="D227" s="31" t="s">
+      <c r="D227" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E227" s="30"/>
-      <c r="F227" s="36" t="s">
+      <c r="E227" s="20"/>
+      <c r="F227" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G227" s="32" t="s">
+      <c r="G227" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H227" s="32" t="s">
+      <c r="H227" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J227" s="7">
@@ -9858,21 +9852,21 @@
       <c r="A228" s="7">
         <v>227</v>
       </c>
-      <c r="B228" s="30">
+      <c r="B228" s="20">
         <v>40</v>
       </c>
-      <c r="C228" s="30">
-        <v>1</v>
-      </c>
-      <c r="D228" s="31" t="s">
+      <c r="C228" s="20">
+        <v>1</v>
+      </c>
+      <c r="D228" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E228" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F228" s="32"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="32" t="s">
+      <c r="E228" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J228" s="7">
@@ -9883,21 +9877,21 @@
       <c r="A229" s="7">
         <v>228</v>
       </c>
-      <c r="B229" s="30">
+      <c r="B229" s="20">
         <v>40</v>
       </c>
-      <c r="C229" s="30">
+      <c r="C229" s="20">
         <v>2</v>
       </c>
-      <c r="D229" s="31" t="s">
+      <c r="D229" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E229" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="32" t="s">
+      <c r="E229" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J229" s="7">
@@ -9908,21 +9902,21 @@
       <c r="A230" s="7">
         <v>229</v>
       </c>
-      <c r="B230" s="30">
+      <c r="B230" s="20">
         <v>40</v>
       </c>
-      <c r="C230" s="30">
+      <c r="C230" s="20">
         <v>3</v>
       </c>
-      <c r="D230" s="31" t="s">
+      <c r="D230" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E230" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="32" t="s">
+      <c r="E230" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J230" s="7">
@@ -9933,23 +9927,23 @@
       <c r="A231" s="7">
         <v>230</v>
       </c>
-      <c r="B231" s="30">
+      <c r="B231" s="20">
         <v>40</v>
       </c>
-      <c r="C231" s="30">
+      <c r="C231" s="20">
         <v>4</v>
       </c>
-      <c r="D231" s="31" t="s">
+      <c r="D231" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E231" s="30"/>
-      <c r="F231" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G231" s="32" t="s">
+      <c r="E231" s="20"/>
+      <c r="F231" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G231" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H231" s="32" t="s">
+      <c r="H231" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9957,23 +9951,23 @@
       <c r="A232" s="7">
         <v>231</v>
       </c>
-      <c r="B232" s="30">
+      <c r="B232" s="20">
         <v>40</v>
       </c>
-      <c r="C232" s="30">
+      <c r="C232" s="20">
         <v>5</v>
       </c>
-      <c r="D232" s="31" t="s">
+      <c r="D232" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E232" s="30"/>
-      <c r="F232" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G232" s="32" t="s">
+      <c r="E232" s="20"/>
+      <c r="F232" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H232" s="25" t="s">
+      <c r="H232" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J232" s="7">
@@ -9984,23 +9978,23 @@
       <c r="A233" s="7">
         <v>232</v>
       </c>
-      <c r="B233" s="30">
+      <c r="B233" s="20">
         <v>40</v>
       </c>
-      <c r="C233" s="30">
+      <c r="C233" s="20">
         <v>6</v>
       </c>
-      <c r="D233" s="31" t="s">
+      <c r="D233" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E233" s="30"/>
-      <c r="F233" s="25" t="s">
+      <c r="E233" s="20"/>
+      <c r="F233" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G233" s="32" t="s">
+      <c r="G233" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H233" s="25" t="s">
+      <c r="H233" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J233" s="7">
@@ -10011,23 +10005,23 @@
       <c r="A234" s="7">
         <v>233</v>
       </c>
-      <c r="B234" s="30">
+      <c r="B234" s="20">
         <v>40</v>
       </c>
-      <c r="C234" s="30">
+      <c r="C234" s="20">
         <v>7</v>
       </c>
-      <c r="D234" s="31" t="s">
+      <c r="D234" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E234" s="30"/>
-      <c r="F234" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G234" s="32" t="s">
+      <c r="E234" s="20"/>
+      <c r="F234" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H234" s="25" t="s">
+      <c r="H234" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J234" s="7">
@@ -10038,26 +10032,439 @@
       <c r="A235" s="7">
         <v>234</v>
       </c>
-      <c r="B235" s="30">
+      <c r="B235" s="20">
         <v>40</v>
       </c>
-      <c r="C235" s="30">
+      <c r="C235" s="20">
         <v>8</v>
       </c>
-      <c r="D235" s="31" t="s">
+      <c r="D235" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E235" s="30"/>
-      <c r="F235" s="25" t="s">
+      <c r="E235" s="20"/>
+      <c r="F235" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G235" s="32" t="s">
+      <c r="G235" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H235" s="32" t="s">
+      <c r="H235" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J235" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" s="34" customFormat="1">
+      <c r="A236" s="34">
+        <v>235</v>
+      </c>
+      <c r="B236" s="40">
+        <v>41</v>
+      </c>
+      <c r="C236" s="40">
+        <v>1</v>
+      </c>
+      <c r="D236" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E236" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F236" s="42"/>
+      <c r="G236" s="42"/>
+      <c r="H236" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J236" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" s="34" customFormat="1">
+      <c r="A237" s="34">
+        <v>236</v>
+      </c>
+      <c r="B237" s="40">
+        <v>41</v>
+      </c>
+      <c r="C237" s="40">
+        <v>2</v>
+      </c>
+      <c r="D237" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F237" s="42"/>
+      <c r="G237" s="42"/>
+      <c r="H237" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J237" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" s="34" customFormat="1">
+      <c r="A238" s="34">
+        <v>237</v>
+      </c>
+      <c r="B238" s="40">
+        <v>41</v>
+      </c>
+      <c r="C238" s="40">
+        <v>3</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G238" s="42"/>
+      <c r="H238" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J238" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" s="34" customFormat="1">
+      <c r="A239" s="34">
+        <v>238</v>
+      </c>
+      <c r="B239" s="40">
+        <v>41</v>
+      </c>
+      <c r="C239" s="40">
+        <v>4</v>
+      </c>
+      <c r="D239" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E239" s="40"/>
+      <c r="F239" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G239" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H239" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A240" s="34">
+        <v>239</v>
+      </c>
+      <c r="B240" s="40">
+        <v>41</v>
+      </c>
+      <c r="C240" s="40">
+        <v>5</v>
+      </c>
+      <c r="D240" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E240" s="40"/>
+      <c r="F240" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G240" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H240" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J240" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A241" s="34">
+        <v>240</v>
+      </c>
+      <c r="B241" s="40">
+        <v>41</v>
+      </c>
+      <c r="C241" s="40">
+        <v>6</v>
+      </c>
+      <c r="D241" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E241" s="40"/>
+      <c r="F241" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G241" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H241" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J241" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" s="34" customFormat="1">
+      <c r="A242" s="34">
+        <v>241</v>
+      </c>
+      <c r="B242" s="40">
+        <v>41</v>
+      </c>
+      <c r="C242" s="40">
+        <v>7</v>
+      </c>
+      <c r="D242" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E242" s="40"/>
+      <c r="F242" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G242" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H242" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J242" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A243" s="34">
+        <v>242</v>
+      </c>
+      <c r="B243" s="40">
+        <v>41</v>
+      </c>
+      <c r="C243" s="40">
+        <v>8</v>
+      </c>
+      <c r="D243" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E243" s="40"/>
+      <c r="F243" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G243" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H243" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J243" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" s="34" customFormat="1">
+      <c r="A244" s="34">
+        <v>243</v>
+      </c>
+      <c r="B244" s="40">
+        <v>42</v>
+      </c>
+      <c r="C244" s="40">
+        <v>1</v>
+      </c>
+      <c r="D244" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F244" s="42"/>
+      <c r="G244" s="42"/>
+      <c r="H244" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J244" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" s="34" customFormat="1">
+      <c r="A245" s="34">
+        <v>244</v>
+      </c>
+      <c r="B245" s="40">
+        <v>42</v>
+      </c>
+      <c r="C245" s="40">
+        <v>2</v>
+      </c>
+      <c r="D245" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F245" s="42"/>
+      <c r="G245" s="42"/>
+      <c r="H245" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J245" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" s="34" customFormat="1">
+      <c r="A246" s="34">
+        <v>245</v>
+      </c>
+      <c r="B246" s="40">
+        <v>42</v>
+      </c>
+      <c r="C246" s="40">
+        <v>3</v>
+      </c>
+      <c r="D246" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F246" s="42"/>
+      <c r="G246" s="42"/>
+      <c r="H246" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J246" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" s="34" customFormat="1">
+      <c r="A247" s="34">
+        <v>246</v>
+      </c>
+      <c r="B247" s="40">
+        <v>42</v>
+      </c>
+      <c r="C247" s="40">
+        <v>4</v>
+      </c>
+      <c r="D247" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E247" s="40"/>
+      <c r="F247" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H247" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="34" customFormat="1">
+      <c r="A248" s="34">
+        <v>247</v>
+      </c>
+      <c r="B248" s="40">
+        <v>42</v>
+      </c>
+      <c r="C248" s="40">
+        <v>5</v>
+      </c>
+      <c r="D248" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E248" s="40"/>
+      <c r="F248" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G248" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H248" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J248" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="34" customFormat="1">
+      <c r="A249" s="34">
+        <v>248</v>
+      </c>
+      <c r="B249" s="40">
+        <v>42</v>
+      </c>
+      <c r="C249" s="40">
+        <v>6</v>
+      </c>
+      <c r="D249" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E249" s="40"/>
+      <c r="F249" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G249" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H249" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J249" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="34" customFormat="1">
+      <c r="A250" s="34">
+        <v>249</v>
+      </c>
+      <c r="B250" s="40">
+        <v>42</v>
+      </c>
+      <c r="C250" s="40">
+        <v>7</v>
+      </c>
+      <c r="D250" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E250" s="40"/>
+      <c r="F250" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G250" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H250" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J250" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" s="34" customFormat="1">
+      <c r="A251" s="34">
+        <v>250</v>
+      </c>
+      <c r="B251" s="40">
+        <v>42</v>
+      </c>
+      <c r="C251" s="40">
+        <v>8</v>
+      </c>
+      <c r="D251" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E251" s="40"/>
+      <c r="F251" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G251" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H251" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J251" s="34">
         <v>1</v>
       </c>
     </row>
@@ -10076,7 +10483,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10086,84 +10493,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>276</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7">
         <v>34</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>277</v>
+      <c r="B2" s="28" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7">
         <v>35</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>277</v>
+      <c r="B3" s="28" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="7">
+        <v>36</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="7">
+        <v>37</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="7">
+        <v>38</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="7">
+        <v>39</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="7">
+        <v>40</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="7">
+        <v>41</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="7">
+        <v>42</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="7">
+        <v>43</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="7">
+        <v>44</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="7">
+        <v>45</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="7">
+        <v>46</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="7">
+        <v>47</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="7">
+        <v>48</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="7">
+        <v>49</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2165,8 +2165,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3328,7 +3328,7 @@
         <v>285</v>
       </c>
       <c r="C37" s="57">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="D37" s="57">
         <v>1614009599</v>
@@ -3359,7 +3359,7 @@
         <v>286</v>
       </c>
       <c r="C38" s="57">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="D38" s="57">
         <v>1614009599</v>
@@ -3390,7 +3390,7 @@
         <v>287</v>
       </c>
       <c r="C39" s="57">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="D39" s="57">
         <v>1614009599</v>
@@ -3421,7 +3421,7 @@
         <v>292</v>
       </c>
       <c r="C40" s="66">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="D40" s="66">
         <v>1614614399</v>
@@ -3452,7 +3452,7 @@
         <v>293</v>
       </c>
       <c r="C41" s="66">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="D41" s="66">
         <v>1614614399</v>
@@ -3937,11 +3937,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E216" sqref="E216"/>
+      <selection pane="bottomRight" activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2165,8 +2165,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3328,7 +3328,7 @@
         <v>285</v>
       </c>
       <c r="C37" s="57">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="D37" s="57">
         <v>1614009599</v>
@@ -3359,7 +3359,7 @@
         <v>286</v>
       </c>
       <c r="C38" s="57">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="D38" s="57">
         <v>1614009599</v>
@@ -3390,7 +3390,7 @@
         <v>287</v>
       </c>
       <c r="C39" s="57">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="D39" s="57">
         <v>1614009599</v>
@@ -3421,7 +3421,7 @@
         <v>292</v>
       </c>
       <c r="C40" s="66">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="D40" s="66">
         <v>1614614399</v>
@@ -3452,7 +3452,7 @@
         <v>293</v>
       </c>
       <c r="C41" s="66">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="D41" s="66">
         <v>1614614399</v>
@@ -3937,11 +3937,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D214" sqref="D214"/>
+      <selection pane="bottomRight" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1364,10 +1364,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>60000,6000,6000,6000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3000,3000,3000,3000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1560,6 +1556,10 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3220,7 +3220,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35" s="25">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="7">
         <v>1612828800</v>
@@ -3271,7 +3271,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="7">
         <v>1613433600</v>
@@ -3302,7 +3302,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="7">
         <v>1613433600</v>
@@ -3333,7 +3333,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" s="7">
         <v>1613433600</v>
@@ -3364,7 +3364,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" s="7">
         <v>1614038400</v>
@@ -3375,7 +3375,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H40" s="25">
         <v>1</v>
@@ -3395,7 +3395,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="7">
         <v>1614038400</v>
@@ -3406,7 +3406,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H41" s="25">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" s="34">
         <v>1614643200</v>
@@ -3437,7 +3437,7 @@
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H42" s="37">
         <v>1</v>
@@ -3457,7 +3457,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C43" s="34">
         <v>1614643200</v>
@@ -3468,7 +3468,7 @@
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H43" s="37">
         <v>1</v>
@@ -3907,10 +3907,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1">
@@ -3918,10 +3918,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="34" customFormat="1">
@@ -3929,10 +3929,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>306</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="34" customFormat="1">
@@ -3940,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3959,10 +3959,10 @@
   <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
+      <selection pane="bottomRight" activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3988,7 +3988,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -9049,7 +9049,7 @@
         <v>51</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H197" s="22" t="s">
         <v>270</v>
@@ -9079,7 +9079,7 @@
         <v>102</v>
       </c>
       <c r="H198" s="22" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -9103,7 +9103,7 @@
         <v>174</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J199" s="7">
         <v>3</v>
@@ -9130,7 +9130,7 @@
         <v>174</v>
       </c>
       <c r="H200" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J200" s="7">
         <v>2</v>
@@ -9157,7 +9157,7 @@
         <v>55</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J201" s="7">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>174</v>
       </c>
       <c r="H202" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J202" s="7">
         <v>1</v>
@@ -9255,10 +9255,10 @@
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H205" s="22" t="s">
         <v>270</v>
@@ -9288,7 +9288,7 @@
         <v>102</v>
       </c>
       <c r="H206" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
@@ -9312,7 +9312,7 @@
         <v>61</v>
       </c>
       <c r="H207" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J207" s="7">
         <v>3</v>
@@ -9339,7 +9339,7 @@
         <v>177</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J208" s="7">
         <v>2</v>
@@ -9366,7 +9366,7 @@
         <v>55</v>
       </c>
       <c r="H209" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J209" s="7">
         <v>1</v>
@@ -9393,7 +9393,7 @@
         <v>213</v>
       </c>
       <c r="H210" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J210" s="7">
         <v>1</v>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="22" t="s">
@@ -9420,7 +9420,7 @@
         <v>223</v>
       </c>
       <c r="H211" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J211" s="7">
         <v>9999</v>
@@ -9437,7 +9437,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E212" s="20"/>
       <c r="F212" s="22" t="s">
@@ -9447,7 +9447,7 @@
         <v>224</v>
       </c>
       <c r="H212" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J212" s="7">
         <v>9999</v>
@@ -9464,7 +9464,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="22" t="s">
@@ -9474,7 +9474,7 @@
         <v>241</v>
       </c>
       <c r="H213" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J213" s="7">
         <v>9999</v>
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="22" t="s">
@@ -9501,7 +9501,7 @@
         <v>224</v>
       </c>
       <c r="H214" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J214" s="7">
         <v>9999</v>
@@ -9518,7 +9518,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E215" s="20"/>
       <c r="F215" s="22" t="s">
@@ -9528,7 +9528,7 @@
         <v>37</v>
       </c>
       <c r="H215" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J215" s="7">
         <v>9999</v>
@@ -9545,7 +9545,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="22" t="s">
@@ -9555,7 +9555,7 @@
         <v>242</v>
       </c>
       <c r="H216" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J216" s="7">
         <v>9999</v>
@@ -9572,14 +9572,14 @@
         <v>1</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="22" t="s">
         <v>41</v>
       </c>
       <c r="G217" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H217" s="20" t="s">
         <v>229</v>
@@ -9599,14 +9599,14 @@
         <v>2</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="22" t="s">
         <v>41</v>
       </c>
       <c r="G218" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H218" s="20" t="s">
         <v>229</v>
@@ -9626,7 +9626,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="22" t="s">
@@ -9656,7 +9656,7 @@
         <v>130</v>
       </c>
       <c r="E220" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F220" s="22"/>
       <c r="G220" s="22"/>
@@ -9681,7 +9681,7 @@
         <v>130</v>
       </c>
       <c r="E221" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F221" s="22"/>
       <c r="G221" s="22"/>
@@ -9706,7 +9706,7 @@
         <v>130</v>
       </c>
       <c r="E222" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G222" s="22"/>
       <c r="H222" s="22" t="s">
@@ -9862,7 +9862,7 @@
         <v>131</v>
       </c>
       <c r="E228" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F228" s="22"/>
       <c r="G228" s="22"/>
@@ -9887,7 +9887,7 @@
         <v>131</v>
       </c>
       <c r="E229" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F229" s="22"/>
       <c r="G229" s="22"/>
@@ -9912,7 +9912,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F230" s="22"/>
       <c r="G230" s="22"/>
@@ -10069,7 +10069,7 @@
         <v>130</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
@@ -10094,7 +10094,7 @@
         <v>130</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F237" s="42"/>
       <c r="G237" s="42"/>
@@ -10119,7 +10119,7 @@
         <v>130</v>
       </c>
       <c r="E238" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G238" s="42"/>
       <c r="H238" s="42" t="s">
@@ -10275,7 +10275,7 @@
         <v>131</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F244" s="42"/>
       <c r="G244" s="42"/>
@@ -10300,7 +10300,7 @@
         <v>131</v>
       </c>
       <c r="E245" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F245" s="42"/>
       <c r="G245" s="42"/>
@@ -10325,7 +10325,7 @@
         <v>131</v>
       </c>
       <c r="E246" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F246" s="42"/>
       <c r="G246" s="42"/>
@@ -10494,10 +10494,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10505,7 +10505,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10513,7 +10513,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10521,7 +10521,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10529,7 +10529,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10537,7 +10537,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10545,7 +10545,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10553,7 +10553,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10561,7 +10561,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10569,7 +10569,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10577,7 +10577,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10585,7 +10585,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10593,7 +10593,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10601,7 +10601,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10609,7 +10609,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10617,7 +10617,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10625,7 +10625,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="375">
   <si>
     <t>id|</t>
   </si>
@@ -2383,7 +2383,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11568,7 +11568,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B17"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11668,7 +11668,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11778,26 +11778,88 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="3"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="388">
   <si>
     <t>id|</t>
   </si>
@@ -1412,10 +1412,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>800,800,0,800,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1794,7 +1790,65 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"fish_coin",</t>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>春暖花开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>880000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1802,17 +1856,16 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>6,6</t>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2382,8 +2435,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3542,7 +3595,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="7">
         <v>1613433600</v>
@@ -3573,7 +3626,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="7">
         <v>1613433600</v>
@@ -3604,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="7">
         <v>1613433600</v>
@@ -3635,7 +3688,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="7">
         <v>1614038400</v>
@@ -3646,7 +3699,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H40" s="23">
         <v>1</v>
@@ -3666,7 +3719,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="7">
         <v>1614038400</v>
@@ -3677,7 +3730,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H41" s="23">
         <v>1</v>
@@ -3697,7 +3750,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="7">
         <v>1614643200</v>
@@ -3708,7 +3761,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H42" s="23">
         <v>1</v>
@@ -3728,7 +3781,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="7">
         <v>1614643200</v>
@@ -3739,7 +3792,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H43" s="23">
         <v>1</v>
@@ -3759,7 +3812,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="7">
         <v>1615248000</v>
@@ -3770,7 +3823,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H44" s="23">
         <v>1</v>
@@ -3788,7 +3841,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="7">
         <v>1615248000</v>
@@ -3799,7 +3852,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H45" s="23">
         <v>1</v>
@@ -3812,89 +3865,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="37" customFormat="1">
-      <c r="A46" s="32">
+    <row r="46" spans="1:16" s="16" customFormat="1">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1615248000</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1615823999</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="23">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>31</v>
+      </c>
+      <c r="J46" s="14">
+        <v>45</v>
+      </c>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="16" customFormat="1">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C47" s="7">
         <v>1615248000</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D47" s="7">
         <v>1615823999</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="34" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="35">
-        <v>1</v>
-      </c>
-      <c r="I46" s="32">
-        <v>31</v>
-      </c>
-      <c r="J46" s="36">
-        <v>45</v>
-      </c>
-      <c r="K46" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="37" customFormat="1">
-      <c r="A47" s="32">
+      <c r="H47" s="23">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7">
+        <v>32</v>
+      </c>
+      <c r="J47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="32">
-        <v>1615248000</v>
-      </c>
-      <c r="D47" s="32">
-        <v>1615823999</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="34" t="s">
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="37" customFormat="1">
+      <c r="A48" s="32">
+        <v>47</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C48" s="32">
+        <v>1615852800</v>
+      </c>
+      <c r="D48" s="32">
+        <v>1616428799</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="35">
-        <v>1</v>
-      </c>
-      <c r="I47" s="32">
-        <v>32</v>
-      </c>
-      <c r="J47" s="36">
-        <v>46</v>
-      </c>
-      <c r="K47" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="16" customFormat="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10" s="16" customFormat="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" s="16" customFormat="1">
+      <c r="H48" s="35">
+        <v>1</v>
+      </c>
+      <c r="I48" s="32">
+        <v>33</v>
+      </c>
+      <c r="J48" s="36">
+        <v>47</v>
+      </c>
+      <c r="K48" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="37" customFormat="1">
+      <c r="A49" s="32">
+        <v>48</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" s="32">
+        <v>1615852800</v>
+      </c>
+      <c r="D49" s="32">
+        <v>1616428799</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="35">
+        <v>1</v>
+      </c>
+      <c r="I49" s="32">
+        <v>34</v>
+      </c>
+      <c r="J49" s="36">
+        <v>48</v>
+      </c>
+      <c r="K49" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="16" customFormat="1">
       <c r="A50" s="7"/>
       <c r="B50" s="30"/>
       <c r="C50" s="7"/>
@@ -3915,10 +4010,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4252,10 +4347,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1">
@@ -4263,10 +4358,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1">
@@ -4274,10 +4369,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1">
@@ -4285,32 +4380,54 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="32" customFormat="1">
-      <c r="A32" s="32">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C33" s="15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="32" customFormat="1">
-      <c r="A33" s="32">
-        <v>32</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>340</v>
+    <row r="34" spans="1:3" s="32" customFormat="1">
+      <c r="A34" s="32">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="32" customFormat="1">
+      <c r="A35" s="32">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4323,13 +4440,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M285"/>
+  <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C248" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G278" sqref="G278"/>
+      <selection pane="bottomRight" activeCell="G294" sqref="G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4355,7 +4472,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -9446,7 +9563,7 @@
         <v>102</v>
       </c>
       <c r="H198" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -9524,7 +9641,7 @@
         <v>55</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J201" s="7">
         <v>1</v>
@@ -9551,7 +9668,7 @@
         <v>174</v>
       </c>
       <c r="H202" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J202" s="7">
         <v>1</v>
@@ -9622,7 +9739,7 @@
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="31" t="s">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="G205" s="20" t="s">
         <v>278</v>
@@ -9655,7 +9772,7 @@
         <v>102</v>
       </c>
       <c r="H206" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
@@ -9733,7 +9850,7 @@
         <v>55</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J209" s="7">
         <v>1</v>
@@ -9760,7 +9877,7 @@
         <v>213</v>
       </c>
       <c r="H210" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J210" s="7">
         <v>1</v>
@@ -9777,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="20" t="s">
@@ -9787,7 +9904,7 @@
         <v>223</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J211" s="7">
         <v>9999</v>
@@ -9804,7 +9921,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="20" t="s">
@@ -9814,7 +9931,7 @@
         <v>224</v>
       </c>
       <c r="H212" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J212" s="7">
         <v>9999</v>
@@ -9831,7 +9948,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20" t="s">
@@ -9841,7 +9958,7 @@
         <v>241</v>
       </c>
       <c r="H213" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J213" s="7">
         <v>9999</v>
@@ -9858,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="20" t="s">
@@ -9868,7 +9985,7 @@
         <v>224</v>
       </c>
       <c r="H214" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J214" s="7">
         <v>9999</v>
@@ -9885,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="20" t="s">
@@ -9895,7 +10012,7 @@
         <v>37</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J215" s="7">
         <v>9999</v>
@@ -9912,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20" t="s">
@@ -9922,7 +10039,7 @@
         <v>242</v>
       </c>
       <c r="H216" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J216" s="7">
         <v>9999</v>
@@ -9939,14 +10056,14 @@
         <v>1</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H217" s="19" t="s">
         <v>229</v>
@@ -9966,14 +10083,14 @@
         <v>2</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H218" s="19" t="s">
         <v>229</v>
@@ -9993,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20" t="s">
@@ -10023,7 +10140,7 @@
         <v>130</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
@@ -10048,7 +10165,7 @@
         <v>130</v>
       </c>
       <c r="E221" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
@@ -10073,7 +10190,7 @@
         <v>130</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20" t="s">
@@ -10229,7 +10346,7 @@
         <v>131</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
@@ -10254,7 +10371,7 @@
         <v>131</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
@@ -10279,7 +10396,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
@@ -10436,7 +10553,7 @@
         <v>130</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
@@ -10461,7 +10578,7 @@
         <v>130</v>
       </c>
       <c r="E237" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
@@ -10486,7 +10603,7 @@
         <v>130</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20" t="s">
@@ -10612,7 +10729,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="22" t="s">
@@ -10639,10 +10756,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -10664,10 +10781,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
@@ -10692,7 +10809,7 @@
         <v>131</v>
       </c>
       <c r="E246" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
@@ -10846,16 +10963,16 @@
         <v>1</v>
       </c>
       <c r="D252" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F252" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G252" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H252" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:10" s="42" customFormat="1">
@@ -10869,16 +10986,16 @@
         <v>2</v>
       </c>
       <c r="D253" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F253" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G253" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="H253" s="43" t="s">
         <v>328</v>
-      </c>
-      <c r="G253" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="H253" s="43" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:10" s="42" customFormat="1">
@@ -10892,16 +11009,16 @@
         <v>3</v>
       </c>
       <c r="D254" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F254" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G254" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H254" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="42" customFormat="1">
@@ -10915,16 +11032,16 @@
         <v>4</v>
       </c>
       <c r="D255" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F255" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G255" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H255" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="256" spans="1:10" s="42" customFormat="1">
@@ -10938,16 +11055,16 @@
         <v>5</v>
       </c>
       <c r="D256" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F256" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G256" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H256" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="42" customFormat="1">
@@ -10961,16 +11078,16 @@
         <v>6</v>
       </c>
       <c r="D257" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F257" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G257" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="G257" s="43" t="s">
+      <c r="H257" s="43" t="s">
         <v>332</v>
-      </c>
-      <c r="H257" s="43" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="42" customFormat="1">
@@ -10984,16 +11101,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F258" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G258" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F258" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="G258" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H258" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="42" customFormat="1">
@@ -11007,16 +11124,16 @@
         <v>2</v>
       </c>
       <c r="D259" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F259" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G259" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H259" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="42" customFormat="1">
@@ -11030,16 +11147,16 @@
         <v>3</v>
       </c>
       <c r="D260" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F260" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G260" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F260" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="G260" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H260" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="42" customFormat="1">
@@ -11053,16 +11170,16 @@
         <v>4</v>
       </c>
       <c r="D261" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F261" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G261" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F261" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G261" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H261" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="42" customFormat="1">
@@ -11076,16 +11193,16 @@
         <v>5</v>
       </c>
       <c r="D262" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G262" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F262" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G262" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H262" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="42" customFormat="1">
@@ -11099,459 +11216,831 @@
         <v>6</v>
       </c>
       <c r="D263" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F263" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G263" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F263" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="G263" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H263" s="43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" s="32" customFormat="1">
-      <c r="A264" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" s="7" customFormat="1">
+      <c r="A264" s="7">
         <v>263</v>
       </c>
-      <c r="B264" s="38">
+      <c r="B264" s="19">
         <v>45</v>
       </c>
-      <c r="C264" s="38">
-        <v>1</v>
-      </c>
-      <c r="D264" s="41" t="s">
+      <c r="C264" s="19">
+        <v>1</v>
+      </c>
+      <c r="D264" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J264" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="7" customFormat="1">
+      <c r="A265" s="7">
+        <v>264</v>
+      </c>
+      <c r="B265" s="19">
+        <v>45</v>
+      </c>
+      <c r="C265" s="19">
+        <v>2</v>
+      </c>
+      <c r="D265" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E265" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J265" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="7" customFormat="1">
+      <c r="A266" s="7">
+        <v>265</v>
+      </c>
+      <c r="B266" s="19">
+        <v>45</v>
+      </c>
+      <c r="C266" s="19">
+        <v>3</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E266" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J266" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A267" s="7">
+        <v>266</v>
+      </c>
+      <c r="B267" s="19">
+        <v>45</v>
+      </c>
+      <c r="C267" s="19">
+        <v>4</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E267" s="19"/>
+      <c r="F267" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G267" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H267" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" s="7" customFormat="1">
+      <c r="A268" s="7">
+        <v>267</v>
+      </c>
+      <c r="B268" s="19">
+        <v>45</v>
+      </c>
+      <c r="C268" s="19">
+        <v>5</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E268" s="19"/>
+      <c r="F268" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G268" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H268" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J268" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="7" customFormat="1">
+      <c r="A269" s="7">
+        <v>268</v>
+      </c>
+      <c r="B269" s="19">
+        <v>45</v>
+      </c>
+      <c r="C269" s="19">
+        <v>6</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E269" s="19"/>
+      <c r="F269" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G269" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H269" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J269" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" s="7" customFormat="1">
+      <c r="A270" s="7">
+        <v>269</v>
+      </c>
+      <c r="B270" s="19">
+        <v>45</v>
+      </c>
+      <c r="C270" s="19">
+        <v>7</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E270" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G270" s="20"/>
+      <c r="H270" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J270" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A271" s="7">
+        <v>270</v>
+      </c>
+      <c r="B271" s="19">
+        <v>45</v>
+      </c>
+      <c r="C271" s="19">
+        <v>8</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E271" s="19"/>
+      <c r="F271" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J271" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" s="7" customFormat="1">
+      <c r="A272" s="7">
+        <v>271</v>
+      </c>
+      <c r="B272" s="19">
+        <v>46</v>
+      </c>
+      <c r="C272" s="19">
+        <v>1</v>
+      </c>
+      <c r="D272" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E264" s="38" t="s">
+      <c r="E272" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F272" s="20"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J272" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" s="7" customFormat="1">
+      <c r="A273" s="7">
+        <v>272</v>
+      </c>
+      <c r="B273" s="19">
+        <v>46</v>
+      </c>
+      <c r="C273" s="19">
+        <v>2</v>
+      </c>
+      <c r="D273" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E273" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="F264" s="39"/>
-      <c r="G264" s="39"/>
-      <c r="H264" s="39" t="s">
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J273" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="7" customFormat="1">
+      <c r="A274" s="7">
+        <v>273</v>
+      </c>
+      <c r="B274" s="19">
+        <v>46</v>
+      </c>
+      <c r="C274" s="19">
+        <v>3</v>
+      </c>
+      <c r="D274" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E274" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J264" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" s="32" customFormat="1">
-      <c r="A265" s="1">
-        <v>264</v>
-      </c>
-      <c r="B265" s="38">
-        <v>45</v>
-      </c>
-      <c r="C265" s="38">
+      <c r="J274" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" s="7" customFormat="1">
+      <c r="A275" s="7">
+        <v>274</v>
+      </c>
+      <c r="B275" s="19">
+        <v>46</v>
+      </c>
+      <c r="C275" s="19">
+        <v>4</v>
+      </c>
+      <c r="D275" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E275" s="19"/>
+      <c r="F275" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G275" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H275" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" s="7" customFormat="1">
+      <c r="A276" s="7">
+        <v>275</v>
+      </c>
+      <c r="B276" s="19">
+        <v>46</v>
+      </c>
+      <c r="C276" s="19">
+        <v>5</v>
+      </c>
+      <c r="D276" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E276" s="19"/>
+      <c r="F276" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G276" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H276" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J276" s="7">
         <v>2</v>
       </c>
-      <c r="D265" s="38" t="s">
+    </row>
+    <row r="277" spans="1:10" s="7" customFormat="1">
+      <c r="A277" s="7">
+        <v>276</v>
+      </c>
+      <c r="B277" s="19">
+        <v>46</v>
+      </c>
+      <c r="C277" s="19">
+        <v>6</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E277" s="19"/>
+      <c r="F277" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="G277" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H277" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J277" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" s="7" customFormat="1">
+      <c r="A278" s="7">
+        <v>277</v>
+      </c>
+      <c r="B278" s="19">
+        <v>46</v>
+      </c>
+      <c r="C278" s="19">
+        <v>7</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E278" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G278" s="20"/>
+      <c r="H278" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J278" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" s="7" customFormat="1">
+      <c r="A279" s="7">
+        <v>278</v>
+      </c>
+      <c r="B279" s="19">
+        <v>46</v>
+      </c>
+      <c r="C279" s="19">
+        <v>8</v>
+      </c>
+      <c r="D279" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E279" s="19"/>
+      <c r="F279" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G279" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H279" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J279" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" s="32" customFormat="1">
+      <c r="A280" s="7">
+        <v>279</v>
+      </c>
+      <c r="B280" s="38">
+        <v>47</v>
+      </c>
+      <c r="C280" s="38">
+        <v>1</v>
+      </c>
+      <c r="D280" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E280" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F280" s="39"/>
+      <c r="G280" s="39"/>
+      <c r="H280" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J280" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="32" customFormat="1">
+      <c r="A281" s="7">
+        <v>280</v>
+      </c>
+      <c r="B281" s="38">
+        <v>47</v>
+      </c>
+      <c r="C281" s="38">
+        <v>2</v>
+      </c>
+      <c r="D281" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E281" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F281" s="39"/>
+      <c r="G281" s="39"/>
+      <c r="H281" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J281" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="32" customFormat="1">
+      <c r="A282" s="7">
+        <v>281</v>
+      </c>
+      <c r="B282" s="38">
+        <v>47</v>
+      </c>
+      <c r="C282" s="38">
+        <v>3</v>
+      </c>
+      <c r="D282" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E265" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="F265" s="39"/>
-      <c r="G265" s="39"/>
-      <c r="H265" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="J265" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" s="32" customFormat="1">
-      <c r="A266" s="1">
-        <v>265</v>
-      </c>
-      <c r="B266" s="38">
-        <v>45</v>
-      </c>
-      <c r="C266" s="38">
+      <c r="E282" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="G282" s="39"/>
+      <c r="H282" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J282" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A283" s="7">
+        <v>282</v>
+      </c>
+      <c r="B283" s="38">
+        <v>47</v>
+      </c>
+      <c r="C283" s="38">
+        <v>4</v>
+      </c>
+      <c r="D283" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E283" s="38"/>
+      <c r="F283" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G283" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="H283" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="J283" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="32" customFormat="1">
+      <c r="A284" s="7">
+        <v>283</v>
+      </c>
+      <c r="B284" s="38">
+        <v>47</v>
+      </c>
+      <c r="C284" s="38">
+        <v>5</v>
+      </c>
+      <c r="D284" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E284" s="38"/>
+      <c r="F284" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G284" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H284" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" s="32" customFormat="1">
+      <c r="A285" s="7">
+        <v>284</v>
+      </c>
+      <c r="B285" s="38">
+        <v>47</v>
+      </c>
+      <c r="C285" s="38">
+        <v>6</v>
+      </c>
+      <c r="D285" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E285" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F285" s="39"/>
+      <c r="G285" s="39"/>
+      <c r="H285" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J285" s="32">
         <v>3</v>
       </c>
-      <c r="D266" s="38" t="s">
+    </row>
+    <row r="286" spans="1:10" s="32" customFormat="1">
+      <c r="A286" s="7">
+        <v>285</v>
+      </c>
+      <c r="B286" s="38">
+        <v>47</v>
+      </c>
+      <c r="C286" s="38">
+        <v>7</v>
+      </c>
+      <c r="D286" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E266" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="G266" s="39"/>
-      <c r="H266" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J266" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" s="32" customFormat="1" ht="16.5">
-      <c r="A267" s="1">
-        <v>266</v>
-      </c>
-      <c r="B267" s="38">
-        <v>45</v>
-      </c>
-      <c r="C267" s="38">
+      <c r="E286" s="38"/>
+      <c r="F286" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="G286" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H286" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J286" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A287" s="7">
+        <v>286</v>
+      </c>
+      <c r="B287" s="38">
+        <v>47</v>
+      </c>
+      <c r="C287" s="38">
+        <v>8</v>
+      </c>
+      <c r="D287" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E287" s="38"/>
+      <c r="F287" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G287" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H287" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J287" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" s="32" customFormat="1">
+      <c r="A288" s="7">
+        <v>287</v>
+      </c>
+      <c r="B288" s="38">
+        <v>48</v>
+      </c>
+      <c r="C288" s="38">
+        <v>1</v>
+      </c>
+      <c r="D288" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E288" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F288" s="39"/>
+      <c r="G288" s="39"/>
+      <c r="H288" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J288" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="32" customFormat="1">
+      <c r="A289" s="7">
+        <v>288</v>
+      </c>
+      <c r="B289" s="38">
+        <v>48</v>
+      </c>
+      <c r="C289" s="38">
+        <v>2</v>
+      </c>
+      <c r="D289" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E289" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F289" s="39"/>
+      <c r="G289" s="39"/>
+      <c r="H289" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J289" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="32" customFormat="1">
+      <c r="A290" s="7">
+        <v>289</v>
+      </c>
+      <c r="B290" s="38">
+        <v>48</v>
+      </c>
+      <c r="C290" s="38">
+        <v>3</v>
+      </c>
+      <c r="D290" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E290" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="G290" s="39"/>
+      <c r="H290" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J290" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A291" s="7">
+        <v>290</v>
+      </c>
+      <c r="B291" s="38">
+        <v>48</v>
+      </c>
+      <c r="C291" s="38">
         <v>4</v>
       </c>
-      <c r="D267" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E267" s="38"/>
-      <c r="F267" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G267" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="H267" s="39" t="s">
+      <c r="D291" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E291" s="38"/>
+      <c r="F291" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G291" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="H291" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="J291" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="32" customFormat="1">
+      <c r="A292" s="7">
+        <v>291</v>
+      </c>
+      <c r="B292" s="38">
+        <v>48</v>
+      </c>
+      <c r="C292" s="38">
+        <v>5</v>
+      </c>
+      <c r="D292" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E292" s="38"/>
+      <c r="F292" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="G292" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H292" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" s="32" customFormat="1">
+      <c r="A293" s="7">
+        <v>292</v>
+      </c>
+      <c r="B293" s="38">
+        <v>48</v>
+      </c>
+      <c r="C293" s="38">
+        <v>6</v>
+      </c>
+      <c r="D293" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E293" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F293" s="39"/>
+      <c r="G293" s="39"/>
+      <c r="H293" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J293" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" s="32" customFormat="1">
+      <c r="A294" s="7">
+        <v>293</v>
+      </c>
+      <c r="B294" s="38">
+        <v>48</v>
+      </c>
+      <c r="C294" s="38">
+        <v>7</v>
+      </c>
+      <c r="D294" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E294" s="38"/>
+      <c r="F294" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="G294" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H294" s="34" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" s="32" customFormat="1">
-      <c r="A268" s="1">
-        <v>267</v>
-      </c>
-      <c r="B268" s="38">
-        <v>45</v>
-      </c>
-      <c r="C268" s="38">
-        <v>5</v>
-      </c>
-      <c r="D268" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E268" s="38"/>
-      <c r="F268" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G268" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="H268" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J268" s="32">
+      <c r="J294" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="32" customFormat="1">
-      <c r="A269" s="1">
-        <v>268</v>
-      </c>
-      <c r="B269" s="38">
-        <v>45</v>
-      </c>
-      <c r="C269" s="38">
-        <v>6</v>
-      </c>
-      <c r="D269" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E269" s="38"/>
-      <c r="F269" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="G269" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="H269" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="J269" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" s="32" customFormat="1">
-      <c r="A270" s="1">
-        <v>269</v>
-      </c>
-      <c r="B270" s="38">
-        <v>45</v>
-      </c>
-      <c r="C270" s="38">
-        <v>7</v>
-      </c>
-      <c r="D270" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E270" s="38" t="s">
+    <row r="295" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A295" s="7">
+        <v>294</v>
+      </c>
+      <c r="B295" s="38">
+        <v>48</v>
+      </c>
+      <c r="C295" s="38">
+        <v>8</v>
+      </c>
+      <c r="D295" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E295" s="38"/>
+      <c r="F295" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G295" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H295" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="G270" s="39"/>
-      <c r="H270" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J270" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" s="32" customFormat="1" ht="16.5">
-      <c r="A271" s="1">
-        <v>270</v>
-      </c>
-      <c r="B271" s="38">
-        <v>45</v>
-      </c>
-      <c r="C271" s="38">
-        <v>8</v>
-      </c>
-      <c r="D271" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="E271" s="38"/>
-      <c r="F271" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G271" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H271" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="J271" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" s="32" customFormat="1">
-      <c r="A272" s="1">
-        <v>271</v>
-      </c>
-      <c r="B272" s="38">
-        <v>46</v>
-      </c>
-      <c r="C272" s="38">
-        <v>1</v>
-      </c>
-      <c r="D272" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="E272" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="F272" s="39"/>
-      <c r="G272" s="39"/>
-      <c r="H272" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="J272" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" s="32" customFormat="1">
-      <c r="A273" s="1">
-        <v>272</v>
-      </c>
-      <c r="B273" s="38">
-        <v>46</v>
-      </c>
-      <c r="C273" s="38">
-        <v>2</v>
-      </c>
-      <c r="D273" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E273" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="F273" s="39"/>
-      <c r="G273" s="39"/>
-      <c r="H273" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="J273" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" s="32" customFormat="1">
-      <c r="A274" s="1">
-        <v>273</v>
-      </c>
-      <c r="B274" s="38">
-        <v>46</v>
-      </c>
-      <c r="C274" s="38">
+      <c r="J295" s="32">
         <v>3</v>
       </c>
-      <c r="D274" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E274" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="G274" s="39"/>
-      <c r="H274" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J274" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" s="32" customFormat="1">
-      <c r="A275" s="1">
-        <v>274</v>
-      </c>
-      <c r="B275" s="38">
-        <v>46</v>
-      </c>
-      <c r="C275" s="38">
-        <v>4</v>
-      </c>
-      <c r="D275" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E275" s="38"/>
-      <c r="F275" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G275" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H275" s="39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" s="32" customFormat="1">
-      <c r="A276" s="1">
-        <v>275</v>
-      </c>
-      <c r="B276" s="38">
-        <v>46</v>
-      </c>
-      <c r="C276" s="38">
-        <v>5</v>
-      </c>
-      <c r="D276" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E276" s="38"/>
-      <c r="F276" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G276" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="H276" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J276" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" s="32" customFormat="1">
-      <c r="A277" s="1">
-        <v>276</v>
-      </c>
-      <c r="B277" s="38">
-        <v>46</v>
-      </c>
-      <c r="C277" s="38">
-        <v>6</v>
-      </c>
-      <c r="D277" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E277" s="38"/>
-      <c r="F277" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="G277" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="H277" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="J277" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" s="32" customFormat="1">
-      <c r="A278" s="1">
-        <v>277</v>
-      </c>
-      <c r="B278" s="38">
-        <v>46</v>
-      </c>
-      <c r="C278" s="38">
-        <v>7</v>
-      </c>
-      <c r="D278" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E278" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="G278" s="39"/>
-      <c r="H278" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J278" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" s="32" customFormat="1">
-      <c r="A279" s="1">
-        <v>278</v>
-      </c>
-      <c r="B279" s="38">
-        <v>46</v>
-      </c>
-      <c r="C279" s="38">
-        <v>8</v>
-      </c>
-      <c r="D279" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E279" s="38"/>
-      <c r="F279" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G279" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H279" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="J279" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="7"/>
-      <c r="I280" s="7"/>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="F281" s="15"/>
-      <c r="G281" s="20"/>
-      <c r="H281" s="20"/>
-      <c r="I281" s="20"/>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="F282" s="20"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="20"/>
-      <c r="I282" s="15"/>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="15"/>
-    </row>
-    <row r="284" spans="1:10" ht="16.5">
-      <c r="F284" s="22"/>
-      <c r="G284" s="20"/>
-      <c r="H284" s="20"/>
-      <c r="I284" s="15"/>
-    </row>
-    <row r="285" spans="1:10">
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="20"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">
@@ -11568,7 +12057,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A4" sqref="A4:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11667,8 +12156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11681,16 +12170,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>364</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11701,7 +12190,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -11715,155 +12204,52 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="391">
   <si>
     <t>id|</t>
   </si>
@@ -1754,10 +1754,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_id|兑换id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>award_num|兑换次数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1866,6 +1862,19 @@
   <si>
     <t>"prop_web_chip_huafei",</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>6,6</t>
   </si>
 </sst>
 </file>
@@ -2435,8 +2444,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3932,7 +3941,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C48" s="32">
         <v>1615852800</v>
@@ -3963,7 +3972,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="32">
         <v>1615852800</v>
@@ -4413,10 +4422,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="32" customFormat="1">
@@ -4424,10 +4433,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4451,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11571,7 +11580,7 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G277" s="20" t="s">
         <v>347</v>
@@ -11622,7 +11631,7 @@
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G279" s="20" t="s">
         <v>213</v>
@@ -11648,12 +11657,12 @@
         <v>353</v>
       </c>
       <c r="E280" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F280" s="39"/>
       <c r="G280" s="39"/>
       <c r="H280" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J280" s="32">
         <v>1</v>
@@ -11673,12 +11682,12 @@
         <v>353</v>
       </c>
       <c r="E281" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F281" s="39"/>
       <c r="G281" s="39"/>
       <c r="H281" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J281" s="32">
         <v>1</v>
@@ -11698,11 +11707,11 @@
         <v>130</v>
       </c>
       <c r="E282" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G282" s="39"/>
       <c r="H282" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J282" s="32">
         <v>1</v>
@@ -11723,13 +11732,13 @@
       </c>
       <c r="E283" s="38"/>
       <c r="F283" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G283" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H283" s="39" t="s">
         <v>379</v>
-      </c>
-      <c r="H283" s="39" t="s">
-        <v>380</v>
       </c>
       <c r="J283" s="32">
         <v>1</v>
@@ -11773,7 +11782,7 @@
         <v>130</v>
       </c>
       <c r="E285" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F285" s="39"/>
       <c r="G285" s="39"/>
@@ -11799,10 +11808,10 @@
       </c>
       <c r="E286" s="38"/>
       <c r="F286" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G286" s="39" t="s">
         <v>382</v>
-      </c>
-      <c r="G286" s="39" t="s">
-        <v>383</v>
       </c>
       <c r="H286" s="34" t="s">
         <v>350</v>
@@ -11852,12 +11861,12 @@
         <v>354</v>
       </c>
       <c r="E288" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F288" s="39"/>
       <c r="G288" s="39"/>
       <c r="H288" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J288" s="32">
         <v>1</v>
@@ -11877,12 +11886,12 @@
         <v>320</v>
       </c>
       <c r="E289" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F289" s="39"/>
       <c r="G289" s="39"/>
       <c r="H289" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J289" s="32">
         <v>1</v>
@@ -11902,11 +11911,11 @@
         <v>131</v>
       </c>
       <c r="E290" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G290" s="39"/>
       <c r="H290" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J290" s="32">
         <v>1</v>
@@ -11927,13 +11936,13 @@
       </c>
       <c r="E291" s="38"/>
       <c r="F291" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G291" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H291" s="39" t="s">
         <v>379</v>
-      </c>
-      <c r="H291" s="39" t="s">
-        <v>380</v>
       </c>
       <c r="J291" s="32">
         <v>1</v>
@@ -11954,7 +11963,7 @@
       </c>
       <c r="E292" s="38"/>
       <c r="F292" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G292" s="39" t="s">
         <v>62</v>
@@ -11977,7 +11986,7 @@
         <v>131</v>
       </c>
       <c r="E293" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F293" s="39"/>
       <c r="G293" s="39"/>
@@ -12003,10 +12012,10 @@
       </c>
       <c r="E294" s="38"/>
       <c r="F294" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G294" s="39" t="s">
         <v>382</v>
-      </c>
-      <c r="G294" s="39" t="s">
-        <v>383</v>
       </c>
       <c r="H294" s="34" t="s">
         <v>350</v>
@@ -12030,7 +12039,7 @@
       </c>
       <c r="E295" s="38"/>
       <c r="F295" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G295" s="39" t="s">
         <v>213</v>
@@ -12156,8 +12165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12170,16 +12179,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>363</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12190,7 +12199,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -12204,49 +12213,151 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="3"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="371">
   <si>
     <t>id|</t>
   </si>
@@ -1791,6 +1791,14 @@
       </rPr>
       <t>d</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4304,11 +4312,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G212" sqref="G212"/>
+      <selection pane="bottomRight" activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11230,7 +11238,7 @@
       </c>
       <c r="E269" s="38"/>
       <c r="F269" s="39" t="s">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="G269" s="39" t="s">
         <v>348</v>
@@ -11433,7 +11441,7 @@
       </c>
       <c r="E277" s="38"/>
       <c r="F277" s="39" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="G277" s="39" t="s">
         <v>348</v>
@@ -11646,7 +11654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="375">
   <si>
     <t>id|</t>
   </si>
@@ -1800,6 +1800,19 @@
   <si>
     <t>"prop_tiny_game_coin",</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>6,6</t>
   </si>
 </sst>
 </file>
@@ -4312,7 +4325,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11654,8 +11667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11709,20 +11722,60 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="7"/>
@@ -11749,5 +11802,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="397">
   <si>
     <t>id|</t>
   </si>
@@ -1808,6 +1808,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>扫地机器人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1873,11 +1877,27 @@
     <t>6,6</t>
   </si>
   <si>
-    <t>荣耀手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀手机</t>
+    <t>月末狂欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2446,10 +2466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3940,77 +3960,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="37" customFormat="1">
-      <c r="A48" s="32">
+    <row r="48" spans="1:16" s="16" customFormat="1">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="7">
         <v>1615852800</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="7">
         <v>1616428799</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="34" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H48" s="35">
-        <v>1</v>
-      </c>
-      <c r="I48" s="32">
+      <c r="H48" s="23">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7">
         <v>33</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="14">
         <v>47</v>
       </c>
-      <c r="K48" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="37" customFormat="1">
-      <c r="A49" s="32">
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="16" customFormat="1">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="7">
         <v>1615852800</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="7">
         <v>1616428799</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="34" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="35">
-        <v>1</v>
-      </c>
-      <c r="I49" s="32">
+      <c r="H49" s="23">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
         <v>34</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="14">
         <v>48</v>
       </c>
-      <c r="K49" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="16" customFormat="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="14"/>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="37" customFormat="1">
+      <c r="A50" s="32">
+        <v>49</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="32">
+        <v>1616457600</v>
+      </c>
+      <c r="D50" s="32">
+        <v>1617033599</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="35">
+        <v>1</v>
+      </c>
+      <c r="I50" s="32">
+        <v>35</v>
+      </c>
+      <c r="J50" s="36">
+        <v>49</v>
+      </c>
+      <c r="K50" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="37" customFormat="1">
+      <c r="A51" s="32">
+        <v>50</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="32">
+        <v>1616457600</v>
+      </c>
+      <c r="D51" s="32">
+        <v>1617033599</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="35">
+        <v>1</v>
+      </c>
+      <c r="I51" s="32">
+        <v>36</v>
+      </c>
+      <c r="J51" s="36">
+        <v>50</v>
+      </c>
+      <c r="K51" s="37">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4023,10 +4095,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4421,25 +4493,47 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1">
-      <c r="A34" s="32">
+    <row r="34" spans="1:3" s="7" customFormat="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1">
-      <c r="A35" s="32">
+    <row r="35" spans="1:3" s="7" customFormat="1">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="32" customFormat="1">
+      <c r="A36" s="32">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="32" customFormat="1">
+      <c r="A37" s="32">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4453,13 +4547,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M295"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E290" sqref="E290"/>
+      <selection pane="bottomRight" activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11584,7 +11678,7 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G277" s="20" t="s">
         <v>347</v>
@@ -11635,7 +11729,7 @@
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G279" s="20" t="s">
         <v>213</v>
@@ -11647,411 +11741,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="32" customFormat="1">
+    <row r="280" spans="1:10" s="7" customFormat="1">
       <c r="A280" s="7">
         <v>279</v>
       </c>
-      <c r="B280" s="38">
+      <c r="B280" s="19">
         <v>47</v>
       </c>
-      <c r="C280" s="38">
-        <v>1</v>
-      </c>
-      <c r="D280" s="41" t="s">
+      <c r="C280" s="19">
+        <v>1</v>
+      </c>
+      <c r="D280" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="E280" s="38" t="s">
+      <c r="E280" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F280" s="39"/>
-      <c r="G280" s="39"/>
-      <c r="H280" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="J280" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" s="32" customFormat="1">
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="J280" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="7" customFormat="1">
       <c r="A281" s="7">
         <v>280</v>
       </c>
-      <c r="B281" s="38">
+      <c r="B281" s="19">
         <v>47</v>
       </c>
-      <c r="C281" s="38">
+      <c r="C281" s="19">
         <v>2</v>
       </c>
-      <c r="D281" s="41" t="s">
+      <c r="D281" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="E281" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="F281" s="39"/>
-      <c r="G281" s="39"/>
-      <c r="H281" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="J281" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" s="32" customFormat="1">
+      <c r="E281" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F281" s="20"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="J281" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="7" customFormat="1">
       <c r="A282" s="7">
         <v>281</v>
       </c>
-      <c r="B282" s="38">
+      <c r="B282" s="19">
         <v>47</v>
       </c>
-      <c r="C282" s="38">
+      <c r="C282" s="19">
         <v>3</v>
       </c>
-      <c r="D282" s="38" t="s">
+      <c r="D282" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E282" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="G282" s="39"/>
-      <c r="H282" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="J282" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="E282" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G282" s="20"/>
+      <c r="H282" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="J282" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A283" s="7">
         <v>282</v>
       </c>
-      <c r="B283" s="38">
+      <c r="B283" s="19">
         <v>47</v>
       </c>
-      <c r="C283" s="38">
+      <c r="C283" s="19">
         <v>4</v>
       </c>
-      <c r="D283" s="38" t="s">
+      <c r="D283" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E283" s="38"/>
-      <c r="F283" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="G283" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="H283" s="39" t="s">
+      <c r="E283" s="19"/>
+      <c r="F283" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G283" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="J283" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" s="32" customFormat="1">
+      <c r="H283" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="J283" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="7" customFormat="1">
       <c r="A284" s="7">
         <v>283</v>
       </c>
-      <c r="B284" s="38">
+      <c r="B284" s="19">
         <v>47</v>
       </c>
-      <c r="C284" s="38">
+      <c r="C284" s="19">
         <v>5</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="D284" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E284" s="38"/>
-      <c r="F284" s="39" t="s">
+      <c r="E284" s="19"/>
+      <c r="F284" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="G284" s="39" t="s">
+      <c r="G284" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H284" s="34" t="s">
+      <c r="H284" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="285" spans="1:10" s="32" customFormat="1">
+    <row r="285" spans="1:10" s="7" customFormat="1">
       <c r="A285" s="7">
         <v>284</v>
       </c>
-      <c r="B285" s="38">
+      <c r="B285" s="19">
         <v>47</v>
       </c>
-      <c r="C285" s="38">
+      <c r="C285" s="19">
         <v>6</v>
       </c>
-      <c r="D285" s="38" t="s">
+      <c r="D285" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E285" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F285" s="39"/>
-      <c r="G285" s="39"/>
-      <c r="H285" s="34" t="s">
+      <c r="E285" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J285" s="32">
+      <c r="J285" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:10" s="32" customFormat="1">
+    <row r="286" spans="1:10" s="7" customFormat="1">
       <c r="A286" s="7">
         <v>285</v>
       </c>
-      <c r="B286" s="38">
+      <c r="B286" s="19">
         <v>47</v>
       </c>
-      <c r="C286" s="38">
+      <c r="C286" s="19">
         <v>7</v>
       </c>
-      <c r="D286" s="38" t="s">
+      <c r="D286" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E286" s="38"/>
-      <c r="F286" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="G286" s="39" t="s">
+      <c r="E286" s="19"/>
+      <c r="F286" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="H286" s="34" t="s">
+      <c r="G286" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="H286" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="J286" s="32">
+      <c r="J286" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="287" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A287" s="7">
         <v>286</v>
       </c>
-      <c r="B287" s="38">
+      <c r="B287" s="19">
         <v>47</v>
       </c>
-      <c r="C287" s="38">
+      <c r="C287" s="19">
         <v>8</v>
       </c>
-      <c r="D287" s="38" t="s">
+      <c r="D287" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E287" s="38"/>
-      <c r="F287" s="40" t="s">
+      <c r="E287" s="19"/>
+      <c r="F287" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G287" s="39" t="s">
+      <c r="G287" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H287" s="39" t="s">
+      <c r="H287" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="J287" s="32">
+      <c r="J287" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:10" s="32" customFormat="1">
+    <row r="288" spans="1:10" s="7" customFormat="1">
       <c r="A288" s="7">
         <v>287</v>
       </c>
-      <c r="B288" s="38">
+      <c r="B288" s="19">
         <v>48</v>
       </c>
-      <c r="C288" s="38">
-        <v>1</v>
-      </c>
-      <c r="D288" s="38" t="s">
+      <c r="C288" s="19">
+        <v>1</v>
+      </c>
+      <c r="D288" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E288" s="38" t="s">
+      <c r="E288" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F288" s="39"/>
-      <c r="G288" s="39"/>
-      <c r="H288" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="J288" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" s="32" customFormat="1">
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="J288" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="7" customFormat="1">
       <c r="A289" s="7">
         <v>288</v>
       </c>
-      <c r="B289" s="38">
+      <c r="B289" s="19">
         <v>48</v>
       </c>
-      <c r="C289" s="38">
+      <c r="C289" s="19">
         <v>2</v>
       </c>
-      <c r="D289" s="38" t="s">
+      <c r="D289" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="E289" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="F289" s="39"/>
-      <c r="G289" s="39"/>
-      <c r="H289" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="J289" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" s="32" customFormat="1">
+      <c r="E289" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F289" s="20"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="J289" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="7" customFormat="1">
       <c r="A290" s="7">
         <v>289</v>
       </c>
-      <c r="B290" s="38">
+      <c r="B290" s="19">
         <v>48</v>
       </c>
-      <c r="C290" s="38">
+      <c r="C290" s="19">
         <v>3</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="D290" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E290" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="G290" s="39"/>
-      <c r="H290" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="J290" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="E290" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G290" s="20"/>
+      <c r="H290" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="J290" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A291" s="7">
         <v>290</v>
       </c>
-      <c r="B291" s="38">
+      <c r="B291" s="19">
         <v>48</v>
       </c>
-      <c r="C291" s="38">
+      <c r="C291" s="19">
         <v>4</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="D291" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E291" s="38"/>
-      <c r="F291" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="G291" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="H291" s="39" t="s">
+      <c r="E291" s="19"/>
+      <c r="F291" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G291" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="J291" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" s="32" customFormat="1">
+      <c r="H291" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="J291" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="7" customFormat="1">
       <c r="A292" s="7">
         <v>291</v>
       </c>
-      <c r="B292" s="38">
+      <c r="B292" s="19">
         <v>48</v>
       </c>
-      <c r="C292" s="38">
+      <c r="C292" s="19">
         <v>5</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E292" s="38"/>
-      <c r="F292" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="G292" s="39" t="s">
+      <c r="E292" s="19"/>
+      <c r="F292" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="G292" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H292" s="34" t="s">
+      <c r="H292" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="293" spans="1:10" s="32" customFormat="1">
+    <row r="293" spans="1:10" s="7" customFormat="1">
       <c r="A293" s="7">
         <v>292</v>
       </c>
-      <c r="B293" s="38">
+      <c r="B293" s="19">
         <v>48</v>
       </c>
-      <c r="C293" s="38">
+      <c r="C293" s="19">
         <v>6</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E293" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F293" s="39"/>
-      <c r="G293" s="39"/>
-      <c r="H293" s="34" t="s">
+      <c r="E293" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J293" s="32">
+      <c r="J293" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:10" s="32" customFormat="1">
+    <row r="294" spans="1:10" s="7" customFormat="1">
       <c r="A294" s="7">
         <v>293</v>
       </c>
-      <c r="B294" s="38">
+      <c r="B294" s="19">
         <v>48</v>
       </c>
-      <c r="C294" s="38">
+      <c r="C294" s="19">
         <v>7</v>
       </c>
-      <c r="D294" s="38" t="s">
+      <c r="D294" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E294" s="38"/>
-      <c r="F294" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="G294" s="39" t="s">
+      <c r="E294" s="19"/>
+      <c r="F294" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="H294" s="34" t="s">
+      <c r="G294" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="H294" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="J294" s="32">
+      <c r="J294" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="295" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A295" s="7">
         <v>294</v>
       </c>
-      <c r="B295" s="38">
+      <c r="B295" s="19">
         <v>48</v>
       </c>
-      <c r="C295" s="38">
+      <c r="C295" s="19">
         <v>8</v>
       </c>
-      <c r="D295" s="38" t="s">
+      <c r="D295" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E295" s="38"/>
-      <c r="F295" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="G295" s="39" t="s">
+      <c r="E295" s="19"/>
+      <c r="F295" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="G295" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H295" s="39" t="s">
+      <c r="H295" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="J295" s="32">
+      <c r="J295" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" s="32" customFormat="1">
+      <c r="A296" s="7">
+        <v>295</v>
+      </c>
+      <c r="B296" s="38">
+        <v>49</v>
+      </c>
+      <c r="C296" s="38">
+        <v>1</v>
+      </c>
+      <c r="D296" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E296" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F296" s="39"/>
+      <c r="G296" s="39"/>
+      <c r="H296" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J296" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" s="32" customFormat="1">
+      <c r="A297" s="7">
+        <v>296</v>
+      </c>
+      <c r="B297" s="38">
+        <v>49</v>
+      </c>
+      <c r="C297" s="38">
+        <v>2</v>
+      </c>
+      <c r="D297" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E297" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="F297" s="39"/>
+      <c r="G297" s="39"/>
+      <c r="H297" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J297" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" s="32" customFormat="1">
+      <c r="A298" s="7">
+        <v>297</v>
+      </c>
+      <c r="B298" s="38">
+        <v>49</v>
+      </c>
+      <c r="C298" s="38">
+        <v>3</v>
+      </c>
+      <c r="D298" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E298" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G298" s="39"/>
+      <c r="H298" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J298" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A299" s="7">
+        <v>298</v>
+      </c>
+      <c r="B299" s="38">
+        <v>49</v>
+      </c>
+      <c r="C299" s="38">
+        <v>4</v>
+      </c>
+      <c r="D299" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E299" s="38"/>
+      <c r="F299" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G299" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H299" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="J299" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="32" customFormat="1">
+      <c r="A300" s="7">
+        <v>299</v>
+      </c>
+      <c r="B300" s="38">
+        <v>49</v>
+      </c>
+      <c r="C300" s="38">
+        <v>5</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E300" s="38"/>
+      <c r="F300" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G300" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H300" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" s="32" customFormat="1">
+      <c r="A301" s="7">
+        <v>300</v>
+      </c>
+      <c r="B301" s="38">
+        <v>49</v>
+      </c>
+      <c r="C301" s="38">
+        <v>6</v>
+      </c>
+      <c r="D301" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E301" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="F301" s="39"/>
+      <c r="G301" s="39"/>
+      <c r="H301" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J301" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" s="32" customFormat="1">
+      <c r="A302" s="7">
+        <v>301</v>
+      </c>
+      <c r="B302" s="38">
+        <v>49</v>
+      </c>
+      <c r="C302" s="38">
+        <v>7</v>
+      </c>
+      <c r="D302" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E302" s="38"/>
+      <c r="F302" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G302" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H302" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J302" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A303" s="7">
+        <v>302</v>
+      </c>
+      <c r="B303" s="38">
+        <v>49</v>
+      </c>
+      <c r="C303" s="38">
+        <v>8</v>
+      </c>
+      <c r="D303" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E303" s="38"/>
+      <c r="F303" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G303" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H303" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J303" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" s="32" customFormat="1">
+      <c r="A304" s="7">
+        <v>303</v>
+      </c>
+      <c r="B304" s="38">
+        <v>50</v>
+      </c>
+      <c r="C304" s="38">
+        <v>1</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E304" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F304" s="39"/>
+      <c r="G304" s="39"/>
+      <c r="H304" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J304" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" s="32" customFormat="1">
+      <c r="A305" s="7">
+        <v>304</v>
+      </c>
+      <c r="B305" s="38">
+        <v>50</v>
+      </c>
+      <c r="C305" s="38">
+        <v>2</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E305" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F305" s="39"/>
+      <c r="G305" s="39"/>
+      <c r="H305" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J305" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" s="32" customFormat="1">
+      <c r="A306" s="7">
+        <v>305</v>
+      </c>
+      <c r="B306" s="38">
+        <v>50</v>
+      </c>
+      <c r="C306" s="38">
+        <v>3</v>
+      </c>
+      <c r="D306" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E306" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G306" s="39"/>
+      <c r="H306" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J306" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A307" s="7">
+        <v>306</v>
+      </c>
+      <c r="B307" s="38">
+        <v>50</v>
+      </c>
+      <c r="C307" s="38">
+        <v>4</v>
+      </c>
+      <c r="D307" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E307" s="38"/>
+      <c r="F307" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G307" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H307" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="J307" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" s="32" customFormat="1">
+      <c r="A308" s="7">
+        <v>307</v>
+      </c>
+      <c r="B308" s="38">
+        <v>50</v>
+      </c>
+      <c r="C308" s="38">
+        <v>5</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E308" s="38"/>
+      <c r="F308" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G308" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H308" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" s="32" customFormat="1">
+      <c r="A309" s="7">
+        <v>308</v>
+      </c>
+      <c r="B309" s="38">
+        <v>50</v>
+      </c>
+      <c r="C309" s="38">
+        <v>6</v>
+      </c>
+      <c r="D309" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E309" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="F309" s="39"/>
+      <c r="G309" s="39"/>
+      <c r="H309" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J309" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" s="32" customFormat="1">
+      <c r="A310" s="7">
+        <v>309</v>
+      </c>
+      <c r="B310" s="38">
+        <v>50</v>
+      </c>
+      <c r="C310" s="38">
+        <v>7</v>
+      </c>
+      <c r="D310" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E310" s="38"/>
+      <c r="F310" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G310" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H310" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J310" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A311" s="7">
+        <v>310</v>
+      </c>
+      <c r="B311" s="38">
+        <v>50</v>
+      </c>
+      <c r="C311" s="38">
+        <v>8</v>
+      </c>
+      <c r="D311" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E311" s="38"/>
+      <c r="F311" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G311" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H311" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J311" s="32">
         <v>3</v>
       </c>
     </row>
@@ -12231,7 +12733,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -12245,7 +12747,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -12259,7 +12761,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -12273,7 +12775,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -12315,7 +12817,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -12329,7 +12831,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -12343,7 +12845,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -12357,7 +12859,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4098,7 +4098,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4553,7 +4553,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F306" sqref="F306"/>
+      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12389,7 +12389,7 @@
         <v>2</v>
       </c>
       <c r="D305" s="38" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="E305" s="38" t="s">
         <v>396</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="416">
   <si>
     <t>id|</t>
   </si>
@@ -1647,10 +1647,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>礼盒换好礼--cjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1786,118 +1782,196 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>兑换奖励--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>春暖花开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>880000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>6,6</t>
+  </si>
+  <si>
+    <t>月末狂欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河灯兑奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河灯兑奖--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明有礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在河灯兑奖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在河灯兑奖活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>智能按摩椅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶枕一对</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>兑换奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兑换奖励--cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-  </si>
-  <si>
-    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-  </si>
-  <si>
-    <t>春暖花开</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的空调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫地机器人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>880000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫龙亲嘴烧30片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_hammer_3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_hammer_3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>6,6</t>
-  </si>
-  <si>
-    <t>月末狂欢</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的微波炉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯巧克力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo手机</t>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1984,7 +2058,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2012,6 +2086,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,7 +2141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2150,19 +2236,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,6 +2262,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2466,10 +2576,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:D51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2822,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
@@ -2855,7 +2966,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
@@ -2888,7 +2999,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
@@ -2921,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -2954,7 +3065,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
@@ -2987,7 +3098,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -3020,7 +3131,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -3053,7 +3164,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -3084,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="16" customFormat="1">
@@ -3115,7 +3226,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1">
@@ -3144,7 +3255,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="16" customFormat="1">
@@ -3175,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="16" customFormat="1" ht="16.5">
@@ -3204,7 +3315,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
@@ -3235,7 +3346,7 @@
         <v>22</v>
       </c>
       <c r="K23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
@@ -3266,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
@@ -3295,7 +3406,7 @@
         <v>24</v>
       </c>
       <c r="K25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1">
@@ -3322,7 +3433,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="16" customFormat="1">
@@ -3351,7 +3462,7 @@
         <v>26</v>
       </c>
       <c r="K27" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1">
@@ -3380,7 +3491,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="16" customFormat="1">
@@ -3409,7 +3520,7 @@
         <v>28</v>
       </c>
       <c r="K29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="16" customFormat="1">
@@ -3438,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="K30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1">
@@ -3467,7 +3578,7 @@
         <v>30</v>
       </c>
       <c r="K31" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="16" customFormat="1">
@@ -3498,7 +3609,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1">
@@ -3527,7 +3638,7 @@
         <v>32</v>
       </c>
       <c r="K33" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="16" customFormat="1">
@@ -3558,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="K34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="16" customFormat="1">
@@ -3589,7 +3700,7 @@
         <v>34</v>
       </c>
       <c r="K35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="16" customFormat="1">
@@ -3620,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="16" customFormat="1" ht="16.5">
@@ -3649,7 +3760,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -3680,7 +3791,7 @@
         <v>37</v>
       </c>
       <c r="K38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
@@ -3711,7 +3822,7 @@
         <v>38</v>
       </c>
       <c r="K39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
@@ -3744,7 +3855,7 @@
         <v>39</v>
       </c>
       <c r="K40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="16" customFormat="1">
@@ -3775,7 +3886,7 @@
         <v>40</v>
       </c>
       <c r="K41" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="16" customFormat="1">
@@ -3806,7 +3917,7 @@
         <v>41</v>
       </c>
       <c r="K42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="16" customFormat="1">
@@ -3837,64 +3948,64 @@
         <v>42</v>
       </c>
       <c r="K43" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="16" customFormat="1">
-      <c r="A44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="48" customFormat="1">
+      <c r="A44" s="43">
         <v>43</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="43">
         <v>1615248000</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="43">
         <v>2552233600</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="15" t="s">
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="H44" s="23">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="14">
+      <c r="H44" s="46">
+        <v>1</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="47">
         <v>43</v>
       </c>
-      <c r="K44" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="16" customFormat="1">
-      <c r="A45" s="7">
+      <c r="K44" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="48" customFormat="1">
+      <c r="A45" s="43">
         <v>44</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="43">
         <v>1615248000</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="43">
         <v>2552233600</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="15" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="H45" s="23">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="14">
+      <c r="H45" s="46">
+        <v>1</v>
+      </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="47">
         <v>44</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="48">
         <v>1</v>
       </c>
     </row>
@@ -3903,7 +4014,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="C46" s="7">
         <v>1615248000</v>
@@ -3926,7 +4037,7 @@
         <v>45</v>
       </c>
       <c r="K46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="16" customFormat="1">
@@ -3934,7 +4045,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C47" s="7">
         <v>1615248000</v>
@@ -3957,7 +4068,7 @@
         <v>46</v>
       </c>
       <c r="K47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="16" customFormat="1">
@@ -3965,7 +4076,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="C48" s="7">
         <v>1615852800</v>
@@ -3988,7 +4099,7 @@
         <v>47</v>
       </c>
       <c r="K48" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="16" customFormat="1">
@@ -3996,7 +4107,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C49" s="7">
         <v>1615852800</v>
@@ -4019,68 +4130,126 @@
         <v>48</v>
       </c>
       <c r="K49" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="37" customFormat="1">
-      <c r="A50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="16" customFormat="1">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="7">
         <v>1616457600</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="7">
         <v>1617033599</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="34" t="s">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="35">
-        <v>1</v>
-      </c>
-      <c r="I50" s="32">
+      <c r="H50" s="23">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
         <v>35</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="14">
         <v>49</v>
       </c>
-      <c r="K50" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="37" customFormat="1">
-      <c r="A51" s="32">
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="16" customFormat="1">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="C51" s="32">
+      <c r="B51" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51" s="7">
         <v>1616457600</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="7">
         <v>1617033599</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" s="35">
-        <v>1</v>
-      </c>
-      <c r="I51" s="32">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H51" s="23">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
         <v>36</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="14">
         <v>50</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1617062400</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1617638399</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H52" s="26">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7">
+        <v>37</v>
+      </c>
+      <c r="J52" s="26">
+        <v>51</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1617062400</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1617638399</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H53" s="26">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>38</v>
+      </c>
+      <c r="J53" s="26">
+        <v>52</v>
+      </c>
+      <c r="K53" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4095,7 +4264,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
@@ -4476,10 +4645,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="7" customFormat="1">
@@ -4487,10 +4656,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="7" customFormat="1">
@@ -4498,10 +4667,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="7" customFormat="1">
@@ -4509,10 +4678,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="32" customFormat="1">
@@ -4520,10 +4689,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>369</v>
+        <v>389</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="32" customFormat="1">
@@ -4531,10 +4700,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>370</v>
+        <v>389</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4547,13 +4738,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
+      <selection pane="bottomRight" activeCell="F316" sqref="F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11059,279 +11250,279 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="42" customFormat="1">
-      <c r="A252" s="42">
+    <row r="252" spans="1:10" s="38" customFormat="1">
+      <c r="A252" s="38">
         <v>251</v>
       </c>
-      <c r="B252" s="42">
+      <c r="B252" s="38">
         <v>43</v>
       </c>
-      <c r="C252" s="42">
-        <v>1</v>
-      </c>
-      <c r="D252" s="43" t="s">
+      <c r="C252" s="38">
+        <v>1</v>
+      </c>
+      <c r="D252" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="F252" s="43" t="s">
+      <c r="F252" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G252" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H252" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" s="38" customFormat="1">
+      <c r="A253" s="38">
+        <v>252</v>
+      </c>
+      <c r="B253" s="38">
+        <v>43</v>
+      </c>
+      <c r="C253" s="38">
+        <v>2</v>
+      </c>
+      <c r="D253" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F253" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G253" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="H253" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" s="38" customFormat="1">
+      <c r="A254" s="38">
+        <v>253</v>
+      </c>
+      <c r="B254" s="38">
+        <v>43</v>
+      </c>
+      <c r="C254" s="38">
+        <v>3</v>
+      </c>
+      <c r="D254" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F254" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G254" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H254" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" s="38" customFormat="1">
+      <c r="A255" s="38">
+        <v>254</v>
+      </c>
+      <c r="B255" s="38">
+        <v>43</v>
+      </c>
+      <c r="C255" s="38">
+        <v>4</v>
+      </c>
+      <c r="D255" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F255" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G255" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H255" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" s="38" customFormat="1">
+      <c r="A256" s="38">
+        <v>255</v>
+      </c>
+      <c r="B256" s="38">
+        <v>43</v>
+      </c>
+      <c r="C256" s="38">
+        <v>5</v>
+      </c>
+      <c r="D256" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F256" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="G252" s="43" t="s">
+      <c r="G256" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H252" s="43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" s="42" customFormat="1">
-      <c r="A253" s="42">
-        <v>252</v>
-      </c>
-      <c r="B253" s="42">
+      <c r="H256" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" s="38" customFormat="1">
+      <c r="A257" s="38">
+        <v>256</v>
+      </c>
+      <c r="B257" s="38">
         <v>43</v>
       </c>
-      <c r="C253" s="42">
+      <c r="C257" s="38">
+        <v>6</v>
+      </c>
+      <c r="D257" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F257" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G257" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="H257" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" s="38" customFormat="1">
+      <c r="A258" s="38">
+        <v>257</v>
+      </c>
+      <c r="B258" s="38">
+        <v>44</v>
+      </c>
+      <c r="C258" s="38">
+        <v>1</v>
+      </c>
+      <c r="D258" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F258" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G258" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H258" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" s="38" customFormat="1">
+      <c r="A259" s="38">
+        <v>258</v>
+      </c>
+      <c r="B259" s="38">
+        <v>44</v>
+      </c>
+      <c r="C259" s="38">
         <v>2</v>
       </c>
-      <c r="D253" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F253" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="G253" s="43" t="s">
+      <c r="D259" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F259" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G259" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="H253" s="43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" s="42" customFormat="1">
-      <c r="A254" s="42">
-        <v>253</v>
-      </c>
-      <c r="B254" s="42">
-        <v>43</v>
-      </c>
-      <c r="C254" s="42">
+      <c r="H259" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" s="38" customFormat="1">
+      <c r="A260" s="38">
+        <v>259</v>
+      </c>
+      <c r="B260" s="38">
+        <v>44</v>
+      </c>
+      <c r="C260" s="38">
         <v>3</v>
       </c>
-      <c r="D254" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F254" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="G254" s="43" t="s">
+      <c r="D260" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F260" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G260" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H254" s="43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" s="42" customFormat="1">
-      <c r="A255" s="42">
-        <v>254</v>
-      </c>
-      <c r="B255" s="42">
-        <v>43</v>
-      </c>
-      <c r="C255" s="42">
+      <c r="H260" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" s="38" customFormat="1">
+      <c r="A261" s="38">
+        <v>260</v>
+      </c>
+      <c r="B261" s="38">
+        <v>44</v>
+      </c>
+      <c r="C261" s="38">
         <v>4</v>
       </c>
-      <c r="D255" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F255" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G255" s="43" t="s">
+      <c r="D261" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F261" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G261" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H255" s="43" t="s">
+      <c r="H261" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="256" spans="1:10" s="42" customFormat="1">
-      <c r="A256" s="42">
-        <v>255</v>
-      </c>
-      <c r="B256" s="42">
-        <v>43</v>
-      </c>
-      <c r="C256" s="42">
+    <row r="262" spans="1:10" s="38" customFormat="1">
+      <c r="A262" s="38">
+        <v>261</v>
+      </c>
+      <c r="B262" s="38">
+        <v>44</v>
+      </c>
+      <c r="C262" s="38">
         <v>5</v>
       </c>
-      <c r="D256" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F256" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="G256" s="43" t="s">
+      <c r="D262" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F262" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G262" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H256" s="43" t="s">
+      <c r="H262" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="257" spans="1:10" s="42" customFormat="1">
-      <c r="A257" s="42">
-        <v>256</v>
-      </c>
-      <c r="B257" s="42">
-        <v>43</v>
-      </c>
-      <c r="C257" s="42">
+    <row r="263" spans="1:10" s="38" customFormat="1">
+      <c r="A263" s="38">
+        <v>262</v>
+      </c>
+      <c r="B263" s="38">
+        <v>44</v>
+      </c>
+      <c r="C263" s="38">
         <v>6</v>
       </c>
-      <c r="D257" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F257" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="G257" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="H257" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" s="42" customFormat="1">
-      <c r="A258" s="42">
-        <v>257</v>
-      </c>
-      <c r="B258" s="42">
-        <v>44</v>
-      </c>
-      <c r="C258" s="42">
-        <v>1</v>
-      </c>
-      <c r="D258" s="43" t="s">
+      <c r="D263" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="F258" s="43" t="s">
-        <v>357</v>
-      </c>
-      <c r="G258" s="43" t="s">
+      <c r="F263" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G263" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H258" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" s="42" customFormat="1">
-      <c r="A259" s="42">
-        <v>258</v>
-      </c>
-      <c r="B259" s="42">
-        <v>44</v>
-      </c>
-      <c r="C259" s="42">
-        <v>2</v>
-      </c>
-      <c r="D259" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F259" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="G259" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="H259" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" s="42" customFormat="1">
-      <c r="A260" s="42">
-        <v>259</v>
-      </c>
-      <c r="B260" s="42">
-        <v>44</v>
-      </c>
-      <c r="C260" s="42">
-        <v>3</v>
-      </c>
-      <c r="D260" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F260" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G260" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H260" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" s="42" customFormat="1">
-      <c r="A261" s="42">
-        <v>260</v>
-      </c>
-      <c r="B261" s="42">
-        <v>44</v>
-      </c>
-      <c r="C261" s="42">
-        <v>4</v>
-      </c>
-      <c r="D261" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F261" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G261" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H261" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" s="42" customFormat="1">
-      <c r="A262" s="42">
-        <v>261</v>
-      </c>
-      <c r="B262" s="42">
-        <v>44</v>
-      </c>
-      <c r="C262" s="42">
-        <v>5</v>
-      </c>
-      <c r="D262" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F262" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="G262" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H262" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" s="42" customFormat="1">
-      <c r="A263" s="42">
-        <v>262</v>
-      </c>
-      <c r="B263" s="42">
-        <v>44</v>
-      </c>
-      <c r="C263" s="42">
-        <v>6</v>
-      </c>
-      <c r="D263" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F263" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="G263" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H263" s="43" t="s">
+      <c r="H263" s="39" t="s">
         <v>332</v>
       </c>
     </row>
@@ -11346,15 +11537,15 @@
         <v>1</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E264" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J264" s="7">
         <v>1</v>
@@ -11374,12 +11565,12 @@
         <v>130</v>
       </c>
       <c r="E265" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J265" s="7">
         <v>1</v>
@@ -11399,11 +11590,11 @@
         <v>130</v>
       </c>
       <c r="E266" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J266" s="7">
         <v>1</v>
@@ -11427,10 +11618,10 @@
         <v>181</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H267" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="7" customFormat="1">
@@ -11451,7 +11642,7 @@
         <v>41</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H268" s="15" t="s">
         <v>68</v>
@@ -11478,10 +11669,10 @@
         <v>327</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H269" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J269" s="7">
         <v>1</v>
@@ -11501,7 +11692,7 @@
         <v>130</v>
       </c>
       <c r="E270" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="15" t="s">
@@ -11532,7 +11723,7 @@
         <v>174</v>
       </c>
       <c r="H271" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J271" s="7">
         <v>1</v>
@@ -11549,15 +11740,15 @@
         <v>1</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E272" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
       <c r="H272" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J272" s="7">
         <v>1</v>
@@ -11577,12 +11768,12 @@
         <v>320</v>
       </c>
       <c r="E273" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
       <c r="H273" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J273" s="7">
         <v>1</v>
@@ -11602,11 +11793,11 @@
         <v>131</v>
       </c>
       <c r="E274" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G274" s="20"/>
       <c r="H274" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J274" s="7">
         <v>1</v>
@@ -11633,7 +11824,7 @@
         <v>213</v>
       </c>
       <c r="H275" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="7" customFormat="1">
@@ -11654,7 +11845,7 @@
         <v>41</v>
       </c>
       <c r="G276" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H276" s="15" t="s">
         <v>68</v>
@@ -11678,13 +11869,13 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H277" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J277" s="7">
         <v>1</v>
@@ -11704,7 +11895,7 @@
         <v>131</v>
       </c>
       <c r="E278" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="15" t="s">
@@ -11729,13 +11920,13 @@
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G279" s="20" t="s">
         <v>213</v>
       </c>
       <c r="H279" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J279" s="7">
         <v>1</v>
@@ -11752,15 +11943,15 @@
         <v>1</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E280" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J280" s="7">
         <v>1</v>
@@ -11777,15 +11968,15 @@
         <v>2</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E281" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
       <c r="H281" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J281" s="7">
         <v>1</v>
@@ -11805,11 +11996,11 @@
         <v>130</v>
       </c>
       <c r="E282" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J282" s="7">
         <v>1</v>
@@ -11830,13 +12021,13 @@
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H283" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J283" s="7">
         <v>1</v>
@@ -11880,7 +12071,7 @@
         <v>130</v>
       </c>
       <c r="E285" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
@@ -11906,13 +12097,13 @@
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H286" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J286" s="7">
         <v>2</v>
@@ -11933,13 +12124,13 @@
       </c>
       <c r="E287" s="19"/>
       <c r="F287" s="22" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="G287" s="20" t="s">
         <v>174</v>
       </c>
       <c r="H287" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J287" s="7">
         <v>3</v>
@@ -11956,15 +12147,15 @@
         <v>1</v>
       </c>
       <c r="D288" s="19" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="E288" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
       <c r="H288" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J288" s="7">
         <v>1</v>
@@ -11981,15 +12172,15 @@
         <v>2</v>
       </c>
       <c r="D289" s="19" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="E289" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
       <c r="H289" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J289" s="7">
         <v>1</v>
@@ -12009,11 +12200,11 @@
         <v>131</v>
       </c>
       <c r="E290" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G290" s="20"/>
       <c r="H290" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J290" s="7">
         <v>1</v>
@@ -12034,13 +12225,13 @@
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H291" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J291" s="7">
         <v>1</v>
@@ -12061,7 +12252,7 @@
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G292" s="20" t="s">
         <v>62</v>
@@ -12084,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="E293" s="19" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
@@ -12110,13 +12301,13 @@
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H294" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J294" s="7">
         <v>2</v>
@@ -12137,13 +12328,13 @@
       </c>
       <c r="E295" s="19"/>
       <c r="F295" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G295" s="20" t="s">
         <v>213</v>
       </c>
       <c r="H295" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J295" s="7">
         <v>3</v>
@@ -12153,22 +12344,22 @@
       <c r="A296" s="7">
         <v>295</v>
       </c>
-      <c r="B296" s="38">
+      <c r="B296" s="34">
         <v>49</v>
       </c>
-      <c r="C296" s="38">
-        <v>1</v>
-      </c>
-      <c r="D296" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="E296" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="F296" s="39"/>
-      <c r="G296" s="39"/>
-      <c r="H296" s="39" t="s">
-        <v>375</v>
+      <c r="C296" s="34">
+        <v>1</v>
+      </c>
+      <c r="D296" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E296" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="F296" s="35"/>
+      <c r="G296" s="35"/>
+      <c r="H296" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="J296" s="32">
         <v>1</v>
@@ -12178,22 +12369,22 @@
       <c r="A297" s="7">
         <v>296</v>
       </c>
-      <c r="B297" s="38">
+      <c r="B297" s="34">
         <v>49</v>
       </c>
-      <c r="C297" s="38">
+      <c r="C297" s="34">
         <v>2</v>
       </c>
-      <c r="D297" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="E297" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="F297" s="39"/>
-      <c r="G297" s="39"/>
-      <c r="H297" s="39" t="s">
-        <v>376</v>
+      <c r="D297" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E297" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="F297" s="35"/>
+      <c r="G297" s="35"/>
+      <c r="H297" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="J297" s="32">
         <v>1</v>
@@ -12203,21 +12394,21 @@
       <c r="A298" s="7">
         <v>297</v>
       </c>
-      <c r="B298" s="38">
+      <c r="B298" s="34">
         <v>49</v>
       </c>
-      <c r="C298" s="38">
+      <c r="C298" s="34">
         <v>3</v>
       </c>
-      <c r="D298" s="38" t="s">
+      <c r="D298" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E298" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="G298" s="39"/>
-      <c r="H298" s="39" t="s">
-        <v>377</v>
+      <c r="E298" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="G298" s="35"/>
+      <c r="H298" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="J298" s="32">
         <v>1</v>
@@ -12227,24 +12418,24 @@
       <c r="A299" s="7">
         <v>298</v>
       </c>
-      <c r="B299" s="38">
+      <c r="B299" s="34">
         <v>49</v>
       </c>
-      <c r="C299" s="38">
+      <c r="C299" s="34">
         <v>4</v>
       </c>
-      <c r="D299" s="38" t="s">
+      <c r="D299" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E299" s="38"/>
-      <c r="F299" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="G299" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="H299" s="39" t="s">
-        <v>379</v>
+      <c r="E299" s="34"/>
+      <c r="F299" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G299" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="H299" s="35" t="s">
+        <v>377</v>
       </c>
       <c r="J299" s="32">
         <v>1</v>
@@ -12254,23 +12445,23 @@
       <c r="A300" s="7">
         <v>299</v>
       </c>
-      <c r="B300" s="38">
+      <c r="B300" s="34">
         <v>49</v>
       </c>
-      <c r="C300" s="38">
+      <c r="C300" s="34">
         <v>5</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="D300" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E300" s="38"/>
-      <c r="F300" s="39" t="s">
+      <c r="E300" s="34"/>
+      <c r="F300" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="G300" s="39" t="s">
+      <c r="G300" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H300" s="34" t="s">
+      <c r="H300" s="33" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12278,21 +12469,21 @@
       <c r="A301" s="7">
         <v>300</v>
       </c>
-      <c r="B301" s="38">
+      <c r="B301" s="34">
         <v>49</v>
       </c>
-      <c r="C301" s="38">
+      <c r="C301" s="34">
         <v>6</v>
       </c>
-      <c r="D301" s="38" t="s">
+      <c r="D301" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E301" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="F301" s="39"/>
-      <c r="G301" s="39"/>
-      <c r="H301" s="34" t="s">
+      <c r="E301" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F301" s="35"/>
+      <c r="G301" s="35"/>
+      <c r="H301" s="33" t="s">
         <v>93</v>
       </c>
       <c r="J301" s="32">
@@ -12303,24 +12494,24 @@
       <c r="A302" s="7">
         <v>301</v>
       </c>
-      <c r="B302" s="38">
+      <c r="B302" s="34">
         <v>49</v>
       </c>
-      <c r="C302" s="38">
+      <c r="C302" s="34">
         <v>7</v>
       </c>
-      <c r="D302" s="38" t="s">
+      <c r="D302" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E302" s="38"/>
-      <c r="F302" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="G302" s="39" t="s">
+      <c r="E302" s="34"/>
+      <c r="F302" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G302" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="H302" s="34" t="s">
-        <v>350</v>
+      <c r="H302" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="J302" s="32">
         <v>2</v>
@@ -12330,24 +12521,24 @@
       <c r="A303" s="7">
         <v>302</v>
       </c>
-      <c r="B303" s="38">
+      <c r="B303" s="34">
         <v>49</v>
       </c>
-      <c r="C303" s="38">
+      <c r="C303" s="34">
         <v>8</v>
       </c>
-      <c r="D303" s="38" t="s">
+      <c r="D303" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="E303" s="38"/>
-      <c r="F303" s="40" t="s">
+      <c r="E303" s="34"/>
+      <c r="F303" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G303" s="39" t="s">
+      <c r="G303" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="H303" s="39" t="s">
-        <v>352</v>
+      <c r="H303" s="35" t="s">
+        <v>351</v>
       </c>
       <c r="J303" s="32">
         <v>3</v>
@@ -12357,22 +12548,22 @@
       <c r="A304" s="7">
         <v>303</v>
       </c>
-      <c r="B304" s="38">
+      <c r="B304" s="34">
         <v>50</v>
       </c>
-      <c r="C304" s="38">
-        <v>1</v>
-      </c>
-      <c r="D304" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="E304" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="F304" s="39"/>
-      <c r="G304" s="39"/>
-      <c r="H304" s="39" t="s">
-        <v>375</v>
+      <c r="C304" s="34">
+        <v>1</v>
+      </c>
+      <c r="D304" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E304" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="F304" s="35"/>
+      <c r="G304" s="35"/>
+      <c r="H304" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="J304" s="32">
         <v>1</v>
@@ -12382,22 +12573,22 @@
       <c r="A305" s="7">
         <v>304</v>
       </c>
-      <c r="B305" s="38">
+      <c r="B305" s="34">
         <v>50</v>
       </c>
-      <c r="C305" s="38">
+      <c r="C305" s="34">
         <v>2</v>
       </c>
-      <c r="D305" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="E305" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="F305" s="39"/>
-      <c r="G305" s="39"/>
-      <c r="H305" s="39" t="s">
-        <v>376</v>
+      <c r="D305" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E305" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F305" s="35"/>
+      <c r="G305" s="35"/>
+      <c r="H305" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="J305" s="32">
         <v>1</v>
@@ -12407,21 +12598,21 @@
       <c r="A306" s="7">
         <v>305</v>
       </c>
-      <c r="B306" s="38">
+      <c r="B306" s="34">
         <v>50</v>
       </c>
-      <c r="C306" s="38">
+      <c r="C306" s="34">
         <v>3</v>
       </c>
-      <c r="D306" s="38" t="s">
+      <c r="D306" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E306" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="G306" s="39"/>
-      <c r="H306" s="39" t="s">
-        <v>377</v>
+      <c r="E306" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="G306" s="35"/>
+      <c r="H306" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="J306" s="32">
         <v>1</v>
@@ -12431,24 +12622,24 @@
       <c r="A307" s="7">
         <v>306</v>
       </c>
-      <c r="B307" s="38">
+      <c r="B307" s="34">
         <v>50</v>
       </c>
-      <c r="C307" s="38">
+      <c r="C307" s="34">
         <v>4</v>
       </c>
-      <c r="D307" s="38" t="s">
+      <c r="D307" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E307" s="38"/>
-      <c r="F307" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="G307" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="H307" s="39" t="s">
-        <v>379</v>
+      <c r="E307" s="34"/>
+      <c r="F307" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G307" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="H307" s="35" t="s">
+        <v>377</v>
       </c>
       <c r="J307" s="32">
         <v>1</v>
@@ -12458,23 +12649,23 @@
       <c r="A308" s="7">
         <v>307</v>
       </c>
-      <c r="B308" s="38">
+      <c r="B308" s="34">
         <v>50</v>
       </c>
-      <c r="C308" s="38">
+      <c r="C308" s="34">
         <v>5</v>
       </c>
-      <c r="D308" s="38" t="s">
+      <c r="D308" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E308" s="38"/>
-      <c r="F308" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="G308" s="39" t="s">
+      <c r="E308" s="34"/>
+      <c r="F308" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="G308" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H308" s="34" t="s">
+      <c r="H308" s="33" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12482,21 +12673,21 @@
       <c r="A309" s="7">
         <v>308</v>
       </c>
-      <c r="B309" s="38">
+      <c r="B309" s="34">
         <v>50</v>
       </c>
-      <c r="C309" s="38">
+      <c r="C309" s="34">
         <v>6</v>
       </c>
-      <c r="D309" s="38" t="s">
+      <c r="D309" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E309" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="F309" s="39"/>
-      <c r="G309" s="39"/>
-      <c r="H309" s="34" t="s">
+      <c r="E309" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F309" s="35"/>
+      <c r="G309" s="35"/>
+      <c r="H309" s="33" t="s">
         <v>93</v>
       </c>
       <c r="J309" s="32">
@@ -12507,24 +12698,24 @@
       <c r="A310" s="7">
         <v>309</v>
       </c>
-      <c r="B310" s="38">
+      <c r="B310" s="34">
         <v>50</v>
       </c>
-      <c r="C310" s="38">
+      <c r="C310" s="34">
         <v>7</v>
       </c>
-      <c r="D310" s="38" t="s">
+      <c r="D310" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E310" s="38"/>
-      <c r="F310" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="G310" s="39" t="s">
+      <c r="E310" s="34"/>
+      <c r="F310" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G310" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="H310" s="34" t="s">
-        <v>350</v>
+      <c r="H310" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="J310" s="32">
         <v>2</v>
@@ -12534,26 +12725,428 @@
       <c r="A311" s="7">
         <v>310</v>
       </c>
-      <c r="B311" s="38">
+      <c r="B311" s="34">
         <v>50</v>
       </c>
-      <c r="C311" s="38">
+      <c r="C311" s="34">
         <v>8</v>
       </c>
-      <c r="D311" s="38" t="s">
+      <c r="D311" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E311" s="38"/>
-      <c r="F311" s="40" t="s">
+      <c r="E311" s="34"/>
+      <c r="F311" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G311" s="39" t="s">
+      <c r="G311" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="H311" s="39" t="s">
+      <c r="H311" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="J311" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" s="49" customFormat="1">
+      <c r="A312" s="7">
+        <v>311</v>
+      </c>
+      <c r="B312" s="49">
+        <v>51</v>
+      </c>
+      <c r="C312" s="49">
+        <v>1</v>
+      </c>
+      <c r="D312" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="J311" s="32">
+      <c r="E312" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="F312" s="50"/>
+      <c r="G312" s="50"/>
+      <c r="H312" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J312" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" s="49" customFormat="1">
+      <c r="A313" s="7">
+        <v>312</v>
+      </c>
+      <c r="B313" s="49">
+        <v>51</v>
+      </c>
+      <c r="C313" s="49">
+        <v>2</v>
+      </c>
+      <c r="D313" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E313" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F313" s="50"/>
+      <c r="G313" s="50"/>
+      <c r="H313" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J313" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" s="49" customFormat="1">
+      <c r="A314" s="7">
+        <v>313</v>
+      </c>
+      <c r="B314" s="49">
+        <v>51</v>
+      </c>
+      <c r="C314" s="49">
+        <v>3</v>
+      </c>
+      <c r="D314" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E314" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="F314" s="50"/>
+      <c r="G314" s="50"/>
+      <c r="H314" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J314" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A315" s="7">
+        <v>314</v>
+      </c>
+      <c r="B315" s="49">
+        <v>51</v>
+      </c>
+      <c r="C315" s="49">
+        <v>4</v>
+      </c>
+      <c r="D315" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F315" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G315" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="H315" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J315" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" s="49" customFormat="1">
+      <c r="A316" s="7">
+        <v>315</v>
+      </c>
+      <c r="B316" s="49">
+        <v>51</v>
+      </c>
+      <c r="C316" s="49">
+        <v>5</v>
+      </c>
+      <c r="D316" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F316" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G316" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H316" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" s="49" customFormat="1">
+      <c r="A317" s="7">
+        <v>316</v>
+      </c>
+      <c r="B317" s="49">
+        <v>51</v>
+      </c>
+      <c r="C317" s="49">
+        <v>6</v>
+      </c>
+      <c r="D317" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E317" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="F317" s="50"/>
+      <c r="G317" s="50"/>
+      <c r="H317" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J317" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" s="49" customFormat="1">
+      <c r="A318" s="7">
+        <v>317</v>
+      </c>
+      <c r="B318" s="49">
+        <v>51</v>
+      </c>
+      <c r="C318" s="49">
+        <v>7</v>
+      </c>
+      <c r="D318" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F318" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G318" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="H318" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J318" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A319" s="7">
+        <v>318</v>
+      </c>
+      <c r="B319" s="49">
+        <v>51</v>
+      </c>
+      <c r="C319" s="49">
+        <v>8</v>
+      </c>
+      <c r="D319" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="F319" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G319" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H319" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J319" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" s="49" customFormat="1">
+      <c r="A320" s="7">
+        <v>319</v>
+      </c>
+      <c r="B320" s="49">
+        <v>52</v>
+      </c>
+      <c r="C320" s="49">
+        <v>1</v>
+      </c>
+      <c r="D320" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="E320" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="F320" s="50"/>
+      <c r="G320" s="50"/>
+      <c r="H320" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J320" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" s="49" customFormat="1">
+      <c r="A321" s="7">
+        <v>320</v>
+      </c>
+      <c r="B321" s="49">
+        <v>52</v>
+      </c>
+      <c r="C321" s="49">
+        <v>2</v>
+      </c>
+      <c r="D321" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="E321" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="F321" s="50"/>
+      <c r="G321" s="50"/>
+      <c r="H321" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J321" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" s="49" customFormat="1">
+      <c r="A322" s="7">
+        <v>321</v>
+      </c>
+      <c r="B322" s="49">
+        <v>52</v>
+      </c>
+      <c r="C322" s="49">
+        <v>3</v>
+      </c>
+      <c r="D322" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E322" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="F322" s="50"/>
+      <c r="G322" s="50"/>
+      <c r="H322" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J322" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A323" s="7">
+        <v>322</v>
+      </c>
+      <c r="B323" s="49">
+        <v>52</v>
+      </c>
+      <c r="C323" s="49">
+        <v>4</v>
+      </c>
+      <c r="D323" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F323" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G323" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="H323" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J323" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" s="49" customFormat="1">
+      <c r="A324" s="7">
+        <v>323</v>
+      </c>
+      <c r="B324" s="49">
+        <v>52</v>
+      </c>
+      <c r="C324" s="49">
+        <v>5</v>
+      </c>
+      <c r="D324" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F324" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="G324" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H324" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" s="49" customFormat="1">
+      <c r="A325" s="7">
+        <v>324</v>
+      </c>
+      <c r="B325" s="49">
+        <v>52</v>
+      </c>
+      <c r="C325" s="49">
+        <v>6</v>
+      </c>
+      <c r="D325" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E325" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="F325" s="50"/>
+      <c r="G325" s="50"/>
+      <c r="H325" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J325" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" s="49" customFormat="1">
+      <c r="A326" s="7">
+        <v>325</v>
+      </c>
+      <c r="B326" s="49">
+        <v>52</v>
+      </c>
+      <c r="C326" s="49">
+        <v>7</v>
+      </c>
+      <c r="D326" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F326" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G326" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="H326" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J326" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A327" s="7">
+        <v>326</v>
+      </c>
+      <c r="B327" s="49">
+        <v>52</v>
+      </c>
+      <c r="C327" s="49">
+        <v>8</v>
+      </c>
+      <c r="D327" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F327" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G327" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H327" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J327" s="49">
         <v>3</v>
       </c>
     </row>
@@ -12684,17 +13277,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>362</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12705,7 +13298,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -12719,7 +13312,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -12733,7 +13326,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -12747,7 +13340,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -12761,7 +13354,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -12775,7 +13368,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -12789,7 +13382,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -12803,7 +13396,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -12817,7 +13410,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -12831,7 +13424,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -12845,7 +13438,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -12859,7 +13452,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="392">
   <si>
     <t>id|</t>
   </si>
@@ -1808,10 +1808,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>华为荣耀手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>扫地机器人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1875,6 +1871,14 @@
   </si>
   <si>
     <t>6,6</t>
+  </si>
+  <si>
+    <t>荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4451,11 +4455,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G294" sqref="G294"/>
+      <selection pane="bottomRight" activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11580,7 +11584,7 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G277" s="20" t="s">
         <v>347</v>
@@ -11631,7 +11635,7 @@
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G279" s="20" t="s">
         <v>213</v>
@@ -11662,7 +11666,7 @@
       <c r="F280" s="39"/>
       <c r="G280" s="39"/>
       <c r="H280" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J280" s="32">
         <v>1</v>
@@ -11682,12 +11686,12 @@
         <v>353</v>
       </c>
       <c r="E281" s="38" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F281" s="39"/>
       <c r="G281" s="39"/>
       <c r="H281" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J281" s="32">
         <v>1</v>
@@ -11707,11 +11711,11 @@
         <v>130</v>
       </c>
       <c r="E282" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G282" s="39"/>
       <c r="H282" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J282" s="32">
         <v>1</v>
@@ -11732,13 +11736,13 @@
       </c>
       <c r="E283" s="38"/>
       <c r="F283" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G283" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="H283" s="39" t="s">
         <v>378</v>
-      </c>
-      <c r="H283" s="39" t="s">
-        <v>379</v>
       </c>
       <c r="J283" s="32">
         <v>1</v>
@@ -11782,7 +11786,7 @@
         <v>130</v>
       </c>
       <c r="E285" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F285" s="39"/>
       <c r="G285" s="39"/>
@@ -11808,10 +11812,10 @@
       </c>
       <c r="E286" s="38"/>
       <c r="F286" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="G286" s="39" t="s">
         <v>381</v>
-      </c>
-      <c r="G286" s="39" t="s">
-        <v>382</v>
       </c>
       <c r="H286" s="34" t="s">
         <v>350</v>
@@ -11866,7 +11870,7 @@
       <c r="F288" s="39"/>
       <c r="G288" s="39"/>
       <c r="H288" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J288" s="32">
         <v>1</v>
@@ -11886,12 +11890,12 @@
         <v>320</v>
       </c>
       <c r="E289" s="38" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F289" s="39"/>
       <c r="G289" s="39"/>
       <c r="H289" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J289" s="32">
         <v>1</v>
@@ -11911,11 +11915,11 @@
         <v>131</v>
       </c>
       <c r="E290" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G290" s="39"/>
       <c r="H290" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J290" s="32">
         <v>1</v>
@@ -11936,13 +11940,13 @@
       </c>
       <c r="E291" s="38"/>
       <c r="F291" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G291" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="H291" s="39" t="s">
         <v>378</v>
-      </c>
-      <c r="H291" s="39" t="s">
-        <v>379</v>
       </c>
       <c r="J291" s="32">
         <v>1</v>
@@ -11963,7 +11967,7 @@
       </c>
       <c r="E292" s="38"/>
       <c r="F292" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G292" s="39" t="s">
         <v>62</v>
@@ -11986,7 +11990,7 @@
         <v>131</v>
       </c>
       <c r="E293" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F293" s="39"/>
       <c r="G293" s="39"/>
@@ -12012,10 +12016,10 @@
       </c>
       <c r="E294" s="38"/>
       <c r="F294" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="G294" s="39" t="s">
         <v>381</v>
-      </c>
-      <c r="G294" s="39" t="s">
-        <v>382</v>
       </c>
       <c r="H294" s="34" t="s">
         <v>350</v>
@@ -12039,7 +12043,7 @@
       </c>
       <c r="E295" s="38"/>
       <c r="F295" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G295" s="39" t="s">
         <v>213</v>
@@ -12165,7 +12169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -12227,7 +12231,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -12241,7 +12245,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -12255,7 +12259,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -12269,7 +12273,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -12311,7 +12315,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -12325,7 +12329,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -12339,7 +12343,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -12353,7 +12357,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="417">
   <si>
     <t>id|</t>
   </si>
@@ -1972,6 +1972,10 @@
   </si>
   <si>
     <t>"fish_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>130000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4744,7 +4748,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F316" sqref="F316"/>
+      <selection pane="bottomRight" activeCell="H322" sqref="H322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13018,7 +13022,7 @@
       <c r="F322" s="50"/>
       <c r="G322" s="50"/>
       <c r="H322" s="51" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J322" s="49">
         <v>1</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="342">
   <si>
     <t>id|</t>
   </si>
@@ -1508,9 +1508,6 @@
     <t>42000,</t>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-  </si>
-  <si>
     <t>3000,</t>
   </si>
   <si>
@@ -1577,10 +1574,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1640,9 +1637,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1655,9 +1652,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1671,17 +1681,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1700,23 +1704,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1731,31 +1735,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,7 +1760,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1779,6 +1768,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1841,13 +1838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,115 +1856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,6 +1874,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1992,12 +1995,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,17 +2058,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2085,26 +2078,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2124,13 +2117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2140,7 +2137,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2152,31 +2149,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2185,100 +2185,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -2751,10 +2748,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5039,7 +5036,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F359" sqref="F359"/>
+      <selection pane="bottomRight" activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14055,7 +14052,7 @@
         <v>306</v>
       </c>
       <c r="F352" s="22" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>231</v>
@@ -14113,7 +14110,7 @@
         <v>158</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J354" s="1">
         <v>5</v>
@@ -14136,7 +14133,7 @@
         <v>161</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>191</v>
@@ -14172,10 +14169,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14183,7 +14180,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14191,7 +14188,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14275,16 +14272,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14295,7 +14292,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -14309,7 +14306,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -14323,7 +14320,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -14337,7 +14334,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -14351,7 +14348,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -14365,7 +14362,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -14379,7 +14376,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -14393,7 +14390,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -14407,7 +14404,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -14421,7 +14418,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -14435,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -14449,7 +14446,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="354">
   <si>
     <t>id|</t>
   </si>
@@ -1541,9 +1541,6 @@
     <t>旺仔牛奶*20</t>
   </si>
   <si>
-    <t>fish_coin</t>
-  </si>
-  <si>
     <t>自动吹泡泡机</t>
   </si>
   <si>
@@ -1614,9 +1611,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1676,68 +1673,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1752,17 +1689,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1785,22 +1728,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1871,79 +1868,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,19 +1904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,6 +1946,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2003,13 +1994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,19 +2012,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,42 +2070,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2129,15 +2094,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2149,6 +2105,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2170,16 +2156,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2188,138 +2185,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2400,12 +2397,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2467,9 +2458,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2796,28 +2784,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N51" sqref="N51"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="37" customWidth="1"/>
-    <col min="4" max="6" width="18.625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="35" customWidth="1"/>
+    <col min="4" max="6" width="18.625" style="35" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
     <col min="8" max="8" width="27.25" style="9" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="37" customWidth="1"/>
-    <col min="12" max="12" width="33" style="37" customWidth="1"/>
-    <col min="13" max="14" width="20.375" style="37" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="37" customWidth="1"/>
-    <col min="16" max="16" width="28.875" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="37"/>
+    <col min="11" max="11" width="13.375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="33" style="35" customWidth="1"/>
+    <col min="13" max="14" width="20.375" style="35" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="28.875" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="35"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:12">
@@ -2833,22 +2821,22 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="12" t="s">
@@ -2888,11 +2876,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" ht="16.5" spans="1:16">
       <c r="A3" s="1">
@@ -2924,9 +2912,9 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="L3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="1">
@@ -2958,8 +2946,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
@@ -2988,7 +2976,7 @@
       <c r="J5" s="21">
         <v>4</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3019,11 +3007,11 @@
       <c r="J6" s="21">
         <v>5</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="35">
         <v>0</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" ht="16.5" spans="1:16">
       <c r="A7" s="1">
@@ -3052,13 +3040,13 @@
       <c r="J7" s="21">
         <v>6</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-    </row>
-    <row r="8" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3085,13 +3073,13 @@
       <c r="J8" s="21">
         <v>7</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <v>0</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-    </row>
-    <row r="9" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3118,13 +3106,13 @@
       <c r="J9" s="21">
         <v>8</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <v>0</v>
       </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-    </row>
-    <row r="10" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3151,13 +3139,13 @@
       <c r="J10" s="21">
         <v>9</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="31">
         <v>0</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-    </row>
-    <row r="11" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+    </row>
+    <row r="11" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3184,23 +3172,23 @@
       <c r="J11" s="21">
         <v>10</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <v>0</v>
       </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-    </row>
-    <row r="12" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="37">
         <v>1609775999</v>
       </c>
       <c r="E12" s="5"/>
@@ -3217,23 +3205,23 @@
       <c r="J12" s="21">
         <v>11</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="31">
         <v>0</v>
       </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-    </row>
-    <row r="13" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>1609775999</v>
       </c>
       <c r="E13" s="5"/>
@@ -3250,23 +3238,23 @@
       <c r="J13" s="21">
         <v>12</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="31">
         <v>0</v>
       </c>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>1609775999</v>
       </c>
       <c r="E14" s="5"/>
@@ -3283,23 +3271,23 @@
       <c r="J14" s="21">
         <v>13</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="31">
         <v>0</v>
       </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>1609775999</v>
       </c>
       <c r="E15" s="5"/>
@@ -3316,23 +3304,23 @@
       <c r="J15" s="21">
         <v>14</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="31">
         <v>0</v>
       </c>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>1610380799</v>
       </c>
       <c r="E16" s="5"/>
@@ -3349,23 +3337,23 @@
       <c r="J16" s="5">
         <v>15</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="31">
         <v>0</v>
       </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-    </row>
-    <row r="17" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+    </row>
+    <row r="17" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>1610380799</v>
       </c>
       <c r="E17" s="5"/>
@@ -3382,23 +3370,23 @@
       <c r="J17" s="5">
         <v>16</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="31">
         <v>0</v>
       </c>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-    </row>
-    <row r="18" s="34" customFormat="1" spans="1:11">
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" s="32" customFormat="1" spans="1:11">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="38">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="38">
         <v>1610985599</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -3413,11 +3401,11 @@
       <c r="J18" s="21">
         <v>17</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="33" customFormat="1" spans="1:11">
+    <row r="19" s="31" customFormat="1" spans="1:11">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3444,11 +3432,11 @@
       <c r="J19" s="21">
         <v>18</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="1" spans="1:11">
+    <row r="20" s="32" customFormat="1" spans="1:11">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3473,11 +3461,11 @@
       <c r="J20" s="21">
         <v>19</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="33" customFormat="1" spans="1:11">
+    <row r="21" s="31" customFormat="1" spans="1:11">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3504,11 +3492,11 @@
       <c r="J21" s="21">
         <v>20</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="33" customFormat="1" ht="16.5" spans="1:16">
+    <row r="22" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3523,23 +3511,23 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="40">
-        <v>1</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="40">
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="38">
         <v>21</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="31">
         <v>0</v>
       </c>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-    </row>
-    <row r="23" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+    </row>
+    <row r="23" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3554,23 +3542,23 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="40">
-        <v>1</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="40">
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="38">
         <v>22</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="31">
         <v>0</v>
       </c>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-    </row>
-    <row r="24" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+    </row>
+    <row r="24" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3585,23 +3573,23 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="40">
-        <v>1</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="40">
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="38">
         <v>23</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="31">
         <v>0</v>
       </c>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-    </row>
-    <row r="25" s="33" customFormat="1" spans="1:11">
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" s="31" customFormat="1" spans="1:11">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3614,21 +3602,21 @@
       <c r="D25" s="5">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="40">
-        <v>1</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="40">
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="38">
         <v>24</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="33" customFormat="1" spans="1:11">
+    <row r="26" s="31" customFormat="1" spans="1:11">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3641,21 +3629,21 @@
       <c r="D26" s="5">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="40">
-        <v>1</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="40">
+      <c r="H26" s="38">
+        <v>1</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="38">
         <v>25</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="33" customFormat="1" spans="1:11">
+    <row r="27" s="31" customFormat="1" spans="1:11">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3670,21 +3658,21 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="40">
-        <v>1</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="40">
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="38">
         <v>26</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="33" customFormat="1" spans="1:11">
+    <row r="28" s="31" customFormat="1" spans="1:11">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3699,21 +3687,21 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="40">
-        <v>1</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="40">
+      <c r="H28" s="38">
+        <v>1</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="38">
         <v>27</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="33" customFormat="1" spans="1:11">
+    <row r="29" s="31" customFormat="1" spans="1:11">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3728,21 +3716,21 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="40">
-        <v>1</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="40">
+      <c r="H29" s="38">
+        <v>1</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="38">
         <v>28</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="33" customFormat="1" spans="1:11">
+    <row r="30" s="31" customFormat="1" spans="1:11">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3757,21 +3745,21 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="40">
-        <v>1</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="40">
+      <c r="H30" s="38">
+        <v>1</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="38">
         <v>29</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="34" customFormat="1" spans="1:11">
+    <row r="31" s="32" customFormat="1" spans="1:11">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3796,11 +3784,11 @@
       <c r="J31" s="21">
         <v>30</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="33" customFormat="1" spans="1:11">
+    <row r="32" s="31" customFormat="1" spans="1:11">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3827,11 +3815,11 @@
       <c r="J32" s="21">
         <v>31</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="34" customFormat="1" spans="1:11">
+    <row r="33" s="32" customFormat="1" spans="1:11">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3856,11 +3844,11 @@
       <c r="J33" s="21">
         <v>32</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="33" customFormat="1" spans="1:11">
+    <row r="34" s="31" customFormat="1" spans="1:11">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3887,15 +3875,15 @@
       <c r="J34" s="21">
         <v>33</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="33" customFormat="1" spans="1:11">
+    <row r="35" s="31" customFormat="1" spans="1:11">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="5">
@@ -3906,10 +3894,10 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="38">
         <v>1</v>
       </c>
       <c r="I35" s="5">
@@ -3918,15 +3906,15 @@
       <c r="J35" s="21">
         <v>34</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="33" customFormat="1" spans="1:11">
+    <row r="36" s="31" customFormat="1" spans="1:11">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="5">
@@ -3937,10 +3925,10 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="38">
         <v>1</v>
       </c>
       <c r="I36" s="5">
@@ -3949,11 +3937,11 @@
       <c r="J36" s="21">
         <v>35</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="33" customFormat="1" ht="16.5" spans="1:16">
+    <row r="37" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3968,23 +3956,23 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="40">
-        <v>1</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="40">
+      <c r="H37" s="38">
+        <v>1</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="38">
         <v>36</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="31">
         <v>0</v>
       </c>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-    </row>
-    <row r="38" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+    </row>
+    <row r="38" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3999,23 +3987,23 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="40">
-        <v>1</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="40">
+      <c r="H38" s="38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="38">
         <v>37</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="31">
         <v>0</v>
       </c>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-    </row>
-    <row r="39" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+    </row>
+    <row r="39" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -4030,27 +4018,27 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="40">
-        <v>1</v>
-      </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="40">
+      <c r="H39" s="38">
+        <v>1</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="38">
         <v>38</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="31">
         <v>0</v>
       </c>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-    </row>
-    <row r="40" s="33" customFormat="1" spans="1:11">
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+    </row>
+    <row r="40" s="31" customFormat="1" spans="1:11">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="5">
@@ -4064,7 +4052,7 @@
       <c r="G40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="38">
         <v>1</v>
       </c>
       <c r="I40" s="5">
@@ -4073,15 +4061,15 @@
       <c r="J40" s="21">
         <v>39</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="33" customFormat="1" spans="1:11">
+    <row r="41" s="31" customFormat="1" spans="1:11">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="5">
@@ -4095,7 +4083,7 @@
       <c r="G41" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="38">
         <v>1</v>
       </c>
       <c r="I41" s="5">
@@ -4104,15 +4092,15 @@
       <c r="J41" s="21">
         <v>40</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="33" customFormat="1" spans="1:11">
+    <row r="42" s="31" customFormat="1" spans="1:11">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="40" t="s">
         <v>67</v>
       </c>
       <c r="C42" s="5">
@@ -4126,7 +4114,7 @@
       <c r="G42" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="38">
         <v>1</v>
       </c>
       <c r="I42" s="5">
@@ -4135,15 +4123,15 @@
       <c r="J42" s="21">
         <v>41</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="33" customFormat="1" spans="1:11">
+    <row r="43" s="31" customFormat="1" spans="1:11">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="5">
@@ -4157,7 +4145,7 @@
       <c r="G43" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="38">
         <v>1</v>
       </c>
       <c r="I43" s="5">
@@ -4166,73 +4154,73 @@
       <c r="J43" s="21">
         <v>42</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="35" customFormat="1" spans="1:11">
-      <c r="A44" s="43">
+    <row r="44" s="33" customFormat="1" spans="1:11">
+      <c r="A44" s="41">
         <v>43</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="41">
         <v>1615248000</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="41">
         <v>2552233600</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="45" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="46">
-        <v>1</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="51">
+      <c r="H44" s="44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="49">
         <v>43</v>
       </c>
-      <c r="K44" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" s="35" customFormat="1" spans="1:11">
-      <c r="A45" s="43">
+      <c r="K44" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="33" customFormat="1" spans="1:11">
+      <c r="A45" s="41">
         <v>44</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="41">
         <v>1615248000</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="41">
         <v>2552233600</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="45" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="46">
-        <v>1</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="51">
+      <c r="H45" s="44">
+        <v>1</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="49">
         <v>44</v>
       </c>
-      <c r="K45" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" s="33" customFormat="1" spans="1:11">
+      <c r="K45" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="31" customFormat="1" spans="1:11">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="40" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="5">
@@ -4246,7 +4234,7 @@
       <c r="G46" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="38">
         <v>1</v>
       </c>
       <c r="I46" s="5">
@@ -4255,15 +4243,15 @@
       <c r="J46" s="21">
         <v>45</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="33" customFormat="1" spans="1:11">
+    <row r="47" s="31" customFormat="1" spans="1:11">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C47" s="5">
@@ -4277,7 +4265,7 @@
       <c r="G47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="38">
         <v>1</v>
       </c>
       <c r="I47" s="5">
@@ -4286,15 +4274,15 @@
       <c r="J47" s="21">
         <v>46</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="33" customFormat="1" spans="1:11">
+    <row r="48" s="31" customFormat="1" spans="1:11">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="5">
@@ -4308,7 +4296,7 @@
       <c r="G48" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="38">
         <v>1</v>
       </c>
       <c r="I48" s="5">
@@ -4317,15 +4305,15 @@
       <c r="J48" s="21">
         <v>47</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="33" customFormat="1" spans="1:11">
+    <row r="49" s="31" customFormat="1" spans="1:11">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="5">
@@ -4339,7 +4327,7 @@
       <c r="G49" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="38">
         <v>1</v>
       </c>
       <c r="I49" s="5">
@@ -4348,15 +4336,15 @@
       <c r="J49" s="21">
         <v>48</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="33" customFormat="1" spans="1:11">
+    <row r="50" s="31" customFormat="1" spans="1:11">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="5">
@@ -4370,7 +4358,7 @@
       <c r="G50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="38">
         <v>1</v>
       </c>
       <c r="I50" s="5">
@@ -4379,15 +4367,15 @@
       <c r="J50" s="21">
         <v>49</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="33" customFormat="1" spans="1:11">
+    <row r="51" s="31" customFormat="1" spans="1:11">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="5">
@@ -4401,7 +4389,7 @@
       <c r="G51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="38">
         <v>1</v>
       </c>
       <c r="I51" s="5">
@@ -4410,21 +4398,21 @@
       <c r="J51" s="21">
         <v>50</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="37">
+      <c r="A52" s="35">
         <v>51</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="35">
         <v>1617062400</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="35">
         <v>1617638399</v>
       </c>
       <c r="G52" s="19" t="s">
@@ -4439,21 +4427,21 @@
       <c r="J52" s="9">
         <v>51</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="37">
+      <c r="A53" s="35">
         <v>52</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="35">
         <v>1617062400</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="35">
         <v>1617638399</v>
       </c>
       <c r="G53" s="19" t="s">
@@ -4468,21 +4456,21 @@
       <c r="J53" s="9">
         <v>52</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="37">
+      <c r="A54" s="35">
         <v>53</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="35">
         <v>1618272000</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="35">
         <v>1618847999</v>
       </c>
       <c r="G54" s="19" t="s">
@@ -4497,50 +4485,50 @@
       <c r="J54" s="9">
         <v>53</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="36" customFormat="1" spans="1:11">
-      <c r="A55" s="36">
+    <row r="55" s="34" customFormat="1" spans="1:11">
+      <c r="A55" s="34">
         <v>54</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="34">
         <v>1619481600</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="34">
         <v>1620662399</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="45">
         <v>1</v>
       </c>
       <c r="I55" s="11">
         <v>40</v>
       </c>
-      <c r="J55" s="47">
+      <c r="J55" s="45">
         <v>54</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="36">
+      <c r="A56" s="34">
         <v>55</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="35">
         <v>1621900800</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="35">
         <v>1622476799</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -4549,27 +4537,27 @@
       <c r="H56" s="9">
         <v>1</v>
       </c>
-      <c r="I56" s="52">
+      <c r="I56" s="9">
         <v>41</v>
       </c>
       <c r="J56" s="9">
         <v>55</v>
       </c>
-      <c r="K56" s="37">
+      <c r="K56" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="37">
+      <c r="A57" s="35">
         <v>56</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="35">
         <v>1622505600</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="35">
         <v>1623081599</v>
       </c>
       <c r="G57" s="27" t="s">
@@ -4578,13 +4566,13 @@
       <c r="H57" s="9">
         <v>1</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="9">
         <v>42</v>
       </c>
       <c r="J57" s="9">
         <v>56</v>
       </c>
-      <c r="K57" s="37">
+      <c r="K57" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4779,10 +4767,10 @@
       <c r="C14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:3">
       <c r="A15" s="5">
@@ -4805,10 +4793,10 @@
       <c r="C16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:3">
       <c r="A17" s="5">
@@ -5019,25 +5007,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" s="30" customFormat="1" spans="1:3">
-      <c r="A36" s="30">
+    <row r="36" s="28" customFormat="1" spans="1:3">
+      <c r="A36" s="28">
         <v>35</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" s="30" customFormat="1" spans="1:3">
-      <c r="A37" s="30">
+    <row r="37" s="28" customFormat="1" spans="1:3">
+      <c r="A37" s="28">
         <v>36</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5119,12 +5107,12 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B342" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B339" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A365" sqref="A365"/>
+      <selection pane="bottomRight" activeCell="F373" sqref="F373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5271,7 +5259,7 @@
       <c r="F5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="50" t="s">
         <v>159</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -5291,7 +5279,7 @@
       <c r="F6" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="50" t="s">
         <v>160</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -5314,7 +5302,7 @@
       <c r="F7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="50" t="s">
         <v>161</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -14335,8 +14323,8 @@
       <c r="D360" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="F360" s="28" t="s">
-        <v>339</v>
+      <c r="F360" s="19" t="s">
+        <v>268</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>319</v>
@@ -14359,7 +14347,7 @@
         <v>308</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>186</v>
@@ -14408,7 +14396,7 @@
         <v>308</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>181</v>
@@ -14430,8 +14418,8 @@
       <c r="D364" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="F364" s="29" t="s">
-        <v>330</v>
+      <c r="F364" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>160</v>
@@ -14460,7 +14448,7 @@
         <v>332</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J365" s="1">
         <v>1</v>
@@ -14493,10 +14481,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14504,7 +14492,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14512,7 +14500,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14596,16 +14584,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14616,7 +14604,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -14630,7 +14618,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -14644,7 +14632,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -14658,7 +14646,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -14672,7 +14660,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -14686,7 +14674,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -14700,7 +14688,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -14714,7 +14702,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -14728,7 +14716,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -14742,7 +14730,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -14756,7 +14744,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -14770,7 +14758,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="353">
   <si>
     <t>id|</t>
   </si>
@@ -1514,9 +1514,6 @@
     <t>42000,</t>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-  </si>
-  <si>
     <t>3000,</t>
   </si>
   <si>
@@ -1610,9 +1607,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1674,6 +1671,71 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1689,6 +1751,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1697,30 +1775,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1734,54 +1791,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1797,21 +1808,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1868,7 +1865,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,157 +2021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,10 +2067,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2108,75 +2164,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2185,133 +2182,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5112,7 +5109,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F373" sqref="F373"/>
+      <selection pane="bottomRight" activeCell="F359" sqref="F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14128,7 +14125,7 @@
         <v>308</v>
       </c>
       <c r="F352" s="22" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>233</v>
@@ -14186,7 +14183,7 @@
         <v>160</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J354" s="1">
         <v>5</v>
@@ -14209,7 +14206,7 @@
         <v>163</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>193</v>
@@ -14232,10 +14229,10 @@
         <v>311</v>
       </c>
       <c r="E356" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="J356" s="1">
         <v>1</v>
@@ -14275,13 +14272,13 @@
         <v>3</v>
       </c>
       <c r="D358" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E358" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E358" s="1" t="s">
+      <c r="H358" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="H358" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="J358" s="1">
         <v>1</v>
@@ -14301,7 +14298,7 @@
         <v>308</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>309</v>
@@ -14347,7 +14344,7 @@
         <v>308</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>186</v>
@@ -14396,7 +14393,7 @@
         <v>308</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>181</v>
@@ -14425,7 +14422,7 @@
         <v>160</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -14445,10 +14442,10 @@
         <v>163</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J365" s="1">
         <v>1</v>
@@ -14481,10 +14478,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14492,7 +14489,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14500,7 +14497,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14584,16 +14581,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14604,7 +14601,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -14618,7 +14615,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -14632,7 +14629,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -14646,7 +14643,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -14660,7 +14657,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -14674,7 +14671,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -14688,7 +14685,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -14702,7 +14699,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -14716,7 +14713,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -14730,7 +14727,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -14744,7 +14741,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -14758,7 +14755,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_debug/activity_exchange_server.xlsx
+++ b/config_debug/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="355">
   <si>
     <t>id|</t>
   </si>
@@ -364,6 +364,9 @@
     <t>六一好礼</t>
   </si>
   <si>
+    <t>西瓜兑奖</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>恭喜您在六一好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在西瓜兑奖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
   </si>
   <si>
     <t>no|行号</t>
@@ -1607,9 +1613,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1670,23 +1676,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,23 +1706,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1731,23 +1737,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,7 +1759,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,14 +1805,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1792,23 +1812,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1865,7 +1871,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,19 +1991,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,79 +2021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,49 +2033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,54 +2073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2132,11 +2090,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2164,16 +2135,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2182,138 +2188,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2455,6 +2461,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2779,12 +2788,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4599,6 +4608,35 @@
         <v>57</v>
       </c>
       <c r="K58" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="35">
+        <v>58</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="35">
+        <v>1624924800</v>
+      </c>
+      <c r="D59" s="35">
+        <v>1625500799</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="50">
+        <v>44</v>
+      </c>
+      <c r="J59" s="9">
+        <v>58</v>
+      </c>
+      <c r="K59" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4613,10 +4651,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4630,13 +4668,13 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>11</v>
@@ -4647,13 +4685,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4661,13 +4699,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4675,13 +4713,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4689,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4703,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4714,7 +4752,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4722,10 +4760,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4733,10 +4771,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:3">
@@ -4744,10 +4782,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:3">
@@ -4755,10 +4793,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:3">
@@ -4769,7 +4807,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:3">
@@ -4780,7 +4818,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:7">
@@ -4791,7 +4829,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -4806,7 +4844,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:7">
@@ -4817,7 +4855,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -4832,7 +4870,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:3">
@@ -4843,7 +4881,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:3">
@@ -4854,7 +4892,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:3">
@@ -4865,7 +4903,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:3">
@@ -4876,7 +4914,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:3">
@@ -4887,7 +4925,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:3">
@@ -4898,7 +4936,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:3">
@@ -4906,10 +4944,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:3">
@@ -4917,10 +4955,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:3">
@@ -4928,10 +4966,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:3">
@@ -4939,10 +4977,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:3">
@@ -4950,10 +4988,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:3">
@@ -4961,10 +4999,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:3">
@@ -4972,10 +5010,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:3">
@@ -4983,10 +5021,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:3">
@@ -4994,10 +5032,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:3">
@@ -5005,10 +5043,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:3">
@@ -5016,10 +5054,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:3">
@@ -5027,10 +5065,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" s="28" customFormat="1" spans="1:3">
@@ -5038,10 +5076,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" s="28" customFormat="1" spans="1:3">
@@ -5049,10 +5087,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>130</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5060,10 +5098,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5071,10 +5109,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5085,7 +5123,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5096,7 +5134,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5107,7 +5145,7 @@
         <v>77</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5118,7 +5156,7 @@
         <v>79</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5129,7 +5167,18 @@
         <v>77</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5142,14 +5191,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:M383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B345" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B363" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F381" sqref="F381"/>
+      <selection pane="bottomRight" activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5169,40 +5218,40 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:13">
       <c r="A1" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>11</v>
@@ -5219,19 +5268,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5245,19 +5294,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5271,13 +5320,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -5294,13 +5343,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5314,13 +5363,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="50" t="s">
         <v>160</v>
       </c>
+      <c r="G6" s="51" t="s">
+        <v>162</v>
+      </c>
       <c r="H6" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -5337,13 +5386,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>163</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -5360,13 +5409,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -5383,16 +5432,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -5409,13 +5458,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -5432,13 +5481,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -5455,14 +5504,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -5479,15 +5528,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -5504,15 +5553,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -5530,13 +5579,13 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
@@ -5554,13 +5603,13 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -5578,13 +5627,13 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -5601,15 +5650,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -5626,15 +5675,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -5651,15 +5700,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -5678,13 +5727,13 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5700,13 +5749,13 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -5725,13 +5774,13 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -5750,13 +5799,13 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -5773,17 +5822,17 @@
         <v>8</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -5800,15 +5849,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
@@ -5825,15 +5874,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J27" s="5">
         <v>1</v>
@@ -5850,15 +5899,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -5875,17 +5924,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:10">
@@ -5899,17 +5948,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J30" s="5">
         <v>3</v>
@@ -5926,17 +5975,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J31" s="5">
         <v>2</v>
@@ -5953,17 +6002,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J32" s="5">
         <v>1</v>
@@ -5980,17 +6029,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J33" s="5">
         <v>1</v>
@@ -6007,15 +6056,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
@@ -6032,15 +6081,15 @@
         <v>2</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -6057,15 +6106,15 @@
         <v>3</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -6082,17 +6131,17 @@
         <v>4</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:10">
@@ -6106,17 +6155,17 @@
         <v>5</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J38" s="5">
         <v>3</v>
@@ -6133,17 +6182,17 @@
         <v>6</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J39" s="5">
         <v>2</v>
@@ -6160,17 +6209,17 @@
         <v>7</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
@@ -6187,17 +6236,17 @@
         <v>8</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
@@ -6214,15 +6263,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
@@ -6239,15 +6288,15 @@
         <v>2</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
@@ -6264,15 +6313,15 @@
         <v>3</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J44" s="5">
         <v>1</v>
@@ -6289,17 +6338,17 @@
         <v>4</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="1" spans="1:10">
@@ -6313,17 +6362,17 @@
         <v>5</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J46" s="5">
         <v>3</v>
@@ -6340,17 +6389,17 @@
         <v>6</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J47" s="5">
         <v>2</v>
@@ -6367,17 +6416,17 @@
         <v>7</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J48" s="5">
         <v>1</v>
@@ -6394,17 +6443,17 @@
         <v>8</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
@@ -6421,15 +6470,15 @@
         <v>1</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J50" s="5">
         <v>1</v>
@@ -6446,15 +6495,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J51" s="5">
         <v>1</v>
@@ -6471,15 +6520,15 @@
         <v>3</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J52" s="5">
         <v>1</v>
@@ -6496,17 +6545,17 @@
         <v>4</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:10">
@@ -6520,17 +6569,17 @@
         <v>5</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J54" s="5">
         <v>3</v>
@@ -6547,17 +6596,17 @@
         <v>6</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J55" s="5">
         <v>2</v>
@@ -6574,17 +6623,17 @@
         <v>7</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J56" s="5">
         <v>1</v>
@@ -6601,17 +6650,17 @@
         <v>8</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J57" s="5">
         <v>1</v>
@@ -6628,15 +6677,15 @@
         <v>1</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J58" s="5">
         <v>1</v>
@@ -6653,15 +6702,15 @@
         <v>2</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J59" s="5">
         <v>1</v>
@@ -6678,15 +6727,15 @@
         <v>3</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -6703,17 +6752,17 @@
         <v>4</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:10">
@@ -6727,17 +6776,17 @@
         <v>5</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J62" s="5">
         <v>3</v>
@@ -6754,17 +6803,17 @@
         <v>6</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J63" s="5">
         <v>2</v>
@@ -6781,17 +6830,17 @@
         <v>7</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J64" s="5">
         <v>1</v>
@@ -6808,17 +6857,17 @@
         <v>8</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J65" s="5">
         <v>1</v>
@@ -6835,15 +6884,15 @@
         <v>1</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J66" s="5">
         <v>1</v>
@@ -6860,15 +6909,15 @@
         <v>2</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J67" s="5">
         <v>1</v>
@@ -6885,15 +6934,15 @@
         <v>3</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J68" s="5">
         <v>1</v>
@@ -6910,17 +6959,17 @@
         <v>4</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" s="5" customFormat="1" spans="1:10">
@@ -6934,17 +6983,17 @@
         <v>5</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J70" s="5">
         <v>3</v>
@@ -6961,17 +7010,17 @@
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J71" s="5">
         <v>2</v>
@@ -6988,17 +7037,17 @@
         <v>7</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J72" s="5">
         <v>1</v>
@@ -7015,17 +7064,17 @@
         <v>8</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J73" s="5">
         <v>1</v>
@@ -7042,15 +7091,15 @@
         <v>1</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J74" s="5">
         <v>1</v>
@@ -7067,15 +7116,15 @@
         <v>2</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J75" s="5">
         <v>1</v>
@@ -7092,15 +7141,15 @@
         <v>3</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J76" s="5">
         <v>1</v>
@@ -7117,17 +7166,17 @@
         <v>4</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" s="5" customFormat="1" spans="1:10">
@@ -7141,17 +7190,17 @@
         <v>5</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J78" s="5">
         <v>3</v>
@@ -7168,17 +7217,17 @@
         <v>6</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J79" s="5">
         <v>2</v>
@@ -7195,17 +7244,17 @@
         <v>7</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J80" s="5">
         <v>1</v>
@@ -7222,17 +7271,17 @@
         <v>8</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J81" s="5">
         <v>1</v>
@@ -7249,15 +7298,15 @@
         <v>1</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J82" s="5">
         <v>1</v>
@@ -7274,15 +7323,15 @@
         <v>2</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J83" s="5">
         <v>1</v>
@@ -7299,15 +7348,15 @@
         <v>3</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J84" s="5">
         <v>1</v>
@@ -7324,17 +7373,17 @@
         <v>4</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" s="5" customFormat="1" spans="1:10">
@@ -7348,17 +7397,17 @@
         <v>5</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J86" s="5">
         <v>3</v>
@@ -7375,17 +7424,17 @@
         <v>6</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J87" s="5">
         <v>2</v>
@@ -7402,17 +7451,17 @@
         <v>7</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J88" s="5">
         <v>1</v>
@@ -7429,17 +7478,17 @@
         <v>8</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J89" s="5">
         <v>1</v>
@@ -7456,15 +7505,15 @@
         <v>1</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J90" s="5">
         <v>1</v>
@@ -7481,15 +7530,15 @@
         <v>2</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J91" s="5">
         <v>1</v>
@@ -7506,15 +7555,15 @@
         <v>3</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J92" s="5">
         <v>1</v>
@@ -7531,17 +7580,17 @@
         <v>4</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" s="5" customFormat="1" spans="1:10">
@@ -7555,17 +7604,17 @@
         <v>5</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J94" s="5">
         <v>3</v>
@@ -7582,17 +7631,17 @@
         <v>6</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J95" s="5">
         <v>2</v>
@@ -7609,17 +7658,17 @@
         <v>7</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E96" s="17"/>
       <c r="F96" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J96" s="5">
         <v>1</v>
@@ -7636,17 +7685,17 @@
         <v>8</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J97" s="5">
         <v>1</v>
@@ -7663,15 +7712,15 @@
         <v>1</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
       <c r="H98" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J98" s="5">
         <v>1</v>
@@ -7688,15 +7737,15 @@
         <v>2</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J99" s="5">
         <v>1</v>
@@ -7713,15 +7762,15 @@
         <v>3</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J100" s="5">
         <v>1</v>
@@ -7738,17 +7787,17 @@
         <v>4</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" s="5" customFormat="1" spans="1:10">
@@ -7762,17 +7811,17 @@
         <v>5</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J102" s="5">
         <v>3</v>
@@ -7789,17 +7838,17 @@
         <v>6</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J103" s="5">
         <v>2</v>
@@ -7816,17 +7865,17 @@
         <v>7</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J104" s="5">
         <v>1</v>
@@ -7843,17 +7892,17 @@
         <v>8</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J105" s="5">
         <v>1</v>
@@ -7870,15 +7919,15 @@
         <v>1</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J106" s="5">
         <v>1</v>
@@ -7895,15 +7944,15 @@
         <v>2</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J107" s="5">
         <v>1</v>
@@ -7920,15 +7969,15 @@
         <v>3</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J108" s="5">
         <v>1</v>
@@ -7945,17 +7994,17 @@
         <v>4</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -7969,17 +8018,17 @@
         <v>5</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J110" s="5">
         <v>3</v>
@@ -7996,17 +8045,17 @@
         <v>6</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J111" s="5">
         <v>2</v>
@@ -8023,17 +8072,17 @@
         <v>7</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J112" s="5">
         <v>1</v>
@@ -8050,17 +8099,17 @@
         <v>8</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G113" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G113" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H113" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J113" s="5">
         <v>1</v>
@@ -8077,15 +8126,15 @@
         <v>1</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
       <c r="H114" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J114" s="5">
         <v>1</v>
@@ -8102,15 +8151,15 @@
         <v>2</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
       <c r="H115" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J115" s="5">
         <v>1</v>
@@ -8127,15 +8176,15 @@
         <v>3</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
       <c r="H116" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J116" s="5">
         <v>1</v>
@@ -8152,17 +8201,17 @@
         <v>4</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" s="5" customFormat="1" spans="1:10">
@@ -8176,17 +8225,17 @@
         <v>5</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J118" s="5">
         <v>3</v>
@@ -8203,17 +8252,17 @@
         <v>6</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J119" s="5">
         <v>2</v>
@@ -8230,17 +8279,17 @@
         <v>7</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J120" s="5">
         <v>1</v>
@@ -8257,17 +8306,17 @@
         <v>8</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J121" s="5">
         <v>1</v>
@@ -8284,15 +8333,15 @@
         <v>1</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F122" s="18"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J122" s="5">
         <v>1</v>
@@ -8309,15 +8358,15 @@
         <v>2</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J123" s="5">
         <v>1</v>
@@ -8334,14 +8383,14 @@
         <v>3</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G124" s="18"/>
       <c r="H124" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J124" s="5">
         <v>1</v>
@@ -8358,17 +8407,17 @@
         <v>4</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E125" s="17"/>
       <c r="F125" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -8382,17 +8431,17 @@
         <v>5</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J126" s="5">
         <v>3</v>
@@ -8409,17 +8458,17 @@
         <v>6</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E127" s="17"/>
       <c r="F127" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J127" s="5">
         <v>2</v>
@@ -8436,17 +8485,17 @@
         <v>7</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E128" s="17"/>
       <c r="F128" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J128" s="5">
         <v>1</v>
@@ -8463,17 +8512,17 @@
         <v>8</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E129" s="17"/>
       <c r="F129" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G129" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G129" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H129" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J129" s="5">
         <v>1</v>
@@ -8490,15 +8539,15 @@
         <v>1</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F130" s="18"/>
       <c r="G130" s="18"/>
       <c r="H130" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J130" s="5">
         <v>1</v>
@@ -8515,15 +8564,15 @@
         <v>2</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
       <c r="H131" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J131" s="5">
         <v>1</v>
@@ -8540,15 +8589,15 @@
         <v>3</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="18"/>
       <c r="H132" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J132" s="5">
         <v>1</v>
@@ -8565,17 +8614,17 @@
         <v>4</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E133" s="17"/>
       <c r="F133" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" s="5" customFormat="1" spans="1:10">
@@ -8589,17 +8638,17 @@
         <v>5</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E134" s="17"/>
       <c r="F134" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J134" s="5">
         <v>3</v>
@@ -8616,17 +8665,17 @@
         <v>6</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E135" s="17"/>
       <c r="F135" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J135" s="5">
         <v>2</v>
@@ -8643,17 +8692,17 @@
         <v>7</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E136" s="17"/>
       <c r="F136" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J136" s="5">
         <v>1</v>
@@ -8670,17 +8719,17 @@
         <v>8</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E137" s="17"/>
       <c r="F137" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J137" s="5">
         <v>1</v>
@@ -8697,15 +8746,15 @@
         <v>1</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F138" s="18"/>
       <c r="G138" s="18"/>
       <c r="H138" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J138" s="5">
         <v>1</v>
@@ -8722,15 +8771,15 @@
         <v>2</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
       <c r="H139" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J139" s="5">
         <v>1</v>
@@ -8747,14 +8796,14 @@
         <v>3</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G140" s="18"/>
       <c r="H140" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J140" s="5">
         <v>1</v>
@@ -8771,17 +8820,17 @@
         <v>4</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E141" s="17"/>
       <c r="F141" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -8795,17 +8844,17 @@
         <v>5</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E142" s="17"/>
       <c r="F142" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J142" s="5">
         <v>3</v>
@@ -8822,17 +8871,17 @@
         <v>6</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E143" s="17"/>
       <c r="F143" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J143" s="5">
         <v>2</v>
@@ -8849,17 +8898,17 @@
         <v>7</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E144" s="17"/>
       <c r="F144" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J144" s="5">
         <v>1</v>
@@ -8876,17 +8925,17 @@
         <v>8</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E145" s="17"/>
       <c r="F145" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G145" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G145" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H145" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J145" s="5">
         <v>1</v>
@@ -8903,15 +8952,15 @@
         <v>1</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F146" s="18"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J146" s="5">
         <v>1</v>
@@ -8928,15 +8977,15 @@
         <v>2</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
       <c r="H147" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J147" s="5">
         <v>1</v>
@@ -8953,15 +9002,15 @@
         <v>3</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="18"/>
       <c r="H148" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J148" s="5">
         <v>1</v>
@@ -8978,17 +9027,17 @@
         <v>4</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E149" s="17"/>
       <c r="F149" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" s="5" customFormat="1" spans="1:10">
@@ -9002,17 +9051,17 @@
         <v>5</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E150" s="17"/>
       <c r="F150" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J150" s="5">
         <v>3</v>
@@ -9029,17 +9078,17 @@
         <v>6</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E151" s="17"/>
       <c r="F151" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J151" s="5">
         <v>2</v>
@@ -9056,17 +9105,17 @@
         <v>7</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E152" s="17"/>
       <c r="F152" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J152" s="5">
         <v>1</v>
@@ -9083,17 +9132,17 @@
         <v>8</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E153" s="17"/>
       <c r="F153" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J153" s="5">
         <v>1</v>
@@ -9110,17 +9159,17 @@
         <v>1</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E154" s="17"/>
       <c r="F154" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J154" s="5">
         <v>9999</v>
@@ -9137,17 +9186,17 @@
         <v>1</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E155" s="17"/>
       <c r="F155" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J155" s="5">
         <v>9999</v>
@@ -9164,17 +9213,17 @@
         <v>1</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E156" s="17"/>
       <c r="F156" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J156" s="5">
         <v>9999</v>
@@ -9191,17 +9240,17 @@
         <v>1</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E157" s="17"/>
       <c r="F157" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J157" s="5">
         <v>9999</v>
@@ -9218,17 +9267,17 @@
         <v>1</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E158" s="17"/>
       <c r="F158" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J158" s="5">
         <v>9999</v>
@@ -9245,17 +9294,17 @@
         <v>1</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E159" s="17"/>
       <c r="F159" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G159" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H159" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="J159" s="5">
         <v>9999</v>
@@ -9272,17 +9321,17 @@
         <v>1</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E160" s="17"/>
       <c r="F160" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J160" s="5">
         <v>9999</v>
@@ -9299,17 +9348,17 @@
         <v>1</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E161" s="17"/>
       <c r="F161" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J161" s="5">
         <v>9999</v>
@@ -9326,17 +9375,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E162" s="17"/>
       <c r="F162" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J162" s="5">
         <v>9999</v>
@@ -9353,15 +9402,15 @@
         <v>1</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
       <c r="H163" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J163" s="5">
         <v>1</v>
@@ -9378,15 +9427,15 @@
         <v>2</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J164" s="5">
         <v>1</v>
@@ -9403,14 +9452,14 @@
         <v>3</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G165" s="18"/>
       <c r="H165" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J165" s="5">
         <v>1</v>
@@ -9427,17 +9476,17 @@
         <v>4</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E166" s="17"/>
       <c r="F166" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -9451,17 +9500,17 @@
         <v>5</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E167" s="17"/>
       <c r="F167" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J167" s="5">
         <v>3</v>
@@ -9478,17 +9527,17 @@
         <v>6</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E168" s="17"/>
       <c r="F168" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J168" s="5">
         <v>2</v>
@@ -9505,17 +9554,17 @@
         <v>7</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E169" s="17"/>
       <c r="F169" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J169" s="5">
         <v>1</v>
@@ -9532,17 +9581,17 @@
         <v>8</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E170" s="17"/>
       <c r="F170" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G170" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G170" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H170" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J170" s="5">
         <v>1</v>
@@ -9559,15 +9608,15 @@
         <v>1</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J171" s="5">
         <v>1</v>
@@ -9584,15 +9633,15 @@
         <v>2</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F172" s="18"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J172" s="5">
         <v>1</v>
@@ -9609,15 +9658,15 @@
         <v>3</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
       <c r="H173" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J173" s="5">
         <v>1</v>
@@ -9634,17 +9683,17 @@
         <v>4</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E174" s="17"/>
       <c r="F174" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" s="5" customFormat="1" spans="1:10">
@@ -9658,17 +9707,17 @@
         <v>5</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E175" s="17"/>
       <c r="F175" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J175" s="5">
         <v>3</v>
@@ -9685,17 +9734,17 @@
         <v>6</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E176" s="17"/>
       <c r="F176" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J176" s="5">
         <v>2</v>
@@ -9712,17 +9761,17 @@
         <v>7</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E177" s="17"/>
       <c r="F177" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J177" s="5">
         <v>1</v>
@@ -9739,17 +9788,17 @@
         <v>8</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E178" s="17"/>
       <c r="F178" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J178" s="5">
         <v>1</v>
@@ -9766,15 +9815,15 @@
         <v>1</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J179" s="5">
         <v>1</v>
@@ -9791,15 +9840,15 @@
         <v>2</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F180" s="18"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J180" s="5">
         <v>1</v>
@@ -9816,14 +9865,14 @@
         <v>3</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J181" s="5">
         <v>1</v>
@@ -9840,17 +9889,17 @@
         <v>4</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E182" s="17"/>
       <c r="F182" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G182" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -9864,17 +9913,17 @@
         <v>5</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E183" s="17"/>
       <c r="F183" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J183" s="5">
         <v>3</v>
@@ -9891,17 +9940,17 @@
         <v>6</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E184" s="17"/>
       <c r="F184" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G184" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J184" s="5">
         <v>2</v>
@@ -9918,17 +9967,17 @@
         <v>7</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E185" s="17"/>
       <c r="F185" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J185" s="5">
         <v>1</v>
@@ -9945,17 +9994,17 @@
         <v>8</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E186" s="17"/>
       <c r="F186" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G186" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G186" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H186" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J186" s="5">
         <v>1</v>
@@ -9972,15 +10021,15 @@
         <v>1</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
       <c r="H187" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J187" s="5">
         <v>1</v>
@@ -9997,15 +10046,15 @@
         <v>2</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F188" s="18"/>
       <c r="G188" s="18"/>
       <c r="H188" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J188" s="5">
         <v>1</v>
@@ -10022,15 +10071,15 @@
         <v>3</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J189" s="5">
         <v>1</v>
@@ -10047,17 +10096,17 @@
         <v>4</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G190" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="191" s="5" customFormat="1" spans="1:10">
@@ -10071,17 +10120,17 @@
         <v>5</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H191" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J191" s="5">
         <v>3</v>
@@ -10098,17 +10147,17 @@
         <v>6</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E192" s="17"/>
       <c r="F192" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G192" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H192" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J192" s="5">
         <v>2</v>
@@ -10125,17 +10174,17 @@
         <v>7</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G193" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H193" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J193" s="5">
         <v>1</v>
@@ -10152,17 +10201,17 @@
         <v>8</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E194" s="17"/>
       <c r="F194" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G194" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H194" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J194" s="5">
         <v>1</v>
@@ -10179,15 +10228,15 @@
         <v>2</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
       <c r="H195" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J195" s="5">
         <v>1</v>
@@ -10204,15 +10253,15 @@
         <v>4</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F196" s="18"/>
       <c r="G196" s="18"/>
       <c r="H196" s="18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J196" s="5">
         <v>1</v>
@@ -10229,17 +10278,17 @@
         <v>6</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E197" s="17"/>
       <c r="F197" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H197" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J197" s="5">
         <v>1</v>
@@ -10256,17 +10305,17 @@
         <v>1</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E198" s="17"/>
       <c r="F198" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G198" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -10280,17 +10329,17 @@
         <v>3</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E199" s="17"/>
       <c r="F199" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H199" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J199" s="5">
         <v>3</v>
@@ -10307,17 +10356,17 @@
         <v>5</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E200" s="17"/>
       <c r="F200" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G200" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H200" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J200" s="5">
         <v>2</v>
@@ -10334,17 +10383,17 @@
         <v>7</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E201" s="17"/>
       <c r="F201" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G201" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H201" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J201" s="5">
         <v>1</v>
@@ -10361,17 +10410,17 @@
         <v>8</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E202" s="17"/>
       <c r="F202" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G202" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G202" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H202" s="18" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J202" s="5">
         <v>1</v>
@@ -10388,15 +10437,15 @@
         <v>2</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
       <c r="H203" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J203" s="5">
         <v>1</v>
@@ -10413,15 +10462,15 @@
         <v>4</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F204" s="18"/>
       <c r="G204" s="18"/>
       <c r="H204" s="18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J204" s="5">
         <v>1</v>
@@ -10438,17 +10487,17 @@
         <v>6</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E205" s="17"/>
       <c r="F205" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J205" s="5">
         <v>1</v>
@@ -10465,17 +10514,17 @@
         <v>1</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E206" s="17"/>
       <c r="F206" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G206" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207" s="5" customFormat="1" spans="1:10">
@@ -10489,17 +10538,17 @@
         <v>3</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E207" s="17"/>
       <c r="F207" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G207" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H207" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J207" s="5">
         <v>3</v>
@@ -10516,17 +10565,17 @@
         <v>5</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E208" s="17"/>
       <c r="F208" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G208" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H208" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J208" s="5">
         <v>2</v>
@@ -10543,17 +10592,17 @@
         <v>7</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E209" s="17"/>
       <c r="F209" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H209" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J209" s="5">
         <v>1</v>
@@ -10570,17 +10619,17 @@
         <v>8</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E210" s="17"/>
       <c r="F210" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G210" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J210" s="5">
         <v>1</v>
@@ -10597,17 +10646,17 @@
         <v>1</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E211" s="17"/>
       <c r="F211" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H211" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J211" s="5">
         <v>9999</v>
@@ -10624,17 +10673,17 @@
         <v>2</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E212" s="17"/>
       <c r="F212" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G212" s="18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H212" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J212" s="5">
         <v>9999</v>
@@ -10651,17 +10700,17 @@
         <v>3</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E213" s="17"/>
       <c r="F213" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G213" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H213" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J213" s="5">
         <v>9999</v>
@@ -10678,17 +10727,17 @@
         <v>1</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E214" s="17"/>
       <c r="F214" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G214" s="18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J214" s="5">
         <v>9999</v>
@@ -10705,17 +10754,17 @@
         <v>2</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E215" s="17"/>
       <c r="F215" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G215" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J215" s="5">
         <v>9999</v>
@@ -10732,17 +10781,17 @@
         <v>3</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E216" s="17"/>
       <c r="F216" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G216" s="18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J216" s="5">
         <v>9999</v>
@@ -10759,17 +10808,17 @@
         <v>1</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E217" s="17"/>
       <c r="F217" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G217" s="18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J217" s="5">
         <v>9999</v>
@@ -10786,17 +10835,17 @@
         <v>2</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E218" s="17"/>
       <c r="F218" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G218" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H218" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="H218" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="J218" s="5">
         <v>9999</v>
@@ -10813,17 +10862,17 @@
         <v>3</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E219" s="17"/>
       <c r="F219" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G219" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J219" s="5">
         <v>9999</v>
@@ -10840,15 +10889,15 @@
         <v>1</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F220" s="18"/>
       <c r="G220" s="18"/>
       <c r="H220" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J220" s="5">
         <v>1</v>
@@ -10865,15 +10914,15 @@
         <v>2</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F221" s="18"/>
       <c r="G221" s="18"/>
       <c r="H221" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J221" s="5">
         <v>1</v>
@@ -10890,14 +10939,14 @@
         <v>3</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G222" s="18"/>
       <c r="H222" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J222" s="5">
         <v>1</v>
@@ -10914,17 +10963,17 @@
         <v>4</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E223" s="17"/>
       <c r="F223" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G223" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H223" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -10938,17 +10987,17 @@
         <v>5</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E224" s="17"/>
       <c r="F224" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G224" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H224" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J224" s="5">
         <v>3</v>
@@ -10965,17 +11014,17 @@
         <v>6</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E225" s="17"/>
       <c r="F225" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G225" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H225" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J225" s="5">
         <v>2</v>
@@ -10992,17 +11041,17 @@
         <v>7</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E226" s="17"/>
       <c r="F226" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G226" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H226" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J226" s="5">
         <v>1</v>
@@ -11019,17 +11068,17 @@
         <v>8</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E227" s="17"/>
       <c r="F227" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G227" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G227" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H227" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J227" s="5">
         <v>1</v>
@@ -11046,15 +11095,15 @@
         <v>1</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F228" s="18"/>
       <c r="G228" s="18"/>
       <c r="H228" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J228" s="5">
         <v>1</v>
@@ -11071,15 +11120,15 @@
         <v>2</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F229" s="18"/>
       <c r="G229" s="18"/>
       <c r="H229" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J229" s="5">
         <v>1</v>
@@ -11096,15 +11145,15 @@
         <v>3</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F230" s="18"/>
       <c r="G230" s="18"/>
       <c r="H230" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J230" s="5">
         <v>1</v>
@@ -11121,17 +11170,17 @@
         <v>4</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E231" s="17"/>
       <c r="F231" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G231" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="232" s="5" customFormat="1" spans="1:10">
@@ -11145,17 +11194,17 @@
         <v>5</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E232" s="17"/>
       <c r="F232" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G232" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H232" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J232" s="5">
         <v>3</v>
@@ -11172,17 +11221,17 @@
         <v>6</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E233" s="17"/>
       <c r="F233" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G233" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H233" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J233" s="5">
         <v>2</v>
@@ -11199,17 +11248,17 @@
         <v>7</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E234" s="17"/>
       <c r="F234" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G234" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H234" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J234" s="5">
         <v>1</v>
@@ -11226,17 +11275,17 @@
         <v>8</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E235" s="17"/>
       <c r="F235" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G235" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J235" s="5">
         <v>1</v>
@@ -11253,15 +11302,15 @@
         <v>1</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F236" s="18"/>
       <c r="G236" s="18"/>
       <c r="H236" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J236" s="5">
         <v>1</v>
@@ -11278,15 +11327,15 @@
         <v>2</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F237" s="18"/>
       <c r="G237" s="18"/>
       <c r="H237" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J237" s="5">
         <v>1</v>
@@ -11303,14 +11352,14 @@
         <v>3</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G238" s="18"/>
       <c r="H238" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J238" s="5">
         <v>1</v>
@@ -11327,17 +11376,17 @@
         <v>4</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E239" s="17"/>
       <c r="F239" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G239" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="240" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -11351,17 +11400,17 @@
         <v>5</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E240" s="17"/>
       <c r="F240" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G240" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H240" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J240" s="5">
         <v>3</v>
@@ -11378,17 +11427,17 @@
         <v>6</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E241" s="17"/>
       <c r="F241" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H241" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J241" s="5">
         <v>2</v>
@@ -11405,17 +11454,17 @@
         <v>7</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E242" s="17"/>
       <c r="F242" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G242" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H242" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J242" s="5">
         <v>1</v>
@@ -11432,17 +11481,17 @@
         <v>8</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E243" s="17"/>
       <c r="F243" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G243" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G243" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H243" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J243" s="5">
         <v>1</v>
@@ -11459,15 +11508,15 @@
         <v>1</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F244" s="18"/>
       <c r="G244" s="18"/>
       <c r="H244" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J244" s="5">
         <v>1</v>
@@ -11484,15 +11533,15 @@
         <v>2</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F245" s="18"/>
       <c r="G245" s="18"/>
       <c r="H245" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J245" s="5">
         <v>1</v>
@@ -11509,15 +11558,15 @@
         <v>3</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F246" s="18"/>
       <c r="G246" s="18"/>
       <c r="H246" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J246" s="5">
         <v>1</v>
@@ -11534,17 +11583,17 @@
         <v>4</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E247" s="17"/>
       <c r="F247" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G247" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248" s="5" customFormat="1" spans="1:10">
@@ -11558,17 +11607,17 @@
         <v>5</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E248" s="17"/>
       <c r="F248" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G248" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J248" s="5">
         <v>3</v>
@@ -11585,17 +11634,17 @@
         <v>6</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E249" s="17"/>
       <c r="F249" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G249" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H249" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J249" s="5">
         <v>2</v>
@@ -11612,17 +11661,17 @@
         <v>7</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E250" s="17"/>
       <c r="F250" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G250" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J250" s="5">
         <v>1</v>
@@ -11639,17 +11688,17 @@
         <v>8</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E251" s="17"/>
       <c r="F251" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J251" s="5">
         <v>1</v>
@@ -11666,16 +11715,16 @@
         <v>1</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G252" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H252" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="253" s="10" customFormat="1" spans="1:8">
@@ -11689,16 +11738,16 @@
         <v>2</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H253" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" s="10" customFormat="1" spans="1:8">
@@ -11712,16 +11761,16 @@
         <v>3</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F254" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="G254" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="H254" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="G254" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="H254" s="23" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="255" s="10" customFormat="1" spans="1:8">
@@ -11735,16 +11784,16 @@
         <v>4</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F255" s="23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G255" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H255" s="23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="256" s="10" customFormat="1" spans="1:8">
@@ -11758,16 +11807,16 @@
         <v>5</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F256" s="23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G256" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H256" s="23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="257" s="10" customFormat="1" spans="1:8">
@@ -11781,16 +11830,16 @@
         <v>6</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F257" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G257" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H257" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="G257" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="H257" s="23" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="258" s="10" customFormat="1" spans="1:8">
@@ -11804,16 +11853,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F258" s="23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G258" s="23" t="s">
-        <v>215</v>
+        <v>217</v>